--- a/Word_List.xlsx
+++ b/Word_List.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ishan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ishan\Desktop\Git\Words\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD757C7-877D-4734-8767-FBE53BC7DA52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22F3041-3422-4A19-82CB-DD6D759024E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" xr2:uid="{CD0CF8ED-F069-428D-9EBB-C949E843A76D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="1478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1917" uniqueCount="1500">
   <si>
     <t>S.no:</t>
   </si>
@@ -4460,6 +4460,72 @@
   </si>
   <si>
     <t>The actor gave a lackluster performance in his latest film</t>
+  </si>
+  <si>
+    <t>tantamount</t>
+  </si>
+  <si>
+    <t>Equivalent in effect or value</t>
+  </si>
+  <si>
+    <t>commensurate, identical,  synonymous</t>
+  </si>
+  <si>
+    <t>different, opposite</t>
+  </si>
+  <si>
+    <t>By the end of his regime, the president had become so  insecure, that even a mild disagreement would  tantamount to being disloyal.</t>
+  </si>
+  <si>
+    <t>solicitous</t>
+  </si>
+  <si>
+    <t>being very concerned for somebody and  wanting to make sure that they are comfortable,</t>
+  </si>
+  <si>
+    <t>well or happy</t>
+  </si>
+  <si>
+    <t>attentive, considerate, kind</t>
+  </si>
+  <si>
+    <t>inconsiderate, indifferent,  unconcerned</t>
+  </si>
+  <si>
+    <t>The old woman, thinking of her long missing grandson,  was extremely solicitous about his young friend , who</t>
+  </si>
+  <si>
+    <t>came to stay with her as she was alone.</t>
+  </si>
+  <si>
+    <t>mendacious</t>
+  </si>
+  <si>
+    <t>Tending to cheat,  mislead or steal</t>
+  </si>
+  <si>
+    <t>deceitful, deceptive, fraudulent,  insincere, untruthful</t>
+  </si>
+  <si>
+    <t>honest, loyal, trustworthy,  truthful, upright</t>
+  </si>
+  <si>
+    <t>Natively mendacious, the man could not be trusted with  even the least amount of money.</t>
+  </si>
+  <si>
+    <t>jettison</t>
+  </si>
+  <si>
+    <t>i)To drop (something) from a moving ship,  airplane, etc. ii)To get rid of  (something/somebody) that you no longer need  or want.</t>
+  </si>
+  <si>
+    <t>eject, reject, scrap, unload</t>
+  </si>
+  <si>
+    <t>carry, overload, pack</t>
+  </si>
+  <si>
+    <t>Some airlines are strict about the baggage limit; if by  chance it is missed during check-in, the excess may be  jettisoned.</t>
   </si>
 </sst>
 </file>
@@ -4599,7 +4665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4745,59 +4811,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="13"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="12"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="11"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4832,44 +4856,8 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="11"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="11"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
@@ -4880,20 +4868,104 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="8"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="11"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="11"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5209,10 +5281,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E15CDF-6253-4385-A261-19345D5A55AB}">
-  <dimension ref="A1:G303"/>
+  <dimension ref="A1:G308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
-      <selection activeCell="A262" sqref="A262:G282"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="C151" sqref="C151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5642,38 +5714,38 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="51">
+      <c r="A19" s="95">
         <v>18</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="93" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="49" t="s">
+      <c r="E19" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="F19" s="49" t="s">
+      <c r="F19" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="G19" s="49" t="s">
+      <c r="G19" s="93" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="52"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="50"/>
+      <c r="A20" s="96"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="94"/>
       <c r="D20" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
     </row>
     <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
@@ -6124,48 +6196,48 @@
       </c>
     </row>
     <row r="41" spans="1:7" s="22" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="51">
+      <c r="A41" s="95">
         <v>38</v>
       </c>
-      <c r="B41" s="53" t="s">
+      <c r="B41" s="97" t="s">
         <v>197</v>
       </c>
-      <c r="C41" s="49" t="s">
+      <c r="C41" s="93" t="s">
         <v>25</v>
       </c>
       <c r="D41" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="E41" s="49" t="s">
+      <c r="E41" s="93" t="s">
         <v>199</v>
       </c>
-      <c r="F41" s="49" t="s">
+      <c r="F41" s="93" t="s">
         <v>200</v>
       </c>
-      <c r="G41" s="49" t="s">
+      <c r="G41" s="93" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="22" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A42" s="52">
+      <c r="A42" s="96">
         <v>39</v>
       </c>
-      <c r="B42" s="54" t="s">
+      <c r="B42" s="98" t="s">
         <v>202</v>
       </c>
-      <c r="C42" s="50" t="s">
+      <c r="C42" s="94" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="27" t="s">
         <v>692</v>
       </c>
-      <c r="E42" s="50" t="s">
+      <c r="E42" s="94" t="s">
         <v>203</v>
       </c>
-      <c r="F42" s="50" t="s">
+      <c r="F42" s="94" t="s">
         <v>204</v>
       </c>
-      <c r="G42" s="50" t="s">
+      <c r="G42" s="94" t="s">
         <v>205</v>
       </c>
     </row>
@@ -6308,38 +6380,38 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="51">
+      <c r="A49" s="95">
         <v>46</v>
       </c>
-      <c r="B49" s="53" t="s">
+      <c r="B49" s="97" t="s">
         <v>236</v>
       </c>
-      <c r="C49" s="49" t="s">
+      <c r="C49" s="93" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="E49" s="49" t="s">
+      <c r="E49" s="93" t="s">
         <v>239</v>
       </c>
-      <c r="F49" s="49" t="s">
+      <c r="F49" s="93" t="s">
         <v>240</v>
       </c>
-      <c r="G49" s="49" t="s">
+      <c r="G49" s="93" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="52"/>
-      <c r="B50" s="54"/>
-      <c r="C50" s="50"/>
+      <c r="A50" s="96"/>
+      <c r="B50" s="98"/>
+      <c r="C50" s="94"/>
       <c r="D50" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="E50" s="50"/>
-      <c r="F50" s="50"/>
-      <c r="G50" s="50"/>
+      <c r="E50" s="94"/>
+      <c r="F50" s="94"/>
+      <c r="G50" s="94"/>
     </row>
     <row r="51" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
@@ -6917,38 +6989,38 @@
       </c>
     </row>
     <row r="76" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A76" s="51">
+      <c r="A76" s="95">
         <v>72</v>
       </c>
-      <c r="B76" s="53" t="s">
+      <c r="B76" s="97" t="s">
         <v>367</v>
       </c>
-      <c r="C76" s="49" t="s">
+      <c r="C76" s="93" t="s">
         <v>8</v>
       </c>
       <c r="D76" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="E76" s="49" t="s">
+      <c r="E76" s="93" t="s">
         <v>370</v>
       </c>
-      <c r="F76" s="49" t="s">
+      <c r="F76" s="93" t="s">
         <v>371</v>
       </c>
-      <c r="G76" s="49" t="s">
+      <c r="G76" s="93" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="52"/>
-      <c r="B77" s="54"/>
-      <c r="C77" s="50"/>
+      <c r="A77" s="96"/>
+      <c r="B77" s="98"/>
+      <c r="C77" s="94"/>
       <c r="D77" s="27" t="s">
         <v>369</v>
       </c>
-      <c r="E77" s="50"/>
-      <c r="F77" s="50"/>
-      <c r="G77" s="50"/>
+      <c r="E77" s="94"/>
+      <c r="F77" s="94"/>
+      <c r="G77" s="94"/>
     </row>
     <row r="78" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
@@ -8514,3612 +8586,3686 @@
         <v>713</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>714</v>
+        <v>1478</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>715</v>
-      </c>
-      <c r="E146" s="5" t="s">
-        <v>716</v>
+        <v>1479</v>
+      </c>
+      <c r="E146" s="21" t="s">
+        <v>1480</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>717</v>
-      </c>
-      <c r="G146" s="17" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A147" s="2">
-        <v>147</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>720</v>
-      </c>
-      <c r="E147" s="4" t="s">
-        <v>721</v>
-      </c>
-      <c r="F147" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="G147" s="4" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A148" s="2">
-        <v>148</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D148" s="63" t="s">
-        <v>725</v>
-      </c>
-      <c r="E148" s="17" t="s">
-        <v>726</v>
-      </c>
-      <c r="F148" s="5" t="s">
-        <v>727</v>
-      </c>
-      <c r="G148" s="14" t="s">
-        <v>728</v>
+        <v>1481</v>
+      </c>
+      <c r="G146" s="5" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A147" s="71">
+        <v>143</v>
+      </c>
+      <c r="B147" s="73" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C147" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="D147" s="49" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E147" s="69" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F147" s="77" t="s">
+        <v>1487</v>
+      </c>
+      <c r="G147" s="49" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="72"/>
+      <c r="B148" s="74"/>
+      <c r="C148" s="70"/>
+      <c r="D148" s="50" t="s">
+        <v>1485</v>
+      </c>
+      <c r="E148" s="70"/>
+      <c r="F148" s="78"/>
+      <c r="G148" s="50" t="s">
+        <v>1489</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>729</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D149" s="20" t="s">
-        <v>730</v>
-      </c>
-      <c r="E149" s="20" t="s">
-        <v>731</v>
-      </c>
-      <c r="F149" s="20" t="s">
-        <v>732</v>
-      </c>
-      <c r="G149" s="37" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+        <v>1490</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E149" s="14" t="s">
+        <v>1492</v>
+      </c>
+      <c r="F149" s="30" t="s">
+        <v>1493</v>
+      </c>
+      <c r="G149" s="21" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>734</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D150" s="64" t="s">
-        <v>735</v>
-      </c>
-      <c r="E150" s="5" t="s">
-        <v>736</v>
-      </c>
-      <c r="F150" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="G150" s="5" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+        <v>1495</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>1496</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>1498</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D151" s="47" t="s">
-        <v>740</v>
-      </c>
-      <c r="E151" s="10" t="s">
-        <v>741</v>
-      </c>
-      <c r="F151" s="9" t="s">
-        <v>742</v>
-      </c>
-      <c r="G151" s="47" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+        <v>714</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="G151" s="17" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D152" s="16" t="s">
-        <v>744</v>
-      </c>
-      <c r="E152" s="5" t="s">
-        <v>745</v>
-      </c>
-      <c r="F152" s="5" t="s">
-        <v>746</v>
-      </c>
-      <c r="G152" s="14" t="s">
-        <v>747</v>
+        <v>719</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>748</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D153" s="4" t="s">
-        <v>749</v>
-      </c>
-      <c r="E153" s="4" t="s">
-        <v>750</v>
-      </c>
-      <c r="F153" s="9" t="s">
-        <v>751</v>
-      </c>
-      <c r="G153" s="12" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+        <v>724</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D153" s="51" t="s">
+        <v>725</v>
+      </c>
+      <c r="E153" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="G153" s="14" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>753</v>
-      </c>
-      <c r="C154" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D154" s="5" t="s">
-        <v>754</v>
-      </c>
-      <c r="E154" s="21" t="s">
-        <v>755</v>
-      </c>
-      <c r="F154" s="14" t="s">
-        <v>756</v>
-      </c>
-      <c r="G154" s="7" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+        <v>729</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D154" s="20" t="s">
+        <v>730</v>
+      </c>
+      <c r="E154" s="20" t="s">
+        <v>731</v>
+      </c>
+      <c r="F154" s="20" t="s">
+        <v>732</v>
+      </c>
+      <c r="G154" s="37" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>758</v>
-      </c>
-      <c r="C155" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D155" s="4" t="s">
-        <v>759</v>
-      </c>
-      <c r="E155" s="9" t="s">
-        <v>760</v>
-      </c>
-      <c r="F155" s="4" t="s">
-        <v>761</v>
-      </c>
-      <c r="G155" s="4" t="s">
-        <v>762</v>
+        <v>734</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D155" s="52" t="s">
+        <v>735</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="G155" s="5" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D156" s="21" t="s">
-        <v>764</v>
-      </c>
-      <c r="E156" s="8" t="s">
-        <v>765</v>
-      </c>
-      <c r="F156" s="8" t="s">
-        <v>766</v>
-      </c>
-      <c r="G156" s="6" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+        <v>739</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D156" s="47" t="s">
+        <v>740</v>
+      </c>
+      <c r="E156" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="F156" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="G156" s="47" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>768</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D157" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="E157" s="18" t="s">
-        <v>770</v>
-      </c>
-      <c r="F157" s="20" t="s">
-        <v>771</v>
-      </c>
-      <c r="G157" s="18" t="s">
-        <v>772</v>
+        <v>111</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D157" s="16" t="s">
+        <v>744</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="G157" s="14" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>773</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D158" s="5" t="s">
-        <v>774</v>
-      </c>
-      <c r="E158" s="21" t="s">
-        <v>775</v>
-      </c>
-      <c r="F158" s="14" t="s">
-        <v>776</v>
-      </c>
-      <c r="G158" s="13" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+        <v>748</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="F158" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="G158" s="12" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="C159" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D159" s="48" t="s">
-        <v>779</v>
-      </c>
-      <c r="E159" s="18" t="s">
-        <v>780</v>
-      </c>
-      <c r="F159" s="37" t="s">
-        <v>781</v>
-      </c>
-      <c r="G159" s="11" t="s">
-        <v>782</v>
+        <v>753</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="E159" s="21" t="s">
+        <v>755</v>
+      </c>
+      <c r="F159" s="14" t="s">
+        <v>756</v>
+      </c>
+      <c r="G159" s="7" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>783</v>
-      </c>
-      <c r="C160" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="C160" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D160" s="5" t="s">
-        <v>784</v>
-      </c>
-      <c r="E160" s="21" t="s">
-        <v>785</v>
-      </c>
-      <c r="F160" s="5" t="s">
-        <v>786</v>
-      </c>
-      <c r="G160" s="5" t="s">
-        <v>787</v>
+      <c r="D160" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="E160" s="9" t="s">
+        <v>760</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>788</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D161" s="10" t="s">
-        <v>789</v>
-      </c>
-      <c r="E161" s="4" t="s">
-        <v>790</v>
-      </c>
-      <c r="F161" s="4" t="s">
-        <v>791</v>
-      </c>
-      <c r="G161" s="4" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A162" s="57">
-        <v>162</v>
-      </c>
-      <c r="B162" s="78" t="s">
-        <v>793</v>
-      </c>
-      <c r="C162" s="80" t="s">
-        <v>19</v>
-      </c>
-      <c r="D162" s="67" t="s">
-        <v>794</v>
-      </c>
-      <c r="E162" s="82" t="s">
-        <v>796</v>
-      </c>
-      <c r="F162" s="80" t="s">
-        <v>797</v>
-      </c>
-      <c r="G162" s="80" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="58"/>
-      <c r="B163" s="79"/>
-      <c r="C163" s="81"/>
-      <c r="D163" s="68" t="s">
-        <v>795</v>
-      </c>
-      <c r="E163" s="83"/>
-      <c r="F163" s="81"/>
-      <c r="G163" s="81"/>
+        <v>763</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D161" s="21" t="s">
+        <v>764</v>
+      </c>
+      <c r="E161" s="8" t="s">
+        <v>765</v>
+      </c>
+      <c r="F161" s="8" t="s">
+        <v>766</v>
+      </c>
+      <c r="G161" s="6" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>157</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="E162" s="18" t="s">
+        <v>770</v>
+      </c>
+      <c r="F162" s="20" t="s">
+        <v>771</v>
+      </c>
+      <c r="G162" s="18" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
+        <v>158</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="E163" s="21" t="s">
+        <v>775</v>
+      </c>
+      <c r="F163" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="G163" s="13" t="s">
+        <v>777</v>
+      </c>
     </row>
     <row r="164" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
-        <v>163</v>
-      </c>
-      <c r="B164" s="69" t="s">
-        <v>799</v>
+        <v>159</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>778</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D164" s="4" t="s">
-        <v>800</v>
+        <v>25</v>
+      </c>
+      <c r="D164" s="48" t="s">
+        <v>779</v>
       </c>
       <c r="E164" s="18" t="s">
-        <v>801</v>
-      </c>
-      <c r="F164" s="4" t="s">
-        <v>802</v>
-      </c>
-      <c r="G164" s="4" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+        <v>780</v>
+      </c>
+      <c r="F164" s="37" t="s">
+        <v>781</v>
+      </c>
+      <c r="G164" s="11" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>804</v>
+        <v>783</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>805</v>
-      </c>
-      <c r="E165" s="5" t="s">
-        <v>806</v>
+        <v>784</v>
+      </c>
+      <c r="E165" s="21" t="s">
+        <v>785</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="G165" s="35" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="G165" s="5" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>809</v>
+        <v>788</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D166" s="70" t="s">
-        <v>810</v>
+      <c r="D166" s="10" t="s">
+        <v>789</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>811</v>
+        <v>790</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>812</v>
-      </c>
-      <c r="G166" s="71" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A167" s="2">
-        <v>166</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>814</v>
-      </c>
-      <c r="C167" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D167" s="15" t="s">
-        <v>815</v>
-      </c>
-      <c r="E167" s="5" t="s">
-        <v>816</v>
-      </c>
-      <c r="F167" s="14" t="s">
-        <v>817</v>
-      </c>
-      <c r="G167" s="5" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A168" s="57">
-        <v>167</v>
-      </c>
-      <c r="B168" s="84" t="s">
-        <v>819</v>
-      </c>
-      <c r="C168" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="D168" s="34" t="s">
-        <v>820</v>
-      </c>
-      <c r="E168" s="55" t="s">
-        <v>822</v>
-      </c>
-      <c r="F168" s="55" t="s">
-        <v>823</v>
-      </c>
-      <c r="G168" s="65" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A169" s="58"/>
-      <c r="B169" s="85"/>
-      <c r="C169" s="56"/>
-      <c r="D169" s="72" t="s">
-        <v>821</v>
-      </c>
-      <c r="E169" s="56"/>
-      <c r="F169" s="56"/>
-      <c r="G169" s="66"/>
-    </row>
-    <row r="170" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+        <v>791</v>
+      </c>
+      <c r="G166" s="4" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A167" s="71">
+        <v>162</v>
+      </c>
+      <c r="B167" s="91" t="s">
+        <v>793</v>
+      </c>
+      <c r="C167" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="D167" s="53" t="s">
+        <v>794</v>
+      </c>
+      <c r="E167" s="81" t="s">
+        <v>796</v>
+      </c>
+      <c r="F167" s="85" t="s">
+        <v>797</v>
+      </c>
+      <c r="G167" s="85" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="72"/>
+      <c r="B168" s="92"/>
+      <c r="C168" s="86"/>
+      <c r="D168" s="54" t="s">
+        <v>795</v>
+      </c>
+      <c r="E168" s="82"/>
+      <c r="F168" s="86"/>
+      <c r="G168" s="86"/>
+    </row>
+    <row r="169" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
+        <v>163</v>
+      </c>
+      <c r="B169" s="55" t="s">
+        <v>799</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="E169" s="18" t="s">
+        <v>801</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>825</v>
+        <v>804</v>
       </c>
       <c r="C170" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D170" s="6" t="s">
-        <v>826</v>
+      <c r="D170" s="5" t="s">
+        <v>805</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>827</v>
-      </c>
-      <c r="F170" s="30" t="s">
-        <v>828</v>
-      </c>
-      <c r="G170" s="14" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+        <v>806</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="G170" s="35" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>830</v>
+        <v>809</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D171" s="4" t="s">
-        <v>831</v>
+        <v>19</v>
+      </c>
+      <c r="D171" s="56" t="s">
+        <v>810</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>832</v>
+        <v>811</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>833</v>
-      </c>
-      <c r="G171" s="4" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+        <v>812</v>
+      </c>
+      <c r="G171" s="57" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="C172" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D172" s="15" t="s">
+        <v>815</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="F172" s="14" t="s">
+        <v>817</v>
+      </c>
+      <c r="G172" s="5" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A173" s="71">
+        <v>167</v>
+      </c>
+      <c r="B173" s="89" t="s">
+        <v>819</v>
+      </c>
+      <c r="C173" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="D172" s="5" t="s">
-        <v>836</v>
-      </c>
-      <c r="E172" s="5" t="s">
-        <v>837</v>
-      </c>
-      <c r="F172" s="14" t="s">
-        <v>838</v>
-      </c>
-      <c r="G172" s="33" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A173" s="2">
-        <v>171</v>
-      </c>
-      <c r="B173" s="73" t="s">
-        <v>840</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D173" s="74" t="s">
-        <v>841</v>
-      </c>
-      <c r="E173" s="70" t="s">
-        <v>842</v>
-      </c>
-      <c r="F173" s="4" t="s">
-        <v>843</v>
-      </c>
-      <c r="G173" s="71" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A174" s="2">
-        <v>172</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>845</v>
-      </c>
-      <c r="C174" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D174" s="5" t="s">
-        <v>846</v>
-      </c>
-      <c r="E174" s="5" t="s">
-        <v>847</v>
-      </c>
-      <c r="F174" s="8" t="s">
-        <v>848</v>
-      </c>
-      <c r="G174" s="5" t="s">
-        <v>849</v>
-      </c>
+      <c r="D173" s="34" t="s">
+        <v>820</v>
+      </c>
+      <c r="E173" s="69" t="s">
+        <v>822</v>
+      </c>
+      <c r="F173" s="69" t="s">
+        <v>823</v>
+      </c>
+      <c r="G173" s="77" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A174" s="72"/>
+      <c r="B174" s="90"/>
+      <c r="C174" s="70"/>
+      <c r="D174" s="58" t="s">
+        <v>821</v>
+      </c>
+      <c r="E174" s="70"/>
+      <c r="F174" s="70"/>
+      <c r="G174" s="78"/>
     </row>
     <row r="175" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>850</v>
-      </c>
-      <c r="C175" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="E175" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="F175" s="30" t="s">
+        <v>828</v>
+      </c>
+      <c r="G175" s="14" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
+        <v>169</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="C176" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D175" s="4" t="s">
-        <v>851</v>
-      </c>
-      <c r="E175" s="4" t="s">
-        <v>852</v>
-      </c>
-      <c r="F175" s="4" t="s">
-        <v>853</v>
-      </c>
-      <c r="G175" s="75" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A176" s="2">
-        <v>174</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>855</v>
-      </c>
-      <c r="C176" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D176" s="13" t="s">
-        <v>856</v>
-      </c>
-      <c r="E176" s="5" t="s">
-        <v>857</v>
-      </c>
-      <c r="F176" s="5" t="s">
-        <v>858</v>
-      </c>
-      <c r="G176" s="76" t="s">
-        <v>859</v>
+      <c r="D176" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>860</v>
-      </c>
-      <c r="C177" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="C177" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D177" s="4" t="s">
-        <v>861</v>
-      </c>
-      <c r="E177" s="4" t="s">
-        <v>862</v>
-      </c>
-      <c r="F177" s="11" t="s">
-        <v>863</v>
-      </c>
-      <c r="G177" s="37" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="D177" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F177" s="14" t="s">
+        <v>838</v>
+      </c>
+      <c r="G177" s="33" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
-        <v>176</v>
-      </c>
-      <c r="B178" s="73" t="s">
-        <v>865</v>
-      </c>
-      <c r="C178" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D178" s="5" t="s">
-        <v>866</v>
-      </c>
-      <c r="E178" s="21" t="s">
-        <v>867</v>
-      </c>
-      <c r="F178" s="5" t="s">
-        <v>868</v>
-      </c>
-      <c r="G178" s="7" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="B178" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D178" s="60" t="s">
+        <v>841</v>
+      </c>
+      <c r="E178" s="56" t="s">
+        <v>842</v>
+      </c>
+      <c r="F178" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="G178" s="57" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="C179" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D179" s="4" t="s">
-        <v>871</v>
-      </c>
-      <c r="E179" s="4" t="s">
-        <v>872</v>
-      </c>
-      <c r="F179" s="11" t="s">
-        <v>873</v>
-      </c>
-      <c r="G179" s="37" t="s">
-        <v>874</v>
+        <v>845</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>846</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>847</v>
+      </c>
+      <c r="F179" s="8" t="s">
+        <v>848</v>
+      </c>
+      <c r="G179" s="5" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
-        <v>178</v>
-      </c>
-      <c r="B180" s="73" t="s">
-        <v>875</v>
-      </c>
-      <c r="C180" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D180" s="16" t="s">
-        <v>876</v>
-      </c>
-      <c r="E180" s="14" t="s">
-        <v>877</v>
-      </c>
-      <c r="F180" s="31" t="s">
-        <v>878</v>
-      </c>
-      <c r="G180" s="5" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="G180" s="61" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
-        <v>179</v>
-      </c>
-      <c r="B181" s="77" t="s">
-        <v>880</v>
-      </c>
-      <c r="C181" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D181" s="4" t="s">
-        <v>881</v>
-      </c>
-      <c r="E181" s="4" t="s">
-        <v>882</v>
-      </c>
-      <c r="F181" s="4" t="s">
-        <v>883</v>
-      </c>
-      <c r="G181" s="4" t="s">
-        <v>884</v>
+        <v>174</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D181" s="13" t="s">
+        <v>856</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="F181" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="G181" s="62" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
+        <v>175</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="F182" s="11" t="s">
+        <v>863</v>
+      </c>
+      <c r="G182" s="37" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A183" s="2">
+        <v>176</v>
+      </c>
+      <c r="B183" s="59" t="s">
+        <v>865</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="E183" s="21" t="s">
+        <v>867</v>
+      </c>
+      <c r="F183" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="G183" s="7" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A184" s="2">
+        <v>177</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>871</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="F184" s="11" t="s">
+        <v>873</v>
+      </c>
+      <c r="G184" s="37" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A185" s="2">
+        <v>178</v>
+      </c>
+      <c r="B185" s="59" t="s">
+        <v>875</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D185" s="16" t="s">
+        <v>876</v>
+      </c>
+      <c r="E185" s="14" t="s">
+        <v>877</v>
+      </c>
+      <c r="F185" s="31" t="s">
+        <v>878</v>
+      </c>
+      <c r="G185" s="5" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A186" s="2">
+        <v>179</v>
+      </c>
+      <c r="B186" s="63" t="s">
+        <v>880</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="G186" s="4" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A187" s="2">
         <v>180</v>
       </c>
-      <c r="B182" s="3" t="s">
+      <c r="B187" s="3" t="s">
         <v>885</v>
       </c>
-      <c r="C182" s="5" t="s">
+      <c r="C187" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D182" s="6" t="s">
+      <c r="D187" s="6" t="s">
         <v>886</v>
       </c>
-      <c r="E182" s="5" t="s">
+      <c r="E187" s="5" t="s">
         <v>887</v>
       </c>
-      <c r="F182" s="5" t="s">
+      <c r="F187" s="5" t="s">
         <v>888</v>
       </c>
-      <c r="G182" s="33" t="s">
+      <c r="G187" s="33" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A183" s="2">
+    <row r="188" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A188" s="2">
         <v>181</v>
       </c>
-      <c r="B183" s="3" t="s">
+      <c r="B188" s="3" t="s">
         <v>890</v>
-      </c>
-      <c r="C183" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D183" s="4" t="s">
-        <v>891</v>
-      </c>
-      <c r="E183" s="4" t="s">
-        <v>892</v>
-      </c>
-      <c r="F183" s="4" t="s">
-        <v>893</v>
-      </c>
-      <c r="G183" s="47" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A184" s="2">
-        <v>182</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>895</v>
-      </c>
-      <c r="C184" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D184" s="5" t="s">
-        <v>896</v>
-      </c>
-      <c r="E184" s="5" t="s">
-        <v>897</v>
-      </c>
-      <c r="F184" s="14" t="s">
-        <v>898</v>
-      </c>
-      <c r="G184" s="33" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A185" s="2">
-        <v>183</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>900</v>
-      </c>
-      <c r="C185" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D185" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="E185" s="11" t="s">
-        <v>902</v>
-      </c>
-      <c r="F185" s="12" t="s">
-        <v>903</v>
-      </c>
-      <c r="G185" s="10" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A186" s="57">
-        <v>184</v>
-      </c>
-      <c r="B186" s="59" t="s">
-        <v>905</v>
-      </c>
-      <c r="C186" s="80" t="s">
-        <v>25</v>
-      </c>
-      <c r="D186" s="86" t="s">
-        <v>906</v>
-      </c>
-      <c r="E186" s="87" t="s">
-        <v>908</v>
-      </c>
-      <c r="F186" s="80" t="s">
-        <v>909</v>
-      </c>
-      <c r="G186" s="82" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="58"/>
-      <c r="B187" s="60"/>
-      <c r="C187" s="81"/>
-      <c r="D187" s="68" t="s">
-        <v>907</v>
-      </c>
-      <c r="E187" s="88"/>
-      <c r="F187" s="81"/>
-      <c r="G187" s="83"/>
-    </row>
-    <row r="188" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A188" s="2">
-        <v>185</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>911</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D188" s="12" t="s">
-        <v>912</v>
+      <c r="D188" s="4" t="s">
+        <v>891</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>913</v>
-      </c>
-      <c r="F188" s="20" t="s">
-        <v>914</v>
-      </c>
-      <c r="G188" s="48" t="s">
-        <v>915</v>
+        <v>892</v>
+      </c>
+      <c r="F188" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="G188" s="47" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>916</v>
+        <v>895</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D189" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="E189" s="21" t="s">
-        <v>918</v>
-      </c>
-      <c r="F189" s="13" t="s">
-        <v>919</v>
-      </c>
-      <c r="G189" s="64" t="s">
-        <v>920</v>
+        <v>19</v>
+      </c>
+      <c r="D189" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="E189" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="F189" s="14" t="s">
+        <v>898</v>
+      </c>
+      <c r="G189" s="33" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>921</v>
+        <v>900</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D190" s="19" t="s">
-        <v>922</v>
-      </c>
-      <c r="E190" s="4" t="s">
-        <v>923</v>
-      </c>
-      <c r="F190" s="4" t="s">
-        <v>924</v>
-      </c>
-      <c r="G190" s="11" t="s">
-        <v>925</v>
+      <c r="D190" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="E190" s="11" t="s">
+        <v>902</v>
+      </c>
+      <c r="F190" s="12" t="s">
+        <v>903</v>
+      </c>
+      <c r="G190" s="10" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A191" s="2">
-        <v>188</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>926</v>
-      </c>
-      <c r="C191" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D191" s="5" t="s">
-        <v>927</v>
-      </c>
-      <c r="E191" s="5" t="s">
-        <v>928</v>
-      </c>
-      <c r="F191" s="5" t="s">
-        <v>929</v>
-      </c>
-      <c r="G191" s="30" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A192" s="2">
-        <v>189</v>
-      </c>
-      <c r="B192" s="3" t="s">
-        <v>931</v>
-      </c>
-      <c r="C192" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D192" s="4" t="s">
-        <v>932</v>
-      </c>
-      <c r="E192" s="4" t="s">
-        <v>933</v>
-      </c>
-      <c r="F192" s="4" t="s">
-        <v>934</v>
-      </c>
-      <c r="G192" s="4" t="s">
-        <v>935</v>
-      </c>
+      <c r="A191" s="71">
+        <v>184</v>
+      </c>
+      <c r="B191" s="73" t="s">
+        <v>905</v>
+      </c>
+      <c r="C191" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="D191" s="64" t="s">
+        <v>906</v>
+      </c>
+      <c r="E191" s="87" t="s">
+        <v>908</v>
+      </c>
+      <c r="F191" s="85" t="s">
+        <v>909</v>
+      </c>
+      <c r="G191" s="81" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="72"/>
+      <c r="B192" s="74"/>
+      <c r="C192" s="86"/>
+      <c r="D192" s="54" t="s">
+        <v>907</v>
+      </c>
+      <c r="E192" s="88"/>
+      <c r="F192" s="86"/>
+      <c r="G192" s="82"/>
     </row>
     <row r="193" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
+        <v>185</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D193" s="12" t="s">
+        <v>912</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="F193" s="20" t="s">
+        <v>914</v>
+      </c>
+      <c r="G193" s="48" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A194" s="2">
+        <v>186</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D194" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="E194" s="21" t="s">
+        <v>918</v>
+      </c>
+      <c r="F194" s="13" t="s">
+        <v>919</v>
+      </c>
+      <c r="G194" s="52" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A195" s="2">
+        <v>187</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D195" s="19" t="s">
+        <v>922</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="F195" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="G195" s="11" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A196" s="2">
+        <v>188</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D196" s="5" t="s">
+        <v>927</v>
+      </c>
+      <c r="E196" s="5" t="s">
+        <v>928</v>
+      </c>
+      <c r="F196" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="G196" s="30" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A197" s="2">
+        <v>189</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>933</v>
+      </c>
+      <c r="F197" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="G197" s="4" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A198" s="2">
         <v>190</v>
       </c>
-      <c r="B193" s="3" t="s">
+      <c r="B198" s="3" t="s">
         <v>936</v>
       </c>
-      <c r="C193" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D193" s="8" t="s">
+      <c r="C198" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D198" s="8" t="s">
         <v>937</v>
       </c>
-      <c r="E193" s="21" t="s">
+      <c r="E198" s="21" t="s">
         <v>938</v>
       </c>
-      <c r="F193" s="5" t="s">
+      <c r="F198" s="5" t="s">
         <v>939</v>
       </c>
-      <c r="G193" s="64" t="s">
+      <c r="G198" s="52" t="s">
         <v>940</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A194" s="2">
-        <v>191</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>941</v>
-      </c>
-      <c r="C194" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D194" s="4" t="s">
-        <v>942</v>
-      </c>
-      <c r="E194" s="4" t="s">
-        <v>943</v>
-      </c>
-      <c r="F194" s="19" t="s">
-        <v>944</v>
-      </c>
-      <c r="G194" s="4" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A195" s="2">
-        <v>192</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>946</v>
-      </c>
-      <c r="C195" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D195" s="5" t="s">
-        <v>947</v>
-      </c>
-      <c r="E195" s="21" t="s">
-        <v>948</v>
-      </c>
-      <c r="F195" s="14" t="s">
-        <v>949</v>
-      </c>
-      <c r="G195" s="5" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A196" s="2">
-        <v>193</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>951</v>
-      </c>
-      <c r="C196" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D196" s="4" t="s">
-        <v>952</v>
-      </c>
-      <c r="E196" s="19" t="s">
-        <v>953</v>
-      </c>
-      <c r="F196" s="4" t="s">
-        <v>954</v>
-      </c>
-      <c r="G196" s="4" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A197" s="2">
-        <v>194</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>956</v>
-      </c>
-      <c r="C197" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D197" s="15" t="s">
-        <v>957</v>
-      </c>
-      <c r="E197" s="5" t="s">
-        <v>958</v>
-      </c>
-      <c r="F197" s="5" t="s">
-        <v>959</v>
-      </c>
-      <c r="G197" s="5" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A198" s="2">
-        <v>195</v>
-      </c>
-      <c r="B198" s="3" t="s">
-        <v>961</v>
-      </c>
-      <c r="C198" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D198" s="4" t="s">
-        <v>962</v>
-      </c>
-      <c r="E198" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="F198" s="4" t="s">
-        <v>880</v>
-      </c>
-      <c r="G198" s="18" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>965</v>
-      </c>
-      <c r="C199" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D199" s="63" t="s">
-        <v>966</v>
-      </c>
-      <c r="E199" s="5" t="s">
-        <v>967</v>
-      </c>
-      <c r="F199" s="14" t="s">
-        <v>968</v>
-      </c>
-      <c r="G199" s="35" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+        <v>941</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>943</v>
+      </c>
+      <c r="F199" s="19" t="s">
+        <v>944</v>
+      </c>
+      <c r="G199" s="4" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>970</v>
-      </c>
-      <c r="C200" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D200" s="4" t="s">
-        <v>971</v>
-      </c>
-      <c r="E200" s="4" t="s">
-        <v>972</v>
-      </c>
-      <c r="F200" s="4" t="s">
-        <v>973</v>
-      </c>
-      <c r="G200" s="70" t="s">
-        <v>974</v>
+        <v>946</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D200" s="5" t="s">
+        <v>947</v>
+      </c>
+      <c r="E200" s="21" t="s">
+        <v>948</v>
+      </c>
+      <c r="F200" s="14" t="s">
+        <v>949</v>
+      </c>
+      <c r="G200" s="5" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>975</v>
-      </c>
-      <c r="C201" s="5" t="s">
+        <v>951</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="E201" s="19" t="s">
+        <v>953</v>
+      </c>
+      <c r="F201" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="G201" s="4" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A202" s="2">
+        <v>194</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="C202" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D201" s="5" t="s">
-        <v>976</v>
-      </c>
-      <c r="E201" s="5" t="s">
-        <v>977</v>
-      </c>
-      <c r="F201" s="5" t="s">
-        <v>978</v>
-      </c>
-      <c r="G201" s="5" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A202" s="2">
-        <v>199</v>
-      </c>
-      <c r="B202" s="3" t="s">
-        <v>980</v>
-      </c>
-      <c r="C202" s="4" t="s">
+      <c r="D202" s="15" t="s">
+        <v>957</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>958</v>
+      </c>
+      <c r="F202" s="5" t="s">
+        <v>959</v>
+      </c>
+      <c r="G202" s="5" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A203" s="2">
+        <v>195</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="C203" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D202" s="4" t="s">
-        <v>981</v>
-      </c>
-      <c r="E202" s="11" t="s">
-        <v>982</v>
-      </c>
-      <c r="F202" s="37" t="s">
-        <v>983</v>
-      </c>
-      <c r="G202" s="37" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A203" s="2">
-        <v>200</v>
-      </c>
-      <c r="B203" s="3" t="s">
-        <v>985</v>
-      </c>
-      <c r="C203" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D203" s="5" t="s">
-        <v>986</v>
-      </c>
-      <c r="E203" s="5" t="s">
-        <v>987</v>
-      </c>
-      <c r="F203" s="5" t="s">
-        <v>988</v>
-      </c>
-      <c r="G203" s="5" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="D203" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="E203" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="F203" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="G203" s="18" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>990</v>
-      </c>
-      <c r="C204" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D204" s="4" t="s">
-        <v>991</v>
-      </c>
-      <c r="E204" s="4" t="s">
-        <v>992</v>
-      </c>
-      <c r="F204" s="36" t="s">
-        <v>993</v>
-      </c>
-      <c r="G204" s="74" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+        <v>965</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D204" s="51" t="s">
+        <v>966</v>
+      </c>
+      <c r="E204" s="5" t="s">
+        <v>967</v>
+      </c>
+      <c r="F204" s="14" t="s">
+        <v>968</v>
+      </c>
+      <c r="G204" s="35" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>995</v>
-      </c>
-      <c r="C205" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D205" s="5" t="s">
-        <v>996</v>
-      </c>
-      <c r="E205" s="5" t="s">
-        <v>997</v>
-      </c>
-      <c r="F205" s="15" t="s">
-        <v>998</v>
-      </c>
-      <c r="G205" s="14" t="s">
-        <v>999</v>
+        <v>970</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="E205" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="F205" s="4" t="s">
+        <v>973</v>
+      </c>
+      <c r="G205" s="56" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C206" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D206" s="4" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E206" s="4" t="s">
-        <v>1002</v>
-      </c>
-      <c r="F206" s="36" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G206" s="37" t="s">
-        <v>1004</v>
+        <v>975</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>977</v>
+      </c>
+      <c r="F206" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="G206" s="5" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C207" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D207" s="15" t="s">
-        <v>1006</v>
-      </c>
-      <c r="E207" s="31" t="s">
-        <v>1007</v>
-      </c>
-      <c r="F207" s="5" t="s">
-        <v>1008</v>
-      </c>
-      <c r="G207" s="14" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+        <v>980</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="E207" s="11" t="s">
+        <v>982</v>
+      </c>
+      <c r="F207" s="37" t="s">
+        <v>983</v>
+      </c>
+      <c r="G207" s="37" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C208" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D208" s="75" t="s">
-        <v>1011</v>
-      </c>
-      <c r="E208" s="4" t="s">
-        <v>1012</v>
-      </c>
-      <c r="F208" s="4" t="s">
-        <v>1013</v>
-      </c>
-      <c r="G208" s="11" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+        <v>985</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D208" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="E208" s="5" t="s">
+        <v>987</v>
+      </c>
+      <c r="F208" s="5" t="s">
+        <v>988</v>
+      </c>
+      <c r="G208" s="5" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C209" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D209" s="8" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E209" s="5" t="s">
-        <v>1017</v>
-      </c>
-      <c r="F209" s="5" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G209" s="30" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+        <v>990</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="E209" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="F209" s="36" t="s">
+        <v>993</v>
+      </c>
+      <c r="G209" s="60" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C210" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D210" s="4" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E210" s="20" t="s">
-        <v>1022</v>
-      </c>
-      <c r="F210" s="37" t="s">
-        <v>1023</v>
-      </c>
-      <c r="G210" s="20" t="s">
-        <v>1024</v>
+        <v>995</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D210" s="5" t="s">
+        <v>996</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="F210" s="15" t="s">
+        <v>998</v>
+      </c>
+      <c r="G210" s="14" t="s">
+        <v>999</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C211" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D211" s="16" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E211" s="8" t="s">
-        <v>1027</v>
-      </c>
-      <c r="F211" s="7" t="s">
-        <v>1028</v>
-      </c>
-      <c r="G211" s="5" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="57">
-        <v>209</v>
-      </c>
-      <c r="B212" s="59" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C212" s="55" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E211" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F211" s="36" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G211" s="37" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A212" s="2">
+        <v>204</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C212" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D212" s="34" t="s">
-        <v>1031</v>
-      </c>
-      <c r="E212" s="55" t="s">
-        <v>1033</v>
-      </c>
-      <c r="F212" s="55" t="s">
-        <v>1034</v>
-      </c>
-      <c r="G212" s="89" t="s">
-        <v>1035</v>
+      <c r="D212" s="15" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E212" s="31" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F212" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G212" s="14" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A213" s="58"/>
-      <c r="B213" s="60"/>
-      <c r="C213" s="56"/>
-      <c r="D213" s="39" t="s">
-        <v>1032</v>
-      </c>
-      <c r="E213" s="56"/>
-      <c r="F213" s="56"/>
-      <c r="G213" s="90"/>
-    </row>
-    <row r="214" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A213" s="2">
+        <v>205</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D213" s="61" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E213" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F213" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G213" s="11" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>1036</v>
+        <v>1015</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D214" s="16" t="s">
-        <v>1037</v>
-      </c>
-      <c r="E214" s="17" t="s">
-        <v>1038</v>
-      </c>
-      <c r="F214" s="15" t="s">
-        <v>1039</v>
-      </c>
-      <c r="G214" s="16" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="D214" s="8" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E214" s="5" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F214" s="5" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G214" s="30" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>1041</v>
+        <v>1020</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E215" s="18" t="s">
-        <v>1043</v>
-      </c>
-      <c r="F215" s="4" t="s">
-        <v>1044</v>
-      </c>
-      <c r="G215" s="10" t="s">
-        <v>1045</v>
+        <v>1021</v>
+      </c>
+      <c r="E215" s="20" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F215" s="37" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G215" s="20" t="s">
+        <v>1024</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>1046</v>
+        <v>1025</v>
       </c>
       <c r="C216" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D216" s="30" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E216" s="30" t="s">
-        <v>1048</v>
-      </c>
-      <c r="F216" s="5" t="s">
-        <v>1049</v>
+      <c r="D216" s="16" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E216" s="8" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F216" s="7" t="s">
+        <v>1028</v>
       </c>
       <c r="G216" s="5" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A217" s="2">
-        <v>213</v>
-      </c>
-      <c r="B217" s="3" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C217" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D217" s="74" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E217" s="36" t="s">
-        <v>1053</v>
-      </c>
-      <c r="F217" s="11" t="s">
-        <v>1054</v>
-      </c>
-      <c r="G217" s="20" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A218" s="2">
-        <v>214</v>
-      </c>
-      <c r="B218" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C218" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D218" s="5" t="s">
-        <v>1057</v>
-      </c>
-      <c r="E218" s="30" t="s">
-        <v>1058</v>
-      </c>
-      <c r="F218" s="8" t="s">
-        <v>1059</v>
-      </c>
-      <c r="G218" s="15" t="s">
-        <v>1060</v>
-      </c>
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="71">
+        <v>209</v>
+      </c>
+      <c r="B217" s="73" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C217" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="D217" s="34" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E217" s="69" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F217" s="69" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G217" s="83" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A218" s="72"/>
+      <c r="B218" s="74"/>
+      <c r="C218" s="70"/>
+      <c r="D218" s="39" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E218" s="70"/>
+      <c r="F218" s="70"/>
+      <c r="G218" s="84"/>
     </row>
     <row r="219" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C219" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D219" s="16" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E219" s="17" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F219" s="15" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G219" s="16" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A220" s="2">
+        <v>211</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C220" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D219" s="19" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E219" s="47" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F219" s="4" t="s">
-        <v>1064</v>
-      </c>
-      <c r="G219" s="10" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A220" s="2">
-        <v>216</v>
-      </c>
-      <c r="B220" s="3" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C220" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D220" s="5" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E220" s="17" t="s">
-        <v>1068</v>
-      </c>
-      <c r="F220" s="30" t="s">
-        <v>1069</v>
-      </c>
-      <c r="G220" s="5" t="s">
-        <v>1070</v>
+      <c r="D220" s="4" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E220" s="18" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F220" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G220" s="10" t="s">
+        <v>1045</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C221" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D221" s="48" t="s">
-        <v>1072</v>
-      </c>
-      <c r="E221" s="9" t="s">
-        <v>1073</v>
-      </c>
-      <c r="F221" s="4" t="s">
-        <v>1074</v>
-      </c>
-      <c r="G221" s="9" t="s">
-        <v>1075</v>
+        <v>1046</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D221" s="30" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E221" s="30" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F221" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="G221" s="5" t="s">
+        <v>1050</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C222" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D222" s="13" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E222" s="17" t="s">
-        <v>1078</v>
-      </c>
-      <c r="F222" s="6" t="s">
-        <v>1079</v>
-      </c>
-      <c r="G222" s="16" t="s">
-        <v>1080</v>
+        <v>1051</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D222" s="60" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E222" s="36" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F222" s="11" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G222" s="20" t="s">
+        <v>1055</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C223" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D223" s="12" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E223" s="4" t="s">
-        <v>1083</v>
-      </c>
-      <c r="F223" s="4" t="s">
-        <v>1084</v>
-      </c>
-      <c r="G223" s="4" t="s">
-        <v>1085</v>
+        <v>1056</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D223" s="5" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E223" s="30" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F223" s="8" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G223" s="15" t="s">
+        <v>1060</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C224" s="5" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C224" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D224" s="5" t="s">
-        <v>1087</v>
-      </c>
-      <c r="E224" s="5" t="s">
-        <v>1088</v>
-      </c>
-      <c r="F224" s="8" t="s">
-        <v>1089</v>
-      </c>
-      <c r="G224" s="76" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="D224" s="19" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E224" s="47" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F224" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G224" s="10" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C225" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D225" s="4" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E225" s="4" t="s">
-        <v>1093</v>
-      </c>
-      <c r="F225" s="4" t="s">
-        <v>1094</v>
-      </c>
-      <c r="G225" s="19" t="s">
-        <v>1095</v>
+        <v>1066</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D225" s="5" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E225" s="17" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F225" s="30" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G225" s="5" t="s">
+        <v>1070</v>
       </c>
     </row>
     <row r="226" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C226" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D226" s="13" t="s">
-        <v>1097</v>
-      </c>
-      <c r="E226" s="30" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F226" s="15" t="s">
-        <v>1099</v>
-      </c>
-      <c r="G226" s="30" t="s">
-        <v>1100</v>
+        <v>1071</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D226" s="48" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E226" s="9" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F226" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G226" s="9" t="s">
+        <v>1075</v>
       </c>
     </row>
     <row r="227" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C227" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D227" s="4" t="s">
-        <v>1102</v>
-      </c>
-      <c r="E227" s="20" t="s">
-        <v>1103</v>
-      </c>
-      <c r="F227" s="37" t="s">
-        <v>1104</v>
-      </c>
-      <c r="G227" s="4" t="s">
-        <v>1105</v>
+        <v>1076</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D227" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E227" s="17" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F227" s="6" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G227" s="16" t="s">
+        <v>1080</v>
       </c>
     </row>
     <row r="228" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C228" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D228" s="5" t="s">
-        <v>1107</v>
-      </c>
-      <c r="E228" s="13" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F228" s="7" t="s">
-        <v>1109</v>
-      </c>
-      <c r="G228" s="31" t="s">
-        <v>1110</v>
+        <v>1081</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D228" s="12" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E228" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F228" s="4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G228" s="4" t="s">
+        <v>1085</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
-        <v>225</v>
-      </c>
-      <c r="B229" s="77" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C229" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D229" s="4" t="s">
-        <v>1112</v>
-      </c>
-      <c r="E229" s="9" t="s">
-        <v>1113</v>
-      </c>
-      <c r="F229" s="11" t="s">
-        <v>1114</v>
-      </c>
-      <c r="G229" s="4" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D229" s="5" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E229" s="5" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F229" s="8" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G229" s="62" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C230" s="5" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C230" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D230" s="21" t="s">
-        <v>1117</v>
-      </c>
-      <c r="E230" s="17" t="s">
-        <v>1118</v>
-      </c>
-      <c r="F230" s="5" t="s">
-        <v>1119</v>
-      </c>
-      <c r="G230" s="5" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="D230" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E230" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F230" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G230" s="19" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
-        <v>227</v>
-      </c>
-      <c r="B231" s="77" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C231" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D231" s="19" t="s">
-        <v>1122</v>
-      </c>
-      <c r="E231" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="F231" s="4" t="s">
-        <v>1124</v>
-      </c>
-      <c r="G231" s="4" t="s">
-        <v>1125</v>
+        <v>222</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D231" s="13" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E231" s="30" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F231" s="15" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G231" s="30" t="s">
+        <v>1100</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C232" s="5" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C232" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D232" s="5" t="s">
-        <v>1127</v>
-      </c>
-      <c r="E232" s="16" t="s">
-        <v>1128</v>
-      </c>
-      <c r="F232" s="5" t="s">
-        <v>1129</v>
-      </c>
-      <c r="G232" s="6" t="s">
-        <v>1130</v>
+      <c r="D232" s="4" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E232" s="20" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F232" s="37" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G232" s="4" t="s">
+        <v>1105</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
-        <v>229</v>
-      </c>
-      <c r="B233" s="69" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C233" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D233" s="4" t="s">
-        <v>1132</v>
-      </c>
-      <c r="E233" s="4" t="s">
-        <v>1133</v>
-      </c>
-      <c r="F233" s="11" t="s">
-        <v>1134</v>
-      </c>
-      <c r="G233" s="4" t="s">
-        <v>1135</v>
+        <v>224</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D233" s="5" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E233" s="13" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F233" s="7" t="s">
+        <v>1109</v>
+      </c>
+      <c r="G233" s="31" t="s">
+        <v>1110</v>
       </c>
     </row>
     <row r="234" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
-        <v>230</v>
-      </c>
-      <c r="B234" s="77" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C234" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B234" s="63" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D234" s="4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E234" s="9" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F234" s="11" t="s">
+        <v>1114</v>
+      </c>
+      <c r="G234" s="4" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A235" s="2">
+        <v>226</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C235" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D234" s="7" t="s">
-        <v>1137</v>
-      </c>
-      <c r="E234" s="31" t="s">
-        <v>1138</v>
-      </c>
-      <c r="F234" s="5" t="s">
-        <v>1139</v>
-      </c>
-      <c r="G234" s="21" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A235" s="2">
-        <v>231</v>
-      </c>
-      <c r="B235" s="3" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C235" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D235" s="4" t="s">
-        <v>1142</v>
-      </c>
-      <c r="E235" s="9" t="s">
-        <v>1143</v>
-      </c>
-      <c r="F235" s="11" t="s">
-        <v>1144</v>
-      </c>
-      <c r="G235" s="19" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="D235" s="21" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E235" s="17" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F235" s="5" t="s">
+        <v>1119</v>
+      </c>
+      <c r="G235" s="5" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
-        <v>232</v>
-      </c>
-      <c r="B236" s="3" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C236" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D236" s="5" t="s">
-        <v>1147</v>
-      </c>
-      <c r="E236" s="17" t="s">
-        <v>1148</v>
-      </c>
-      <c r="F236" s="13" t="s">
-        <v>1149</v>
-      </c>
-      <c r="G236" s="17" t="s">
-        <v>1150</v>
+        <v>227</v>
+      </c>
+      <c r="B236" s="63" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D236" s="19" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E236" s="4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F236" s="4" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G236" s="4" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
-        <v>233</v>
-      </c>
-      <c r="B237" s="77" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C237" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D237" s="4" t="s">
-        <v>1152</v>
-      </c>
-      <c r="E237" s="10" t="s">
-        <v>1153</v>
-      </c>
-      <c r="F237" s="20" t="s">
-        <v>1154</v>
-      </c>
-      <c r="G237" s="91" t="s">
-        <v>1155</v>
+        <v>228</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D237" s="5" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E237" s="16" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F237" s="5" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G237" s="6" t="s">
+        <v>1130</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
-        <v>234</v>
-      </c>
-      <c r="B238" s="77" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C238" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D238" s="14" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E238" s="5" t="s">
-        <v>1158</v>
-      </c>
-      <c r="F238" s="5" t="s">
-        <v>1159</v>
-      </c>
-      <c r="G238" s="5" t="s">
-        <v>1160</v>
+        <v>229</v>
+      </c>
+      <c r="B238" s="55" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D238" s="4" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E238" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F238" s="11" t="s">
+        <v>1134</v>
+      </c>
+      <c r="G238" s="4" t="s">
+        <v>1135</v>
       </c>
     </row>
     <row r="239" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
-        <v>235</v>
-      </c>
-      <c r="B239" s="77" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C239" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D239" s="19" t="s">
-        <v>1162</v>
-      </c>
-      <c r="E239" s="4" t="s">
-        <v>1163</v>
-      </c>
-      <c r="F239" s="19" t="s">
-        <v>1164</v>
-      </c>
-      <c r="G239" s="4" t="s">
-        <v>1165</v>
+        <v>230</v>
+      </c>
+      <c r="B239" s="63" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D239" s="7" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E239" s="31" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F239" s="5" t="s">
+        <v>1139</v>
+      </c>
+      <c r="G239" s="21" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
-        <v>236</v>
-      </c>
-      <c r="B240" s="69" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C240" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D240" s="4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E240" s="9" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F240" s="11" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G240" s="19" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A241" s="2">
+        <v>232</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D241" s="5" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E241" s="17" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F241" s="13" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G241" s="17" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A242" s="2">
+        <v>233</v>
+      </c>
+      <c r="B242" s="63" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D242" s="4" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E242" s="10" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F242" s="20" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G242" s="65" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A243" s="2">
+        <v>234</v>
+      </c>
+      <c r="B243" s="63" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C243" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D240" s="5" t="s">
-        <v>1167</v>
-      </c>
-      <c r="E240" s="5" t="s">
-        <v>1168</v>
-      </c>
-      <c r="F240" s="5" t="s">
-        <v>1169</v>
-      </c>
-      <c r="G240" s="5" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A241" s="2">
-        <v>237</v>
-      </c>
-      <c r="B241" s="3" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C241" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D241" s="71" t="s">
-        <v>1172</v>
-      </c>
-      <c r="E241" s="18" t="s">
-        <v>1173</v>
-      </c>
-      <c r="F241" s="4" t="s">
-        <v>1174</v>
-      </c>
-      <c r="G241" s="10" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A242" s="2">
-        <v>238</v>
-      </c>
-      <c r="B242" s="3" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C242" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D242" s="16" t="s">
-        <v>1177</v>
-      </c>
-      <c r="E242" s="17" t="s">
-        <v>1178</v>
-      </c>
-      <c r="F242" s="5" t="s">
-        <v>1179</v>
-      </c>
-      <c r="G242" s="8" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A243" s="2">
-        <v>239</v>
-      </c>
-      <c r="B243" s="77" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C243" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D243" s="19" t="s">
-        <v>1182</v>
-      </c>
-      <c r="E243" s="4" t="s">
-        <v>1183</v>
-      </c>
-      <c r="F243" s="4" t="s">
-        <v>1184</v>
-      </c>
-      <c r="G243" s="4" t="s">
-        <v>1185</v>
+      <c r="D243" s="14" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E243" s="5" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F243" s="5" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G243" s="5" t="s">
+        <v>1160</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
-        <v>240</v>
-      </c>
-      <c r="B244" s="3" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C244" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D244" s="5" t="s">
-        <v>1187</v>
-      </c>
-      <c r="E244" s="30" t="s">
-        <v>1188</v>
-      </c>
-      <c r="F244" s="7" t="s">
-        <v>1189</v>
-      </c>
-      <c r="G244" s="64" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+      <c r="B244" s="63" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D244" s="19" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E244" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F244" s="19" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G244" s="4" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
-        <v>241</v>
-      </c>
-      <c r="B245" s="3" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C245" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B245" s="55" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C245" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D245" s="37" t="s">
-        <v>1192</v>
-      </c>
-      <c r="E245" s="4" t="s">
-        <v>1193</v>
-      </c>
-      <c r="F245" s="4" t="s">
-        <v>1194</v>
-      </c>
-      <c r="G245" s="4" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="D245" s="5" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E245" s="5" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F245" s="5" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G245" s="5" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C246" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D246" s="5" t="s">
-        <v>1197</v>
-      </c>
-      <c r="E246" s="14" t="s">
-        <v>1198</v>
-      </c>
-      <c r="F246" s="5" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G246" s="5" t="s">
-        <v>1200</v>
+        <v>1171</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D246" s="57" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E246" s="18" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F246" s="4" t="s">
+        <v>1174</v>
+      </c>
+      <c r="G246" s="10" t="s">
+        <v>1175</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>1201</v>
-      </c>
-      <c r="C247" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D247" s="4" t="s">
-        <v>1202</v>
-      </c>
-      <c r="E247" s="4" t="s">
-        <v>1203</v>
-      </c>
-      <c r="F247" s="20" t="s">
-        <v>1204</v>
-      </c>
-      <c r="G247" s="4" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+        <v>1176</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D247" s="16" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E247" s="17" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F247" s="5" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G247" s="8" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
-        <v>244</v>
-      </c>
-      <c r="B248" s="73" t="s">
-        <v>1206</v>
-      </c>
-      <c r="C248" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D248" s="16" t="s">
-        <v>1207</v>
-      </c>
-      <c r="E248" s="5" t="s">
-        <v>1208</v>
-      </c>
-      <c r="F248" s="5" t="s">
-        <v>1209</v>
-      </c>
-      <c r="G248" s="14" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="B248" s="63" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D248" s="19" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E248" s="4" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F248" s="4" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G248" s="4" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
-        <v>245</v>
-      </c>
-      <c r="B249" s="73" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C249" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D249" s="92" t="s">
-        <v>1212</v>
-      </c>
-      <c r="E249" s="4" t="s">
-        <v>1213</v>
-      </c>
-      <c r="F249" s="4" t="s">
-        <v>1214</v>
-      </c>
-      <c r="G249" s="20" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D249" s="5" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E249" s="30" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F249" s="7" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G249" s="52" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>1216</v>
-      </c>
-      <c r="C250" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D250" s="21" t="s">
-        <v>1217</v>
-      </c>
-      <c r="E250" s="5" t="s">
-        <v>1218</v>
-      </c>
-      <c r="F250" s="5" t="s">
-        <v>1219</v>
-      </c>
-      <c r="G250" s="5" t="s">
-        <v>1220</v>
+        <v>1191</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D250" s="37" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E250" s="4" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F250" s="4" t="s">
+        <v>1194</v>
+      </c>
+      <c r="G250" s="4" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C251" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D251" s="19" t="s">
-        <v>1222</v>
-      </c>
-      <c r="E251" s="20" t="s">
-        <v>1223</v>
-      </c>
-      <c r="F251" s="12" t="s">
-        <v>1224</v>
-      </c>
-      <c r="G251" s="11" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+        <v>1196</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D251" s="5" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E251" s="14" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F251" s="5" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G251" s="5" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
-        <v>248</v>
-      </c>
-      <c r="B252" s="73" t="s">
-        <v>1226</v>
-      </c>
-      <c r="C252" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D252" s="8" t="s">
-        <v>1227</v>
-      </c>
-      <c r="E252" s="5" t="s">
-        <v>1228</v>
-      </c>
-      <c r="F252" s="13" t="s">
-        <v>1229</v>
-      </c>
-      <c r="G252" s="5" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D252" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E252" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F252" s="20" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G252" s="4" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
-        <v>249</v>
-      </c>
-      <c r="B253" s="3" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C253" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D253" s="20" t="s">
-        <v>1232</v>
-      </c>
-      <c r="E253" s="4" t="s">
-        <v>1233</v>
-      </c>
-      <c r="F253" s="4" t="s">
-        <v>1234</v>
-      </c>
-      <c r="G253" s="9" t="s">
-        <v>1235</v>
+        <v>244</v>
+      </c>
+      <c r="B253" s="59" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C253" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D253" s="16" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E253" s="5" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F253" s="5" t="s">
+        <v>1209</v>
+      </c>
+      <c r="G253" s="14" t="s">
+        <v>1210</v>
       </c>
     </row>
     <row r="254" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
-        <v>250</v>
-      </c>
-      <c r="B254" s="3" t="s">
-        <v>1236</v>
-      </c>
-      <c r="C254" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D254" s="8" t="s">
-        <v>1237</v>
-      </c>
-      <c r="E254" s="5" t="s">
-        <v>1238</v>
-      </c>
-      <c r="F254" s="30" t="s">
-        <v>1239</v>
-      </c>
-      <c r="G254" s="30" t="s">
-        <v>1240</v>
+        <v>245</v>
+      </c>
+      <c r="B254" s="59" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D254" s="66" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E254" s="4" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F254" s="4" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G254" s="20" t="s">
+        <v>1215</v>
       </c>
     </row>
     <row r="255" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
-        <v>251</v>
-      </c>
-      <c r="B255" s="73" t="s">
-        <v>1241</v>
-      </c>
-      <c r="C255" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D255" s="10" t="s">
-        <v>1242</v>
-      </c>
-      <c r="E255" s="12" t="s">
-        <v>1243</v>
-      </c>
-      <c r="F255" s="4" t="s">
-        <v>1244</v>
-      </c>
-      <c r="G255" s="74" t="s">
-        <v>1245</v>
+        <v>246</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D255" s="21" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E255" s="5" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F255" s="5" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G255" s="5" t="s">
+        <v>1220</v>
       </c>
     </row>
     <row r="256" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
+        <v>247</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D256" s="19" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E256" s="20" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F256" s="12" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G256" s="11" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A257" s="2">
+        <v>248</v>
+      </c>
+      <c r="B257" s="59" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D257" s="8" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E257" s="5" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F257" s="13" t="s">
+        <v>1229</v>
+      </c>
+      <c r="G257" s="5" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A258" s="2">
+        <v>249</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D258" s="20" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E258" s="4" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F258" s="4" t="s">
+        <v>1234</v>
+      </c>
+      <c r="G258" s="9" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A259" s="2">
+        <v>250</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D259" s="8" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E259" s="5" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F259" s="30" t="s">
+        <v>1239</v>
+      </c>
+      <c r="G259" s="30" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A260" s="2">
+        <v>251</v>
+      </c>
+      <c r="B260" s="59" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D260" s="10" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E260" s="12" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F260" s="4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G260" s="60" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A261" s="2">
         <v>252</v>
       </c>
-      <c r="B256" s="73" t="s">
+      <c r="B261" s="59" t="s">
         <v>1246</v>
       </c>
-      <c r="C256" s="5" t="s">
+      <c r="C261" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D256" s="5" t="s">
+      <c r="D261" s="5" t="s">
         <v>1247</v>
       </c>
-      <c r="E256" s="14" t="s">
+      <c r="E261" s="14" t="s">
         <v>1248</v>
       </c>
-      <c r="F256" s="5" t="s">
+      <c r="F261" s="5" t="s">
         <v>1249</v>
       </c>
-      <c r="G256" s="6" t="s">
+      <c r="G261" s="6" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="257" spans="1:7" ht="216.75" x14ac:dyDescent="0.25">
-      <c r="A257" s="2">
+    <row r="262" spans="1:7" ht="216.75" x14ac:dyDescent="0.25">
+      <c r="A262" s="2">
         <v>253</v>
       </c>
-      <c r="B257" s="3" t="s">
+      <c r="B262" s="3" t="s">
         <v>1251</v>
       </c>
-      <c r="C257" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D257" s="4" t="s">
+      <c r="C262" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D262" s="4" t="s">
         <v>1252</v>
       </c>
-      <c r="E257" s="36" t="s">
+      <c r="E262" s="36" t="s">
         <v>1253</v>
       </c>
-      <c r="F257" s="9" t="s">
+      <c r="F262" s="9" t="s">
         <v>1254</v>
       </c>
-      <c r="G257" s="4" t="s">
+      <c r="G262" s="4" t="s">
         <v>1255</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A258" s="2">
-        <v>254</v>
-      </c>
-      <c r="B258" s="3" t="s">
-        <v>1256</v>
-      </c>
-      <c r="C258" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D258" s="32" t="s">
-        <v>1257</v>
-      </c>
-      <c r="E258" s="5" t="s">
-        <v>1258</v>
-      </c>
-      <c r="F258" s="13" t="s">
-        <v>1259</v>
-      </c>
-      <c r="G258" s="15" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A259" s="2">
-        <v>255</v>
-      </c>
-      <c r="B259" s="73" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C259" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D259" s="71" t="s">
-        <v>1262</v>
-      </c>
-      <c r="E259" s="4" t="s">
-        <v>1263</v>
-      </c>
-      <c r="F259" s="4" t="s">
-        <v>1264</v>
-      </c>
-      <c r="G259" s="4" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A260" s="2">
-        <v>256</v>
-      </c>
-      <c r="B260" s="73" t="s">
-        <v>1266</v>
-      </c>
-      <c r="C260" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D260" s="64" t="s">
-        <v>1267</v>
-      </c>
-      <c r="E260" s="5" t="s">
-        <v>1268</v>
-      </c>
-      <c r="F260" s="5" t="s">
-        <v>1269</v>
-      </c>
-      <c r="G260" s="35" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A261" s="2">
-        <v>257</v>
-      </c>
-      <c r="B261" s="73" t="s">
-        <v>1271</v>
-      </c>
-      <c r="C261" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D261" s="19" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E261" s="4" t="s">
-        <v>1273</v>
-      </c>
-      <c r="F261" s="4" t="s">
-        <v>1274</v>
-      </c>
-      <c r="G261" s="12" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A262" s="2">
-        <v>258</v>
-      </c>
-      <c r="B262" s="69" t="s">
-        <v>1377</v>
-      </c>
-      <c r="C262" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D262" s="21" t="s">
-        <v>1378</v>
-      </c>
-      <c r="E262" s="16" t="s">
-        <v>1379</v>
-      </c>
-      <c r="F262" s="5" t="s">
-        <v>1380</v>
-      </c>
-      <c r="G262" s="5" t="s">
-        <v>1381</v>
       </c>
     </row>
     <row r="263" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
-        <v>259</v>
-      </c>
-      <c r="B263" s="77" t="s">
-        <v>1382</v>
-      </c>
-      <c r="C263" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D263" s="4" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E263" s="18" t="s">
-        <v>1384</v>
-      </c>
-      <c r="F263" s="20" t="s">
-        <v>1385</v>
-      </c>
-      <c r="G263" s="48" t="s">
-        <v>1386</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D263" s="32" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E263" s="5" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F263" s="13" t="s">
+        <v>1259</v>
+      </c>
+      <c r="G263" s="15" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
-        <v>260</v>
-      </c>
-      <c r="B264" s="3" t="s">
-        <v>1387</v>
-      </c>
-      <c r="C264" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D264" s="21" t="s">
-        <v>1388</v>
-      </c>
-      <c r="E264" s="13" t="s">
-        <v>1389</v>
-      </c>
-      <c r="F264" s="14" t="s">
-        <v>1390</v>
-      </c>
-      <c r="G264" s="15" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="B264" s="59" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D264" s="57" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E264" s="4" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F264" s="4" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G264" s="4" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
-        <v>261</v>
-      </c>
-      <c r="B265" s="73" t="s">
-        <v>1392</v>
-      </c>
-      <c r="C265" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D265" s="9" t="s">
-        <v>1393</v>
-      </c>
-      <c r="E265" s="10" t="s">
-        <v>1394</v>
-      </c>
-      <c r="F265" s="4" t="s">
-        <v>1395</v>
-      </c>
-      <c r="G265" s="47" t="s">
-        <v>1396</v>
+        <v>256</v>
+      </c>
+      <c r="B265" s="59" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D265" s="52" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E265" s="5" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F265" s="5" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G265" s="35" t="s">
+        <v>1270</v>
       </c>
     </row>
     <row r="266" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
-        <v>262</v>
-      </c>
-      <c r="B266" s="3" t="s">
-        <v>1397</v>
-      </c>
-      <c r="C266" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D266" s="7" t="s">
-        <v>1398</v>
-      </c>
-      <c r="E266" s="6" t="s">
-        <v>1399</v>
-      </c>
-      <c r="F266" s="5" t="s">
-        <v>1400</v>
-      </c>
-      <c r="G266" s="15" t="s">
-        <v>1401</v>
+        <v>257</v>
+      </c>
+      <c r="B266" s="59" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D266" s="19" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E266" s="4" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F266" s="4" t="s">
+        <v>1274</v>
+      </c>
+      <c r="G266" s="12" t="s">
+        <v>1275</v>
       </c>
     </row>
     <row r="267" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
-        <v>263</v>
-      </c>
-      <c r="B267" s="3" t="s">
-        <v>1402</v>
-      </c>
-      <c r="C267" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B267" s="55" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D267" s="21" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E267" s="16" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F267" s="5" t="s">
+        <v>1380</v>
+      </c>
+      <c r="G267" s="5" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A268" s="2">
+        <v>259</v>
+      </c>
+      <c r="B268" s="63" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C268" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D267" s="4" t="s">
-        <v>1403</v>
-      </c>
-      <c r="E267" s="9" t="s">
-        <v>1404</v>
-      </c>
-      <c r="F267" s="11" t="s">
-        <v>1405</v>
-      </c>
-      <c r="G267" s="10" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A268" s="2">
-        <v>264</v>
-      </c>
-      <c r="B268" s="3" t="s">
-        <v>1407</v>
-      </c>
-      <c r="C268" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D268" s="15" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E268" s="7" t="s">
-        <v>1409</v>
-      </c>
-      <c r="F268" s="31" t="s">
-        <v>1410</v>
-      </c>
-      <c r="G268" s="5" t="s">
-        <v>1411</v>
+      <c r="D268" s="4" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E268" s="18" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F268" s="20" t="s">
+        <v>1385</v>
+      </c>
+      <c r="G268" s="48" t="s">
+        <v>1386</v>
       </c>
     </row>
     <row r="269" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
-        <v>265</v>
-      </c>
-      <c r="B269" s="77" t="s">
-        <v>1412</v>
-      </c>
-      <c r="C269" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D269" s="4" t="s">
-        <v>1413</v>
-      </c>
-      <c r="E269" s="19" t="s">
-        <v>1414</v>
-      </c>
-      <c r="F269" s="9" t="s">
-        <v>1415</v>
-      </c>
-      <c r="G269" s="11" t="s">
-        <v>1416</v>
+        <v>260</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D269" s="21" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E269" s="13" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F269" s="14" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G269" s="15" t="s">
+        <v>1391</v>
       </c>
     </row>
     <row r="270" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
+        <v>261</v>
+      </c>
+      <c r="B270" s="59" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C270" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D270" s="9" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E270" s="10" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F270" s="4" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G270" s="47" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A271" s="2">
+        <v>262</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D271" s="7" t="s">
+        <v>1398</v>
+      </c>
+      <c r="E271" s="6" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F271" s="5" t="s">
+        <v>1400</v>
+      </c>
+      <c r="G271" s="15" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A272" s="2">
+        <v>263</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D272" s="4" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E272" s="9" t="s">
+        <v>1404</v>
+      </c>
+      <c r="F272" s="11" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G272" s="10" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A273" s="2">
+        <v>264</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D273" s="15" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E273" s="7" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F273" s="31" t="s">
+        <v>1410</v>
+      </c>
+      <c r="G273" s="5" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A274" s="2">
+        <v>265</v>
+      </c>
+      <c r="B274" s="63" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D274" s="4" t="s">
+        <v>1413</v>
+      </c>
+      <c r="E274" s="19" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F274" s="9" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G274" s="11" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A275" s="2">
         <v>266</v>
       </c>
-      <c r="B270" s="77" t="s">
+      <c r="B275" s="63" t="s">
         <v>1417</v>
       </c>
-      <c r="C270" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D270" s="5" t="s">
+      <c r="C275" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D275" s="5" t="s">
         <v>1418</v>
       </c>
-      <c r="E270" s="21" t="s">
+      <c r="E275" s="21" t="s">
         <v>1419</v>
       </c>
-      <c r="F270" s="15" t="s">
+      <c r="F275" s="15" t="s">
         <v>1420</v>
       </c>
-      <c r="G270" s="21" t="s">
+      <c r="G275" s="21" t="s">
         <v>1421</v>
       </c>
     </row>
-    <row r="271" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A271" s="2">
+    <row r="276" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A276" s="2">
         <v>267</v>
       </c>
-      <c r="B271" s="3" t="s">
+      <c r="B276" s="3" t="s">
         <v>1422</v>
       </c>
-      <c r="C271" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D271" s="4" t="s">
+      <c r="C276" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D276" s="4" t="s">
         <v>1423</v>
       </c>
-      <c r="E271" s="18" t="s">
+      <c r="E276" s="18" t="s">
         <v>1424</v>
       </c>
-      <c r="F271" s="4" t="s">
+      <c r="F276" s="4" t="s">
         <v>1425</v>
       </c>
-      <c r="G271" s="4" t="s">
+      <c r="G276" s="4" t="s">
         <v>1426</v>
       </c>
     </row>
-    <row r="272" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A272" s="2">
+    <row r="277" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A277" s="2">
         <v>268</v>
       </c>
-      <c r="B272" s="77" t="s">
+      <c r="B277" s="63" t="s">
         <v>1427</v>
       </c>
-      <c r="C272" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D272" s="5" t="s">
+      <c r="C277" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D277" s="5" t="s">
         <v>1428</v>
       </c>
-      <c r="E272" s="21" t="s">
+      <c r="E277" s="21" t="s">
         <v>1429</v>
       </c>
-      <c r="F272" s="30" t="s">
+      <c r="F277" s="30" t="s">
         <v>1430</v>
       </c>
-      <c r="G272" s="64" t="s">
+      <c r="G277" s="52" t="s">
         <v>1431</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A273" s="2">
-        <v>269</v>
-      </c>
-      <c r="B273" s="3" t="s">
-        <v>1432</v>
-      </c>
-      <c r="C273" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D273" s="70" t="s">
-        <v>1433</v>
-      </c>
-      <c r="E273" s="11" t="s">
-        <v>1434</v>
-      </c>
-      <c r="F273" s="4" t="s">
-        <v>1435</v>
-      </c>
-      <c r="G273" s="4" t="s">
-        <v>1436</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A274" s="2">
-        <v>270</v>
-      </c>
-      <c r="B274" s="3" t="s">
-        <v>1437</v>
-      </c>
-      <c r="C274" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D274" s="5" t="s">
-        <v>1438</v>
-      </c>
-      <c r="E274" s="15" t="s">
-        <v>1439</v>
-      </c>
-      <c r="F274" s="8" t="s">
-        <v>1440</v>
-      </c>
-      <c r="G274" s="5" t="s">
-        <v>1441</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="57">
-        <v>271</v>
-      </c>
-      <c r="B275" s="59" t="s">
-        <v>1442</v>
-      </c>
-      <c r="C275" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="D275" s="34" t="s">
-        <v>1443</v>
-      </c>
-      <c r="E275" s="97" t="s">
-        <v>1445</v>
-      </c>
-      <c r="F275" s="55" t="s">
-        <v>1446</v>
-      </c>
-      <c r="G275" s="55" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A276" s="58"/>
-      <c r="B276" s="60"/>
-      <c r="C276" s="56"/>
-      <c r="D276" s="96" t="s">
-        <v>1444</v>
-      </c>
-      <c r="E276" s="98"/>
-      <c r="F276" s="56"/>
-      <c r="G276" s="56"/>
-    </row>
-    <row r="277" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A277" s="2">
-        <v>272</v>
-      </c>
-      <c r="B277" s="3" t="s">
-        <v>1448</v>
-      </c>
-      <c r="C277" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D277" s="5" t="s">
-        <v>1449</v>
-      </c>
-      <c r="E277" s="7" t="s">
-        <v>1450</v>
-      </c>
-      <c r="F277" s="14" t="s">
-        <v>1451</v>
-      </c>
-      <c r="G277" s="5" t="s">
-        <v>1452</v>
       </c>
     </row>
     <row r="278" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
-        <v>273</v>
-      </c>
-      <c r="B278" s="73" t="s">
-        <v>1453</v>
+        <v>269</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>1432</v>
       </c>
       <c r="C278" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D278" s="11" t="s">
-        <v>1454</v>
-      </c>
-      <c r="E278" s="4" t="s">
-        <v>1455</v>
+      <c r="D278" s="56" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E278" s="11" t="s">
+        <v>1434</v>
       </c>
       <c r="F278" s="4" t="s">
-        <v>1456</v>
-      </c>
-      <c r="G278" s="11" t="s">
-        <v>1457</v>
+        <v>1435</v>
+      </c>
+      <c r="G278" s="4" t="s">
+        <v>1436</v>
       </c>
     </row>
     <row r="279" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>1458</v>
+        <v>1437</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D279" s="16" t="s">
-        <v>1459</v>
-      </c>
-      <c r="E279" s="17" t="s">
-        <v>1460</v>
-      </c>
-      <c r="F279" s="5" t="s">
-        <v>1461</v>
-      </c>
-      <c r="G279" s="33" t="s">
-        <v>1462</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A280" s="2">
-        <v>275</v>
-      </c>
-      <c r="B280" s="77" t="s">
-        <v>1463</v>
-      </c>
-      <c r="C280" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D280" s="4" t="s">
-        <v>1464</v>
-      </c>
-      <c r="E280" s="18" t="s">
-        <v>1465</v>
-      </c>
-      <c r="F280" s="20" t="s">
-        <v>1466</v>
-      </c>
-      <c r="G280" s="9" t="s">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A281" s="2">
-        <v>276</v>
-      </c>
-      <c r="B281" s="69" t="s">
-        <v>1468</v>
-      </c>
-      <c r="C281" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D281" s="8" t="s">
-        <v>1469</v>
-      </c>
-      <c r="E281" s="17" t="s">
-        <v>1470</v>
-      </c>
-      <c r="F281" s="5" t="s">
-        <v>1471</v>
-      </c>
-      <c r="G281" s="5" t="s">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="D279" s="5" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E279" s="15" t="s">
+        <v>1439</v>
+      </c>
+      <c r="F279" s="8" t="s">
+        <v>1440</v>
+      </c>
+      <c r="G279" s="5" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="71">
+        <v>271</v>
+      </c>
+      <c r="B280" s="73" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C280" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="D280" s="34" t="s">
+        <v>1443</v>
+      </c>
+      <c r="E280" s="75" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F280" s="69" t="s">
+        <v>1446</v>
+      </c>
+      <c r="G280" s="69" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A281" s="72"/>
+      <c r="B281" s="74"/>
+      <c r="C281" s="70"/>
+      <c r="D281" s="68" t="s">
+        <v>1444</v>
+      </c>
+      <c r="E281" s="76"/>
+      <c r="F281" s="70"/>
+      <c r="G281" s="70"/>
+    </row>
+    <row r="282" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
-        <v>277</v>
-      </c>
-      <c r="B282" s="77" t="s">
-        <v>1473</v>
-      </c>
-      <c r="C282" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D282" s="4" t="s">
-        <v>1474</v>
-      </c>
-      <c r="E282" s="12" t="s">
-        <v>1475</v>
-      </c>
-      <c r="F282" s="4" t="s">
-        <v>1476</v>
-      </c>
-      <c r="G282" s="4" t="s">
-        <v>1477</v>
+        <v>272</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C282" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D282" s="5" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E282" s="7" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F282" s="14" t="s">
+        <v>1451</v>
+      </c>
+      <c r="G282" s="5" t="s">
+        <v>1452</v>
       </c>
     </row>
     <row r="283" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
-        <v>278</v>
-      </c>
-      <c r="B283" s="3" t="s">
-        <v>1276</v>
-      </c>
-      <c r="C283" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D283" s="33" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E283" s="14" t="s">
-        <v>1278</v>
-      </c>
-      <c r="F283" s="5" t="s">
-        <v>1279</v>
-      </c>
-      <c r="G283" s="33" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="B283" s="59" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C283" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D283" s="11" t="s">
+        <v>1454</v>
+      </c>
+      <c r="E283" s="4" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F283" s="4" t="s">
+        <v>1456</v>
+      </c>
+      <c r="G283" s="11" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>1281</v>
-      </c>
-      <c r="C284" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D284" s="4" t="s">
-        <v>1282</v>
-      </c>
-      <c r="E284" s="4" t="s">
-        <v>1283</v>
-      </c>
-      <c r="F284" s="4" t="s">
-        <v>1284</v>
-      </c>
-      <c r="G284" s="9" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+        <v>1458</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D284" s="16" t="s">
+        <v>1459</v>
+      </c>
+      <c r="E284" s="17" t="s">
+        <v>1460</v>
+      </c>
+      <c r="F284" s="5" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G284" s="33" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
-        <v>280</v>
-      </c>
-      <c r="B285" s="3" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C285" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D285" s="14" t="s">
-        <v>1287</v>
-      </c>
-      <c r="E285" s="17" t="s">
-        <v>1288</v>
-      </c>
-      <c r="F285" s="13" t="s">
-        <v>1289</v>
-      </c>
-      <c r="G285" s="31" t="s">
-        <v>1290</v>
+        <v>275</v>
+      </c>
+      <c r="B285" s="63" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C285" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D285" s="4" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E285" s="18" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F285" s="20" t="s">
+        <v>1466</v>
+      </c>
+      <c r="G285" s="9" t="s">
+        <v>1467</v>
       </c>
     </row>
     <row r="286" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
-        <v>281</v>
-      </c>
-      <c r="B286" s="3" t="s">
-        <v>1291</v>
-      </c>
-      <c r="C286" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D286" s="4" t="s">
-        <v>1292</v>
-      </c>
-      <c r="E286" s="18" t="s">
-        <v>1293</v>
-      </c>
-      <c r="F286" s="9" t="s">
-        <v>1294</v>
-      </c>
-      <c r="G286" s="12" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="B286" s="55" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D286" s="8" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E286" s="17" t="s">
+        <v>1470</v>
+      </c>
+      <c r="F286" s="5" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G286" s="5" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
-        <v>282</v>
-      </c>
-      <c r="B287" s="3" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C287" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D287" s="5" t="s">
-        <v>1297</v>
-      </c>
-      <c r="E287" s="8" t="s">
-        <v>1298</v>
-      </c>
-      <c r="F287" s="5" t="s">
-        <v>1299</v>
-      </c>
-      <c r="G287" s="21" t="s">
-        <v>1300</v>
+        <v>277</v>
+      </c>
+      <c r="B287" s="63" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C287" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D287" s="4" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E287" s="12" t="s">
+        <v>1475</v>
+      </c>
+      <c r="F287" s="4" t="s">
+        <v>1476</v>
+      </c>
+      <c r="G287" s="4" t="s">
+        <v>1477</v>
       </c>
     </row>
     <row r="288" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>1301</v>
-      </c>
-      <c r="C288" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D288" s="4" t="s">
-        <v>1302</v>
-      </c>
-      <c r="E288" s="18" t="s">
-        <v>1303</v>
-      </c>
-      <c r="F288" s="36" t="s">
-        <v>1304</v>
-      </c>
-      <c r="G288" s="4" t="s">
-        <v>1305</v>
+        <v>1276</v>
+      </c>
+      <c r="C288" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D288" s="33" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E288" s="14" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F288" s="5" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G288" s="33" t="s">
+        <v>1280</v>
       </c>
     </row>
     <row r="289" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C289" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D289" s="5" t="s">
-        <v>1307</v>
-      </c>
-      <c r="E289" s="8" t="s">
-        <v>1308</v>
-      </c>
-      <c r="F289" s="8" t="s">
-        <v>1309</v>
-      </c>
-      <c r="G289" s="30" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+        <v>1281</v>
+      </c>
+      <c r="C289" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D289" s="4" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E289" s="4" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F289" s="4" t="s">
+        <v>1284</v>
+      </c>
+      <c r="G289" s="9" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>1311</v>
-      </c>
-      <c r="C290" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D290" s="48" t="s">
-        <v>1312</v>
-      </c>
-      <c r="E290" s="4" t="s">
-        <v>1313</v>
-      </c>
-      <c r="F290" s="4" t="s">
-        <v>1314</v>
-      </c>
-      <c r="G290" s="4" t="s">
-        <v>1315</v>
+        <v>1286</v>
+      </c>
+      <c r="C290" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D290" s="14" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E290" s="17" t="s">
+        <v>1288</v>
+      </c>
+      <c r="F290" s="13" t="s">
+        <v>1289</v>
+      </c>
+      <c r="G290" s="31" t="s">
+        <v>1290</v>
       </c>
     </row>
     <row r="291" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>1316</v>
-      </c>
-      <c r="C291" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D291" s="5" t="s">
-        <v>1317</v>
-      </c>
-      <c r="E291" s="21" t="s">
-        <v>1318</v>
-      </c>
-      <c r="F291" s="5" t="s">
-        <v>1319</v>
-      </c>
-      <c r="G291" s="14" t="s">
-        <v>1320</v>
+        <v>1291</v>
+      </c>
+      <c r="C291" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D291" s="4" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E291" s="18" t="s">
+        <v>1293</v>
+      </c>
+      <c r="F291" s="9" t="s">
+        <v>1294</v>
+      </c>
+      <c r="G291" s="12" t="s">
+        <v>1295</v>
       </c>
     </row>
     <row r="292" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>1321</v>
-      </c>
-      <c r="C292" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D292" s="4" t="s">
-        <v>1322</v>
-      </c>
-      <c r="E292" s="12" t="s">
-        <v>1323</v>
-      </c>
-      <c r="F292" s="4" t="s">
-        <v>1324</v>
-      </c>
-      <c r="G292" s="4" t="s">
-        <v>1325</v>
+        <v>1296</v>
+      </c>
+      <c r="C292" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D292" s="5" t="s">
+        <v>1297</v>
+      </c>
+      <c r="E292" s="8" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F292" s="5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="G292" s="21" t="s">
+        <v>1300</v>
       </c>
     </row>
     <row r="293" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>1326</v>
-      </c>
-      <c r="C293" s="5" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C293" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D293" s="4" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E293" s="18" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F293" s="36" t="s">
+        <v>1304</v>
+      </c>
+      <c r="G293" s="4" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A294" s="2">
+        <v>284</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C294" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D294" s="5" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E294" s="8" t="s">
+        <v>1308</v>
+      </c>
+      <c r="F294" s="8" t="s">
+        <v>1309</v>
+      </c>
+      <c r="G294" s="30" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A295" s="2">
+        <v>285</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C295" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D293" s="35" t="s">
-        <v>1327</v>
-      </c>
-      <c r="E293" s="5" t="s">
-        <v>1328</v>
-      </c>
-      <c r="F293" s="8" t="s">
-        <v>1329</v>
-      </c>
-      <c r="G293" s="5" t="s">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A294" s="2">
-        <v>289</v>
-      </c>
-      <c r="B294" s="3" t="s">
-        <v>1331</v>
-      </c>
-      <c r="C294" s="4" t="s">
+      <c r="D295" s="48" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E295" s="4" t="s">
+        <v>1313</v>
+      </c>
+      <c r="F295" s="4" t="s">
+        <v>1314</v>
+      </c>
+      <c r="G295" s="4" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A296" s="2">
+        <v>286</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C296" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D296" s="5" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E296" s="21" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F296" s="5" t="s">
+        <v>1319</v>
+      </c>
+      <c r="G296" s="14" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A297" s="2">
+        <v>287</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C297" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D294" s="12" t="s">
-        <v>1332</v>
-      </c>
-      <c r="E294" s="20" t="s">
-        <v>1333</v>
-      </c>
-      <c r="F294" s="4" t="s">
-        <v>1334</v>
-      </c>
-      <c r="G294" s="4" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A295" s="2">
-        <v>290</v>
-      </c>
-      <c r="B295" s="3" t="s">
-        <v>1336</v>
-      </c>
-      <c r="C295" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D295" s="5" t="s">
-        <v>1337</v>
-      </c>
-      <c r="E295" s="5" t="s">
-        <v>1338</v>
-      </c>
-      <c r="F295" s="5" t="s">
-        <v>1339</v>
-      </c>
-      <c r="G295" s="5" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A296" s="2">
-        <v>291</v>
-      </c>
-      <c r="B296" s="3" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C296" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D296" s="37" t="s">
-        <v>1342</v>
-      </c>
-      <c r="E296" s="4" t="s">
-        <v>1343</v>
-      </c>
-      <c r="F296" s="4" t="s">
-        <v>1344</v>
-      </c>
-      <c r="G296" s="4" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A297" s="2">
-        <v>292</v>
-      </c>
-      <c r="B297" s="3" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C297" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D297" s="30" t="s">
-        <v>1347</v>
-      </c>
-      <c r="E297" s="17" t="s">
-        <v>1348</v>
-      </c>
-      <c r="F297" s="5" t="s">
-        <v>1349</v>
-      </c>
-      <c r="G297" s="5" t="s">
-        <v>1350</v>
+      <c r="D297" s="4" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E297" s="12" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F297" s="4" t="s">
+        <v>1324</v>
+      </c>
+      <c r="G297" s="4" t="s">
+        <v>1325</v>
       </c>
     </row>
     <row r="298" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>1351</v>
-      </c>
-      <c r="C298" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D298" s="4" t="s">
-        <v>1352</v>
-      </c>
-      <c r="E298" s="12" t="s">
-        <v>1353</v>
-      </c>
-      <c r="F298" s="12" t="s">
-        <v>1354</v>
-      </c>
-      <c r="G298" s="12" t="s">
-        <v>1355</v>
+        <v>1326</v>
+      </c>
+      <c r="C298" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D298" s="35" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E298" s="5" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F298" s="8" t="s">
+        <v>1329</v>
+      </c>
+      <c r="G298" s="5" t="s">
+        <v>1330</v>
       </c>
     </row>
     <row r="299" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>1356</v>
-      </c>
-      <c r="C299" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D299" s="64" t="s">
-        <v>1357</v>
-      </c>
-      <c r="E299" s="16" t="s">
-        <v>1358</v>
-      </c>
-      <c r="F299" s="7" t="s">
-        <v>1359</v>
-      </c>
-      <c r="G299" s="8" t="s">
-        <v>1360</v>
+        <v>1331</v>
+      </c>
+      <c r="C299" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D299" s="12" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E299" s="20" t="s">
+        <v>1333</v>
+      </c>
+      <c r="F299" s="4" t="s">
+        <v>1334</v>
+      </c>
+      <c r="G299" s="4" t="s">
+        <v>1335</v>
       </c>
     </row>
     <row r="300" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
+        <v>290</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C300" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D300" s="5" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E300" s="5" t="s">
+        <v>1338</v>
+      </c>
+      <c r="F300" s="5" t="s">
+        <v>1339</v>
+      </c>
+      <c r="G300" s="5" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A301" s="2">
+        <v>291</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C301" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D301" s="37" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E301" s="4" t="s">
+        <v>1343</v>
+      </c>
+      <c r="F301" s="4" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G301" s="4" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A302" s="2">
+        <v>292</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C302" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D302" s="30" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E302" s="17" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F302" s="5" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G302" s="5" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A303" s="2">
+        <v>293</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C303" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D303" s="4" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E303" s="12" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F303" s="12" t="s">
+        <v>1354</v>
+      </c>
+      <c r="G303" s="12" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A304" s="2">
+        <v>294</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C304" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D304" s="52" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E304" s="16" t="s">
+        <v>1358</v>
+      </c>
+      <c r="F304" s="7" t="s">
+        <v>1359</v>
+      </c>
+      <c r="G304" s="8" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A305" s="2">
         <v>295</v>
       </c>
-      <c r="B300" s="3" t="s">
+      <c r="B305" s="3" t="s">
         <v>1361</v>
       </c>
-      <c r="C300" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D300" s="48" t="s">
+      <c r="C305" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D305" s="48" t="s">
         <v>1362</v>
       </c>
-      <c r="E300" s="9" t="s">
+      <c r="E305" s="9" t="s">
         <v>1363</v>
       </c>
-      <c r="F300" s="4" t="s">
+      <c r="F305" s="4" t="s">
         <v>1364</v>
       </c>
-      <c r="G300" s="74" t="s">
+      <c r="G305" s="60" t="s">
         <v>1365</v>
       </c>
     </row>
-    <row r="301" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A301" s="2">
+    <row r="306" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A306" s="2">
         <v>296</v>
       </c>
-      <c r="B301" s="3" t="s">
+      <c r="B306" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="C301" s="5" t="s">
+      <c r="C306" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D301" s="5" t="s">
+      <c r="D306" s="5" t="s">
         <v>1367</v>
       </c>
-      <c r="E301" s="21" t="s">
+      <c r="E306" s="21" t="s">
         <v>1368</v>
       </c>
-      <c r="F301" s="5" t="s">
+      <c r="F306" s="5" t="s">
         <v>1369</v>
       </c>
-      <c r="G301" s="6" t="s">
+      <c r="G306" s="6" t="s">
         <v>1370</v>
       </c>
     </row>
-    <row r="302" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A302" s="57">
+    <row r="307" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A307" s="71">
         <v>297</v>
       </c>
-      <c r="B302" s="59" t="s">
+      <c r="B307" s="73" t="s">
         <v>1371</v>
       </c>
-      <c r="C302" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="D302" s="34" t="s">
+      <c r="C307" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="D307" s="34" t="s">
         <v>1372</v>
       </c>
-      <c r="E302" s="65" t="s">
+      <c r="E307" s="77" t="s">
         <v>1374</v>
       </c>
-      <c r="F302" s="94" t="s">
+      <c r="F307" s="79" t="s">
         <v>1375</v>
       </c>
-      <c r="G302" s="55" t="s">
+      <c r="G307" s="69" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A303" s="58"/>
-      <c r="B303" s="60"/>
-      <c r="C303" s="56"/>
-      <c r="D303" s="93" t="s">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A308" s="72"/>
+      <c r="B308" s="74"/>
+      <c r="C308" s="70"/>
+      <c r="D308" s="67" t="s">
         <v>1373</v>
       </c>
-      <c r="E303" s="66"/>
-      <c r="F303" s="95"/>
-      <c r="G303" s="56"/>
+      <c r="E308" s="78"/>
+      <c r="F308" s="80"/>
+      <c r="G308" s="70"/>
     </row>
   </sheetData>
-  <mergeCells count="60">
-    <mergeCell ref="G302:G303"/>
-    <mergeCell ref="A275:A276"/>
-    <mergeCell ref="B275:B276"/>
-    <mergeCell ref="C275:C276"/>
-    <mergeCell ref="E275:E276"/>
-    <mergeCell ref="F275:F276"/>
-    <mergeCell ref="G275:G276"/>
-    <mergeCell ref="A302:A303"/>
-    <mergeCell ref="B302:B303"/>
-    <mergeCell ref="C302:C303"/>
-    <mergeCell ref="E302:E303"/>
-    <mergeCell ref="F302:F303"/>
-    <mergeCell ref="G186:G187"/>
-    <mergeCell ref="A212:A213"/>
-    <mergeCell ref="B212:B213"/>
-    <mergeCell ref="C212:C213"/>
-    <mergeCell ref="E212:E213"/>
-    <mergeCell ref="F212:F213"/>
-    <mergeCell ref="G212:G213"/>
-    <mergeCell ref="A186:A187"/>
-    <mergeCell ref="B186:B187"/>
-    <mergeCell ref="C186:C187"/>
-    <mergeCell ref="E186:E187"/>
-    <mergeCell ref="F186:F187"/>
-    <mergeCell ref="G162:G163"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="E168:E169"/>
-    <mergeCell ref="F168:F169"/>
-    <mergeCell ref="G168:G169"/>
-    <mergeCell ref="A162:A163"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="C162:C163"/>
-    <mergeCell ref="E162:E163"/>
-    <mergeCell ref="F162:F163"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:F77"/>
+  <mergeCells count="65">
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="F147:F148"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
     <mergeCell ref="G49:G50"/>
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="B41:B42"/>
@@ -12132,12 +12278,48 @@
     <mergeCell ref="F49:F50"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="E49:E50"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G167:G168"/>
+    <mergeCell ref="A173:A174"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="E173:E174"/>
+    <mergeCell ref="F173:F174"/>
+    <mergeCell ref="G173:G174"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="E167:E168"/>
+    <mergeCell ref="F167:F168"/>
+    <mergeCell ref="G191:G192"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="E217:E218"/>
+    <mergeCell ref="F217:F218"/>
+    <mergeCell ref="G217:G218"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="B191:B192"/>
+    <mergeCell ref="C191:C192"/>
+    <mergeCell ref="E191:E192"/>
+    <mergeCell ref="F191:F192"/>
+    <mergeCell ref="G307:G308"/>
+    <mergeCell ref="A280:A281"/>
+    <mergeCell ref="B280:B281"/>
+    <mergeCell ref="C280:C281"/>
+    <mergeCell ref="E280:E281"/>
+    <mergeCell ref="F280:F281"/>
+    <mergeCell ref="G280:G281"/>
+    <mergeCell ref="A307:A308"/>
+    <mergeCell ref="B307:B308"/>
+    <mergeCell ref="C307:C308"/>
+    <mergeCell ref="E307:E308"/>
+    <mergeCell ref="F307:F308"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12522,38 +12704,38 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="153" x14ac:dyDescent="0.25">
-      <c r="A17" s="57">
+      <c r="A17" s="71">
         <v>137</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="73" t="s">
         <v>671</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="69" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="34" t="s">
         <v>672</v>
       </c>
-      <c r="E17" s="61" t="s">
+      <c r="E17" s="99" t="s">
         <v>674</v>
       </c>
-      <c r="F17" s="55" t="s">
+      <c r="F17" s="69" t="s">
         <v>675</v>
       </c>
-      <c r="G17" s="55" t="s">
+      <c r="G17" s="69" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="267.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="56"/>
+      <c r="A18" s="72"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="70"/>
       <c r="D18" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="E18" s="62"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
     </row>
     <row r="19" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">

--- a/Word_List.xlsx
+++ b/Word_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ishan\Desktop\Git\Words\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22F3041-3422-4A19-82CB-DD6D759024E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DD301D-7EFF-4C8A-9A80-CC91EB22BC38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" xr2:uid="{CD0CF8ED-F069-428D-9EBB-C949E843A76D}"/>
   </bookViews>
@@ -4665,7 +4665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4745,14 +4745,8 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
@@ -4790,92 +4784,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="10"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="13"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="12"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="11"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="14"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="10"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="11"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="12"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4890,58 +4815,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="11"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="11"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -4966,6 +4843,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5284,41 +5170,41 @@
   <dimension ref="A1:G308"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="C151" sqref="C151"/>
+      <selection activeCell="C151" sqref="A1:G308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="28" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" style="28" customWidth="1"/>
-    <col min="4" max="4" width="47.42578125" style="28" customWidth="1"/>
-    <col min="5" max="5" width="30" style="28" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" style="28" customWidth="1"/>
-    <col min="7" max="7" width="51.42578125" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="28"/>
+    <col min="1" max="1" width="7.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="27" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="30" style="27" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" style="27" customWidth="1"/>
+    <col min="7" max="7" width="51.42578125" style="27" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="40" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5714,38 +5600,38 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="95">
+      <c r="A19" s="54">
         <v>18</v>
       </c>
-      <c r="B19" s="97" t="s">
+      <c r="B19" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="93" t="s">
+      <c r="C19" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="93" t="s">
+      <c r="E19" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="F19" s="93" t="s">
+      <c r="F19" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="G19" s="93" t="s">
+      <c r="G19" s="52" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="96"/>
-      <c r="B20" s="98"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="27" t="s">
+      <c r="A20" s="55"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="94"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
     </row>
     <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
@@ -6196,48 +6082,48 @@
       </c>
     </row>
     <row r="41" spans="1:7" s="22" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="95">
+      <c r="A41" s="54">
         <v>38</v>
       </c>
-      <c r="B41" s="97" t="s">
+      <c r="B41" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="C41" s="93" t="s">
+      <c r="C41" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="29" t="s">
+      <c r="D41" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="E41" s="93" t="s">
+      <c r="E41" s="52" t="s">
         <v>199</v>
       </c>
-      <c r="F41" s="93" t="s">
+      <c r="F41" s="52" t="s">
         <v>200</v>
       </c>
-      <c r="G41" s="93" t="s">
+      <c r="G41" s="52" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="22" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A42" s="96">
+      <c r="A42" s="55">
         <v>39</v>
       </c>
-      <c r="B42" s="98" t="s">
+      <c r="B42" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="C42" s="94" t="s">
+      <c r="C42" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="27" t="s">
+      <c r="D42" s="43" t="s">
         <v>692</v>
       </c>
-      <c r="E42" s="94" t="s">
+      <c r="E42" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="F42" s="94" t="s">
+      <c r="F42" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="G42" s="94" t="s">
+      <c r="G42" s="53" t="s">
         <v>205</v>
       </c>
     </row>
@@ -6380,38 +6266,38 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="95">
+      <c r="A49" s="54">
         <v>46</v>
       </c>
-      <c r="B49" s="97" t="s">
+      <c r="B49" s="56" t="s">
         <v>236</v>
       </c>
-      <c r="C49" s="93" t="s">
+      <c r="C49" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="29" t="s">
+      <c r="D49" s="42" t="s">
         <v>237</v>
       </c>
-      <c r="E49" s="93" t="s">
+      <c r="E49" s="52" t="s">
         <v>239</v>
       </c>
-      <c r="F49" s="93" t="s">
+      <c r="F49" s="52" t="s">
         <v>240</v>
       </c>
-      <c r="G49" s="93" t="s">
+      <c r="G49" s="52" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="96"/>
-      <c r="B50" s="98"/>
-      <c r="C50" s="94"/>
-      <c r="D50" s="27" t="s">
+      <c r="A50" s="55"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="E50" s="94"/>
-      <c r="F50" s="94"/>
-      <c r="G50" s="94"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="53"/>
     </row>
     <row r="51" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
@@ -6989,38 +6875,38 @@
       </c>
     </row>
     <row r="76" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A76" s="95">
+      <c r="A76" s="54">
         <v>72</v>
       </c>
-      <c r="B76" s="97" t="s">
+      <c r="B76" s="56" t="s">
         <v>367</v>
       </c>
-      <c r="C76" s="93" t="s">
+      <c r="C76" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D76" s="29" t="s">
+      <c r="D76" s="42" t="s">
         <v>368</v>
       </c>
-      <c r="E76" s="93" t="s">
+      <c r="E76" s="52" t="s">
         <v>370</v>
       </c>
-      <c r="F76" s="93" t="s">
+      <c r="F76" s="52" t="s">
         <v>371</v>
       </c>
-      <c r="G76" s="93" t="s">
+      <c r="G76" s="52" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="96"/>
-      <c r="B77" s="98"/>
-      <c r="C77" s="94"/>
-      <c r="D77" s="27" t="s">
+      <c r="A77" s="55"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="53"/>
+      <c r="D77" s="43" t="s">
         <v>369</v>
       </c>
-      <c r="E77" s="94"/>
-      <c r="F77" s="94"/>
-      <c r="G77" s="94"/>
+      <c r="E77" s="53"/>
+      <c r="F77" s="53"/>
+      <c r="G77" s="53"/>
     </row>
     <row r="78" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
@@ -7153,7 +7039,7 @@
       <c r="E83" s="26" t="s">
         <v>400</v>
       </c>
-      <c r="F83" s="40" t="s">
+      <c r="F83" s="38" t="s">
         <v>401</v>
       </c>
       <c r="G83" s="26" t="s">
@@ -8057,72 +7943,72 @@
         <v>595</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A123" s="2">
+    <row r="123" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A123" s="23">
         <v>119</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="24" t="s">
         <v>694</v>
       </c>
-      <c r="C123" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D123" s="4" t="s">
+      <c r="C123" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D123" s="25" t="s">
         <v>695</v>
       </c>
-      <c r="E123" s="47" t="s">
+      <c r="E123" s="25" t="s">
         <v>696</v>
       </c>
-      <c r="F123" s="12" t="s">
+      <c r="F123" s="25" t="s">
         <v>697</v>
       </c>
-      <c r="G123" s="48" t="s">
+      <c r="G123" s="25" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A124" s="2">
+    <row r="124" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A124" s="23">
         <v>120</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="24" t="s">
         <v>699</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="C124" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D124" s="5" t="s">
+      <c r="D124" s="26" t="s">
         <v>700</v>
       </c>
-      <c r="E124" s="5" t="s">
+      <c r="E124" s="26" t="s">
         <v>701</v>
       </c>
-      <c r="F124" s="14" t="s">
+      <c r="F124" s="26" t="s">
         <v>702</v>
       </c>
-      <c r="G124" s="21" t="s">
+      <c r="G124" s="26" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A125" s="2">
+    <row r="125" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A125" s="23">
         <v>121</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="24" t="s">
         <v>704</v>
       </c>
-      <c r="C125" s="4" t="s">
+      <c r="C125" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D125" s="4" t="s">
+      <c r="D125" s="25" t="s">
         <v>705</v>
       </c>
-      <c r="E125" s="4" t="s">
+      <c r="E125" s="25" t="s">
         <v>706</v>
       </c>
-      <c r="F125" s="4" t="s">
+      <c r="F125" s="25" t="s">
         <v>707</v>
       </c>
-      <c r="G125" s="20" t="s">
+      <c r="G125" s="25" t="s">
         <v>708</v>
       </c>
     </row>
@@ -8472,25 +8358,25 @@
       </c>
     </row>
     <row r="141" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A141" s="46">
+      <c r="A141" s="44">
         <v>137</v>
       </c>
-      <c r="B141" s="42" t="s">
+      <c r="B141" s="45" t="s">
         <v>671</v>
       </c>
-      <c r="C141" s="43" t="s">
+      <c r="C141" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="D141" s="41" t="s">
+      <c r="D141" s="39" t="s">
         <v>693</v>
       </c>
-      <c r="E141" s="43" t="s">
+      <c r="E141" s="39" t="s">
         <v>674</v>
       </c>
-      <c r="F141" s="43" t="s">
+      <c r="F141" s="39" t="s">
         <v>675</v>
       </c>
-      <c r="G141" s="43" t="s">
+      <c r="G141" s="39" t="s">
         <v>676</v>
       </c>
     </row>
@@ -8564,3708 +8450,3739 @@
       </c>
     </row>
     <row r="145" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="2">
+      <c r="A145" s="23">
         <v>141</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" s="24" t="s">
         <v>709</v>
       </c>
-      <c r="C145" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D145" s="4" t="s">
+      <c r="C145" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D145" s="25" t="s">
         <v>710</v>
       </c>
-      <c r="E145" s="37" t="s">
+      <c r="E145" s="25" t="s">
         <v>711</v>
       </c>
-      <c r="F145" s="9" t="s">
+      <c r="F145" s="25" t="s">
         <v>712</v>
       </c>
-      <c r="G145" s="9" t="s">
+      <c r="G145" s="25" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A146" s="2">
+      <c r="A146" s="23">
         <v>142</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B146" s="24" t="s">
         <v>1478</v>
       </c>
-      <c r="C146" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D146" s="5" t="s">
+      <c r="C146" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D146" s="26" t="s">
         <v>1479</v>
       </c>
-      <c r="E146" s="21" t="s">
+      <c r="E146" s="26" t="s">
         <v>1480</v>
       </c>
-      <c r="F146" s="5" t="s">
+      <c r="F146" s="26" t="s">
         <v>1481</v>
       </c>
-      <c r="G146" s="5" t="s">
+      <c r="G146" s="26" t="s">
         <v>1482</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="71">
+      <c r="A147" s="54">
         <v>143</v>
       </c>
-      <c r="B147" s="73" t="s">
+      <c r="B147" s="56" t="s">
         <v>1483</v>
       </c>
-      <c r="C147" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="D147" s="49" t="s">
+      <c r="C147" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D147" s="39" t="s">
         <v>1484</v>
       </c>
-      <c r="E147" s="69" t="s">
+      <c r="E147" s="60" t="s">
         <v>1486</v>
       </c>
-      <c r="F147" s="77" t="s">
+      <c r="F147" s="60" t="s">
         <v>1487</v>
       </c>
-      <c r="G147" s="49" t="s">
+      <c r="G147" s="39" t="s">
         <v>1488</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="72"/>
-      <c r="B148" s="74"/>
-      <c r="C148" s="70"/>
-      <c r="D148" s="50" t="s">
+      <c r="A148" s="55"/>
+      <c r="B148" s="57"/>
+      <c r="C148" s="61"/>
+      <c r="D148" s="62" t="s">
         <v>1485</v>
       </c>
-      <c r="E148" s="70"/>
-      <c r="F148" s="78"/>
-      <c r="G148" s="50" t="s">
+      <c r="E148" s="61"/>
+      <c r="F148" s="61"/>
+      <c r="G148" s="62" t="s">
         <v>1489</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A149" s="2">
+    <row r="149" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A149" s="23">
         <v>144</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B149" s="24" t="s">
         <v>1490</v>
       </c>
-      <c r="C149" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D149" s="5" t="s">
+      <c r="C149" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D149" s="26" t="s">
         <v>1491</v>
       </c>
-      <c r="E149" s="14" t="s">
+      <c r="E149" s="26" t="s">
         <v>1492</v>
       </c>
-      <c r="F149" s="30" t="s">
+      <c r="F149" s="26" t="s">
         <v>1493</v>
       </c>
-      <c r="G149" s="21" t="s">
+      <c r="G149" s="26" t="s">
         <v>1494</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A150" s="2">
+      <c r="A150" s="23">
         <v>145</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B150" s="24" t="s">
         <v>1495</v>
       </c>
-      <c r="C150" s="4" t="s">
+      <c r="C150" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D150" s="4" t="s">
+      <c r="D150" s="25" t="s">
         <v>1496</v>
       </c>
-      <c r="E150" s="4" t="s">
+      <c r="E150" s="25" t="s">
         <v>1497</v>
       </c>
-      <c r="F150" s="4" t="s">
+      <c r="F150" s="25" t="s">
         <v>1498</v>
       </c>
-      <c r="G150" s="4" t="s">
+      <c r="G150" s="25" t="s">
         <v>1499</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="2">
+      <c r="A151" s="23">
         <v>146</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B151" s="24" t="s">
         <v>714</v>
       </c>
-      <c r="C151" s="5" t="s">
+      <c r="C151" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D151" s="5" t="s">
+      <c r="D151" s="26" t="s">
         <v>715</v>
       </c>
-      <c r="E151" s="5" t="s">
+      <c r="E151" s="26" t="s">
         <v>716</v>
       </c>
-      <c r="F151" s="5" t="s">
+      <c r="F151" s="26" t="s">
         <v>717</v>
       </c>
-      <c r="G151" s="17" t="s">
+      <c r="G151" s="26" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A152" s="2">
+      <c r="A152" s="23">
         <v>147</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="24" t="s">
         <v>719</v>
       </c>
-      <c r="C152" s="4" t="s">
+      <c r="C152" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D152" s="4" t="s">
+      <c r="D152" s="25" t="s">
         <v>720</v>
       </c>
-      <c r="E152" s="4" t="s">
+      <c r="E152" s="25" t="s">
         <v>721</v>
       </c>
-      <c r="F152" s="4" t="s">
+      <c r="F152" s="25" t="s">
         <v>722</v>
       </c>
-      <c r="G152" s="4" t="s">
+      <c r="G152" s="25" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A153" s="2">
+    <row r="153" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A153" s="23">
         <v>148</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" s="24" t="s">
         <v>724</v>
       </c>
-      <c r="C153" s="5" t="s">
+      <c r="C153" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D153" s="51" t="s">
+      <c r="D153" s="26" t="s">
         <v>725</v>
       </c>
-      <c r="E153" s="17" t="s">
+      <c r="E153" s="26" t="s">
         <v>726</v>
       </c>
-      <c r="F153" s="5" t="s">
+      <c r="F153" s="26" t="s">
         <v>727</v>
       </c>
-      <c r="G153" s="14" t="s">
+      <c r="G153" s="26" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A154" s="2">
+    <row r="154" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A154" s="23">
         <v>149</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B154" s="24" t="s">
         <v>729</v>
       </c>
-      <c r="C154" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D154" s="20" t="s">
+      <c r="C154" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D154" s="25" t="s">
         <v>730</v>
       </c>
-      <c r="E154" s="20" t="s">
+      <c r="E154" s="25" t="s">
         <v>731</v>
       </c>
-      <c r="F154" s="20" t="s">
+      <c r="F154" s="25" t="s">
         <v>732</v>
       </c>
-      <c r="G154" s="37" t="s">
+      <c r="G154" s="25" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A155" s="2">
+      <c r="A155" s="23">
         <v>150</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B155" s="24" t="s">
         <v>734</v>
       </c>
-      <c r="C155" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D155" s="52" t="s">
+      <c r="C155" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D155" s="26" t="s">
         <v>735</v>
       </c>
-      <c r="E155" s="5" t="s">
+      <c r="E155" s="26" t="s">
         <v>736</v>
       </c>
-      <c r="F155" s="5" t="s">
+      <c r="F155" s="26" t="s">
         <v>737</v>
       </c>
-      <c r="G155" s="5" t="s">
+      <c r="G155" s="26" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A156" s="2">
+    <row r="156" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A156" s="23">
         <v>151</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B156" s="24" t="s">
         <v>739</v>
       </c>
-      <c r="C156" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D156" s="47" t="s">
+      <c r="C156" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D156" s="25" t="s">
         <v>740</v>
       </c>
-      <c r="E156" s="10" t="s">
+      <c r="E156" s="25" t="s">
         <v>741</v>
       </c>
-      <c r="F156" s="9" t="s">
+      <c r="F156" s="25" t="s">
         <v>742</v>
       </c>
-      <c r="G156" s="47" t="s">
+      <c r="G156" s="25" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="2">
+      <c r="A157" s="23">
         <v>152</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B157" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="C157" s="5" t="s">
+      <c r="C157" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D157" s="16" t="s">
+      <c r="D157" s="26" t="s">
         <v>744</v>
       </c>
-      <c r="E157" s="5" t="s">
+      <c r="E157" s="26" t="s">
         <v>745</v>
       </c>
-      <c r="F157" s="5" t="s">
+      <c r="F157" s="26" t="s">
         <v>746</v>
       </c>
-      <c r="G157" s="14" t="s">
+      <c r="G157" s="26" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A158" s="2">
+      <c r="A158" s="23">
         <v>153</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B158" s="24" t="s">
         <v>748</v>
       </c>
-      <c r="C158" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D158" s="4" t="s">
+      <c r="C158" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D158" s="25" t="s">
         <v>749</v>
       </c>
-      <c r="E158" s="4" t="s">
+      <c r="E158" s="25" t="s">
         <v>750</v>
       </c>
-      <c r="F158" s="9" t="s">
+      <c r="F158" s="25" t="s">
         <v>751</v>
       </c>
-      <c r="G158" s="12" t="s">
+      <c r="G158" s="25" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A159" s="2">
+    <row r="159" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A159" s="23">
         <v>154</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B159" s="24" t="s">
         <v>753</v>
       </c>
-      <c r="C159" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D159" s="5" t="s">
+      <c r="C159" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D159" s="26" t="s">
         <v>754</v>
       </c>
-      <c r="E159" s="21" t="s">
+      <c r="E159" s="26" t="s">
         <v>755</v>
       </c>
-      <c r="F159" s="14" t="s">
+      <c r="F159" s="26" t="s">
         <v>756</v>
       </c>
-      <c r="G159" s="7" t="s">
+      <c r="G159" s="26" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A160" s="2">
+      <c r="A160" s="23">
         <v>155</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B160" s="24" t="s">
         <v>758</v>
       </c>
-      <c r="C160" s="4" t="s">
+      <c r="C160" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D160" s="4" t="s">
+      <c r="D160" s="25" t="s">
         <v>759</v>
       </c>
-      <c r="E160" s="9" t="s">
+      <c r="E160" s="25" t="s">
         <v>760</v>
       </c>
-      <c r="F160" s="4" t="s">
+      <c r="F160" s="25" t="s">
         <v>761</v>
       </c>
-      <c r="G160" s="4" t="s">
+      <c r="G160" s="25" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A161" s="2">
+    <row r="161" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A161" s="23">
         <v>156</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="B161" s="24" t="s">
         <v>763</v>
       </c>
-      <c r="C161" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D161" s="21" t="s">
+      <c r="C161" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D161" s="26" t="s">
         <v>764</v>
       </c>
-      <c r="E161" s="8" t="s">
+      <c r="E161" s="26" t="s">
         <v>765</v>
       </c>
-      <c r="F161" s="8" t="s">
+      <c r="F161" s="26" t="s">
         <v>766</v>
       </c>
-      <c r="G161" s="6" t="s">
+      <c r="G161" s="26" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A162" s="2">
+      <c r="A162" s="23">
         <v>157</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B162" s="24" t="s">
         <v>768</v>
       </c>
-      <c r="C162" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D162" s="4" t="s">
+      <c r="C162" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D162" s="25" t="s">
         <v>769</v>
       </c>
-      <c r="E162" s="18" t="s">
+      <c r="E162" s="25" t="s">
         <v>770</v>
       </c>
-      <c r="F162" s="20" t="s">
+      <c r="F162" s="25" t="s">
         <v>771</v>
       </c>
-      <c r="G162" s="18" t="s">
+      <c r="G162" s="25" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A163" s="2">
+    <row r="163" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A163" s="23">
         <v>158</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="B163" s="24" t="s">
         <v>773</v>
       </c>
-      <c r="C163" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D163" s="5" t="s">
+      <c r="C163" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D163" s="26" t="s">
         <v>774</v>
       </c>
-      <c r="E163" s="21" t="s">
+      <c r="E163" s="26" t="s">
         <v>775</v>
       </c>
-      <c r="F163" s="14" t="s">
+      <c r="F163" s="26" t="s">
         <v>776</v>
       </c>
-      <c r="G163" s="13" t="s">
+      <c r="G163" s="26" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A164" s="2">
+    <row r="164" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A164" s="23">
         <v>159</v>
       </c>
-      <c r="B164" s="3" t="s">
+      <c r="B164" s="24" t="s">
         <v>778</v>
       </c>
-      <c r="C164" s="4" t="s">
+      <c r="C164" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D164" s="48" t="s">
+      <c r="D164" s="25" t="s">
         <v>779</v>
       </c>
-      <c r="E164" s="18" t="s">
+      <c r="E164" s="25" t="s">
         <v>780</v>
       </c>
-      <c r="F164" s="37" t="s">
+      <c r="F164" s="25" t="s">
         <v>781</v>
       </c>
-      <c r="G164" s="11" t="s">
+      <c r="G164" s="25" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A165" s="2">
+    <row r="165" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A165" s="23">
         <v>160</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="B165" s="24" t="s">
         <v>783</v>
       </c>
-      <c r="C165" s="5" t="s">
+      <c r="C165" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D165" s="5" t="s">
+      <c r="D165" s="26" t="s">
         <v>784</v>
       </c>
-      <c r="E165" s="21" t="s">
+      <c r="E165" s="26" t="s">
         <v>785</v>
       </c>
-      <c r="F165" s="5" t="s">
+      <c r="F165" s="26" t="s">
         <v>786</v>
       </c>
-      <c r="G165" s="5" t="s">
+      <c r="G165" s="26" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A166" s="2">
+      <c r="A166" s="23">
         <v>161</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="B166" s="24" t="s">
         <v>788</v>
       </c>
-      <c r="C166" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D166" s="10" t="s">
+      <c r="C166" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D166" s="25" t="s">
         <v>789</v>
       </c>
-      <c r="E166" s="4" t="s">
+      <c r="E166" s="25" t="s">
         <v>790</v>
       </c>
-      <c r="F166" s="4" t="s">
+      <c r="F166" s="25" t="s">
         <v>791</v>
       </c>
-      <c r="G166" s="4" t="s">
+      <c r="G166" s="25" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A167" s="71">
+      <c r="A167" s="54">
         <v>162</v>
       </c>
-      <c r="B167" s="91" t="s">
+      <c r="B167" s="56" t="s">
         <v>793</v>
       </c>
-      <c r="C167" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="D167" s="53" t="s">
+      <c r="C167" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="D167" s="42" t="s">
         <v>794</v>
       </c>
-      <c r="E167" s="81" t="s">
+      <c r="E167" s="52" t="s">
         <v>796</v>
       </c>
-      <c r="F167" s="85" t="s">
+      <c r="F167" s="52" t="s">
         <v>797</v>
       </c>
-      <c r="G167" s="85" t="s">
+      <c r="G167" s="52" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="72"/>
-      <c r="B168" s="92"/>
-      <c r="C168" s="86"/>
-      <c r="D168" s="54" t="s">
+      <c r="A168" s="55"/>
+      <c r="B168" s="57"/>
+      <c r="C168" s="53"/>
+      <c r="D168" s="43" t="s">
         <v>795</v>
       </c>
-      <c r="E168" s="82"/>
-      <c r="F168" s="86"/>
-      <c r="G168" s="86"/>
+      <c r="E168" s="53"/>
+      <c r="F168" s="53"/>
+      <c r="G168" s="53"/>
     </row>
     <row r="169" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A169" s="2">
+      <c r="A169" s="23">
         <v>163</v>
       </c>
-      <c r="B169" s="55" t="s">
+      <c r="B169" s="24" t="s">
         <v>799</v>
       </c>
-      <c r="C169" s="4" t="s">
+      <c r="C169" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D169" s="4" t="s">
+      <c r="D169" s="25" t="s">
         <v>800</v>
       </c>
-      <c r="E169" s="18" t="s">
+      <c r="E169" s="25" t="s">
         <v>801</v>
       </c>
-      <c r="F169" s="4" t="s">
+      <c r="F169" s="25" t="s">
         <v>802</v>
       </c>
-      <c r="G169" s="4" t="s">
+      <c r="G169" s="25" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A170" s="2">
+      <c r="A170" s="23">
         <v>164</v>
       </c>
-      <c r="B170" s="3" t="s">
+      <c r="B170" s="24" t="s">
         <v>804</v>
       </c>
-      <c r="C170" s="5" t="s">
+      <c r="C170" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D170" s="5" t="s">
+      <c r="D170" s="26" t="s">
         <v>805</v>
       </c>
-      <c r="E170" s="5" t="s">
+      <c r="E170" s="26" t="s">
         <v>806</v>
       </c>
-      <c r="F170" s="5" t="s">
+      <c r="F170" s="26" t="s">
         <v>807</v>
       </c>
-      <c r="G170" s="35" t="s">
+      <c r="G170" s="26" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A171" s="2">
+      <c r="A171" s="23">
         <v>165</v>
       </c>
-      <c r="B171" s="3" t="s">
+      <c r="B171" s="24" t="s">
         <v>809</v>
       </c>
-      <c r="C171" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D171" s="56" t="s">
+      <c r="C171" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D171" s="25" t="s">
         <v>810</v>
       </c>
-      <c r="E171" s="4" t="s">
+      <c r="E171" s="25" t="s">
         <v>811</v>
       </c>
-      <c r="F171" s="4" t="s">
+      <c r="F171" s="25" t="s">
         <v>812</v>
       </c>
-      <c r="G171" s="57" t="s">
+      <c r="G171" s="25" t="s">
         <v>813</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A172" s="2">
+      <c r="A172" s="23">
         <v>166</v>
       </c>
-      <c r="B172" s="3" t="s">
+      <c r="B172" s="24" t="s">
         <v>814</v>
       </c>
-      <c r="C172" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D172" s="15" t="s">
+      <c r="C172" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D172" s="26" t="s">
         <v>815</v>
       </c>
-      <c r="E172" s="5" t="s">
+      <c r="E172" s="26" t="s">
         <v>816</v>
       </c>
-      <c r="F172" s="14" t="s">
+      <c r="F172" s="26" t="s">
         <v>817</v>
       </c>
-      <c r="G172" s="5" t="s">
+      <c r="G172" s="26" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A173" s="71">
+      <c r="A173" s="54">
         <v>167</v>
       </c>
-      <c r="B173" s="89" t="s">
+      <c r="B173" s="56" t="s">
         <v>819</v>
       </c>
-      <c r="C173" s="69" t="s">
+      <c r="C173" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D173" s="34" t="s">
+      <c r="D173" s="39" t="s">
         <v>820</v>
       </c>
-      <c r="E173" s="69" t="s">
+      <c r="E173" s="60" t="s">
         <v>822</v>
       </c>
-      <c r="F173" s="69" t="s">
+      <c r="F173" s="60" t="s">
         <v>823</v>
       </c>
-      <c r="G173" s="77" t="s">
+      <c r="G173" s="60" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A174" s="72"/>
-      <c r="B174" s="90"/>
-      <c r="C174" s="70"/>
-      <c r="D174" s="58" t="s">
+      <c r="A174" s="55"/>
+      <c r="B174" s="57"/>
+      <c r="C174" s="61"/>
+      <c r="D174" s="62" t="s">
         <v>821</v>
       </c>
-      <c r="E174" s="70"/>
-      <c r="F174" s="70"/>
-      <c r="G174" s="78"/>
+      <c r="E174" s="61"/>
+      <c r="F174" s="61"/>
+      <c r="G174" s="61"/>
     </row>
     <row r="175" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A175" s="2">
+      <c r="A175" s="23">
         <v>168</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="B175" s="24" t="s">
         <v>825</v>
       </c>
-      <c r="C175" s="5" t="s">
+      <c r="C175" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D175" s="6" t="s">
+      <c r="D175" s="26" t="s">
         <v>826</v>
       </c>
-      <c r="E175" s="5" t="s">
+      <c r="E175" s="26" t="s">
         <v>827</v>
       </c>
-      <c r="F175" s="30" t="s">
+      <c r="F175" s="26" t="s">
         <v>828</v>
       </c>
-      <c r="G175" s="14" t="s">
+      <c r="G175" s="26" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="2">
+      <c r="A176" s="23">
         <v>169</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="B176" s="24" t="s">
         <v>830</v>
       </c>
-      <c r="C176" s="4" t="s">
+      <c r="C176" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D176" s="4" t="s">
+      <c r="D176" s="25" t="s">
         <v>831</v>
       </c>
-      <c r="E176" s="4" t="s">
+      <c r="E176" s="25" t="s">
         <v>832</v>
       </c>
-      <c r="F176" s="4" t="s">
+      <c r="F176" s="25" t="s">
         <v>833</v>
       </c>
-      <c r="G176" s="4" t="s">
+      <c r="G176" s="25" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A177" s="2">
+      <c r="A177" s="23">
         <v>170</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="B177" s="24" t="s">
         <v>835</v>
       </c>
-      <c r="C177" s="5" t="s">
+      <c r="C177" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D177" s="5" t="s">
+      <c r="D177" s="26" t="s">
         <v>836</v>
       </c>
-      <c r="E177" s="5" t="s">
+      <c r="E177" s="26" t="s">
         <v>837</v>
       </c>
-      <c r="F177" s="14" t="s">
+      <c r="F177" s="26" t="s">
         <v>838</v>
       </c>
-      <c r="G177" s="33" t="s">
+      <c r="G177" s="26" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A178" s="2">
+      <c r="A178" s="23">
         <v>171</v>
       </c>
-      <c r="B178" s="59" t="s">
+      <c r="B178" s="24" t="s">
         <v>840</v>
       </c>
-      <c r="C178" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D178" s="60" t="s">
+      <c r="C178" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D178" s="25" t="s">
         <v>841</v>
       </c>
-      <c r="E178" s="56" t="s">
+      <c r="E178" s="25" t="s">
         <v>842</v>
       </c>
-      <c r="F178" s="4" t="s">
+      <c r="F178" s="25" t="s">
         <v>843</v>
       </c>
-      <c r="G178" s="57" t="s">
+      <c r="G178" s="25" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A179" s="2">
+      <c r="A179" s="23">
         <v>172</v>
       </c>
-      <c r="B179" s="3" t="s">
+      <c r="B179" s="24" t="s">
         <v>845</v>
       </c>
-      <c r="C179" s="5" t="s">
+      <c r="C179" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D179" s="5" t="s">
+      <c r="D179" s="26" t="s">
         <v>846</v>
       </c>
-      <c r="E179" s="5" t="s">
+      <c r="E179" s="26" t="s">
         <v>847</v>
       </c>
-      <c r="F179" s="8" t="s">
+      <c r="F179" s="26" t="s">
         <v>848</v>
       </c>
-      <c r="G179" s="5" t="s">
+      <c r="G179" s="26" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A180" s="2">
+      <c r="A180" s="23">
         <v>173</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="B180" s="24" t="s">
         <v>850</v>
       </c>
-      <c r="C180" s="4" t="s">
+      <c r="C180" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D180" s="4" t="s">
+      <c r="D180" s="25" t="s">
         <v>851</v>
       </c>
-      <c r="E180" s="4" t="s">
+      <c r="E180" s="25" t="s">
         <v>852</v>
       </c>
-      <c r="F180" s="4" t="s">
+      <c r="F180" s="25" t="s">
         <v>853</v>
       </c>
-      <c r="G180" s="61" t="s">
+      <c r="G180" s="25" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A181" s="2">
+      <c r="A181" s="23">
         <v>174</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="B181" s="24" t="s">
         <v>855</v>
       </c>
-      <c r="C181" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D181" s="13" t="s">
+      <c r="C181" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D181" s="26" t="s">
         <v>856</v>
       </c>
-      <c r="E181" s="5" t="s">
+      <c r="E181" s="26" t="s">
         <v>857</v>
       </c>
-      <c r="F181" s="5" t="s">
+      <c r="F181" s="26" t="s">
         <v>858</v>
       </c>
-      <c r="G181" s="62" t="s">
+      <c r="G181" s="26" t="s">
         <v>859</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A182" s="2">
+      <c r="A182" s="23">
         <v>175</v>
       </c>
-      <c r="B182" s="3" t="s">
+      <c r="B182" s="24" t="s">
         <v>860</v>
       </c>
-      <c r="C182" s="4" t="s">
+      <c r="C182" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D182" s="4" t="s">
+      <c r="D182" s="25" t="s">
         <v>861</v>
       </c>
-      <c r="E182" s="4" t="s">
+      <c r="E182" s="25" t="s">
         <v>862</v>
       </c>
-      <c r="F182" s="11" t="s">
+      <c r="F182" s="25" t="s">
         <v>863</v>
       </c>
-      <c r="G182" s="37" t="s">
+      <c r="G182" s="25" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A183" s="2">
+      <c r="A183" s="23">
         <v>176</v>
       </c>
-      <c r="B183" s="59" t="s">
+      <c r="B183" s="24" t="s">
         <v>865</v>
       </c>
-      <c r="C183" s="5" t="s">
+      <c r="C183" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D183" s="5" t="s">
+      <c r="D183" s="26" t="s">
         <v>866</v>
       </c>
-      <c r="E183" s="21" t="s">
+      <c r="E183" s="26" t="s">
         <v>867</v>
       </c>
-      <c r="F183" s="5" t="s">
+      <c r="F183" s="26" t="s">
         <v>868</v>
       </c>
-      <c r="G183" s="7" t="s">
+      <c r="G183" s="26" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A184" s="2">
+      <c r="A184" s="23">
         <v>177</v>
       </c>
-      <c r="B184" s="3" t="s">
+      <c r="B184" s="24" t="s">
         <v>870</v>
       </c>
-      <c r="C184" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D184" s="4" t="s">
+      <c r="C184" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D184" s="25" t="s">
         <v>871</v>
       </c>
-      <c r="E184" s="4" t="s">
+      <c r="E184" s="25" t="s">
         <v>872</v>
       </c>
-      <c r="F184" s="11" t="s">
+      <c r="F184" s="25" t="s">
         <v>873</v>
       </c>
-      <c r="G184" s="37" t="s">
+      <c r="G184" s="25" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A185" s="2">
+      <c r="A185" s="23">
         <v>178</v>
       </c>
-      <c r="B185" s="59" t="s">
+      <c r="B185" s="24" t="s">
         <v>875</v>
       </c>
-      <c r="C185" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D185" s="16" t="s">
+      <c r="C185" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D185" s="26" t="s">
         <v>876</v>
       </c>
-      <c r="E185" s="14" t="s">
+      <c r="E185" s="26" t="s">
         <v>877</v>
       </c>
-      <c r="F185" s="31" t="s">
+      <c r="F185" s="26" t="s">
         <v>878</v>
       </c>
-      <c r="G185" s="5" t="s">
+      <c r="G185" s="26" t="s">
         <v>879</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A186" s="2">
+      <c r="A186" s="23">
         <v>179</v>
       </c>
-      <c r="B186" s="63" t="s">
+      <c r="B186" s="24" t="s">
         <v>880</v>
       </c>
-      <c r="C186" s="4" t="s">
+      <c r="C186" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D186" s="4" t="s">
+      <c r="D186" s="25" t="s">
         <v>881</v>
       </c>
-      <c r="E186" s="4" t="s">
+      <c r="E186" s="25" t="s">
         <v>882</v>
       </c>
-      <c r="F186" s="4" t="s">
+      <c r="F186" s="25" t="s">
         <v>883</v>
       </c>
-      <c r="G186" s="4" t="s">
+      <c r="G186" s="25" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A187" s="2">
+      <c r="A187" s="23">
         <v>180</v>
       </c>
-      <c r="B187" s="3" t="s">
+      <c r="B187" s="24" t="s">
         <v>885</v>
       </c>
-      <c r="C187" s="5" t="s">
+      <c r="C187" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D187" s="6" t="s">
+      <c r="D187" s="26" t="s">
         <v>886</v>
       </c>
-      <c r="E187" s="5" t="s">
+      <c r="E187" s="26" t="s">
         <v>887</v>
       </c>
-      <c r="F187" s="5" t="s">
+      <c r="F187" s="26" t="s">
         <v>888</v>
       </c>
-      <c r="G187" s="33" t="s">
+      <c r="G187" s="26" t="s">
         <v>889</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A188" s="2">
+      <c r="A188" s="23">
         <v>181</v>
       </c>
-      <c r="B188" s="3" t="s">
+      <c r="B188" s="24" t="s">
         <v>890</v>
       </c>
-      <c r="C188" s="4" t="s">
+      <c r="C188" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D188" s="4" t="s">
+      <c r="D188" s="25" t="s">
         <v>891</v>
       </c>
-      <c r="E188" s="4" t="s">
+      <c r="E188" s="25" t="s">
         <v>892</v>
       </c>
-      <c r="F188" s="4" t="s">
+      <c r="F188" s="25" t="s">
         <v>893</v>
       </c>
-      <c r="G188" s="47" t="s">
+      <c r="G188" s="25" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A189" s="2">
+      <c r="A189" s="23">
         <v>182</v>
       </c>
-      <c r="B189" s="3" t="s">
+      <c r="B189" s="24" t="s">
         <v>895</v>
       </c>
-      <c r="C189" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D189" s="5" t="s">
+      <c r="C189" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D189" s="26" t="s">
         <v>896</v>
       </c>
-      <c r="E189" s="5" t="s">
+      <c r="E189" s="26" t="s">
         <v>897</v>
       </c>
-      <c r="F189" s="14" t="s">
+      <c r="F189" s="26" t="s">
         <v>898</v>
       </c>
-      <c r="G189" s="33" t="s">
+      <c r="G189" s="26" t="s">
         <v>899</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A190" s="2">
+      <c r="A190" s="23">
         <v>183</v>
       </c>
-      <c r="B190" s="3" t="s">
+      <c r="B190" s="24" t="s">
         <v>900</v>
       </c>
-      <c r="C190" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D190" s="4" t="s">
+      <c r="C190" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D190" s="25" t="s">
         <v>901</v>
       </c>
-      <c r="E190" s="11" t="s">
+      <c r="E190" s="25" t="s">
         <v>902</v>
       </c>
-      <c r="F190" s="12" t="s">
+      <c r="F190" s="25" t="s">
         <v>903</v>
       </c>
-      <c r="G190" s="10" t="s">
+      <c r="G190" s="25" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A191" s="71">
+      <c r="A191" s="54">
         <v>184</v>
       </c>
-      <c r="B191" s="73" t="s">
+      <c r="B191" s="56" t="s">
         <v>905</v>
       </c>
-      <c r="C191" s="85" t="s">
+      <c r="C191" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D191" s="64" t="s">
+      <c r="D191" s="42" t="s">
         <v>906</v>
       </c>
-      <c r="E191" s="87" t="s">
+      <c r="E191" s="52" t="s">
         <v>908</v>
       </c>
-      <c r="F191" s="85" t="s">
+      <c r="F191" s="52" t="s">
         <v>909</v>
       </c>
-      <c r="G191" s="81" t="s">
+      <c r="G191" s="52" t="s">
         <v>910</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="72"/>
-      <c r="B192" s="74"/>
-      <c r="C192" s="86"/>
-      <c r="D192" s="54" t="s">
+      <c r="A192" s="55"/>
+      <c r="B192" s="57"/>
+      <c r="C192" s="53"/>
+      <c r="D192" s="43" t="s">
         <v>907</v>
       </c>
-      <c r="E192" s="88"/>
-      <c r="F192" s="86"/>
-      <c r="G192" s="82"/>
-    </row>
-    <row r="193" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A193" s="2">
+      <c r="E192" s="53"/>
+      <c r="F192" s="53"/>
+      <c r="G192" s="53"/>
+    </row>
+    <row r="193" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A193" s="23">
         <v>185</v>
       </c>
-      <c r="B193" s="3" t="s">
+      <c r="B193" s="24" t="s">
         <v>911</v>
       </c>
-      <c r="C193" s="4" t="s">
+      <c r="C193" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D193" s="12" t="s">
+      <c r="D193" s="25" t="s">
         <v>912</v>
       </c>
-      <c r="E193" s="4" t="s">
+      <c r="E193" s="25" t="s">
         <v>913</v>
       </c>
-      <c r="F193" s="20" t="s">
+      <c r="F193" s="25" t="s">
         <v>914</v>
       </c>
-      <c r="G193" s="48" t="s">
+      <c r="G193" s="25" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A194" s="2">
+    <row r="194" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A194" s="23">
         <v>186</v>
       </c>
-      <c r="B194" s="3" t="s">
+      <c r="B194" s="24" t="s">
         <v>916</v>
       </c>
-      <c r="C194" s="5" t="s">
+      <c r="C194" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D194" s="7" t="s">
+      <c r="D194" s="26" t="s">
         <v>917</v>
       </c>
-      <c r="E194" s="21" t="s">
+      <c r="E194" s="26" t="s">
         <v>918</v>
       </c>
-      <c r="F194" s="13" t="s">
+      <c r="F194" s="26" t="s">
         <v>919</v>
       </c>
-      <c r="G194" s="52" t="s">
+      <c r="G194" s="26" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A195" s="2">
+      <c r="A195" s="23">
         <v>187</v>
       </c>
-      <c r="B195" s="3" t="s">
+      <c r="B195" s="24" t="s">
         <v>921</v>
       </c>
-      <c r="C195" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D195" s="19" t="s">
+      <c r="C195" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D195" s="25" t="s">
         <v>922</v>
       </c>
-      <c r="E195" s="4" t="s">
+      <c r="E195" s="25" t="s">
         <v>923</v>
       </c>
-      <c r="F195" s="4" t="s">
+      <c r="F195" s="25" t="s">
         <v>924</v>
       </c>
-      <c r="G195" s="11" t="s">
+      <c r="G195" s="25" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A196" s="2">
+      <c r="A196" s="23">
         <v>188</v>
       </c>
-      <c r="B196" s="3" t="s">
+      <c r="B196" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="C196" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D196" s="5" t="s">
+      <c r="C196" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D196" s="26" t="s">
         <v>927</v>
       </c>
-      <c r="E196" s="5" t="s">
+      <c r="E196" s="26" t="s">
         <v>928</v>
       </c>
-      <c r="F196" s="5" t="s">
+      <c r="F196" s="26" t="s">
         <v>929</v>
       </c>
-      <c r="G196" s="30" t="s">
+      <c r="G196" s="26" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A197" s="2">
+      <c r="A197" s="23">
         <v>189</v>
       </c>
-      <c r="B197" s="3" t="s">
+      <c r="B197" s="24" t="s">
         <v>931</v>
       </c>
-      <c r="C197" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D197" s="4" t="s">
+      <c r="C197" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D197" s="25" t="s">
         <v>932</v>
       </c>
-      <c r="E197" s="4" t="s">
+      <c r="E197" s="25" t="s">
         <v>933</v>
       </c>
-      <c r="F197" s="4" t="s">
+      <c r="F197" s="25" t="s">
         <v>934</v>
       </c>
-      <c r="G197" s="4" t="s">
+      <c r="G197" s="25" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A198" s="2">
+    <row r="198" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A198" s="23">
         <v>190</v>
       </c>
-      <c r="B198" s="3" t="s">
+      <c r="B198" s="24" t="s">
         <v>936</v>
       </c>
-      <c r="C198" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D198" s="8" t="s">
+      <c r="C198" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D198" s="26" t="s">
         <v>937</v>
       </c>
-      <c r="E198" s="21" t="s">
+      <c r="E198" s="26" t="s">
         <v>938</v>
       </c>
-      <c r="F198" s="5" t="s">
+      <c r="F198" s="26" t="s">
         <v>939</v>
       </c>
-      <c r="G198" s="52" t="s">
+      <c r="G198" s="26" t="s">
         <v>940</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A199" s="2">
+      <c r="A199" s="23">
         <v>191</v>
       </c>
-      <c r="B199" s="3" t="s">
+      <c r="B199" s="24" t="s">
         <v>941</v>
       </c>
-      <c r="C199" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D199" s="4" t="s">
+      <c r="C199" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D199" s="25" t="s">
         <v>942</v>
       </c>
-      <c r="E199" s="4" t="s">
+      <c r="E199" s="25" t="s">
         <v>943</v>
       </c>
-      <c r="F199" s="19" t="s">
+      <c r="F199" s="25" t="s">
         <v>944</v>
       </c>
-      <c r="G199" s="4" t="s">
+      <c r="G199" s="25" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A200" s="2">
+    <row r="200" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A200" s="23">
         <v>192</v>
       </c>
-      <c r="B200" s="3" t="s">
+      <c r="B200" s="24" t="s">
         <v>946</v>
       </c>
-      <c r="C200" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D200" s="5" t="s">
+      <c r="C200" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D200" s="26" t="s">
         <v>947</v>
       </c>
-      <c r="E200" s="21" t="s">
+      <c r="E200" s="26" t="s">
         <v>948</v>
       </c>
-      <c r="F200" s="14" t="s">
+      <c r="F200" s="26" t="s">
         <v>949</v>
       </c>
-      <c r="G200" s="5" t="s">
+      <c r="G200" s="26" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A201" s="2">
+    <row r="201" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A201" s="23">
         <v>193</v>
       </c>
-      <c r="B201" s="3" t="s">
+      <c r="B201" s="24" t="s">
         <v>951</v>
       </c>
-      <c r="C201" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D201" s="4" t="s">
+      <c r="C201" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D201" s="25" t="s">
         <v>952</v>
       </c>
-      <c r="E201" s="19" t="s">
+      <c r="E201" s="25" t="s">
         <v>953</v>
       </c>
-      <c r="F201" s="4" t="s">
+      <c r="F201" s="25" t="s">
         <v>954</v>
       </c>
-      <c r="G201" s="4" t="s">
+      <c r="G201" s="25" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A202" s="2">
+      <c r="A202" s="23">
         <v>194</v>
       </c>
-      <c r="B202" s="3" t="s">
+      <c r="B202" s="24" t="s">
         <v>956</v>
       </c>
-      <c r="C202" s="5" t="s">
+      <c r="C202" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D202" s="15" t="s">
+      <c r="D202" s="26" t="s">
         <v>957</v>
       </c>
-      <c r="E202" s="5" t="s">
+      <c r="E202" s="26" t="s">
         <v>958</v>
       </c>
-      <c r="F202" s="5" t="s">
+      <c r="F202" s="26" t="s">
         <v>959</v>
       </c>
-      <c r="G202" s="5" t="s">
+      <c r="G202" s="26" t="s">
         <v>960</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A203" s="2">
+      <c r="A203" s="23">
         <v>195</v>
       </c>
-      <c r="B203" s="3" t="s">
+      <c r="B203" s="24" t="s">
         <v>961</v>
       </c>
-      <c r="C203" s="4" t="s">
+      <c r="C203" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D203" s="4" t="s">
+      <c r="D203" s="25" t="s">
         <v>962</v>
       </c>
-      <c r="E203" s="4" t="s">
+      <c r="E203" s="25" t="s">
         <v>963</v>
       </c>
-      <c r="F203" s="4" t="s">
+      <c r="F203" s="25" t="s">
         <v>880</v>
       </c>
-      <c r="G203" s="18" t="s">
+      <c r="G203" s="25" t="s">
         <v>964</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A204" s="2">
+      <c r="A204" s="23">
         <v>196</v>
       </c>
-      <c r="B204" s="3" t="s">
+      <c r="B204" s="24" t="s">
         <v>965</v>
       </c>
-      <c r="C204" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D204" s="51" t="s">
+      <c r="C204" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D204" s="26" t="s">
         <v>966</v>
       </c>
-      <c r="E204" s="5" t="s">
+      <c r="E204" s="26" t="s">
         <v>967</v>
       </c>
-      <c r="F204" s="14" t="s">
+      <c r="F204" s="26" t="s">
         <v>968</v>
       </c>
-      <c r="G204" s="35" t="s">
+      <c r="G204" s="26" t="s">
         <v>969</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A205" s="2">
+      <c r="A205" s="23">
         <v>197</v>
       </c>
-      <c r="B205" s="3" t="s">
+      <c r="B205" s="24" t="s">
         <v>970</v>
       </c>
-      <c r="C205" s="4" t="s">
+      <c r="C205" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D205" s="4" t="s">
+      <c r="D205" s="25" t="s">
         <v>971</v>
       </c>
-      <c r="E205" s="4" t="s">
+      <c r="E205" s="25" t="s">
         <v>972</v>
       </c>
-      <c r="F205" s="4" t="s">
+      <c r="F205" s="25" t="s">
         <v>973</v>
       </c>
-      <c r="G205" s="56" t="s">
+      <c r="G205" s="25" t="s">
         <v>974</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A206" s="2">
+      <c r="A206" s="23">
         <v>198</v>
       </c>
-      <c r="B206" s="3" t="s">
+      <c r="B206" s="24" t="s">
         <v>975</v>
       </c>
-      <c r="C206" s="5" t="s">
+      <c r="C206" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D206" s="5" t="s">
+      <c r="D206" s="26" t="s">
         <v>976</v>
       </c>
-      <c r="E206" s="5" t="s">
+      <c r="E206" s="26" t="s">
         <v>977</v>
       </c>
-      <c r="F206" s="5" t="s">
+      <c r="F206" s="26" t="s">
         <v>978</v>
       </c>
-      <c r="G206" s="5" t="s">
+      <c r="G206" s="26" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A207" s="2">
+    <row r="207" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A207" s="23">
         <v>199</v>
       </c>
-      <c r="B207" s="3" t="s">
+      <c r="B207" s="24" t="s">
         <v>980</v>
       </c>
-      <c r="C207" s="4" t="s">
+      <c r="C207" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D207" s="4" t="s">
+      <c r="D207" s="25" t="s">
         <v>981</v>
       </c>
-      <c r="E207" s="11" t="s">
+      <c r="E207" s="25" t="s">
         <v>982</v>
       </c>
-      <c r="F207" s="37" t="s">
+      <c r="F207" s="25" t="s">
         <v>983</v>
       </c>
-      <c r="G207" s="37" t="s">
+      <c r="G207" s="25" t="s">
         <v>984</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A208" s="2">
+      <c r="A208" s="23">
         <v>200</v>
       </c>
-      <c r="B208" s="3" t="s">
+      <c r="B208" s="24" t="s">
         <v>985</v>
       </c>
-      <c r="C208" s="5" t="s">
+      <c r="C208" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D208" s="5" t="s">
+      <c r="D208" s="26" t="s">
         <v>986</v>
       </c>
-      <c r="E208" s="5" t="s">
+      <c r="E208" s="26" t="s">
         <v>987</v>
       </c>
-      <c r="F208" s="5" t="s">
+      <c r="F208" s="26" t="s">
         <v>988</v>
       </c>
-      <c r="G208" s="5" t="s">
+      <c r="G208" s="26" t="s">
         <v>989</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A209" s="2">
+      <c r="A209" s="23">
         <v>201</v>
       </c>
-      <c r="B209" s="3" t="s">
+      <c r="B209" s="24" t="s">
         <v>990</v>
       </c>
-      <c r="C209" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D209" s="4" t="s">
+      <c r="C209" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D209" s="25" t="s">
         <v>991</v>
       </c>
-      <c r="E209" s="4" t="s">
+      <c r="E209" s="25" t="s">
         <v>992</v>
       </c>
-      <c r="F209" s="36" t="s">
+      <c r="F209" s="25" t="s">
         <v>993</v>
       </c>
-      <c r="G209" s="60" t="s">
+      <c r="G209" s="25" t="s">
         <v>994</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A210" s="2">
+      <c r="A210" s="23">
         <v>202</v>
       </c>
-      <c r="B210" s="3" t="s">
+      <c r="B210" s="24" t="s">
         <v>995</v>
       </c>
-      <c r="C210" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D210" s="5" t="s">
+      <c r="C210" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D210" s="26" t="s">
         <v>996</v>
       </c>
-      <c r="E210" s="5" t="s">
+      <c r="E210" s="26" t="s">
         <v>997</v>
       </c>
-      <c r="F210" s="15" t="s">
+      <c r="F210" s="26" t="s">
         <v>998</v>
       </c>
-      <c r="G210" s="14" t="s">
+      <c r="G210" s="26" t="s">
         <v>999</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A211" s="2">
+      <c r="A211" s="23">
         <v>203</v>
       </c>
-      <c r="B211" s="3" t="s">
+      <c r="B211" s="24" t="s">
         <v>1000</v>
       </c>
-      <c r="C211" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D211" s="4" t="s">
+      <c r="C211" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D211" s="25" t="s">
         <v>1001</v>
       </c>
-      <c r="E211" s="4" t="s">
+      <c r="E211" s="25" t="s">
         <v>1002</v>
       </c>
-      <c r="F211" s="36" t="s">
+      <c r="F211" s="25" t="s">
         <v>1003</v>
       </c>
-      <c r="G211" s="37" t="s">
+      <c r="G211" s="25" t="s">
         <v>1004</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A212" s="2">
+      <c r="A212" s="23">
         <v>204</v>
       </c>
-      <c r="B212" s="3" t="s">
+      <c r="B212" s="24" t="s">
         <v>1005</v>
       </c>
-      <c r="C212" s="5" t="s">
+      <c r="C212" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D212" s="15" t="s">
+      <c r="D212" s="26" t="s">
         <v>1006</v>
       </c>
-      <c r="E212" s="31" t="s">
+      <c r="E212" s="26" t="s">
         <v>1007</v>
       </c>
-      <c r="F212" s="5" t="s">
+      <c r="F212" s="26" t="s">
         <v>1008</v>
       </c>
-      <c r="G212" s="14" t="s">
+      <c r="G212" s="26" t="s">
         <v>1009</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A213" s="2">
+      <c r="A213" s="23">
         <v>205</v>
       </c>
-      <c r="B213" s="3" t="s">
+      <c r="B213" s="24" t="s">
         <v>1010</v>
       </c>
-      <c r="C213" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D213" s="61" t="s">
+      <c r="C213" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D213" s="25" t="s">
         <v>1011</v>
       </c>
-      <c r="E213" s="4" t="s">
+      <c r="E213" s="25" t="s">
         <v>1012</v>
       </c>
-      <c r="F213" s="4" t="s">
+      <c r="F213" s="25" t="s">
         <v>1013</v>
       </c>
-      <c r="G213" s="11" t="s">
+      <c r="G213" s="25" t="s">
         <v>1014</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A214" s="2">
+      <c r="A214" s="23">
         <v>206</v>
       </c>
-      <c r="B214" s="3" t="s">
+      <c r="B214" s="24" t="s">
         <v>1015</v>
       </c>
-      <c r="C214" s="5" t="s">
+      <c r="C214" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D214" s="8" t="s">
+      <c r="D214" s="26" t="s">
         <v>1016</v>
       </c>
-      <c r="E214" s="5" t="s">
+      <c r="E214" s="26" t="s">
         <v>1017</v>
       </c>
-      <c r="F214" s="5" t="s">
+      <c r="F214" s="26" t="s">
         <v>1018</v>
       </c>
-      <c r="G214" s="30" t="s">
+      <c r="G214" s="26" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A215" s="2">
+    <row r="215" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A215" s="23">
         <v>207</v>
       </c>
-      <c r="B215" s="3" t="s">
+      <c r="B215" s="24" t="s">
         <v>1020</v>
       </c>
-      <c r="C215" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D215" s="4" t="s">
+      <c r="C215" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D215" s="25" t="s">
         <v>1021</v>
       </c>
-      <c r="E215" s="20" t="s">
+      <c r="E215" s="25" t="s">
         <v>1022</v>
       </c>
-      <c r="F215" s="37" t="s">
+      <c r="F215" s="25" t="s">
         <v>1023</v>
       </c>
-      <c r="G215" s="20" t="s">
+      <c r="G215" s="25" t="s">
         <v>1024</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A216" s="2">
+      <c r="A216" s="23">
         <v>208</v>
       </c>
-      <c r="B216" s="3" t="s">
+      <c r="B216" s="24" t="s">
         <v>1025</v>
       </c>
-      <c r="C216" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D216" s="16" t="s">
+      <c r="C216" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D216" s="26" t="s">
         <v>1026</v>
       </c>
-      <c r="E216" s="8" t="s">
+      <c r="E216" s="26" t="s">
         <v>1027</v>
       </c>
-      <c r="F216" s="7" t="s">
+      <c r="F216" s="26" t="s">
         <v>1028</v>
       </c>
-      <c r="G216" s="5" t="s">
+      <c r="G216" s="26" t="s">
         <v>1029</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" s="71">
+      <c r="A217" s="54">
         <v>209</v>
       </c>
-      <c r="B217" s="73" t="s">
+      <c r="B217" s="56" t="s">
         <v>1030</v>
       </c>
-      <c r="C217" s="69" t="s">
+      <c r="C217" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D217" s="34" t="s">
+      <c r="D217" s="39" t="s">
         <v>1031</v>
       </c>
-      <c r="E217" s="69" t="s">
+      <c r="E217" s="60" t="s">
         <v>1033</v>
       </c>
-      <c r="F217" s="69" t="s">
+      <c r="F217" s="60" t="s">
         <v>1034</v>
       </c>
-      <c r="G217" s="83" t="s">
+      <c r="G217" s="60" t="s">
         <v>1035</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A218" s="72"/>
-      <c r="B218" s="74"/>
-      <c r="C218" s="70"/>
-      <c r="D218" s="39" t="s">
+      <c r="A218" s="55"/>
+      <c r="B218" s="57"/>
+      <c r="C218" s="61"/>
+      <c r="D218" s="62" t="s">
         <v>1032</v>
       </c>
-      <c r="E218" s="70"/>
-      <c r="F218" s="70"/>
-      <c r="G218" s="84"/>
-    </row>
-    <row r="219" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A219" s="2">
+      <c r="E218" s="61"/>
+      <c r="F218" s="61"/>
+      <c r="G218" s="61"/>
+    </row>
+    <row r="219" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A219" s="23">
         <v>210</v>
       </c>
-      <c r="B219" s="3" t="s">
+      <c r="B219" s="24" t="s">
         <v>1036</v>
       </c>
-      <c r="C219" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D219" s="16" t="s">
+      <c r="C219" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D219" s="26" t="s">
         <v>1037</v>
       </c>
-      <c r="E219" s="17" t="s">
+      <c r="E219" s="26" t="s">
         <v>1038</v>
       </c>
-      <c r="F219" s="15" t="s">
+      <c r="F219" s="26" t="s">
         <v>1039</v>
       </c>
-      <c r="G219" s="16" t="s">
+      <c r="G219" s="26" t="s">
         <v>1040</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A220" s="2">
+      <c r="A220" s="23">
         <v>211</v>
       </c>
-      <c r="B220" s="3" t="s">
+      <c r="B220" s="24" t="s">
         <v>1041</v>
       </c>
-      <c r="C220" s="4" t="s">
+      <c r="C220" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D220" s="4" t="s">
+      <c r="D220" s="25" t="s">
         <v>1042</v>
       </c>
-      <c r="E220" s="18" t="s">
+      <c r="E220" s="25" t="s">
         <v>1043</v>
       </c>
-      <c r="F220" s="4" t="s">
+      <c r="F220" s="25" t="s">
         <v>1044</v>
       </c>
-      <c r="G220" s="10" t="s">
+      <c r="G220" s="25" t="s">
         <v>1045</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A221" s="2">
+      <c r="A221" s="23">
         <v>212</v>
       </c>
-      <c r="B221" s="3" t="s">
+      <c r="B221" s="24" t="s">
         <v>1046</v>
       </c>
-      <c r="C221" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D221" s="30" t="s">
+      <c r="C221" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D221" s="26" t="s">
         <v>1047</v>
       </c>
-      <c r="E221" s="30" t="s">
+      <c r="E221" s="26" t="s">
         <v>1048</v>
       </c>
-      <c r="F221" s="5" t="s">
+      <c r="F221" s="26" t="s">
         <v>1049</v>
       </c>
-      <c r="G221" s="5" t="s">
+      <c r="G221" s="26" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A222" s="2">
+    <row r="222" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A222" s="23">
         <v>213</v>
       </c>
-      <c r="B222" s="3" t="s">
+      <c r="B222" s="24" t="s">
         <v>1051</v>
       </c>
-      <c r="C222" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D222" s="60" t="s">
+      <c r="C222" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D222" s="25" t="s">
         <v>1052</v>
       </c>
-      <c r="E222" s="36" t="s">
+      <c r="E222" s="25" t="s">
         <v>1053</v>
       </c>
-      <c r="F222" s="11" t="s">
+      <c r="F222" s="25" t="s">
         <v>1054</v>
       </c>
-      <c r="G222" s="20" t="s">
+      <c r="G222" s="25" t="s">
         <v>1055</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A223" s="2">
+      <c r="A223" s="23">
         <v>214</v>
       </c>
-      <c r="B223" s="3" t="s">
+      <c r="B223" s="24" t="s">
         <v>1056</v>
       </c>
-      <c r="C223" s="5" t="s">
+      <c r="C223" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D223" s="5" t="s">
+      <c r="D223" s="26" t="s">
         <v>1057</v>
       </c>
-      <c r="E223" s="30" t="s">
+      <c r="E223" s="26" t="s">
         <v>1058</v>
       </c>
-      <c r="F223" s="8" t="s">
+      <c r="F223" s="26" t="s">
         <v>1059</v>
       </c>
-      <c r="G223" s="15" t="s">
+      <c r="G223" s="26" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A224" s="2">
+    <row r="224" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A224" s="23">
         <v>215</v>
       </c>
-      <c r="B224" s="3" t="s">
+      <c r="B224" s="24" t="s">
         <v>1061</v>
       </c>
-      <c r="C224" s="4" t="s">
+      <c r="C224" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D224" s="19" t="s">
+      <c r="D224" s="25" t="s">
         <v>1062</v>
       </c>
-      <c r="E224" s="47" t="s">
+      <c r="E224" s="25" t="s">
         <v>1063</v>
       </c>
-      <c r="F224" s="4" t="s">
+      <c r="F224" s="25" t="s">
         <v>1064</v>
       </c>
-      <c r="G224" s="10" t="s">
+      <c r="G224" s="25" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A225" s="2">
+    <row r="225" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A225" s="23">
         <v>216</v>
       </c>
-      <c r="B225" s="3" t="s">
+      <c r="B225" s="24" t="s">
         <v>1066</v>
       </c>
-      <c r="C225" s="5" t="s">
+      <c r="C225" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D225" s="5" t="s">
+      <c r="D225" s="26" t="s">
         <v>1067</v>
       </c>
-      <c r="E225" s="17" t="s">
+      <c r="E225" s="26" t="s">
         <v>1068</v>
       </c>
-      <c r="F225" s="30" t="s">
+      <c r="F225" s="26" t="s">
         <v>1069</v>
       </c>
-      <c r="G225" s="5" t="s">
+      <c r="G225" s="26" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A226" s="2">
+    <row r="226" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A226" s="23">
         <v>217</v>
       </c>
-      <c r="B226" s="3" t="s">
+      <c r="B226" s="24" t="s">
         <v>1071</v>
       </c>
-      <c r="C226" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D226" s="48" t="s">
+      <c r="C226" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D226" s="25" t="s">
         <v>1072</v>
       </c>
-      <c r="E226" s="9" t="s">
+      <c r="E226" s="25" t="s">
         <v>1073</v>
       </c>
-      <c r="F226" s="4" t="s">
+      <c r="F226" s="25" t="s">
         <v>1074</v>
       </c>
-      <c r="G226" s="9" t="s">
+      <c r="G226" s="25" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A227" s="2">
+    <row r="227" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A227" s="23">
         <v>218</v>
       </c>
-      <c r="B227" s="3" t="s">
+      <c r="B227" s="24" t="s">
         <v>1076</v>
       </c>
-      <c r="C227" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D227" s="13" t="s">
+      <c r="C227" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D227" s="26" t="s">
         <v>1077</v>
       </c>
-      <c r="E227" s="17" t="s">
+      <c r="E227" s="26" t="s">
         <v>1078</v>
       </c>
-      <c r="F227" s="6" t="s">
+      <c r="F227" s="26" t="s">
         <v>1079</v>
       </c>
-      <c r="G227" s="16" t="s">
+      <c r="G227" s="26" t="s">
         <v>1080</v>
       </c>
     </row>
     <row r="228" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A228" s="2">
+      <c r="A228" s="23">
         <v>219</v>
       </c>
-      <c r="B228" s="3" t="s">
+      <c r="B228" s="24" t="s">
         <v>1081</v>
       </c>
-      <c r="C228" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D228" s="12" t="s">
+      <c r="C228" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D228" s="25" t="s">
         <v>1082</v>
       </c>
-      <c r="E228" s="4" t="s">
+      <c r="E228" s="25" t="s">
         <v>1083</v>
       </c>
-      <c r="F228" s="4" t="s">
+      <c r="F228" s="25" t="s">
         <v>1084</v>
       </c>
-      <c r="G228" s="4" t="s">
+      <c r="G228" s="25" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A229" s="2">
+    <row r="229" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A229" s="23">
         <v>220</v>
       </c>
-      <c r="B229" s="3" t="s">
+      <c r="B229" s="24" t="s">
         <v>1086</v>
       </c>
-      <c r="C229" s="5" t="s">
+      <c r="C229" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D229" s="5" t="s">
+      <c r="D229" s="26" t="s">
         <v>1087</v>
       </c>
-      <c r="E229" s="5" t="s">
+      <c r="E229" s="26" t="s">
         <v>1088</v>
       </c>
-      <c r="F229" s="8" t="s">
+      <c r="F229" s="26" t="s">
         <v>1089</v>
       </c>
-      <c r="G229" s="62" t="s">
+      <c r="G229" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="230" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A230" s="2">
+      <c r="A230" s="23">
         <v>221</v>
       </c>
-      <c r="B230" s="3" t="s">
+      <c r="B230" s="24" t="s">
         <v>1091</v>
       </c>
-      <c r="C230" s="4" t="s">
+      <c r="C230" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D230" s="4" t="s">
+      <c r="D230" s="25" t="s">
         <v>1092</v>
       </c>
-      <c r="E230" s="4" t="s">
+      <c r="E230" s="25" t="s">
         <v>1093</v>
       </c>
-      <c r="F230" s="4" t="s">
+      <c r="F230" s="25" t="s">
         <v>1094</v>
       </c>
-      <c r="G230" s="19" t="s">
+      <c r="G230" s="25" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A231" s="2">
+    <row r="231" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A231" s="23">
         <v>222</v>
       </c>
-      <c r="B231" s="3" t="s">
+      <c r="B231" s="24" t="s">
         <v>1096</v>
       </c>
-      <c r="C231" s="5" t="s">
+      <c r="C231" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D231" s="13" t="s">
+      <c r="D231" s="26" t="s">
         <v>1097</v>
       </c>
-      <c r="E231" s="30" t="s">
+      <c r="E231" s="26" t="s">
         <v>1098</v>
       </c>
-      <c r="F231" s="15" t="s">
+      <c r="F231" s="26" t="s">
         <v>1099</v>
       </c>
-      <c r="G231" s="30" t="s">
+      <c r="G231" s="26" t="s">
         <v>1100</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A232" s="2">
+      <c r="A232" s="23">
         <v>223</v>
       </c>
-      <c r="B232" s="3" t="s">
+      <c r="B232" s="24" t="s">
         <v>1101</v>
       </c>
-      <c r="C232" s="4" t="s">
+      <c r="C232" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D232" s="4" t="s">
+      <c r="D232" s="25" t="s">
         <v>1102</v>
       </c>
-      <c r="E232" s="20" t="s">
+      <c r="E232" s="25" t="s">
         <v>1103</v>
       </c>
-      <c r="F232" s="37" t="s">
+      <c r="F232" s="25" t="s">
         <v>1104</v>
       </c>
-      <c r="G232" s="4" t="s">
+      <c r="G232" s="25" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A233" s="2">
+    <row r="233" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A233" s="23">
         <v>224</v>
       </c>
-      <c r="B233" s="3" t="s">
+      <c r="B233" s="24" t="s">
         <v>1106</v>
       </c>
-      <c r="C233" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D233" s="5" t="s">
+      <c r="C233" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D233" s="26" t="s">
         <v>1107</v>
       </c>
-      <c r="E233" s="13" t="s">
+      <c r="E233" s="26" t="s">
         <v>1108</v>
       </c>
-      <c r="F233" s="7" t="s">
+      <c r="F233" s="26" t="s">
         <v>1109</v>
       </c>
-      <c r="G233" s="31" t="s">
+      <c r="G233" s="26" t="s">
         <v>1110</v>
       </c>
     </row>
     <row r="234" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A234" s="2">
+      <c r="A234" s="23">
         <v>225</v>
       </c>
-      <c r="B234" s="63" t="s">
+      <c r="B234" s="24" t="s">
         <v>1111</v>
       </c>
-      <c r="C234" s="4" t="s">
+      <c r="C234" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D234" s="4" t="s">
+      <c r="D234" s="25" t="s">
         <v>1112</v>
       </c>
-      <c r="E234" s="9" t="s">
+      <c r="E234" s="25" t="s">
         <v>1113</v>
       </c>
-      <c r="F234" s="11" t="s">
+      <c r="F234" s="25" t="s">
         <v>1114</v>
       </c>
-      <c r="G234" s="4" t="s">
+      <c r="G234" s="25" t="s">
         <v>1115</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A235" s="2">
+      <c r="A235" s="23">
         <v>226</v>
       </c>
-      <c r="B235" s="3" t="s">
+      <c r="B235" s="24" t="s">
         <v>1116</v>
       </c>
-      <c r="C235" s="5" t="s">
+      <c r="C235" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D235" s="21" t="s">
+      <c r="D235" s="26" t="s">
         <v>1117</v>
       </c>
-      <c r="E235" s="17" t="s">
+      <c r="E235" s="26" t="s">
         <v>1118</v>
       </c>
-      <c r="F235" s="5" t="s">
+      <c r="F235" s="26" t="s">
         <v>1119</v>
       </c>
-      <c r="G235" s="5" t="s">
+      <c r="G235" s="26" t="s">
         <v>1120</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A236" s="2">
+      <c r="A236" s="23">
         <v>227</v>
       </c>
-      <c r="B236" s="63" t="s">
+      <c r="B236" s="24" t="s">
         <v>1121</v>
       </c>
-      <c r="C236" s="4" t="s">
+      <c r="C236" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D236" s="19" t="s">
+      <c r="D236" s="25" t="s">
         <v>1122</v>
       </c>
-      <c r="E236" s="4" t="s">
+      <c r="E236" s="25" t="s">
         <v>1123</v>
       </c>
-      <c r="F236" s="4" t="s">
+      <c r="F236" s="25" t="s">
         <v>1124</v>
       </c>
-      <c r="G236" s="4" t="s">
+      <c r="G236" s="25" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A237" s="2">
+    <row r="237" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A237" s="23">
         <v>228</v>
       </c>
-      <c r="B237" s="3" t="s">
+      <c r="B237" s="24" t="s">
         <v>1126</v>
       </c>
-      <c r="C237" s="5" t="s">
+      <c r="C237" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D237" s="5" t="s">
+      <c r="D237" s="26" t="s">
         <v>1127</v>
       </c>
-      <c r="E237" s="16" t="s">
+      <c r="E237" s="26" t="s">
         <v>1128</v>
       </c>
-      <c r="F237" s="5" t="s">
+      <c r="F237" s="26" t="s">
         <v>1129</v>
       </c>
-      <c r="G237" s="6" t="s">
+      <c r="G237" s="26" t="s">
         <v>1130</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A238" s="2">
+      <c r="A238" s="23">
         <v>229</v>
       </c>
-      <c r="B238" s="55" t="s">
+      <c r="B238" s="24" t="s">
         <v>1131</v>
       </c>
-      <c r="C238" s="4" t="s">
+      <c r="C238" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D238" s="4" t="s">
+      <c r="D238" s="25" t="s">
         <v>1132</v>
       </c>
-      <c r="E238" s="4" t="s">
+      <c r="E238" s="25" t="s">
         <v>1133</v>
       </c>
-      <c r="F238" s="11" t="s">
+      <c r="F238" s="25" t="s">
         <v>1134</v>
       </c>
-      <c r="G238" s="4" t="s">
+      <c r="G238" s="25" t="s">
         <v>1135</v>
       </c>
     </row>
     <row r="239" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A239" s="2">
+      <c r="A239" s="23">
         <v>230</v>
       </c>
-      <c r="B239" s="63" t="s">
+      <c r="B239" s="24" t="s">
         <v>1136</v>
       </c>
-      <c r="C239" s="5" t="s">
+      <c r="C239" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D239" s="7" t="s">
+      <c r="D239" s="26" t="s">
         <v>1137</v>
       </c>
-      <c r="E239" s="31" t="s">
+      <c r="E239" s="26" t="s">
         <v>1138</v>
       </c>
-      <c r="F239" s="5" t="s">
+      <c r="F239" s="26" t="s">
         <v>1139</v>
       </c>
-      <c r="G239" s="21" t="s">
+      <c r="G239" s="26" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A240" s="2">
+    <row r="240" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A240" s="23">
         <v>231</v>
       </c>
-      <c r="B240" s="3" t="s">
+      <c r="B240" s="24" t="s">
         <v>1141</v>
       </c>
-      <c r="C240" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D240" s="4" t="s">
+      <c r="C240" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D240" s="25" t="s">
         <v>1142</v>
       </c>
-      <c r="E240" s="9" t="s">
+      <c r="E240" s="25" t="s">
         <v>1143</v>
       </c>
-      <c r="F240" s="11" t="s">
+      <c r="F240" s="25" t="s">
         <v>1144</v>
       </c>
-      <c r="G240" s="19" t="s">
+      <c r="G240" s="25" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A241" s="2">
+    <row r="241" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A241" s="23">
         <v>232</v>
       </c>
-      <c r="B241" s="3" t="s">
+      <c r="B241" s="24" t="s">
         <v>1146</v>
       </c>
-      <c r="C241" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D241" s="5" t="s">
+      <c r="C241" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D241" s="26" t="s">
         <v>1147</v>
       </c>
-      <c r="E241" s="17" t="s">
+      <c r="E241" s="26" t="s">
         <v>1148</v>
       </c>
-      <c r="F241" s="13" t="s">
+      <c r="F241" s="26" t="s">
         <v>1149</v>
       </c>
-      <c r="G241" s="17" t="s">
+      <c r="G241" s="26" t="s">
         <v>1150</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A242" s="2">
+      <c r="A242" s="23">
         <v>233</v>
       </c>
-      <c r="B242" s="63" t="s">
+      <c r="B242" s="24" t="s">
         <v>1151</v>
       </c>
-      <c r="C242" s="4" t="s">
+      <c r="C242" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D242" s="4" t="s">
+      <c r="D242" s="25" t="s">
         <v>1152</v>
       </c>
-      <c r="E242" s="10" t="s">
+      <c r="E242" s="25" t="s">
         <v>1153</v>
       </c>
-      <c r="F242" s="20" t="s">
+      <c r="F242" s="25" t="s">
         <v>1154</v>
       </c>
-      <c r="G242" s="65" t="s">
+      <c r="G242" s="25" t="s">
         <v>1155</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A243" s="2">
+      <c r="A243" s="23">
         <v>234</v>
       </c>
-      <c r="B243" s="63" t="s">
+      <c r="B243" s="24" t="s">
         <v>1156</v>
       </c>
-      <c r="C243" s="5" t="s">
+      <c r="C243" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D243" s="14" t="s">
+      <c r="D243" s="26" t="s">
         <v>1157</v>
       </c>
-      <c r="E243" s="5" t="s">
+      <c r="E243" s="26" t="s">
         <v>1158</v>
       </c>
-      <c r="F243" s="5" t="s">
+      <c r="F243" s="26" t="s">
         <v>1159</v>
       </c>
-      <c r="G243" s="5" t="s">
+      <c r="G243" s="26" t="s">
         <v>1160</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A244" s="2">
+      <c r="A244" s="23">
         <v>235</v>
       </c>
-      <c r="B244" s="63" t="s">
+      <c r="B244" s="24" t="s">
         <v>1161</v>
       </c>
-      <c r="C244" s="4" t="s">
+      <c r="C244" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D244" s="19" t="s">
+      <c r="D244" s="25" t="s">
         <v>1162</v>
       </c>
-      <c r="E244" s="4" t="s">
+      <c r="E244" s="25" t="s">
         <v>1163</v>
       </c>
-      <c r="F244" s="19" t="s">
+      <c r="F244" s="25" t="s">
         <v>1164</v>
       </c>
-      <c r="G244" s="4" t="s">
+      <c r="G244" s="25" t="s">
         <v>1165</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A245" s="2">
+      <c r="A245" s="23">
         <v>236</v>
       </c>
-      <c r="B245" s="55" t="s">
+      <c r="B245" s="24" t="s">
         <v>1166</v>
       </c>
-      <c r="C245" s="5" t="s">
+      <c r="C245" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D245" s="5" t="s">
+      <c r="D245" s="26" t="s">
         <v>1167</v>
       </c>
-      <c r="E245" s="5" t="s">
+      <c r="E245" s="26" t="s">
         <v>1168</v>
       </c>
-      <c r="F245" s="5" t="s">
+      <c r="F245" s="26" t="s">
         <v>1169</v>
       </c>
-      <c r="G245" s="5" t="s">
+      <c r="G245" s="26" t="s">
         <v>1170</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A246" s="2">
+      <c r="A246" s="23">
         <v>237</v>
       </c>
-      <c r="B246" s="3" t="s">
+      <c r="B246" s="24" t="s">
         <v>1171</v>
       </c>
-      <c r="C246" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D246" s="57" t="s">
+      <c r="C246" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D246" s="25" t="s">
         <v>1172</v>
       </c>
-      <c r="E246" s="18" t="s">
+      <c r="E246" s="25" t="s">
         <v>1173</v>
       </c>
-      <c r="F246" s="4" t="s">
+      <c r="F246" s="25" t="s">
         <v>1174</v>
       </c>
-      <c r="G246" s="10" t="s">
+      <c r="G246" s="25" t="s">
         <v>1175</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A247" s="2">
+      <c r="A247" s="23">
         <v>238</v>
       </c>
-      <c r="B247" s="3" t="s">
+      <c r="B247" s="24" t="s">
         <v>1176</v>
       </c>
-      <c r="C247" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D247" s="16" t="s">
+      <c r="C247" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D247" s="26" t="s">
         <v>1177</v>
       </c>
-      <c r="E247" s="17" t="s">
+      <c r="E247" s="26" t="s">
         <v>1178</v>
       </c>
-      <c r="F247" s="5" t="s">
+      <c r="F247" s="26" t="s">
         <v>1179</v>
       </c>
-      <c r="G247" s="8" t="s">
+      <c r="G247" s="26" t="s">
         <v>1180</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A248" s="2">
+      <c r="A248" s="23">
         <v>239</v>
       </c>
-      <c r="B248" s="63" t="s">
+      <c r="B248" s="24" t="s">
         <v>1181</v>
       </c>
-      <c r="C248" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D248" s="19" t="s">
+      <c r="C248" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D248" s="25" t="s">
         <v>1182</v>
       </c>
-      <c r="E248" s="4" t="s">
+      <c r="E248" s="25" t="s">
         <v>1183</v>
       </c>
-      <c r="F248" s="4" t="s">
+      <c r="F248" s="25" t="s">
         <v>1184</v>
       </c>
-      <c r="G248" s="4" t="s">
+      <c r="G248" s="25" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="249" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A249" s="2">
+    <row r="249" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A249" s="23">
         <v>240</v>
       </c>
-      <c r="B249" s="3" t="s">
+      <c r="B249" s="24" t="s">
         <v>1186</v>
       </c>
-      <c r="C249" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D249" s="5" t="s">
+      <c r="C249" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D249" s="26" t="s">
         <v>1187</v>
       </c>
-      <c r="E249" s="30" t="s">
+      <c r="E249" s="26" t="s">
         <v>1188</v>
       </c>
-      <c r="F249" s="7" t="s">
+      <c r="F249" s="26" t="s">
         <v>1189</v>
       </c>
-      <c r="G249" s="52" t="s">
+      <c r="G249" s="26" t="s">
         <v>1190</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A250" s="2">
+      <c r="A250" s="23">
         <v>241</v>
       </c>
-      <c r="B250" s="3" t="s">
+      <c r="B250" s="24" t="s">
         <v>1191</v>
       </c>
-      <c r="C250" s="4" t="s">
+      <c r="C250" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D250" s="37" t="s">
+      <c r="D250" s="25" t="s">
         <v>1192</v>
       </c>
-      <c r="E250" s="4" t="s">
+      <c r="E250" s="25" t="s">
         <v>1193</v>
       </c>
-      <c r="F250" s="4" t="s">
+      <c r="F250" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="G250" s="4" t="s">
+      <c r="G250" s="25" t="s">
         <v>1195</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A251" s="2">
+      <c r="A251" s="23">
         <v>242</v>
       </c>
-      <c r="B251" s="3" t="s">
+      <c r="B251" s="24" t="s">
         <v>1196</v>
       </c>
-      <c r="C251" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D251" s="5" t="s">
+      <c r="C251" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D251" s="26" t="s">
         <v>1197</v>
       </c>
-      <c r="E251" s="14" t="s">
+      <c r="E251" s="26" t="s">
         <v>1198</v>
       </c>
-      <c r="F251" s="5" t="s">
+      <c r="F251" s="26" t="s">
         <v>1199</v>
       </c>
-      <c r="G251" s="5" t="s">
+      <c r="G251" s="26" t="s">
         <v>1200</v>
       </c>
     </row>
     <row r="252" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A252" s="2">
+      <c r="A252" s="23">
         <v>243</v>
       </c>
-      <c r="B252" s="3" t="s">
+      <c r="B252" s="24" t="s">
         <v>1201</v>
       </c>
-      <c r="C252" s="4" t="s">
+      <c r="C252" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D252" s="4" t="s">
+      <c r="D252" s="25" t="s">
         <v>1202</v>
       </c>
-      <c r="E252" s="4" t="s">
+      <c r="E252" s="25" t="s">
         <v>1203</v>
       </c>
-      <c r="F252" s="20" t="s">
+      <c r="F252" s="25" t="s">
         <v>1204</v>
       </c>
-      <c r="G252" s="4" t="s">
+      <c r="G252" s="25" t="s">
         <v>1205</v>
       </c>
     </row>
     <row r="253" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A253" s="2">
+      <c r="A253" s="23">
         <v>244</v>
       </c>
-      <c r="B253" s="59" t="s">
+      <c r="B253" s="24" t="s">
         <v>1206</v>
       </c>
-      <c r="C253" s="5" t="s">
+      <c r="C253" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D253" s="16" t="s">
+      <c r="D253" s="26" t="s">
         <v>1207</v>
       </c>
-      <c r="E253" s="5" t="s">
+      <c r="E253" s="26" t="s">
         <v>1208</v>
       </c>
-      <c r="F253" s="5" t="s">
+      <c r="F253" s="26" t="s">
         <v>1209</v>
       </c>
-      <c r="G253" s="14" t="s">
+      <c r="G253" s="26" t="s">
         <v>1210</v>
       </c>
     </row>
     <row r="254" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A254" s="2">
+      <c r="A254" s="23">
         <v>245</v>
       </c>
-      <c r="B254" s="59" t="s">
+      <c r="B254" s="24" t="s">
         <v>1211</v>
       </c>
-      <c r="C254" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D254" s="66" t="s">
+      <c r="C254" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D254" s="25" t="s">
         <v>1212</v>
       </c>
-      <c r="E254" s="4" t="s">
+      <c r="E254" s="25" t="s">
         <v>1213</v>
       </c>
-      <c r="F254" s="4" t="s">
+      <c r="F254" s="25" t="s">
         <v>1214</v>
       </c>
-      <c r="G254" s="20" t="s">
+      <c r="G254" s="25" t="s">
         <v>1215</v>
       </c>
     </row>
     <row r="255" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A255" s="2">
+      <c r="A255" s="23">
         <v>246</v>
       </c>
-      <c r="B255" s="3" t="s">
+      <c r="B255" s="24" t="s">
         <v>1216</v>
       </c>
-      <c r="C255" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D255" s="21" t="s">
+      <c r="C255" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D255" s="26" t="s">
         <v>1217</v>
       </c>
-      <c r="E255" s="5" t="s">
+      <c r="E255" s="26" t="s">
         <v>1218</v>
       </c>
-      <c r="F255" s="5" t="s">
+      <c r="F255" s="26" t="s">
         <v>1219</v>
       </c>
-      <c r="G255" s="5" t="s">
+      <c r="G255" s="26" t="s">
         <v>1220</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A256" s="2">
+    <row r="256" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A256" s="23">
         <v>247</v>
       </c>
-      <c r="B256" s="3" t="s">
+      <c r="B256" s="24" t="s">
         <v>1221</v>
       </c>
-      <c r="C256" s="4" t="s">
+      <c r="C256" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D256" s="19" t="s">
+      <c r="D256" s="25" t="s">
         <v>1222</v>
       </c>
-      <c r="E256" s="20" t="s">
+      <c r="E256" s="25" t="s">
         <v>1223</v>
       </c>
-      <c r="F256" s="12" t="s">
+      <c r="F256" s="25" t="s">
         <v>1224</v>
       </c>
-      <c r="G256" s="11" t="s">
+      <c r="G256" s="25" t="s">
         <v>1225</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A257" s="2">
+      <c r="A257" s="23">
         <v>248</v>
       </c>
-      <c r="B257" s="59" t="s">
+      <c r="B257" s="24" t="s">
         <v>1226</v>
       </c>
-      <c r="C257" s="5" t="s">
+      <c r="C257" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D257" s="8" t="s">
+      <c r="D257" s="26" t="s">
         <v>1227</v>
       </c>
-      <c r="E257" s="5" t="s">
+      <c r="E257" s="26" t="s">
         <v>1228</v>
       </c>
-      <c r="F257" s="13" t="s">
+      <c r="F257" s="26" t="s">
         <v>1229</v>
       </c>
-      <c r="G257" s="5" t="s">
+      <c r="G257" s="26" t="s">
         <v>1230</v>
       </c>
     </row>
     <row r="258" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A258" s="2">
+      <c r="A258" s="23">
         <v>249</v>
       </c>
-      <c r="B258" s="3" t="s">
+      <c r="B258" s="24" t="s">
         <v>1231</v>
       </c>
-      <c r="C258" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D258" s="20" t="s">
+      <c r="C258" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D258" s="25" t="s">
         <v>1232</v>
       </c>
-      <c r="E258" s="4" t="s">
+      <c r="E258" s="25" t="s">
         <v>1233</v>
       </c>
-      <c r="F258" s="4" t="s">
+      <c r="F258" s="25" t="s">
         <v>1234</v>
       </c>
-      <c r="G258" s="9" t="s">
+      <c r="G258" s="25" t="s">
         <v>1235</v>
       </c>
     </row>
     <row r="259" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A259" s="2">
+      <c r="A259" s="23">
         <v>250</v>
       </c>
-      <c r="B259" s="3" t="s">
+      <c r="B259" s="24" t="s">
         <v>1236</v>
       </c>
-      <c r="C259" s="5" t="s">
+      <c r="C259" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D259" s="8" t="s">
+      <c r="D259" s="26" t="s">
         <v>1237</v>
       </c>
-      <c r="E259" s="5" t="s">
+      <c r="E259" s="26" t="s">
         <v>1238</v>
       </c>
-      <c r="F259" s="30" t="s">
+      <c r="F259" s="26" t="s">
         <v>1239</v>
       </c>
-      <c r="G259" s="30" t="s">
+      <c r="G259" s="26" t="s">
         <v>1240</v>
       </c>
     </row>
     <row r="260" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A260" s="2">
+      <c r="A260" s="23">
         <v>251</v>
       </c>
-      <c r="B260" s="59" t="s">
+      <c r="B260" s="24" t="s">
         <v>1241</v>
       </c>
-      <c r="C260" s="4" t="s">
+      <c r="C260" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D260" s="10" t="s">
+      <c r="D260" s="25" t="s">
         <v>1242</v>
       </c>
-      <c r="E260" s="12" t="s">
+      <c r="E260" s="25" t="s">
         <v>1243</v>
       </c>
-      <c r="F260" s="4" t="s">
+      <c r="F260" s="25" t="s">
         <v>1244</v>
       </c>
-      <c r="G260" s="60" t="s">
+      <c r="G260" s="25" t="s">
         <v>1245</v>
       </c>
     </row>
     <row r="261" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A261" s="2">
+      <c r="A261" s="23">
         <v>252</v>
       </c>
-      <c r="B261" s="59" t="s">
+      <c r="B261" s="24" t="s">
         <v>1246</v>
       </c>
-      <c r="C261" s="5" t="s">
+      <c r="C261" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D261" s="5" t="s">
+      <c r="D261" s="26" t="s">
         <v>1247</v>
       </c>
-      <c r="E261" s="14" t="s">
+      <c r="E261" s="26" t="s">
         <v>1248</v>
       </c>
-      <c r="F261" s="5" t="s">
+      <c r="F261" s="26" t="s">
         <v>1249</v>
       </c>
-      <c r="G261" s="6" t="s">
+      <c r="G261" s="26" t="s">
         <v>1250</v>
       </c>
     </row>
     <row r="262" spans="1:7" ht="216.75" x14ac:dyDescent="0.25">
-      <c r="A262" s="2">
+      <c r="A262" s="23">
         <v>253</v>
       </c>
-      <c r="B262" s="3" t="s">
+      <c r="B262" s="24" t="s">
         <v>1251</v>
       </c>
-      <c r="C262" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D262" s="4" t="s">
+      <c r="C262" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D262" s="25" t="s">
         <v>1252</v>
       </c>
-      <c r="E262" s="36" t="s">
+      <c r="E262" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="F262" s="9" t="s">
+      <c r="F262" s="25" t="s">
         <v>1254</v>
       </c>
-      <c r="G262" s="4" t="s">
+      <c r="G262" s="25" t="s">
         <v>1255</v>
       </c>
     </row>
     <row r="263" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A263" s="2">
+      <c r="A263" s="23">
         <v>254</v>
       </c>
-      <c r="B263" s="3" t="s">
+      <c r="B263" s="24" t="s">
         <v>1256</v>
       </c>
-      <c r="C263" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D263" s="32" t="s">
+      <c r="C263" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D263" s="26" t="s">
         <v>1257</v>
       </c>
-      <c r="E263" s="5" t="s">
+      <c r="E263" s="26" t="s">
         <v>1258</v>
       </c>
-      <c r="F263" s="13" t="s">
+      <c r="F263" s="26" t="s">
         <v>1259</v>
       </c>
-      <c r="G263" s="15" t="s">
+      <c r="G263" s="26" t="s">
         <v>1260</v>
       </c>
     </row>
     <row r="264" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A264" s="2">
+      <c r="A264" s="23">
         <v>255</v>
       </c>
-      <c r="B264" s="59" t="s">
+      <c r="B264" s="24" t="s">
         <v>1261</v>
       </c>
-      <c r="C264" s="4" t="s">
+      <c r="C264" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D264" s="57" t="s">
+      <c r="D264" s="25" t="s">
         <v>1262</v>
       </c>
-      <c r="E264" s="4" t="s">
+      <c r="E264" s="25" t="s">
         <v>1263</v>
       </c>
-      <c r="F264" s="4" t="s">
+      <c r="F264" s="25" t="s">
         <v>1264</v>
       </c>
-      <c r="G264" s="4" t="s">
+      <c r="G264" s="25" t="s">
         <v>1265</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A265" s="2">
+      <c r="A265" s="23">
         <v>256</v>
       </c>
-      <c r="B265" s="59" t="s">
+      <c r="B265" s="24" t="s">
         <v>1266</v>
       </c>
-      <c r="C265" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D265" s="52" t="s">
+      <c r="C265" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D265" s="26" t="s">
         <v>1267</v>
       </c>
-      <c r="E265" s="5" t="s">
+      <c r="E265" s="26" t="s">
         <v>1268</v>
       </c>
-      <c r="F265" s="5" t="s">
+      <c r="F265" s="26" t="s">
         <v>1269</v>
       </c>
-      <c r="G265" s="35" t="s">
+      <c r="G265" s="26" t="s">
         <v>1270</v>
       </c>
     </row>
     <row r="266" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A266" s="2">
+      <c r="A266" s="23">
         <v>257</v>
       </c>
-      <c r="B266" s="59" t="s">
+      <c r="B266" s="24" t="s">
         <v>1271</v>
       </c>
-      <c r="C266" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D266" s="19" t="s">
+      <c r="C266" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D266" s="25" t="s">
         <v>1272</v>
       </c>
-      <c r="E266" s="4" t="s">
+      <c r="E266" s="25" t="s">
         <v>1273</v>
       </c>
-      <c r="F266" s="4" t="s">
+      <c r="F266" s="25" t="s">
         <v>1274</v>
       </c>
-      <c r="G266" s="12" t="s">
+      <c r="G266" s="25" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="267" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A267" s="2">
+    <row r="267" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A267" s="23">
         <v>258</v>
       </c>
-      <c r="B267" s="55" t="s">
+      <c r="B267" s="24" t="s">
         <v>1377</v>
       </c>
-      <c r="C267" s="5" t="s">
+      <c r="C267" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D267" s="21" t="s">
+      <c r="D267" s="26" t="s">
         <v>1378</v>
       </c>
-      <c r="E267" s="16" t="s">
+      <c r="E267" s="26" t="s">
         <v>1379</v>
       </c>
-      <c r="F267" s="5" t="s">
+      <c r="F267" s="26" t="s">
         <v>1380</v>
       </c>
-      <c r="G267" s="5" t="s">
+      <c r="G267" s="26" t="s">
         <v>1381</v>
       </c>
     </row>
-    <row r="268" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A268" s="2">
+    <row r="268" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A268" s="23">
         <v>259</v>
       </c>
-      <c r="B268" s="63" t="s">
+      <c r="B268" s="24" t="s">
         <v>1382</v>
       </c>
-      <c r="C268" s="4" t="s">
+      <c r="C268" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D268" s="4" t="s">
+      <c r="D268" s="25" t="s">
         <v>1383</v>
       </c>
-      <c r="E268" s="18" t="s">
+      <c r="E268" s="25" t="s">
         <v>1384</v>
       </c>
-      <c r="F268" s="20" t="s">
+      <c r="F268" s="25" t="s">
         <v>1385</v>
       </c>
-      <c r="G268" s="48" t="s">
+      <c r="G268" s="25" t="s">
         <v>1386</v>
       </c>
     </row>
     <row r="269" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A269" s="2">
+      <c r="A269" s="23">
         <v>260</v>
       </c>
-      <c r="B269" s="3" t="s">
+      <c r="B269" s="24" t="s">
         <v>1387</v>
       </c>
-      <c r="C269" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D269" s="21" t="s">
+      <c r="C269" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D269" s="26" t="s">
         <v>1388</v>
       </c>
-      <c r="E269" s="13" t="s">
+      <c r="E269" s="26" t="s">
         <v>1389</v>
       </c>
-      <c r="F269" s="14" t="s">
+      <c r="F269" s="26" t="s">
         <v>1390</v>
       </c>
-      <c r="G269" s="15" t="s">
+      <c r="G269" s="26" t="s">
         <v>1391</v>
       </c>
     </row>
-    <row r="270" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A270" s="2">
+    <row r="270" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A270" s="23">
         <v>261</v>
       </c>
-      <c r="B270" s="59" t="s">
+      <c r="B270" s="24" t="s">
         <v>1392</v>
       </c>
-      <c r="C270" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D270" s="9" t="s">
+      <c r="C270" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D270" s="25" t="s">
         <v>1393</v>
       </c>
-      <c r="E270" s="10" t="s">
+      <c r="E270" s="25" t="s">
         <v>1394</v>
       </c>
-      <c r="F270" s="4" t="s">
+      <c r="F270" s="25" t="s">
         <v>1395</v>
       </c>
-      <c r="G270" s="47" t="s">
+      <c r="G270" s="25" t="s">
         <v>1396</v>
       </c>
     </row>
     <row r="271" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A271" s="2">
+      <c r="A271" s="23">
         <v>262</v>
       </c>
-      <c r="B271" s="3" t="s">
+      <c r="B271" s="24" t="s">
         <v>1397</v>
       </c>
-      <c r="C271" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D271" s="7" t="s">
+      <c r="C271" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D271" s="26" t="s">
         <v>1398</v>
       </c>
-      <c r="E271" s="6" t="s">
+      <c r="E271" s="26" t="s">
         <v>1399</v>
       </c>
-      <c r="F271" s="5" t="s">
+      <c r="F271" s="26" t="s">
         <v>1400</v>
       </c>
-      <c r="G271" s="15" t="s">
+      <c r="G271" s="26" t="s">
         <v>1401</v>
       </c>
     </row>
-    <row r="272" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A272" s="2">
+    <row r="272" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A272" s="23">
         <v>263</v>
       </c>
-      <c r="B272" s="3" t="s">
+      <c r="B272" s="24" t="s">
         <v>1402</v>
       </c>
-      <c r="C272" s="4" t="s">
+      <c r="C272" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D272" s="4" t="s">
+      <c r="D272" s="25" t="s">
         <v>1403</v>
       </c>
-      <c r="E272" s="9" t="s">
+      <c r="E272" s="25" t="s">
         <v>1404</v>
       </c>
-      <c r="F272" s="11" t="s">
+      <c r="F272" s="25" t="s">
         <v>1405</v>
       </c>
-      <c r="G272" s="10" t="s">
+      <c r="G272" s="25" t="s">
         <v>1406</v>
       </c>
     </row>
     <row r="273" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A273" s="2">
+      <c r="A273" s="23">
         <v>264</v>
       </c>
-      <c r="B273" s="3" t="s">
+      <c r="B273" s="24" t="s">
         <v>1407</v>
       </c>
-      <c r="C273" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D273" s="15" t="s">
+      <c r="C273" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D273" s="26" t="s">
         <v>1408</v>
       </c>
-      <c r="E273" s="7" t="s">
+      <c r="E273" s="26" t="s">
         <v>1409</v>
       </c>
-      <c r="F273" s="31" t="s">
+      <c r="F273" s="26" t="s">
         <v>1410</v>
       </c>
-      <c r="G273" s="5" t="s">
+      <c r="G273" s="26" t="s">
         <v>1411</v>
       </c>
     </row>
     <row r="274" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A274" s="2">
+      <c r="A274" s="23">
         <v>265</v>
       </c>
-      <c r="B274" s="63" t="s">
+      <c r="B274" s="24" t="s">
         <v>1412</v>
       </c>
-      <c r="C274" s="4" t="s">
+      <c r="C274" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D274" s="4" t="s">
+      <c r="D274" s="25" t="s">
         <v>1413</v>
       </c>
-      <c r="E274" s="19" t="s">
+      <c r="E274" s="25" t="s">
         <v>1414</v>
       </c>
-      <c r="F274" s="9" t="s">
+      <c r="F274" s="25" t="s">
         <v>1415</v>
       </c>
-      <c r="G274" s="11" t="s">
+      <c r="G274" s="25" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="275" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A275" s="2">
+      <c r="A275" s="23">
         <v>266</v>
       </c>
-      <c r="B275" s="63" t="s">
+      <c r="B275" s="24" t="s">
         <v>1417</v>
       </c>
-      <c r="C275" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D275" s="5" t="s">
+      <c r="C275" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D275" s="26" t="s">
         <v>1418</v>
       </c>
-      <c r="E275" s="21" t="s">
+      <c r="E275" s="26" t="s">
         <v>1419</v>
       </c>
-      <c r="F275" s="15" t="s">
+      <c r="F275" s="26" t="s">
         <v>1420</v>
       </c>
-      <c r="G275" s="21" t="s">
+      <c r="G275" s="26" t="s">
         <v>1421</v>
       </c>
     </row>
-    <row r="276" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A276" s="2">
+    <row r="276" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A276" s="23">
         <v>267</v>
       </c>
-      <c r="B276" s="3" t="s">
+      <c r="B276" s="24" t="s">
         <v>1422</v>
       </c>
-      <c r="C276" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D276" s="4" t="s">
+      <c r="C276" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D276" s="25" t="s">
         <v>1423</v>
       </c>
-      <c r="E276" s="18" t="s">
+      <c r="E276" s="25" t="s">
         <v>1424</v>
       </c>
-      <c r="F276" s="4" t="s">
+      <c r="F276" s="25" t="s">
         <v>1425</v>
       </c>
-      <c r="G276" s="4" t="s">
+      <c r="G276" s="25" t="s">
         <v>1426</v>
       </c>
     </row>
     <row r="277" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A277" s="2">
+      <c r="A277" s="23">
         <v>268</v>
       </c>
-      <c r="B277" s="63" t="s">
+      <c r="B277" s="24" t="s">
         <v>1427</v>
       </c>
-      <c r="C277" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D277" s="5" t="s">
+      <c r="C277" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D277" s="26" t="s">
         <v>1428</v>
       </c>
-      <c r="E277" s="21" t="s">
+      <c r="E277" s="26" t="s">
         <v>1429</v>
       </c>
-      <c r="F277" s="30" t="s">
+      <c r="F277" s="26" t="s">
         <v>1430</v>
       </c>
-      <c r="G277" s="52" t="s">
+      <c r="G277" s="26" t="s">
         <v>1431</v>
       </c>
     </row>
     <row r="278" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A278" s="2">
+      <c r="A278" s="23">
         <v>269</v>
       </c>
-      <c r="B278" s="3" t="s">
+      <c r="B278" s="24" t="s">
         <v>1432</v>
       </c>
-      <c r="C278" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D278" s="56" t="s">
+      <c r="C278" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D278" s="25" t="s">
         <v>1433</v>
       </c>
-      <c r="E278" s="11" t="s">
+      <c r="E278" s="25" t="s">
         <v>1434</v>
       </c>
-      <c r="F278" s="4" t="s">
+      <c r="F278" s="25" t="s">
         <v>1435</v>
       </c>
-      <c r="G278" s="4" t="s">
+      <c r="G278" s="25" t="s">
         <v>1436</v>
       </c>
     </row>
     <row r="279" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A279" s="2">
+      <c r="A279" s="23">
         <v>270</v>
       </c>
-      <c r="B279" s="3" t="s">
+      <c r="B279" s="24" t="s">
         <v>1437</v>
       </c>
-      <c r="C279" s="5" t="s">
+      <c r="C279" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D279" s="5" t="s">
+      <c r="D279" s="26" t="s">
         <v>1438</v>
       </c>
-      <c r="E279" s="15" t="s">
+      <c r="E279" s="26" t="s">
         <v>1439</v>
       </c>
-      <c r="F279" s="8" t="s">
+      <c r="F279" s="26" t="s">
         <v>1440</v>
       </c>
-      <c r="G279" s="5" t="s">
+      <c r="G279" s="26" t="s">
         <v>1441</v>
       </c>
     </row>
     <row r="280" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="71">
+      <c r="A280" s="54">
         <v>271</v>
       </c>
-      <c r="B280" s="73" t="s">
+      <c r="B280" s="56" t="s">
         <v>1442</v>
       </c>
-      <c r="C280" s="69" t="s">
+      <c r="C280" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D280" s="34" t="s">
+      <c r="D280" s="39" t="s">
         <v>1443</v>
       </c>
-      <c r="E280" s="75" t="s">
+      <c r="E280" s="60" t="s">
         <v>1445</v>
       </c>
-      <c r="F280" s="69" t="s">
+      <c r="F280" s="60" t="s">
         <v>1446</v>
       </c>
-      <c r="G280" s="69" t="s">
+      <c r="G280" s="60" t="s">
         <v>1447</v>
       </c>
     </row>
     <row r="281" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A281" s="72"/>
-      <c r="B281" s="74"/>
-      <c r="C281" s="70"/>
-      <c r="D281" s="68" t="s">
+      <c r="A281" s="55"/>
+      <c r="B281" s="57"/>
+      <c r="C281" s="61"/>
+      <c r="D281" s="62" t="s">
         <v>1444</v>
       </c>
-      <c r="E281" s="76"/>
-      <c r="F281" s="70"/>
-      <c r="G281" s="70"/>
+      <c r="E281" s="61"/>
+      <c r="F281" s="61"/>
+      <c r="G281" s="61"/>
     </row>
     <row r="282" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A282" s="2">
+      <c r="A282" s="23">
         <v>272</v>
       </c>
-      <c r="B282" s="3" t="s">
+      <c r="B282" s="24" t="s">
         <v>1448</v>
       </c>
-      <c r="C282" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D282" s="5" t="s">
+      <c r="C282" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D282" s="26" t="s">
         <v>1449</v>
       </c>
-      <c r="E282" s="7" t="s">
+      <c r="E282" s="26" t="s">
         <v>1450</v>
       </c>
-      <c r="F282" s="14" t="s">
+      <c r="F282" s="26" t="s">
         <v>1451</v>
       </c>
-      <c r="G282" s="5" t="s">
+      <c r="G282" s="26" t="s">
         <v>1452</v>
       </c>
     </row>
     <row r="283" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A283" s="2">
+      <c r="A283" s="23">
         <v>273</v>
       </c>
-      <c r="B283" s="59" t="s">
+      <c r="B283" s="24" t="s">
         <v>1453</v>
       </c>
-      <c r="C283" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D283" s="11" t="s">
+      <c r="C283" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D283" s="25" t="s">
         <v>1454</v>
       </c>
-      <c r="E283" s="4" t="s">
+      <c r="E283" s="25" t="s">
         <v>1455</v>
       </c>
-      <c r="F283" s="4" t="s">
+      <c r="F283" s="25" t="s">
         <v>1456</v>
       </c>
-      <c r="G283" s="11" t="s">
+      <c r="G283" s="25" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="284" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A284" s="2">
+    <row r="284" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A284" s="23">
         <v>274</v>
       </c>
-      <c r="B284" s="3" t="s">
+      <c r="B284" s="24" t="s">
         <v>1458</v>
       </c>
-      <c r="C284" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D284" s="16" t="s">
+      <c r="C284" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D284" s="26" t="s">
         <v>1459</v>
       </c>
-      <c r="E284" s="17" t="s">
+      <c r="E284" s="26" t="s">
         <v>1460</v>
       </c>
-      <c r="F284" s="5" t="s">
+      <c r="F284" s="26" t="s">
         <v>1461</v>
       </c>
-      <c r="G284" s="33" t="s">
+      <c r="G284" s="26" t="s">
         <v>1462</v>
       </c>
     </row>
     <row r="285" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A285" s="2">
+      <c r="A285" s="23">
         <v>275</v>
       </c>
-      <c r="B285" s="63" t="s">
+      <c r="B285" s="24" t="s">
         <v>1463</v>
       </c>
-      <c r="C285" s="4" t="s">
+      <c r="C285" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D285" s="4" t="s">
+      <c r="D285" s="25" t="s">
         <v>1464</v>
       </c>
-      <c r="E285" s="18" t="s">
+      <c r="E285" s="25" t="s">
         <v>1465</v>
       </c>
-      <c r="F285" s="20" t="s">
+      <c r="F285" s="25" t="s">
         <v>1466</v>
       </c>
-      <c r="G285" s="9" t="s">
+      <c r="G285" s="25" t="s">
         <v>1467</v>
       </c>
     </row>
     <row r="286" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A286" s="2">
+      <c r="A286" s="23">
         <v>276</v>
       </c>
-      <c r="B286" s="55" t="s">
+      <c r="B286" s="24" t="s">
         <v>1468</v>
       </c>
-      <c r="C286" s="5" t="s">
+      <c r="C286" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D286" s="8" t="s">
+      <c r="D286" s="26" t="s">
         <v>1469</v>
       </c>
-      <c r="E286" s="17" t="s">
+      <c r="E286" s="26" t="s">
         <v>1470</v>
       </c>
-      <c r="F286" s="5" t="s">
+      <c r="F286" s="26" t="s">
         <v>1471</v>
       </c>
-      <c r="G286" s="5" t="s">
+      <c r="G286" s="26" t="s">
         <v>1472</v>
       </c>
     </row>
-    <row r="287" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A287" s="2">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" s="23">
         <v>277</v>
       </c>
-      <c r="B287" s="63" t="s">
+      <c r="B287" s="24" t="s">
         <v>1473</v>
       </c>
-      <c r="C287" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D287" s="4" t="s">
+      <c r="C287" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D287" s="25" t="s">
         <v>1474</v>
       </c>
-      <c r="E287" s="12" t="s">
+      <c r="E287" s="25" t="s">
         <v>1475</v>
       </c>
-      <c r="F287" s="4" t="s">
+      <c r="F287" s="25" t="s">
         <v>1476</v>
       </c>
-      <c r="G287" s="4" t="s">
+      <c r="G287" s="25" t="s">
         <v>1477</v>
       </c>
     </row>
-    <row r="288" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A288" s="2">
+    <row r="288" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A288" s="23">
         <v>278</v>
       </c>
-      <c r="B288" s="3" t="s">
+      <c r="B288" s="24" t="s">
         <v>1276</v>
       </c>
-      <c r="C288" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D288" s="33" t="s">
+      <c r="C288" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D288" s="26" t="s">
         <v>1277</v>
       </c>
-      <c r="E288" s="14" t="s">
+      <c r="E288" s="26" t="s">
         <v>1278</v>
       </c>
-      <c r="F288" s="5" t="s">
+      <c r="F288" s="26" t="s">
         <v>1279</v>
       </c>
-      <c r="G288" s="33" t="s">
+      <c r="G288" s="26" t="s">
         <v>1280</v>
       </c>
     </row>
     <row r="289" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A289" s="2">
+      <c r="A289" s="23">
         <v>279</v>
       </c>
-      <c r="B289" s="3" t="s">
+      <c r="B289" s="24" t="s">
         <v>1281</v>
       </c>
-      <c r="C289" s="4" t="s">
+      <c r="C289" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D289" s="4" t="s">
+      <c r="D289" s="25" t="s">
         <v>1282</v>
       </c>
-      <c r="E289" s="4" t="s">
+      <c r="E289" s="25" t="s">
         <v>1283</v>
       </c>
-      <c r="F289" s="4" t="s">
+      <c r="F289" s="25" t="s">
         <v>1284</v>
       </c>
-      <c r="G289" s="9" t="s">
+      <c r="G289" s="25" t="s">
         <v>1285</v>
       </c>
     </row>
-    <row r="290" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A290" s="2">
+    <row r="290" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A290" s="23">
         <v>280</v>
       </c>
-      <c r="B290" s="3" t="s">
+      <c r="B290" s="24" t="s">
         <v>1286</v>
       </c>
-      <c r="C290" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D290" s="14" t="s">
+      <c r="C290" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D290" s="26" t="s">
         <v>1287</v>
       </c>
-      <c r="E290" s="17" t="s">
+      <c r="E290" s="26" t="s">
         <v>1288</v>
       </c>
-      <c r="F290" s="13" t="s">
+      <c r="F290" s="26" t="s">
         <v>1289</v>
       </c>
-      <c r="G290" s="31" t="s">
+      <c r="G290" s="26" t="s">
         <v>1290</v>
       </c>
     </row>
-    <row r="291" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A291" s="2">
+    <row r="291" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A291" s="23">
         <v>281</v>
       </c>
-      <c r="B291" s="3" t="s">
+      <c r="B291" s="24" t="s">
         <v>1291</v>
       </c>
-      <c r="C291" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D291" s="4" t="s">
+      <c r="C291" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D291" s="25" t="s">
         <v>1292</v>
       </c>
-      <c r="E291" s="18" t="s">
+      <c r="E291" s="25" t="s">
         <v>1293</v>
       </c>
-      <c r="F291" s="9" t="s">
+      <c r="F291" s="25" t="s">
         <v>1294</v>
       </c>
-      <c r="G291" s="12" t="s">
+      <c r="G291" s="25" t="s">
         <v>1295</v>
       </c>
     </row>
-    <row r="292" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A292" s="2">
+    <row r="292" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A292" s="23">
         <v>282</v>
       </c>
-      <c r="B292" s="3" t="s">
+      <c r="B292" s="24" t="s">
         <v>1296</v>
       </c>
-      <c r="C292" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D292" s="5" t="s">
+      <c r="C292" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D292" s="26" t="s">
         <v>1297</v>
       </c>
-      <c r="E292" s="8" t="s">
+      <c r="E292" s="26" t="s">
         <v>1298</v>
       </c>
-      <c r="F292" s="5" t="s">
+      <c r="F292" s="26" t="s">
         <v>1299</v>
       </c>
-      <c r="G292" s="21" t="s">
+      <c r="G292" s="26" t="s">
         <v>1300</v>
       </c>
     </row>
     <row r="293" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A293" s="2">
+      <c r="A293" s="23">
         <v>283</v>
       </c>
-      <c r="B293" s="3" t="s">
+      <c r="B293" s="24" t="s">
         <v>1301</v>
       </c>
-      <c r="C293" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D293" s="4" t="s">
+      <c r="C293" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D293" s="25" t="s">
         <v>1302</v>
       </c>
-      <c r="E293" s="18" t="s">
+      <c r="E293" s="25" t="s">
         <v>1303</v>
       </c>
-      <c r="F293" s="36" t="s">
+      <c r="F293" s="25" t="s">
         <v>1304</v>
       </c>
-      <c r="G293" s="4" t="s">
+      <c r="G293" s="25" t="s">
         <v>1305</v>
       </c>
     </row>
     <row r="294" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A294" s="2">
+      <c r="A294" s="23">
         <v>284</v>
       </c>
-      <c r="B294" s="3" t="s">
+      <c r="B294" s="24" t="s">
         <v>1306</v>
       </c>
-      <c r="C294" s="5" t="s">
+      <c r="C294" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D294" s="5" t="s">
+      <c r="D294" s="26" t="s">
         <v>1307</v>
       </c>
-      <c r="E294" s="8" t="s">
+      <c r="E294" s="26" t="s">
         <v>1308</v>
       </c>
-      <c r="F294" s="8" t="s">
+      <c r="F294" s="26" t="s">
         <v>1309</v>
       </c>
-      <c r="G294" s="30" t="s">
+      <c r="G294" s="26" t="s">
         <v>1310</v>
       </c>
     </row>
     <row r="295" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A295" s="2">
+      <c r="A295" s="23">
         <v>285</v>
       </c>
-      <c r="B295" s="3" t="s">
+      <c r="B295" s="24" t="s">
         <v>1311</v>
       </c>
-      <c r="C295" s="4" t="s">
+      <c r="C295" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D295" s="48" t="s">
+      <c r="D295" s="25" t="s">
         <v>1312</v>
       </c>
-      <c r="E295" s="4" t="s">
+      <c r="E295" s="25" t="s">
         <v>1313</v>
       </c>
-      <c r="F295" s="4" t="s">
+      <c r="F295" s="25" t="s">
         <v>1314</v>
       </c>
-      <c r="G295" s="4" t="s">
+      <c r="G295" s="25" t="s">
         <v>1315</v>
       </c>
     </row>
-    <row r="296" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A296" s="2">
+    <row r="296" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A296" s="23">
         <v>286</v>
       </c>
-      <c r="B296" s="3" t="s">
+      <c r="B296" s="24" t="s">
         <v>1316</v>
       </c>
-      <c r="C296" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D296" s="5" t="s">
+      <c r="C296" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D296" s="26" t="s">
         <v>1317</v>
       </c>
-      <c r="E296" s="21" t="s">
+      <c r="E296" s="26" t="s">
         <v>1318</v>
       </c>
-      <c r="F296" s="5" t="s">
+      <c r="F296" s="26" t="s">
         <v>1319</v>
       </c>
-      <c r="G296" s="14" t="s">
+      <c r="G296" s="26" t="s">
         <v>1320</v>
       </c>
     </row>
     <row r="297" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A297" s="2">
+      <c r="A297" s="23">
         <v>287</v>
       </c>
-      <c r="B297" s="3" t="s">
+      <c r="B297" s="24" t="s">
         <v>1321</v>
       </c>
-      <c r="C297" s="4" t="s">
+      <c r="C297" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D297" s="4" t="s">
+      <c r="D297" s="25" t="s">
         <v>1322</v>
       </c>
-      <c r="E297" s="12" t="s">
+      <c r="E297" s="25" t="s">
         <v>1323</v>
       </c>
-      <c r="F297" s="4" t="s">
+      <c r="F297" s="25" t="s">
         <v>1324</v>
       </c>
-      <c r="G297" s="4" t="s">
+      <c r="G297" s="25" t="s">
         <v>1325</v>
       </c>
     </row>
-    <row r="298" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A298" s="2">
+    <row r="298" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A298" s="23">
         <v>288</v>
       </c>
-      <c r="B298" s="3" t="s">
+      <c r="B298" s="24" t="s">
         <v>1326</v>
       </c>
-      <c r="C298" s="5" t="s">
+      <c r="C298" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D298" s="35" t="s">
+      <c r="D298" s="26" t="s">
         <v>1327</v>
       </c>
-      <c r="E298" s="5" t="s">
+      <c r="E298" s="26" t="s">
         <v>1328</v>
       </c>
-      <c r="F298" s="8" t="s">
+      <c r="F298" s="26" t="s">
         <v>1329</v>
       </c>
-      <c r="G298" s="5" t="s">
+      <c r="G298" s="26" t="s">
         <v>1330</v>
       </c>
     </row>
-    <row r="299" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A299" s="2">
+    <row r="299" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A299" s="23">
         <v>289</v>
       </c>
-      <c r="B299" s="3" t="s">
+      <c r="B299" s="24" t="s">
         <v>1331</v>
       </c>
-      <c r="C299" s="4" t="s">
+      <c r="C299" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D299" s="12" t="s">
+      <c r="D299" s="25" t="s">
         <v>1332</v>
       </c>
-      <c r="E299" s="20" t="s">
+      <c r="E299" s="25" t="s">
         <v>1333</v>
       </c>
-      <c r="F299" s="4" t="s">
+      <c r="F299" s="25" t="s">
         <v>1334</v>
       </c>
-      <c r="G299" s="4" t="s">
+      <c r="G299" s="25" t="s">
         <v>1335</v>
       </c>
     </row>
     <row r="300" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A300" s="2">
+      <c r="A300" s="23">
         <v>290</v>
       </c>
-      <c r="B300" s="3" t="s">
+      <c r="B300" s="24" t="s">
         <v>1336</v>
       </c>
-      <c r="C300" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D300" s="5" t="s">
+      <c r="C300" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D300" s="26" t="s">
         <v>1337</v>
       </c>
-      <c r="E300" s="5" t="s">
+      <c r="E300" s="26" t="s">
         <v>1338</v>
       </c>
-      <c r="F300" s="5" t="s">
+      <c r="F300" s="26" t="s">
         <v>1339</v>
       </c>
-      <c r="G300" s="5" t="s">
+      <c r="G300" s="26" t="s">
         <v>1340</v>
       </c>
     </row>
     <row r="301" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A301" s="2">
+      <c r="A301" s="23">
         <v>291</v>
       </c>
-      <c r="B301" s="3" t="s">
+      <c r="B301" s="24" t="s">
         <v>1341</v>
       </c>
-      <c r="C301" s="4" t="s">
+      <c r="C301" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D301" s="37" t="s">
+      <c r="D301" s="25" t="s">
         <v>1342</v>
       </c>
-      <c r="E301" s="4" t="s">
+      <c r="E301" s="25" t="s">
         <v>1343</v>
       </c>
-      <c r="F301" s="4" t="s">
+      <c r="F301" s="25" t="s">
         <v>1344</v>
       </c>
-      <c r="G301" s="4" t="s">
+      <c r="G301" s="25" t="s">
         <v>1345</v>
       </c>
     </row>
     <row r="302" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A302" s="2">
+      <c r="A302" s="23">
         <v>292</v>
       </c>
-      <c r="B302" s="3" t="s">
+      <c r="B302" s="24" t="s">
         <v>1346</v>
       </c>
-      <c r="C302" s="5" t="s">
+      <c r="C302" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D302" s="30" t="s">
+      <c r="D302" s="26" t="s">
         <v>1347</v>
       </c>
-      <c r="E302" s="17" t="s">
+      <c r="E302" s="26" t="s">
         <v>1348</v>
       </c>
-      <c r="F302" s="5" t="s">
+      <c r="F302" s="26" t="s">
         <v>1349</v>
       </c>
-      <c r="G302" s="5" t="s">
+      <c r="G302" s="26" t="s">
         <v>1350</v>
       </c>
     </row>
     <row r="303" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A303" s="2">
+      <c r="A303" s="23">
         <v>293</v>
       </c>
-      <c r="B303" s="3" t="s">
+      <c r="B303" s="24" t="s">
         <v>1351</v>
       </c>
-      <c r="C303" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D303" s="4" t="s">
+      <c r="C303" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D303" s="25" t="s">
         <v>1352</v>
       </c>
-      <c r="E303" s="12" t="s">
+      <c r="E303" s="25" t="s">
         <v>1353</v>
       </c>
-      <c r="F303" s="12" t="s">
+      <c r="F303" s="25" t="s">
         <v>1354</v>
       </c>
-      <c r="G303" s="12" t="s">
+      <c r="G303" s="25" t="s">
         <v>1355</v>
       </c>
     </row>
-    <row r="304" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A304" s="2">
+    <row r="304" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A304" s="23">
         <v>294</v>
       </c>
-      <c r="B304" s="3" t="s">
+      <c r="B304" s="24" t="s">
         <v>1356</v>
       </c>
-      <c r="C304" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D304" s="52" t="s">
+      <c r="C304" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D304" s="26" t="s">
         <v>1357</v>
       </c>
-      <c r="E304" s="16" t="s">
+      <c r="E304" s="26" t="s">
         <v>1358</v>
       </c>
-      <c r="F304" s="7" t="s">
+      <c r="F304" s="26" t="s">
         <v>1359</v>
       </c>
-      <c r="G304" s="8" t="s">
+      <c r="G304" s="26" t="s">
         <v>1360</v>
       </c>
     </row>
-    <row r="305" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A305" s="2">
+    <row r="305" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A305" s="23">
         <v>295</v>
       </c>
-      <c r="B305" s="3" t="s">
+      <c r="B305" s="24" t="s">
         <v>1361</v>
       </c>
-      <c r="C305" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D305" s="48" t="s">
+      <c r="C305" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D305" s="25" t="s">
         <v>1362</v>
       </c>
-      <c r="E305" s="9" t="s">
+      <c r="E305" s="25" t="s">
         <v>1363</v>
       </c>
-      <c r="F305" s="4" t="s">
+      <c r="F305" s="25" t="s">
         <v>1364</v>
       </c>
-      <c r="G305" s="60" t="s">
+      <c r="G305" s="25" t="s">
         <v>1365</v>
       </c>
     </row>
     <row r="306" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A306" s="2">
+      <c r="A306" s="23">
         <v>296</v>
       </c>
-      <c r="B306" s="3" t="s">
+      <c r="B306" s="24" t="s">
         <v>1366</v>
       </c>
-      <c r="C306" s="5" t="s">
+      <c r="C306" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D306" s="5" t="s">
+      <c r="D306" s="26" t="s">
         <v>1367</v>
       </c>
-      <c r="E306" s="21" t="s">
+      <c r="E306" s="26" t="s">
         <v>1368</v>
       </c>
-      <c r="F306" s="5" t="s">
+      <c r="F306" s="26" t="s">
         <v>1369</v>
       </c>
-      <c r="G306" s="6" t="s">
+      <c r="G306" s="26" t="s">
         <v>1370</v>
       </c>
     </row>
     <row r="307" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A307" s="71">
+      <c r="A307" s="54">
         <v>297</v>
       </c>
-      <c r="B307" s="73" t="s">
+      <c r="B307" s="56" t="s">
         <v>1371</v>
       </c>
-      <c r="C307" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="D307" s="34" t="s">
+      <c r="C307" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D307" s="39" t="s">
         <v>1372</v>
       </c>
-      <c r="E307" s="77" t="s">
+      <c r="E307" s="60" t="s">
         <v>1374</v>
       </c>
-      <c r="F307" s="79" t="s">
+      <c r="F307" s="60" t="s">
         <v>1375</v>
       </c>
-      <c r="G307" s="69" t="s">
+      <c r="G307" s="60" t="s">
         <v>1376</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A308" s="72"/>
-      <c r="B308" s="74"/>
-      <c r="C308" s="70"/>
-      <c r="D308" s="67" t="s">
+      <c r="A308" s="55"/>
+      <c r="B308" s="57"/>
+      <c r="C308" s="61"/>
+      <c r="D308" s="62" t="s">
         <v>1373</v>
       </c>
-      <c r="E308" s="78"/>
-      <c r="F308" s="80"/>
-      <c r="G308" s="70"/>
+      <c r="E308" s="61"/>
+      <c r="F308" s="61"/>
+      <c r="G308" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="E147:E148"/>
-    <mergeCell ref="F147:F148"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G307:G308"/>
+    <mergeCell ref="A280:A281"/>
+    <mergeCell ref="B280:B281"/>
+    <mergeCell ref="C280:C281"/>
+    <mergeCell ref="E280:E281"/>
+    <mergeCell ref="F280:F281"/>
+    <mergeCell ref="G280:G281"/>
+    <mergeCell ref="A307:A308"/>
+    <mergeCell ref="B307:B308"/>
+    <mergeCell ref="C307:C308"/>
+    <mergeCell ref="E307:E308"/>
+    <mergeCell ref="F307:F308"/>
+    <mergeCell ref="G191:G192"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="E217:E218"/>
+    <mergeCell ref="F217:F218"/>
+    <mergeCell ref="G217:G218"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="B191:B192"/>
+    <mergeCell ref="C191:C192"/>
+    <mergeCell ref="E191:E192"/>
+    <mergeCell ref="F191:F192"/>
+    <mergeCell ref="G167:G168"/>
+    <mergeCell ref="A173:A174"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="E173:E174"/>
+    <mergeCell ref="F173:F174"/>
+    <mergeCell ref="G173:G174"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="E167:E168"/>
+    <mergeCell ref="F167:F168"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
     <mergeCell ref="G49:G50"/>
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="B41:B42"/>
@@ -12278,48 +12195,17 @@
     <mergeCell ref="F49:F50"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="E49:E50"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G167:G168"/>
-    <mergeCell ref="A173:A174"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="C173:C174"/>
-    <mergeCell ref="E173:E174"/>
-    <mergeCell ref="F173:F174"/>
-    <mergeCell ref="G173:G174"/>
-    <mergeCell ref="A167:A168"/>
-    <mergeCell ref="B167:B168"/>
-    <mergeCell ref="C167:C168"/>
-    <mergeCell ref="E167:E168"/>
-    <mergeCell ref="F167:F168"/>
-    <mergeCell ref="G191:G192"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="C217:C218"/>
-    <mergeCell ref="E217:E218"/>
-    <mergeCell ref="F217:F218"/>
-    <mergeCell ref="G217:G218"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="B191:B192"/>
-    <mergeCell ref="C191:C192"/>
-    <mergeCell ref="E191:E192"/>
-    <mergeCell ref="F191:F192"/>
-    <mergeCell ref="G307:G308"/>
-    <mergeCell ref="A280:A281"/>
-    <mergeCell ref="B280:B281"/>
-    <mergeCell ref="C280:C281"/>
-    <mergeCell ref="E280:E281"/>
-    <mergeCell ref="F280:F281"/>
-    <mergeCell ref="G280:G281"/>
-    <mergeCell ref="A307:A308"/>
-    <mergeCell ref="B307:B308"/>
-    <mergeCell ref="C307:C308"/>
-    <mergeCell ref="E307:E308"/>
-    <mergeCell ref="F307:F308"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="F147:F148"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12348,7 +12234,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="36" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -12414,7 +12300,7 @@
       <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="33" t="s">
         <v>607</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -12558,7 +12444,7 @@
       <c r="E10" s="21" t="s">
         <v>638</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="28" t="s">
         <v>639</v>
       </c>
       <c r="G10" s="16" t="s">
@@ -12581,7 +12467,7 @@
       <c r="E11" s="19" t="s">
         <v>643</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="34" t="s">
         <v>644</v>
       </c>
       <c r="G11" s="4" t="s">
@@ -12624,7 +12510,7 @@
       <c r="D13" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="35" t="s">
         <v>653</v>
       </c>
       <c r="F13" s="4" t="s">
@@ -12647,13 +12533,13 @@
       <c r="D14" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="30" t="s">
         <v>658</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="28" t="s">
         <v>660</v>
       </c>
     </row>
@@ -12693,49 +12579,49 @@
       <c r="D16" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="28" t="s">
         <v>668</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="G16" s="33" t="s">
+      <c r="G16" s="31" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="153" x14ac:dyDescent="0.25">
-      <c r="A17" s="71">
+      <c r="A17" s="46">
         <v>137</v>
       </c>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="48" t="s">
         <v>671</v>
       </c>
-      <c r="C17" s="69" t="s">
+      <c r="C17" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="32" t="s">
         <v>672</v>
       </c>
-      <c r="E17" s="99" t="s">
+      <c r="E17" s="58" t="s">
         <v>674</v>
       </c>
-      <c r="F17" s="69" t="s">
+      <c r="F17" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="G17" s="69" t="s">
+      <c r="G17" s="50" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="267.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="72"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="39" t="s">
+      <c r="A18" s="47"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="37" t="s">
         <v>673</v>
       </c>
-      <c r="E18" s="100"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
     </row>
     <row r="19" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -12796,13 +12682,13 @@
       <c r="D21" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="30" t="s">
         <v>689</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>690</v>
       </c>
-      <c r="G21" s="31" t="s">
+      <c r="G21" s="29" t="s">
         <v>691</v>
       </c>
     </row>

--- a/Word_List.xlsx
+++ b/Word_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ishan\Desktop\Git\Words\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DD301D-7EFF-4C8A-9A80-CC91EB22BC38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DD8EF9-68A4-44BE-92AA-62A4551CBAD2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" xr2:uid="{CD0CF8ED-F069-428D-9EBB-C949E843A76D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CD0CF8ED-F069-428D-9EBB-C949E843A76D}"/>
   </bookViews>
   <sheets>
     <sheet name="Word_List" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1917" uniqueCount="1500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2598" uniqueCount="2067">
   <si>
     <t>S.no:</t>
   </si>
@@ -4526,6 +4526,1707 @@
   </si>
   <si>
     <t>Some airlines are strict about the baggage limit; if by  chance it is missed during check-in, the excess may be  jettisoned.</t>
+  </si>
+  <si>
+    <t>facile</t>
+  </si>
+  <si>
+    <t>produced without effort or careful thought |  obtained too easily and having little value</t>
+  </si>
+  <si>
+    <t>easy, effortless, smooth.</t>
+  </si>
+  <si>
+    <t>arduous, complicated,  confusing, difficult, hard,  involved, laborious,  profound</t>
+  </si>
+  <si>
+    <t>The attack on Pearl Harbor was a facile victory for the  Japanese since the Americans were not prepared.</t>
+  </si>
+  <si>
+    <t>fervid</t>
+  </si>
+  <si>
+    <t>feeling something too strongly; showing feelings  that are too strong</t>
+  </si>
+  <si>
+    <t>ardent, fervent, passionate</t>
+  </si>
+  <si>
+    <t>impassionate</t>
+  </si>
+  <si>
+    <t>His fervid speech opposed to child labor, touched the  hearts of the listeners.</t>
+  </si>
+  <si>
+    <t>incoherent</t>
+  </si>
+  <si>
+    <t>(of people) unable to express oneself clearly,  often because of emotions | (of sounds) not  clear and hard to understand | not logical or  well-organized</t>
+  </si>
+  <si>
+    <t>incomprehensible, irrational, unclear,  unintelligible</t>
+  </si>
+  <si>
+    <t>coherent, logical, organised,  rational</t>
+  </si>
+  <si>
+    <t>1. The sudden demise of his wife had left him shocked  and incoherent.</t>
+  </si>
+  <si>
+    <t>libertine</t>
+  </si>
+  <si>
+    <t>a person, usually a man, who leads an immoral  life and is interested in pleasure, especially  sexual pleasure</t>
+  </si>
+  <si>
+    <t>debauchee, decadent, degenerate,  deviate, pervert, profligate, rake</t>
+  </si>
+  <si>
+    <t>puritan, saint</t>
+  </si>
+  <si>
+    <t>The libertine was avoided by most decent people in the  town.</t>
+  </si>
+  <si>
+    <t>unsound</t>
+  </si>
+  <si>
+    <t>not based on reliable or acceptable views c(of  a building, etc.) in poor condition; not safe or  robust   not healthy or well</t>
+  </si>
+  <si>
+    <t>defective, flawed, unreliable</t>
+  </si>
+  <si>
+    <t>safe, sound, stable, strong,  well</t>
+  </si>
+  <si>
+    <t>1. Kevin was dead against capitalism and deemed it to  be ideologically unsound.</t>
+  </si>
+  <si>
+    <t>flamboyant</t>
+  </si>
+  <si>
+    <t>different, confident, and exciting in a way that  attracts attention 2) brightly colored and  noticeable</t>
+  </si>
+  <si>
+    <t>arresting, conspicuous, emphatic,  noticeable, prominent, showy,  striking</t>
+  </si>
+  <si>
+    <t>inconspicuous,  unnoticeable, unobtrusive,  unremarkable</t>
+  </si>
+  <si>
+    <t>He wears flamboyant clothes.</t>
+  </si>
+  <si>
+    <t>nadir</t>
+  </si>
+  <si>
+    <t>the worst or lowest point of something</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>zenith</t>
+  </si>
+  <si>
+    <t>Pakistan seems to have reached the nadir of its long  history because of the daily bombings and loss of  innocent lives.</t>
+  </si>
+  <si>
+    <t>disjointed</t>
+  </si>
+  <si>
+    <t>Not linking or relating appropriately</t>
+  </si>
+  <si>
+    <t>disconnected, discontinuous,  incoherent, incohesive</t>
+  </si>
+  <si>
+    <t>attached, coherent, joined</t>
+  </si>
+  <si>
+    <t>The rescuer could not understand the disjointed  sentences that the accident victim was making and  realised that he must be in shock.</t>
+  </si>
+  <si>
+    <t>negate</t>
+  </si>
+  <si>
+    <t>be in contradiction with</t>
+  </si>
+  <si>
+    <t>abolish, cancel, contradict,  controvert, falsify, frustrate, nullify,  repeal</t>
+  </si>
+  <si>
+    <t>authorise, confirm, support,  validate</t>
+  </si>
+  <si>
+    <t>The defence counsel confused the prosecution witness  enough to make her negate all her earlier statements,  falsifying her testimony.</t>
+  </si>
+  <si>
+    <t>hostile</t>
+  </si>
+  <si>
+    <t>very unfriendly or aggressive and ready to argue  or fight</t>
+  </si>
+  <si>
+    <t>adversarial, adversary, antagonistic,  antipathetic, inhospitable,  unsympathetic</t>
+  </si>
+  <si>
+    <t>friendly, hospitable, non  antagonistic, non hostile</t>
+  </si>
+  <si>
+    <t>The warriors showed hostility to the neighboring tribe.</t>
+  </si>
+  <si>
+    <t>dissent</t>
+  </si>
+  <si>
+    <t>to have or express opinions that are different  from those that are officially accepted</t>
+  </si>
+  <si>
+    <t>differ, disagree</t>
+  </si>
+  <si>
+    <t>agree, assent, concur</t>
+  </si>
+  <si>
+    <t>The staff dissented against the company's top  management for its unilateral decision of laying off non-  essential employees.</t>
+  </si>
+  <si>
+    <t>distend</t>
+  </si>
+  <si>
+    <t>Expand radially (applied to tubular objects)</t>
+  </si>
+  <si>
+    <t>dilate, enlarge, expand, extend,  increase, inflate, swell</t>
+  </si>
+  <si>
+    <t>compress, constrict,  contract, shrink</t>
+  </si>
+  <si>
+    <t>Though the professor appeared calm and spoke  placatingly, one could tell he was really angry from the  way the veins distended on his forehead.</t>
+  </si>
+  <si>
+    <t>abridge</t>
+  </si>
+  <si>
+    <t>to make a book or play shorter by leaving some  parts out</t>
+  </si>
+  <si>
+    <t>compress, condense, contract, crop,  cut short/down, lessen, prune,  shorten, trim, truncate</t>
+  </si>
+  <si>
+    <t>amplify, broaden, elaborate,  expand, expanded, extend,  increase, lengthen</t>
+  </si>
+  <si>
+    <t>It is difficult to hold the attention of your audience all  through a long talk,  and so you should abridge it.</t>
+  </si>
+  <si>
+    <t>eccentric</t>
+  </si>
+  <si>
+    <t>a person of unconventional and slightly strange  views or behaviour.</t>
+  </si>
+  <si>
+    <t>misfit, oddity</t>
+  </si>
+  <si>
+    <t>conventional, ordinary</t>
+  </si>
+  <si>
+    <t>Geniuses may often be described as eccentric, because  they can see the world in a different way.</t>
+  </si>
+  <si>
+    <t>profound</t>
+  </si>
+  <si>
+    <t>Deep,  intense or far-reaching; very great</t>
+  </si>
+  <si>
+    <t>intense, learned, sagacious,  scholarly</t>
+  </si>
+  <si>
+    <t>dull, ignorant, mild, stupid,  superficial</t>
+  </si>
+  <si>
+    <t>Mozart's music is profound and carries us from the  superficial concerns of the day to the deepest human  feelings.</t>
+  </si>
+  <si>
+    <t>panegyric</t>
+  </si>
+  <si>
+    <t>Formal expression of praise</t>
+  </si>
+  <si>
+    <t>encomium, honor, honour, praise</t>
+  </si>
+  <si>
+    <t>criticism, demerit, insult</t>
+  </si>
+  <si>
+    <t>The brilliant scholar had been publicly felicitated and  eulogized so often that any more panegyrics appeared  banal.</t>
+  </si>
+  <si>
+    <t>exculpate</t>
+  </si>
+  <si>
+    <t>clear from blame or guilt</t>
+  </si>
+  <si>
+    <t>acquit, clear, discharge, excuse,  explain, remit</t>
+  </si>
+  <si>
+    <t>blame, condemn, convict,  sentence</t>
+  </si>
+  <si>
+    <t>The irrefutable alibi presented by an honored and  respected member of the Board exculpated the officer  suspected of misdemeanor</t>
+  </si>
+  <si>
+    <t>levity</t>
+  </si>
+  <si>
+    <t>Lightness of manner or speech</t>
+  </si>
+  <si>
+    <t>amusement, funniness, jocosity,  lightheartedness</t>
+  </si>
+  <si>
+    <t>gravity, seriousness</t>
+  </si>
+  <si>
+    <t>The waiter carried his levity too far, joking during a  burial.</t>
+  </si>
+  <si>
+    <t>incorporate</t>
+  </si>
+  <si>
+    <t>introduce something into a larger whole</t>
+  </si>
+  <si>
+    <t>absorb, associate, combine,  consolidate, integrate, organise,  organize</t>
+  </si>
+  <si>
+    <t>disassociate, disorganise,  disorganize, disperse,  exclude, separate</t>
+  </si>
+  <si>
+    <t>The result of basing the plot of a novel on flawed  security was to have corrective measures incorporated  in airport formalities</t>
+  </si>
+  <si>
+    <t>caustic</t>
+  </si>
+  <si>
+    <t>able to destroy or dissolve other substances by  chemical reaction | in a bitter or sarcastic way</t>
+  </si>
+  <si>
+    <t>acrimonious, bitchy, catty, corrosive,  humiliating, malevolent, mordacious,  spiteful</t>
+  </si>
+  <si>
+    <t>benign, calm, kind, mild,  nice, smooth</t>
+  </si>
+  <si>
+    <t>The rude and caustic comments of her roommate did not  deter the assiduous student from studying hard into the  night</t>
+  </si>
+  <si>
+    <t>impromptu</t>
+  </si>
+  <si>
+    <t>an extemporaneous speech or remark; with little  or no preparation or forethought</t>
+  </si>
+  <si>
+    <t>ad-lib, extemporaneous, extempore,  offhand, unrehearsed</t>
+  </si>
+  <si>
+    <t>practised, prepared,  rehearsed</t>
+  </si>
+  <si>
+    <t>The girl's impromptu presentation was proof that she  needed no preparations as the subject was always clear  in her mind.</t>
+  </si>
+  <si>
+    <t>quandary</t>
+  </si>
+  <si>
+    <t>a situation from which extrication is difficult,  especially an unpleasant or trying one;</t>
+  </si>
+  <si>
+    <t>plight, predicament</t>
+  </si>
+  <si>
+    <t>breeze, cinch, snap</t>
+  </si>
+  <si>
+    <t>When you have to take a decision between "the devil  and the deep sea" you are truly in a quandary.</t>
+  </si>
+  <si>
+    <t>fluke</t>
+  </si>
+  <si>
+    <t>a stroke of luck</t>
+  </si>
+  <si>
+    <t>chance, luck, providentiality</t>
+  </si>
+  <si>
+    <t>misfortune</t>
+  </si>
+  <si>
+    <t>Great moments in life, like great events in sport, just  occur by fluke, apparently quite unexpectedly or  undeservedly.</t>
+  </si>
+  <si>
+    <t>somatic</t>
+  </si>
+  <si>
+    <t>relating to the body, especially as distinct from  the mind.</t>
+  </si>
+  <si>
+    <t>actual, organic, physical, substantial</t>
+  </si>
+  <si>
+    <t>nonmaterial, nonphysical</t>
+  </si>
+  <si>
+    <t>Recollection of a past experience, pleasant or tragic,  can produce equally somatic and emotional residues.</t>
+  </si>
+  <si>
+    <t>rue</t>
+  </si>
+  <si>
+    <t>to feel bad about something that happened or  something that you did because it had bad  results</t>
+  </si>
+  <si>
+    <t>bemoan, deplore, grieve, lament,  mourn, regret, repent</t>
+  </si>
+  <si>
+    <t>exult, joy, make merry,  rejoice, triumph</t>
+  </si>
+  <si>
+    <t>Avoid overindulgence or you will have cause to rue it.</t>
+  </si>
+  <si>
+    <t>bizarre</t>
+  </si>
+  <si>
+    <t>Strikingly unconventional and far-fetched in style  or appearance</t>
+  </si>
+  <si>
+    <t>eccentric, freakish, outlandish,  peculiar</t>
+  </si>
+  <si>
+    <t>normal, usual</t>
+  </si>
+  <si>
+    <t>The truck drivers went on strike after parking their  vehicles in the road in bizarre way, without order or  alignment.</t>
+  </si>
+  <si>
+    <t>din</t>
+  </si>
+  <si>
+    <t>loud,  continuous noise that is confusing</t>
+  </si>
+  <si>
+    <t>brawl, cacophony, discordance,  noise</t>
+  </si>
+  <si>
+    <t>silence, stillness</t>
+  </si>
+  <si>
+    <t>It was hard to hear anything above the din in the school  celebrations, making it difficult to follow the skit played  on the stage.</t>
+  </si>
+  <si>
+    <t>acrimonious</t>
+  </si>
+  <si>
+    <t>(typically of speech or discussion or feeling)  angry and bitter</t>
+  </si>
+  <si>
+    <t>acerbic, rancorous</t>
+  </si>
+  <si>
+    <t>kind, peaceable</t>
+  </si>
+  <si>
+    <t>When the employee made the same costly errors, in  spite of repeated instructions his boss became  acrimonious.</t>
+  </si>
+  <si>
+    <t>predicament</t>
+  </si>
+  <si>
+    <t>a difficult or unpleasant situation, especially one  where it is difficult to know what to do</t>
+  </si>
+  <si>
+    <t>dilemma, fix, pinch, plight</t>
+  </si>
+  <si>
+    <t>good fortune, solution</t>
+  </si>
+  <si>
+    <t>I am in a predicament about my career plans.</t>
+  </si>
+  <si>
+    <t>comprehensive</t>
+  </si>
+  <si>
+    <t>including all, or almost all, the items, details,  facts,  information,  etc.,  that may be concerned</t>
+  </si>
+  <si>
+    <t>complete, full, inclusive</t>
+  </si>
+  <si>
+    <t>exclusive, particular,  selective, specific</t>
+  </si>
+  <si>
+    <t>Sandy's notes from science class were very  comprehensive.</t>
+  </si>
+  <si>
+    <t>evaluate</t>
+  </si>
+  <si>
+    <t>to form an opinion of the amount, value, or  quality of something after thinking about it  carefully</t>
+  </si>
+  <si>
+    <t>assess, calculate, check, estimate</t>
+  </si>
+  <si>
+    <t>disapprove, neglect,  presume, reject</t>
+  </si>
+  <si>
+    <t>A survey was conducted throughout the state to  evaluate the effectiveness of the educational system.</t>
+  </si>
+  <si>
+    <t>profligate</t>
+  </si>
+  <si>
+    <t>using money, time, materials, etc. in a  careless way.</t>
+  </si>
+  <si>
+    <t>lewd, licentious, shameless,  squandering, vicious</t>
+  </si>
+  <si>
+    <t>conserving, economical,  frugal, scrimping</t>
+  </si>
+  <si>
+    <t>She is well-known for her profligate spending habits.</t>
+  </si>
+  <si>
+    <t>intractable</t>
+  </si>
+  <si>
+    <t>something that is hard to control, manage, or  solve | something that is not easily relieved or  cured</t>
+  </si>
+  <si>
+    <t>immovable, stubborn, unbending,  uncontrollable, uncooperative,  unmanageable, unyielding</t>
+  </si>
+  <si>
+    <t>accommodating, agreeable,  compliant, harmonious,  manageable</t>
+  </si>
+  <si>
+    <t>The intractable horse was quite unmanageable, getting  disturbed by its own shadow in front.</t>
+  </si>
+  <si>
+    <t>disperse</t>
+  </si>
+  <si>
+    <t>to move apart and go away in different  directions; to make somebody/something do this</t>
+  </si>
+  <si>
+    <t>disband, distribute, scatter, spread</t>
+  </si>
+  <si>
+    <t>congregate, gather</t>
+  </si>
+  <si>
+    <t>Police dispersed the protesters with tear gas.</t>
+  </si>
+  <si>
+    <t>banish</t>
+  </si>
+  <si>
+    <t>send (someone) away from a country or place  as an official punishment get rid of (something  unwanted)</t>
+  </si>
+  <si>
+    <t>deport, dismiss, dispel, disperse,  exile, expel</t>
+  </si>
+  <si>
+    <t>allow, keep, welcome</t>
+  </si>
+  <si>
+    <t>1. He was banished to an island, where he lived for the  rest of his life.</t>
+  </si>
+  <si>
+    <t>arrogate</t>
+  </si>
+  <si>
+    <t>to take or claim a right or a privilege, in a way  that it is not fair or legal</t>
+  </si>
+  <si>
+    <t>appropriate, confiscate, seize</t>
+  </si>
+  <si>
+    <t>abstain, refuse, reject</t>
+  </si>
+  <si>
+    <t>Upon assuming complete power, the dictatorial general  went against all norms to arrogate the right to alter the  laws and pass bills which help him rule with an iron  hand.</t>
+  </si>
+  <si>
+    <t>pungent</t>
+  </si>
+  <si>
+    <t>Having an acrid smell or a sharp,  bitter flavour.</t>
+  </si>
+  <si>
+    <t>acrimonious, mordant, odoriferous,  stinking</t>
+  </si>
+  <si>
+    <t>bland, fragrant, mild,  palatable</t>
+  </si>
+  <si>
+    <t>Careless disposal of rotten fruit and vegetables can  raise a pungent odour.</t>
+  </si>
+  <si>
+    <t>anarchy</t>
+  </si>
+  <si>
+    <t>a situation in a country, an organization, etc. in  which there is no government,  order,  or control</t>
+  </si>
+  <si>
+    <t>lawlessness</t>
+  </si>
+  <si>
+    <t>lawfulness, order, rule</t>
+  </si>
+  <si>
+    <t>The company had no control over its operations and all I  could see was anarchy everywhere.</t>
+  </si>
+  <si>
+    <t>aversion</t>
+  </si>
+  <si>
+    <t>a strong feeling of not liking someone or  something</t>
+  </si>
+  <si>
+    <t>abhorrence, disinclination, hatred,  loathing</t>
+  </si>
+  <si>
+    <t>affection, attachment, care,  fondness, kindness, liking,  love, sympathy</t>
+  </si>
+  <si>
+    <t>Peter was such a paradox, he always seems to speak  vehemently about losing weight yet he has such an  aversion to exercising.</t>
+  </si>
+  <si>
+    <t>panacea</t>
+  </si>
+  <si>
+    <t>something that is considered a general or  universal cure</t>
+  </si>
+  <si>
+    <t>cure</t>
+  </si>
+  <si>
+    <t>poison, toxin</t>
+  </si>
+  <si>
+    <t>Most parents consider private coaching to be the  panacea for the poor performance of their children.</t>
+  </si>
+  <si>
+    <t>apostate</t>
+  </si>
+  <si>
+    <t>i) A person who has rejected his/her religious or  political beliefs. ii) Someone whose beliefs have</t>
+  </si>
+  <si>
+    <t>changed and who no longer belongs to a  religious or a political group.</t>
+  </si>
+  <si>
+    <t>defector, deserter, heretic,  renegade, turncoat</t>
+  </si>
+  <si>
+    <t>adherent, follower, loyalist</t>
+  </si>
+  <si>
+    <t>An apostate to his own catholic church, Martin Luther  questioned the authority of the Pope.</t>
+  </si>
+  <si>
+    <t>discerning</t>
+  </si>
+  <si>
+    <t>able to see and understand people, things, or  situations clearly and intelligently</t>
+  </si>
+  <si>
+    <t>brilliant, insightful, perceptive,  prudent, sagacious, wise</t>
+  </si>
+  <si>
+    <t>unperceptive, unwise</t>
+  </si>
+  <si>
+    <t>The discerning prince carefully selected his friends, who  repaid the favor with staunch loyalty</t>
+  </si>
+  <si>
+    <t>egregious</t>
+  </si>
+  <si>
+    <t>extremely bad</t>
+  </si>
+  <si>
+    <t>outrageous</t>
+  </si>
+  <si>
+    <t>minor, slight</t>
+  </si>
+  <si>
+    <t>The senator's misuse of money was an egregious  violation of public trust.</t>
+  </si>
+  <si>
+    <t>disingenuous</t>
+  </si>
+  <si>
+    <t>Not innocent ; influenced by sophistication</t>
+  </si>
+  <si>
+    <t>artful, cunning, dishonest, foxy,  insidious, sophisticated</t>
+  </si>
+  <si>
+    <t>candid, honest, naive, open,  sincere, straightforward</t>
+  </si>
+  <si>
+    <t>The disingenuous girl quickly got many admirers to take  over doing all her chores.</t>
+  </si>
+  <si>
+    <t>opprobrium</t>
+  </si>
+  <si>
+    <t>Slanderous onslaught against one in disgrace</t>
+  </si>
+  <si>
+    <t>contempt, disgrace, shame, slander</t>
+  </si>
+  <si>
+    <t>esteem, honour, respect</t>
+  </si>
+  <si>
+    <t>The actor was unfazed by the slanderous remarks made  against him as he knew that opprobrium was a price to  pay for fame.</t>
+  </si>
+  <si>
+    <t>acute</t>
+  </si>
+  <si>
+    <t>1) very serious or severe 2) an acute illness is  one that has quickly become severe and</t>
+  </si>
+  <si>
+    <t>dangerous 3) very sensitive and well developed</t>
+  </si>
+  <si>
+    <t>4) intelligent and quick to notice and understand  things 5) less than 90°</t>
+  </si>
+  <si>
+    <t>chronic, delicate, keen, perceptive,  sensitive</t>
+  </si>
+  <si>
+    <t>dull, insensitive, obtuse,  slow</t>
+  </si>
+  <si>
+    <t>Her illness was an acute flu, and she was back at work  after one week of rest.</t>
+  </si>
+  <si>
+    <t>immutable</t>
+  </si>
+  <si>
+    <t>Unchanging, constant</t>
+  </si>
+  <si>
+    <t>changeless, constant, fixed,  immovable, inflexible, invariable,  permanent, stable</t>
+  </si>
+  <si>
+    <t>changeable, fluctuating,  irregular, mutable, unstable,  variable</t>
+  </si>
+  <si>
+    <t>The laws of nature are immutable, however varying they  may appear to be in different circumstances.</t>
+  </si>
+  <si>
+    <t>accretion</t>
+  </si>
+  <si>
+    <t>The process of growth or enlargement</t>
+  </si>
+  <si>
+    <t>accession, accumulation, increment,  raise</t>
+  </si>
+  <si>
+    <t>disbursement, scattering,  shrinkage</t>
+  </si>
+  <si>
+    <t>With his obsession for accretion of riches he built up his  wealth but ruined his home life.</t>
+  </si>
+  <si>
+    <t>discredit</t>
+  </si>
+  <si>
+    <t>destroy confidence in; disbelieve</t>
+  </si>
+  <si>
+    <t>challenge, destroy, discount,  disfavour, smear</t>
+  </si>
+  <si>
+    <t>accept, commend, credit,  honour, trust</t>
+  </si>
+  <si>
+    <t>The borrower had broken so many promises earlier that  the bank discredited his claims of getting a legacy to  settle all his dues.</t>
+  </si>
+  <si>
+    <t>harangue</t>
+  </si>
+  <si>
+    <t>A long, loud and serious tirade using angry  speech</t>
+  </si>
+  <si>
+    <t>declamation, tirade</t>
+  </si>
+  <si>
+    <t>eulogy, panegyric</t>
+  </si>
+  <si>
+    <t>With some bosses, the weekly meeting is only a  harangue of long bitter complaints about the inefficiency  of the staff.</t>
+  </si>
+  <si>
+    <t>gouge</t>
+  </si>
+  <si>
+    <t>Scoop out material, make concave, remove  material from a mass</t>
+  </si>
+  <si>
+    <t>dent, dig, extort, rack, scoop,  squeeze</t>
+  </si>
+  <si>
+    <t>fill, pack</t>
+  </si>
+  <si>
+    <t>The hunger during a famine is so painful that those  affected tend to gouge the entire contents of the serving  bowl at one go.</t>
+  </si>
+  <si>
+    <t>officious</t>
+  </si>
+  <si>
+    <t>Unnecessarily or obtrusively ready to help/ offer  advice.</t>
+  </si>
+  <si>
+    <t>dictatorial, interfering, rude</t>
+  </si>
+  <si>
+    <t>self-effacing</t>
+  </si>
+  <si>
+    <t>He appeared over-eager to help, shouting orders to his  assistants; this officious conduct actually annoyed the  guests.</t>
+  </si>
+  <si>
+    <t>alleviate</t>
+  </si>
+  <si>
+    <t>Make less burdensome or less hard to bear.</t>
+  </si>
+  <si>
+    <t>ameliorate, assuage, ease, lighten,  mitigate, pacify</t>
+  </si>
+  <si>
+    <t>aggravate, exacerbate,  increase, magnify</t>
+  </si>
+  <si>
+    <t>After the recent earthquake, a woman who appeared to  have lost all her family, had her grief alleviated greatly  when her son was restored to her in good shape.</t>
+  </si>
+  <si>
+    <t>atypical</t>
+  </si>
+  <si>
+    <t>Not conforming to type ; unusual or irregular</t>
+  </si>
+  <si>
+    <t>aberrant, deviant, exceptional,  irregular, peculiar</t>
+  </si>
+  <si>
+    <t>normal, ordinary,  representative, standard,  typical, usual</t>
+  </si>
+  <si>
+    <t>The deviants from observed patterns in a sequence  cease to be atypical when they are in large proportion.</t>
+  </si>
+  <si>
+    <t>mollify</t>
+  </si>
+  <si>
+    <t>to make someone feel less angry or upset</t>
+  </si>
+  <si>
+    <t>appease, compose, pacify, placate</t>
+  </si>
+  <si>
+    <t>aggravate, agitate, enrage,  exasperate, harass, incite,  provoke, trouble, upset,  worry</t>
+  </si>
+  <si>
+    <t>When a child bruises herself, it is as important to treat  her physical injury as to mollify her with endearing  words.</t>
+  </si>
+  <si>
+    <t>forestall</t>
+  </si>
+  <si>
+    <t>prevent by taking action in advance</t>
+  </si>
+  <si>
+    <t>foreclose, preclude, prevent</t>
+  </si>
+  <si>
+    <t>facilitate, permit</t>
+  </si>
+  <si>
+    <t>The general forestalled the attack from the south  through a bold offensive on the western front, thus  diverting the enemy.</t>
+  </si>
+  <si>
+    <t>condescend</t>
+  </si>
+  <si>
+    <t>1.Deal with people in a patronizingly superior  manner 2.To do something that you think it is  below your social or professional position to do</t>
+  </si>
+  <si>
+    <t>bend, comply, degrade, descend</t>
+  </si>
+  <si>
+    <t>respect, rise above</t>
+  </si>
+  <si>
+    <t>The celebrity, normally unyielding, condescended to  sign her autograph in the diary which the little girl put out  to her.</t>
+  </si>
+  <si>
+    <t>tirade</t>
+  </si>
+  <si>
+    <t>long angry speech of criticism or accusation</t>
+  </si>
+  <si>
+    <t>abuse, diatribe, dispute, harangue,  ranting, revilement</t>
+  </si>
+  <si>
+    <t>acclamation, adulation,  approval, commendation,  Plaudit, praise</t>
+  </si>
+  <si>
+    <t>The mistress went into a tirade against her maid with  charges and abuses..</t>
+  </si>
+  <si>
+    <t>preclude</t>
+  </si>
+  <si>
+    <t>to prevent something from happening or  someone from doing something; to make  something impossible</t>
+  </si>
+  <si>
+    <t>avert, forestall, obviate, prevent</t>
+  </si>
+  <si>
+    <t>abet, aid, assist, encourage,  facilitate, permit</t>
+  </si>
+  <si>
+    <t>At 84,  John feels his age precludes much travelling.</t>
+  </si>
+  <si>
+    <t>solace</t>
+  </si>
+  <si>
+    <t>to give comfort to in grief or misfortune</t>
+  </si>
+  <si>
+    <t>cheer, comfort, console, peace,  reassure, soothe</t>
+  </si>
+  <si>
+    <t>discord, distress, torment,  torture, trouble</t>
+  </si>
+  <si>
+    <t>People often seek solace and comfort in music when in  distress or anxiety.</t>
+  </si>
+  <si>
+    <t>augment</t>
+  </si>
+  <si>
+    <t>to increase the amount, value, size, etc. of  something</t>
+  </si>
+  <si>
+    <t>amplify, enlarge, grow, increase,  inflate, reinforce, swell</t>
+  </si>
+  <si>
+    <t>degrade, decrease</t>
+  </si>
+  <si>
+    <t>Nuclear generators are used to augment the solar power  in the space station.</t>
+  </si>
+  <si>
+    <t>magnanimous</t>
+  </si>
+  <si>
+    <t>kind, generous, and forgiving, especially  toward an enemy or a rival</t>
+  </si>
+  <si>
+    <t>altruistic, benevolent, bountiful  charitable, selfless, unselfish</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>We were touched by his magnanimous gesture.</t>
+  </si>
+  <si>
+    <t>begrudge</t>
+  </si>
+  <si>
+    <t>1. to feel unhappy that someone has something  because and you do not think that they deserve  it.    2. to feel unhappy about having to do, pay,</t>
+  </si>
+  <si>
+    <t>or give something.</t>
+  </si>
+  <si>
+    <t>covet, envy, grudge, resent</t>
+  </si>
+  <si>
+    <t>allow, give</t>
+  </si>
+  <si>
+    <t>~bMeaning 1~b  Usage: begrudge &lt;someone&gt;</t>
+  </si>
+  <si>
+    <t>&lt;something&gt; ~. She had worked hard and achieved  success. A few of his colleagues, however, begrudged  her for her achievements. Usage: begrudge</t>
+  </si>
+  <si>
+    <t>&lt;someone&gt; doing &lt;something&gt; ~. When asked, her  peers obviously refused to admit that they do not  begrudge her being so successful!   ~b Meaning 2~b ~.</t>
+  </si>
+  <si>
+    <t>The owner of the small shop begrudged giving a few  dollars to the school children who were collecting money  for a charity event. ~. Tourists begrudge paying tips to  taxi drivers who tend to take advantage of their  ignorance of the place.</t>
+  </si>
+  <si>
+    <t>adulterate</t>
+  </si>
+  <si>
+    <t>To debase by adding inferior material.</t>
+  </si>
+  <si>
+    <t>corrupted, polluted, spurious</t>
+  </si>
+  <si>
+    <t>cleansed, purified, refined</t>
+  </si>
+  <si>
+    <t>Flavours which are not permitted are regarded as  adulterate in a drink.</t>
+  </si>
+  <si>
+    <t>specious</t>
+  </si>
+  <si>
+    <t>Apparently correct or actually wrong or false.</t>
+  </si>
+  <si>
+    <t>deceptive, erroneous, far-fetched,  inaccurate</t>
+  </si>
+  <si>
+    <t>convincing, valid</t>
+  </si>
+  <si>
+    <t>The argument, if not totally illogical, was at best  specious,  with its far-fetched reasoning.</t>
+  </si>
+  <si>
+    <t>recalcitrant</t>
+  </si>
+  <si>
+    <t>Resisting authority or discipline; being  disobedient</t>
+  </si>
+  <si>
+    <t>defiant, disobedient, obstinate,  rebellious, stubborn</t>
+  </si>
+  <si>
+    <t>amenable, compliant,  docile, harmonious</t>
+  </si>
+  <si>
+    <t>The recalcitrant behaviour of some children is often a  mask that hides their insecurity behind a show of defiant  indiscipline.</t>
+  </si>
+  <si>
+    <t>circumscribe</t>
+  </si>
+  <si>
+    <t>Draw a line around to limit some activity or  power</t>
+  </si>
+  <si>
+    <t>bound, confine, limit, restrict,  surround</t>
+  </si>
+  <si>
+    <t>dilate, expand, free, loose,  open</t>
+  </si>
+  <si>
+    <t>The players chose the shy boy as their captain because  they could circumscribe his power and get him to agree  to their demands.</t>
+  </si>
+  <si>
+    <t>accede</t>
+  </si>
+  <si>
+    <t>1) To agree to a request, proposal, etc. 2) To  achieve a high position,  especially to become</t>
+  </si>
+  <si>
+    <t>king or queen</t>
+  </si>
+  <si>
+    <t>accept, admit, assent, comply,  consent, endorse</t>
+  </si>
+  <si>
+    <t>condemn, deny, oppose,  protest, refuse</t>
+  </si>
+  <si>
+    <t>He was extremely charming and hence found it very  easy to get people to accede to his requests.</t>
+  </si>
+  <si>
+    <t>debacle</t>
+  </si>
+  <si>
+    <t>A sudden, disastrous collapse, downfall or  defeat; a rout</t>
+  </si>
+  <si>
+    <t>disaster, downfall, fiasco</t>
+  </si>
+  <si>
+    <t>boon, success, triumph</t>
+  </si>
+  <si>
+    <t>When the Germans bombed the Prince of Wales, the  powerful British battleship, it was a debacle for the royal  navy.</t>
+  </si>
+  <si>
+    <t>conjugal</t>
+  </si>
+  <si>
+    <t>Of or relating to marriage or the relation of  spouses</t>
+  </si>
+  <si>
+    <t>bridal, married, wedded</t>
+  </si>
+  <si>
+    <t>single, unmarried</t>
+  </si>
+  <si>
+    <t>Money can never be the main reason for a man and wife  to enjoy conjugal bliss.</t>
+  </si>
+  <si>
+    <t>adherent</t>
+  </si>
+  <si>
+    <t>One who believes in a faith or is loyal to a party  or individual,  in thought or deed</t>
+  </si>
+  <si>
+    <t>believer, devotee, disciple</t>
+  </si>
+  <si>
+    <t>enemy, opponent</t>
+  </si>
+  <si>
+    <t>Only in times of defeat does one really find out who  one's adherents are.</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>Omit to pay or carry out as committed to</t>
+  </si>
+  <si>
+    <t>defraud, fail, skip, swindle</t>
+  </si>
+  <si>
+    <t>satisfy, settle</t>
+  </si>
+  <si>
+    <t>When you purchase something on a bank loan, keep up  your repayment commitments or lose it by default.</t>
+  </si>
+  <si>
+    <t>coda</t>
+  </si>
+  <si>
+    <t>Final passage of a piece of music</t>
+  </si>
+  <si>
+    <t>conclusion, summation</t>
+  </si>
+  <si>
+    <t>introduction, preface,  prelude, prologue</t>
+  </si>
+  <si>
+    <t>After the grandeur of the earlier part of the composition,  the coda at the end seemed quite unimpressive.</t>
+  </si>
+  <si>
+    <t>fiasco</t>
+  </si>
+  <si>
+    <t>something that does not succeed, often in a  way that causes embarrassment</t>
+  </si>
+  <si>
+    <t>catastrophe, debacle, flop, mess,  rout, ruin</t>
+  </si>
+  <si>
+    <t>benefit, blessing, boon,  miracle, success, wonder,  advantage</t>
+  </si>
+  <si>
+    <t>The play ended up being a big fiasco.</t>
+  </si>
+  <si>
+    <t>erroneous</t>
+  </si>
+  <si>
+    <t>not correct; based on wrong information:</t>
+  </si>
+  <si>
+    <t>amiss, awry, fallacious, spurious</t>
+  </si>
+  <si>
+    <t>correct, valid</t>
+  </si>
+  <si>
+    <t>We believe that their report conveys an erroneous view</t>
+  </si>
+  <si>
+    <t>obstinate</t>
+  </si>
+  <si>
+    <t>1) refusing to change your opinions, way of  behaving,  etc. when other people try to</t>
+  </si>
+  <si>
+    <t>persuade you to; showing this 2) difficult to get  rid of or deal with</t>
+  </si>
+  <si>
+    <t>implacable, inflexible, intransigent,  mulish, obdurate, pertinacious,  stubborn</t>
+  </si>
+  <si>
+    <t>acquiescent, amenable,  compliant, flexible, pliable,  relenting, yielding</t>
+  </si>
+  <si>
+    <t>He proved too obstinate for me to handle and never  complied with my orders.</t>
+  </si>
+  <si>
+    <t>complementary</t>
+  </si>
+  <si>
+    <t>two people or things that are different, but  together form a usual or attractive combination  of skills,  qualities,  or physical features</t>
+  </si>
+  <si>
+    <t>harmonizing, reciprocal,  supplemental, supportive</t>
+  </si>
+  <si>
+    <t>noncomplimentary,  nonreciprocal</t>
+  </si>
+  <si>
+    <t>1. The consultancy firm’s approach must be  complementary to that of its clients.</t>
+  </si>
+  <si>
+    <t>dilate</t>
+  </si>
+  <si>
+    <t>to become or to make something larger, wider,  or more open</t>
+  </si>
+  <si>
+    <t>broaden, enlarge, expand, extend,  stretch, swell, widen</t>
+  </si>
+  <si>
+    <t>compress, constrict,  contract, narrow, shrink</t>
+  </si>
+  <si>
+    <t>The doctor gave me eye drops that made my pupils  dilate</t>
+  </si>
+  <si>
+    <t>prelude</t>
+  </si>
+  <si>
+    <t>An action or event serving as an introduction to  something more important</t>
+  </si>
+  <si>
+    <t>beginning, commencement,  introduction</t>
+  </si>
+  <si>
+    <t>finale</t>
+  </si>
+  <si>
+    <t>The changes are seen as a prelude to wide-ranging  reforms.</t>
+  </si>
+  <si>
+    <t>prologue</t>
+  </si>
+  <si>
+    <t>an introduction to a book, play, etc. | a  preliminary act that foreshadows greater events</t>
+  </si>
+  <si>
+    <t>introduction, preamble, preface,  preliminary, prelude</t>
+  </si>
+  <si>
+    <t>aftermath, cessation, end,  envoy, epilogue</t>
+  </si>
+  <si>
+    <t>The prologue to his autobiography is dull and boring.</t>
+  </si>
+  <si>
+    <t>concoct</t>
+  </si>
+  <si>
+    <t>to make something, especially food or drink, by  mixing different things</t>
+  </si>
+  <si>
+    <t>contrive, create, design, devise</t>
+  </si>
+  <si>
+    <t>copy, copycat, duplicate,  imitate, mimic, reduplicate,  replicate, reproduce</t>
+  </si>
+  <si>
+    <t>The teacher was amazed by the manner in which the  student would concoct new stories each time he arrived  late.</t>
+  </si>
+  <si>
+    <t>aver</t>
+  </si>
+  <si>
+    <t>State firmly and positively</t>
+  </si>
+  <si>
+    <t>allege, assert, say, swear, verify</t>
+  </si>
+  <si>
+    <t>deny, negate, nullify, veto</t>
+  </si>
+  <si>
+    <t>On repeated cross examination the witness averred that  he spoke only the truth.</t>
+  </si>
+  <si>
+    <t>abdicate</t>
+  </si>
+  <si>
+    <t>Give up</t>
+  </si>
+  <si>
+    <t>abandon, disclaim, forgo, resign,  surrender, waive</t>
+  </si>
+  <si>
+    <t>claim, hold, maintain, retain</t>
+  </si>
+  <si>
+    <t>Prince Rama abdicated the throne to honour his father's  word.</t>
+  </si>
+  <si>
+    <t>eclectic</t>
+  </si>
+  <si>
+    <t>(Of a substance) composed of elements drawn  from various sources (of a person) given to  selecting what seems best from various styles,  doctrines,  ideas etc</t>
+  </si>
+  <si>
+    <t>broad, liberal, multiform, universal</t>
+  </si>
+  <si>
+    <t>limited, narrow, particular,  specialized</t>
+  </si>
+  <si>
+    <t>The chronicler made an eclectic collection of old family  photographs, picking them from as early as the  nineteenth century.</t>
+  </si>
+  <si>
+    <t>progeny</t>
+  </si>
+  <si>
+    <t>a person's children; the young of animals and  plants</t>
+  </si>
+  <si>
+    <t>breed, family, lineage, race</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>After the death of her brother, Susan was the last  remaining progeny of her mother and father.</t>
+  </si>
+  <si>
+    <t>commodious</t>
+  </si>
+  <si>
+    <t>Spacious,  large and roomy</t>
+  </si>
+  <si>
+    <t>ample, capacious, comfortable,  convenient, roomy</t>
+  </si>
+  <si>
+    <t>confined, cramped, small,  squeezed</t>
+  </si>
+  <si>
+    <t>The new car with its commodious interior was an instant  hit with senior citizens who were looking for more space.</t>
+  </si>
+  <si>
+    <t>comely</t>
+  </si>
+  <si>
+    <t>Pleasing and wholesome in appearance</t>
+  </si>
+  <si>
+    <t>attractive, beautiful, decent,  decorous</t>
+  </si>
+  <si>
+    <t>ugly, unattractive</t>
+  </si>
+  <si>
+    <t>The comely air hostess attracted everyone in the aircraft  with her charm.</t>
+  </si>
+  <si>
+    <t>proliferate</t>
+  </si>
+  <si>
+    <t>Grow by rapid production of new parts, usually  undesirable</t>
+  </si>
+  <si>
+    <t>expand, generate, increase,  reproduce</t>
+  </si>
+  <si>
+    <t>decrease, dwindle</t>
+  </si>
+  <si>
+    <t>When teaching centres for entrance examinations  proliferate,  one should guard against a fall in standards.</t>
+  </si>
+  <si>
+    <t>livid</t>
+  </si>
+  <si>
+    <t>furiously angry | dark bluish grey in colour</t>
+  </si>
+  <si>
+    <t>enraged, furious, incensed</t>
+  </si>
+  <si>
+    <t>calm, cheerful</t>
+  </si>
+  <si>
+    <t>Mary’s arms had livid bruises after the nasty fall she had  from the stairs three days ago.</t>
+  </si>
+  <si>
+    <t>covert</t>
+  </si>
+  <si>
+    <t>secret or hidden,  making it difficult to notice</t>
+  </si>
+  <si>
+    <t>concealed, furtive, hidden, private,  secret</t>
+  </si>
+  <si>
+    <t>aboveboard, candid, frank,  open, overt</t>
+  </si>
+  <si>
+    <t>The FBI was carrying out a covert operation in  Columbia.</t>
+  </si>
+  <si>
+    <t>overt</t>
+  </si>
+  <si>
+    <t>done in an open way and not secretly</t>
+  </si>
+  <si>
+    <t>apparent, clear, definite, public,  undisguised</t>
+  </si>
+  <si>
+    <t>concealed, hidden, private,  secret</t>
+  </si>
+  <si>
+    <t>His overt support for the project surprised everyone.</t>
+  </si>
+  <si>
+    <t>parable</t>
+  </si>
+  <si>
+    <t>a short story that teaches a moral or spiritual  lesson, especially one of those told by Jesus as  recorded in the Bible</t>
+  </si>
+  <si>
+    <t>allegory, fables</t>
+  </si>
+  <si>
+    <t>fabrication, gossip, rumour</t>
+  </si>
+  <si>
+    <t>In each gospel some of the parables are linked explicitly  to Jesus' proclamation of the kingdom of God.</t>
+  </si>
+  <si>
+    <t>constrict</t>
+  </si>
+  <si>
+    <t>make narrower by encircling pressure (of a  snake) coil round inhibit or restrict</t>
+  </si>
+  <si>
+    <t>compress, contract, inhibit, limit,  obstruct, restrict, shrink, smother,  stifle, suffocate, tighten</t>
+  </si>
+  <si>
+    <t>expand, free, let go, loosen,  release</t>
+  </si>
+  <si>
+    <t>1. Her tight dress constricted her from moving freely.</t>
+  </si>
+  <si>
+    <t>fastidious</t>
+  </si>
+  <si>
+    <t>Being overly attentive to detail; hard to please;  excessively concerned with cleanliness</t>
+  </si>
+  <si>
+    <t>choosy, fussy, meticulous, particular,  picky, squeamish, strict</t>
+  </si>
+  <si>
+    <t>easygoing, indifferent,  lenient, uncouth, uncritical,  undemanding</t>
+  </si>
+  <si>
+    <t>She was getting irritated by her fastidious boss, who  insisted on perpetually adjusting the positions of the  notepad, pen stand on his table, muttering under his  breath.</t>
+  </si>
+  <si>
+    <t>synchronous</t>
+  </si>
+  <si>
+    <t>happening or existing at the same time</t>
+  </si>
+  <si>
+    <t>concurrent, simultaneous</t>
+  </si>
+  <si>
+    <t>asynchronous</t>
+  </si>
+  <si>
+    <t>On Independence Day, the pilots captivated the  audience with their terrific air stunts and synchronous air  smoke act.</t>
+  </si>
+  <si>
+    <t>rescind</t>
+  </si>
+  <si>
+    <t>Nullify or declare invalid an existing law</t>
+  </si>
+  <si>
+    <t>abolish, cancel, dismantle, remove,  repeal, reverse</t>
+  </si>
+  <si>
+    <t>enact, enforce, establish,  promote</t>
+  </si>
+  <si>
+    <t>Since the proposal for the building, once approved,  was rescinded by court order, the construction was  halted.</t>
+  </si>
+  <si>
+    <t>expurgate</t>
+  </si>
+  <si>
+    <t>to remove or leave out parts of a piece of writing  or a conversation when printing or reporting it,  because you think those parts could offend  people.</t>
+  </si>
+  <si>
+    <t>censor, purge, purify, sanitize</t>
+  </si>
+  <si>
+    <t>allow, permit</t>
+  </si>
+  <si>
+    <t>Though it is important for school children to be exposed  to history, it is possible that some events might have a  negative impact on their young minds. It is better to  carefully expurgate such details before they are  presented in textbooks.</t>
+  </si>
+  <si>
+    <t>aesthetic</t>
+  </si>
+  <si>
+    <t>concerned with beauty and the appreciation of  beauty; 2) made in an artistic way and beautiful  to look at</t>
+  </si>
+  <si>
+    <t>artistic, attractive, creative, ravishing</t>
+  </si>
+  <si>
+    <t>displeasing, ugly,  unaesthetic, unappealing,  unattractive</t>
+  </si>
+  <si>
+    <t>Not only a tasty menu but also an aesthetic presentation  makes for a good dinner.</t>
+  </si>
+  <si>
+    <t>compendium</t>
+  </si>
+  <si>
+    <t>brief but full account; summary</t>
+  </si>
+  <si>
+    <t>abstraction, guide, synopsis</t>
+  </si>
+  <si>
+    <t>amplification, elaboration,  expansion</t>
+  </si>
+  <si>
+    <t>Charles Lamb's "Tales from Shakespeare", a  compendium of the original plays is almost equally  charming.</t>
+  </si>
+  <si>
+    <t>lament</t>
+  </si>
+  <si>
+    <t>to express sorrow, regret, or unhappiness  about something</t>
+  </si>
+  <si>
+    <t>bemoan, complain, deplore, mourn</t>
+  </si>
+  <si>
+    <t>delight, glory, joy, rejoice</t>
+  </si>
+  <si>
+    <t>She lamented over the loss of her best friend.</t>
+  </si>
+  <si>
+    <t>conciliatory</t>
+  </si>
+  <si>
+    <t>In a mood to patch up</t>
+  </si>
+  <si>
+    <t>appeasing, assuaging, calm,  compromising, flexible, pacify,  placating, yielding</t>
+  </si>
+  <si>
+    <t>aggressive, antagonistic,  belligerent, uncompromising</t>
+  </si>
+  <si>
+    <t>His conciliatory words had no effect on the angry baron,  and he was forced to leave the place forever.</t>
+  </si>
+  <si>
+    <t>pragmatism</t>
+  </si>
+  <si>
+    <t>adopting a pragmatic attitude; that is, solving  problems in a practical and sensible way rather  than by having fixed ideas and theories</t>
+  </si>
+  <si>
+    <t>practical, realistic, reasonable,  tenable</t>
+  </si>
+  <si>
+    <t>indiscreet, insensible,  unrealistic, unwise</t>
+  </si>
+  <si>
+    <t>The members resolved the shortcomings of the council  with pragmatistism and prudence, instead of sugar-  coated flattery and foolishness.</t>
+  </si>
+  <si>
+    <t>ethos</t>
+  </si>
+  <si>
+    <t>The characteristic spirit of a culture, era, or  community as manifested in its attitudes and  aspirations</t>
+  </si>
+  <si>
+    <t>ideology, mentality, mindset, norms</t>
+  </si>
+  <si>
+    <t>physicality, tactility</t>
+  </si>
+  <si>
+    <t>The company made environmental awareness part of its  business ethos.</t>
+  </si>
+  <si>
+    <t>chimerical</t>
+  </si>
+  <si>
+    <t>Given to unrealistic fantasies; monstrously  fanciful</t>
+  </si>
+  <si>
+    <t>fanciful, fictitious, imaginary,  notional, phantasmic, pretend,  unreal</t>
+  </si>
+  <si>
+    <t>actual, existent, real</t>
+  </si>
+  <si>
+    <t>The chimerical creatures populated the famous painting.</t>
+  </si>
+  <si>
+    <t>allay</t>
+  </si>
+  <si>
+    <t>Calm or pacify; set to rest</t>
+  </si>
+  <si>
+    <t>alleviate, calm, decrease, lessen,  pacify</t>
+  </si>
+  <si>
+    <t>agitate, intensify, magnify,  provoke</t>
+  </si>
+  <si>
+    <t>Sailors pour barrels of oil into the sea, to allay the wild  waters during a storm.</t>
+  </si>
+  <si>
+    <t>connubial</t>
+  </si>
+  <si>
+    <t>Relating to marriage or the married state</t>
+  </si>
+  <si>
+    <t>conjugal, married</t>
+  </si>
+  <si>
+    <t>The pleasures of flesh and spirit associated with  connubial life often make people forget their career  goals.</t>
+  </si>
+  <si>
+    <t>appellation</t>
+  </si>
+  <si>
+    <t>a name or title</t>
+  </si>
+  <si>
+    <t>designation, epithet, label, title</t>
+  </si>
+  <si>
+    <t>anonymity</t>
+  </si>
+  <si>
+    <t>One should use appellations very reservedly when  honouring a person with titles and make sure that they  are truly deserved.</t>
+  </si>
+  <si>
+    <t>consummate</t>
+  </si>
+  <si>
+    <t>extremely skilled; perfect</t>
+  </si>
+  <si>
+    <t>absolute, complete, flawless</t>
+  </si>
+  <si>
+    <t>amateurish, deficient,  inadequate, incomplete</t>
+  </si>
+  <si>
+    <t>With consummate skill, Arjuna emptied his quiver of  arrows straight at the target.</t>
+  </si>
+  <si>
+    <t>mundane</t>
+  </si>
+  <si>
+    <t>Worldly in a materialistic sense as opposed to  spiritual; commonplace,  part of everyday life</t>
+  </si>
+  <si>
+    <t>banal, earthly, ordinary, routine,  worldly</t>
+  </si>
+  <si>
+    <t>exceptional, extraordinary,  rare, unusual</t>
+  </si>
+  <si>
+    <t>Transcendental meditation lifts you above the mundane,  where you normally think only of day-to-day issues of  professional rivalry.</t>
+  </si>
+  <si>
+    <t>Be in accord,  be in agreement</t>
+  </si>
+  <si>
+    <t>agree, coincide, hold</t>
+  </si>
+  <si>
+    <t>disagree</t>
+  </si>
+  <si>
+    <t>The persuasive power of the foreman of the jury  convinced all the members to concur on a verdict of not  guilty.</t>
+  </si>
+  <si>
+    <t>idolatry</t>
+  </si>
+  <si>
+    <t>worship of idols</t>
+  </si>
+  <si>
+    <t>adoration, cultism, devotion</t>
+  </si>
+  <si>
+    <t>iconoclasm</t>
+  </si>
+  <si>
+    <t>Worship an "enlightened" man who condemns idolatry;  by treating him as your idol, you commit the very error  he condemns.</t>
+  </si>
+  <si>
+    <t>impermeable</t>
+  </si>
+  <si>
+    <t>Preventing entry of any external material or  force</t>
+  </si>
+  <si>
+    <t>airtight, closed, compact, firm,  watertight</t>
+  </si>
+  <si>
+    <t>accessible, penetrable,  permeable, porous</t>
+  </si>
+  <si>
+    <t>A mind which is impermeable under all circumstances  cannot receive even good ideas and thus cannot  improve.</t>
   </si>
 </sst>
 </file>
@@ -4612,7 +6313,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -4661,11 +6362,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4802,28 +6514,19 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4838,20 +6541,203 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="11"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="13"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="12"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="10"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="11"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="12"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="9"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="11"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="11"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="11"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="10"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="10"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="10"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="14"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5167,10 +7053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E15CDF-6253-4385-A261-19345D5A55AB}">
-  <dimension ref="A1:G308"/>
+  <dimension ref="A1:G428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="C151" sqref="A1:G308"/>
+    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
+      <selection activeCell="A411" sqref="A411:G428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5600,38 +7486,38 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="54">
+      <c r="A19" s="51">
         <v>18</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="55" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="52" t="s">
+      <c r="E19" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="F19" s="52" t="s">
+      <c r="F19" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="G19" s="52" t="s">
+      <c r="G19" s="55" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="53"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="56"/>
       <c r="D20" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
     </row>
     <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
@@ -6082,48 +7968,48 @@
       </c>
     </row>
     <row r="41" spans="1:7" s="22" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="54">
+      <c r="A41" s="51">
         <v>38</v>
       </c>
-      <c r="B41" s="56" t="s">
+      <c r="B41" s="53" t="s">
         <v>197</v>
       </c>
-      <c r="C41" s="52" t="s">
+      <c r="C41" s="55" t="s">
         <v>25</v>
       </c>
       <c r="D41" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="E41" s="52" t="s">
+      <c r="E41" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="F41" s="52" t="s">
+      <c r="F41" s="55" t="s">
         <v>200</v>
       </c>
-      <c r="G41" s="52" t="s">
+      <c r="G41" s="55" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="22" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A42" s="55">
+      <c r="A42" s="52">
         <v>39</v>
       </c>
-      <c r="B42" s="57" t="s">
+      <c r="B42" s="54" t="s">
         <v>202</v>
       </c>
-      <c r="C42" s="53" t="s">
+      <c r="C42" s="56" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="43" t="s">
         <v>692</v>
       </c>
-      <c r="E42" s="53" t="s">
+      <c r="E42" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="F42" s="53" t="s">
+      <c r="F42" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="G42" s="53" t="s">
+      <c r="G42" s="56" t="s">
         <v>205</v>
       </c>
     </row>
@@ -6266,38 +8152,38 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="54">
+      <c r="A49" s="51">
         <v>46</v>
       </c>
-      <c r="B49" s="56" t="s">
+      <c r="B49" s="53" t="s">
         <v>236</v>
       </c>
-      <c r="C49" s="52" t="s">
+      <c r="C49" s="55" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="42" t="s">
         <v>237</v>
       </c>
-      <c r="E49" s="52" t="s">
+      <c r="E49" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="F49" s="52" t="s">
+      <c r="F49" s="55" t="s">
         <v>240</v>
       </c>
-      <c r="G49" s="52" t="s">
+      <c r="G49" s="55" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="55"/>
-      <c r="B50" s="57"/>
-      <c r="C50" s="53"/>
+      <c r="A50" s="52"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="56"/>
       <c r="D50" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="56"/>
     </row>
     <row r="51" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
@@ -6875,38 +8761,38 @@
       </c>
     </row>
     <row r="76" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A76" s="54">
+      <c r="A76" s="51">
         <v>72</v>
       </c>
-      <c r="B76" s="56" t="s">
+      <c r="B76" s="53" t="s">
         <v>367</v>
       </c>
-      <c r="C76" s="52" t="s">
+      <c r="C76" s="55" t="s">
         <v>8</v>
       </c>
       <c r="D76" s="42" t="s">
         <v>368</v>
       </c>
-      <c r="E76" s="52" t="s">
+      <c r="E76" s="55" t="s">
         <v>370</v>
       </c>
-      <c r="F76" s="52" t="s">
+      <c r="F76" s="55" t="s">
         <v>371</v>
       </c>
-      <c r="G76" s="52" t="s">
+      <c r="G76" s="55" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="55"/>
-      <c r="B77" s="57"/>
-      <c r="C77" s="53"/>
+      <c r="A77" s="52"/>
+      <c r="B77" s="54"/>
+      <c r="C77" s="56"/>
       <c r="D77" s="43" t="s">
         <v>369</v>
       </c>
-      <c r="E77" s="53"/>
-      <c r="F77" s="53"/>
-      <c r="G77" s="53"/>
+      <c r="E77" s="56"/>
+      <c r="F77" s="56"/>
+      <c r="G77" s="56"/>
     </row>
     <row r="78" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
@@ -8496,22 +10382,22 @@
       </c>
     </row>
     <row r="147" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="54">
+      <c r="A147" s="51">
         <v>143</v>
       </c>
-      <c r="B147" s="56" t="s">
+      <c r="B147" s="53" t="s">
         <v>1483</v>
       </c>
-      <c r="C147" s="60" t="s">
+      <c r="C147" s="49" t="s">
         <v>19</v>
       </c>
       <c r="D147" s="39" t="s">
         <v>1484</v>
       </c>
-      <c r="E147" s="60" t="s">
+      <c r="E147" s="49" t="s">
         <v>1486</v>
       </c>
-      <c r="F147" s="60" t="s">
+      <c r="F147" s="49" t="s">
         <v>1487</v>
       </c>
       <c r="G147" s="39" t="s">
@@ -8519,15 +10405,15 @@
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="55"/>
-      <c r="B148" s="57"/>
-      <c r="C148" s="61"/>
-      <c r="D148" s="62" t="s">
+      <c r="A148" s="52"/>
+      <c r="B148" s="54"/>
+      <c r="C148" s="50"/>
+      <c r="D148" s="48" t="s">
         <v>1485</v>
       </c>
-      <c r="E148" s="61"/>
-      <c r="F148" s="61"/>
-      <c r="G148" s="62" t="s">
+      <c r="E148" s="50"/>
+      <c r="F148" s="50"/>
+      <c r="G148" s="48" t="s">
         <v>1489</v>
       </c>
     </row>
@@ -8946,38 +10832,38 @@
       </c>
     </row>
     <row r="167" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A167" s="54">
+      <c r="A167" s="51">
         <v>162</v>
       </c>
-      <c r="B167" s="56" t="s">
+      <c r="B167" s="53" t="s">
         <v>793</v>
       </c>
-      <c r="C167" s="52" t="s">
+      <c r="C167" s="55" t="s">
         <v>19</v>
       </c>
       <c r="D167" s="42" t="s">
         <v>794</v>
       </c>
-      <c r="E167" s="52" t="s">
+      <c r="E167" s="55" t="s">
         <v>796</v>
       </c>
-      <c r="F167" s="52" t="s">
+      <c r="F167" s="55" t="s">
         <v>797</v>
       </c>
-      <c r="G167" s="52" t="s">
+      <c r="G167" s="55" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="55"/>
-      <c r="B168" s="57"/>
-      <c r="C168" s="53"/>
+      <c r="A168" s="52"/>
+      <c r="B168" s="54"/>
+      <c r="C168" s="56"/>
       <c r="D168" s="43" t="s">
         <v>795</v>
       </c>
-      <c r="E168" s="53"/>
-      <c r="F168" s="53"/>
-      <c r="G168" s="53"/>
+      <c r="E168" s="56"/>
+      <c r="F168" s="56"/>
+      <c r="G168" s="56"/>
     </row>
     <row r="169" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A169" s="23">
@@ -9072,38 +10958,38 @@
       </c>
     </row>
     <row r="173" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A173" s="54">
+      <c r="A173" s="51">
         <v>167</v>
       </c>
-      <c r="B173" s="56" t="s">
+      <c r="B173" s="53" t="s">
         <v>819</v>
       </c>
-      <c r="C173" s="60" t="s">
+      <c r="C173" s="49" t="s">
         <v>25</v>
       </c>
       <c r="D173" s="39" t="s">
         <v>820</v>
       </c>
-      <c r="E173" s="60" t="s">
+      <c r="E173" s="49" t="s">
         <v>822</v>
       </c>
-      <c r="F173" s="60" t="s">
+      <c r="F173" s="49" t="s">
         <v>823</v>
       </c>
-      <c r="G173" s="60" t="s">
+      <c r="G173" s="49" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A174" s="55"/>
-      <c r="B174" s="57"/>
-      <c r="C174" s="61"/>
-      <c r="D174" s="62" t="s">
+      <c r="A174" s="52"/>
+      <c r="B174" s="54"/>
+      <c r="C174" s="50"/>
+      <c r="D174" s="48" t="s">
         <v>821</v>
       </c>
-      <c r="E174" s="61"/>
-      <c r="F174" s="61"/>
-      <c r="G174" s="61"/>
+      <c r="E174" s="50"/>
+      <c r="F174" s="50"/>
+      <c r="G174" s="50"/>
     </row>
     <row r="175" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A175" s="23">
@@ -9474,38 +11360,38 @@
       </c>
     </row>
     <row r="191" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A191" s="54">
+      <c r="A191" s="51">
         <v>184</v>
       </c>
-      <c r="B191" s="56" t="s">
+      <c r="B191" s="53" t="s">
         <v>905</v>
       </c>
-      <c r="C191" s="52" t="s">
+      <c r="C191" s="55" t="s">
         <v>25</v>
       </c>
       <c r="D191" s="42" t="s">
         <v>906</v>
       </c>
-      <c r="E191" s="52" t="s">
+      <c r="E191" s="55" t="s">
         <v>908</v>
       </c>
-      <c r="F191" s="52" t="s">
+      <c r="F191" s="55" t="s">
         <v>909</v>
       </c>
-      <c r="G191" s="52" t="s">
+      <c r="G191" s="55" t="s">
         <v>910</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="55"/>
-      <c r="B192" s="57"/>
-      <c r="C192" s="53"/>
+      <c r="A192" s="52"/>
+      <c r="B192" s="54"/>
+      <c r="C192" s="56"/>
       <c r="D192" s="43" t="s">
         <v>907</v>
       </c>
-      <c r="E192" s="53"/>
-      <c r="F192" s="53"/>
-      <c r="G192" s="53"/>
+      <c r="E192" s="56"/>
+      <c r="F192" s="56"/>
+      <c r="G192" s="56"/>
     </row>
     <row r="193" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A193" s="23">
@@ -10060,38 +11946,38 @@
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" s="54">
+      <c r="A217" s="51">
         <v>209</v>
       </c>
-      <c r="B217" s="56" t="s">
+      <c r="B217" s="53" t="s">
         <v>1030</v>
       </c>
-      <c r="C217" s="60" t="s">
+      <c r="C217" s="49" t="s">
         <v>8</v>
       </c>
       <c r="D217" s="39" t="s">
         <v>1031</v>
       </c>
-      <c r="E217" s="60" t="s">
+      <c r="E217" s="49" t="s">
         <v>1033</v>
       </c>
-      <c r="F217" s="60" t="s">
+      <c r="F217" s="49" t="s">
         <v>1034</v>
       </c>
-      <c r="G217" s="60" t="s">
+      <c r="G217" s="49" t="s">
         <v>1035</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A218" s="55"/>
-      <c r="B218" s="57"/>
-      <c r="C218" s="61"/>
-      <c r="D218" s="62" t="s">
+      <c r="A218" s="52"/>
+      <c r="B218" s="54"/>
+      <c r="C218" s="50"/>
+      <c r="D218" s="48" t="s">
         <v>1032</v>
       </c>
-      <c r="E218" s="61"/>
-      <c r="F218" s="61"/>
-      <c r="G218" s="61"/>
+      <c r="E218" s="50"/>
+      <c r="F218" s="50"/>
+      <c r="G218" s="50"/>
     </row>
     <row r="219" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A219" s="23">
@@ -11497,38 +13383,38 @@
       </c>
     </row>
     <row r="280" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="54">
+      <c r="A280" s="51">
         <v>271</v>
       </c>
-      <c r="B280" s="56" t="s">
+      <c r="B280" s="53" t="s">
         <v>1442</v>
       </c>
-      <c r="C280" s="60" t="s">
+      <c r="C280" s="49" t="s">
         <v>8</v>
       </c>
       <c r="D280" s="39" t="s">
         <v>1443</v>
       </c>
-      <c r="E280" s="60" t="s">
+      <c r="E280" s="49" t="s">
         <v>1445</v>
       </c>
-      <c r="F280" s="60" t="s">
+      <c r="F280" s="49" t="s">
         <v>1446</v>
       </c>
-      <c r="G280" s="60" t="s">
+      <c r="G280" s="49" t="s">
         <v>1447</v>
       </c>
     </row>
     <row r="281" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A281" s="55"/>
-      <c r="B281" s="57"/>
-      <c r="C281" s="61"/>
-      <c r="D281" s="62" t="s">
+      <c r="A281" s="52"/>
+      <c r="B281" s="54"/>
+      <c r="C281" s="50"/>
+      <c r="D281" s="48" t="s">
         <v>1444</v>
       </c>
-      <c r="E281" s="61"/>
-      <c r="F281" s="61"/>
-      <c r="G281" s="61"/>
+      <c r="E281" s="50"/>
+      <c r="F281" s="50"/>
+      <c r="G281" s="50"/>
     </row>
     <row r="282" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A282" s="23">
@@ -12106,41 +13992,2789 @@
       </c>
     </row>
     <row r="307" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A307" s="54">
+      <c r="A307" s="51">
         <v>297</v>
       </c>
-      <c r="B307" s="56" t="s">
+      <c r="B307" s="53" t="s">
         <v>1371</v>
       </c>
-      <c r="C307" s="60" t="s">
+      <c r="C307" s="49" t="s">
         <v>19</v>
       </c>
       <c r="D307" s="39" t="s">
         <v>1372</v>
       </c>
-      <c r="E307" s="60" t="s">
+      <c r="E307" s="49" t="s">
         <v>1374</v>
       </c>
-      <c r="F307" s="60" t="s">
+      <c r="F307" s="49" t="s">
         <v>1375</v>
       </c>
-      <c r="G307" s="60" t="s">
+      <c r="G307" s="49" t="s">
         <v>1376</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A308" s="55"/>
-      <c r="B308" s="57"/>
-      <c r="C308" s="61"/>
-      <c r="D308" s="62" t="s">
+      <c r="A308" s="52"/>
+      <c r="B308" s="54"/>
+      <c r="C308" s="50"/>
+      <c r="D308" s="48" t="s">
         <v>1373</v>
       </c>
-      <c r="E308" s="61"/>
-      <c r="F308" s="61"/>
-      <c r="G308" s="61"/>
+      <c r="E308" s="50"/>
+      <c r="F308" s="50"/>
+      <c r="G308" s="50"/>
+    </row>
+    <row r="309" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A309" s="2">
+        <v>298</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C309" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D309" s="15" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E309" s="5" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F309" s="5" t="s">
+        <v>1503</v>
+      </c>
+      <c r="G309" s="15" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A310" s="2">
+        <v>299</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C310" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D310" s="18" t="s">
+        <v>1506</v>
+      </c>
+      <c r="E310" s="4" t="s">
+        <v>1507</v>
+      </c>
+      <c r="F310" s="4" t="s">
+        <v>1508</v>
+      </c>
+      <c r="G310" s="65" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A311" s="2">
+        <v>300</v>
+      </c>
+      <c r="B311" s="66" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C311" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D311" s="5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E311" s="21" t="s">
+        <v>1512</v>
+      </c>
+      <c r="F311" s="8" t="s">
+        <v>1513</v>
+      </c>
+      <c r="G311" s="33" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A312" s="2">
+        <v>301</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C312" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D312" s="4" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E312" s="35" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F312" s="4" t="s">
+        <v>1518</v>
+      </c>
+      <c r="G312" s="67" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A313" s="2">
+        <v>302</v>
+      </c>
+      <c r="B313" s="66" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C313" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D313" s="5" t="s">
+        <v>1521</v>
+      </c>
+      <c r="E313" s="5" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F313" s="21" t="s">
+        <v>1523</v>
+      </c>
+      <c r="G313" s="16" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A314" s="2">
+        <v>303</v>
+      </c>
+      <c r="B314" s="66" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C314" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D314" s="4" t="s">
+        <v>1526</v>
+      </c>
+      <c r="E314" s="4" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F314" s="4" t="s">
+        <v>1528</v>
+      </c>
+      <c r="G314" s="4" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A315" s="2">
+        <v>304</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C315" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D315" s="5" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E315" s="5" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F315" s="5" t="s">
+        <v>1533</v>
+      </c>
+      <c r="G315" s="5" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A316" s="2">
+        <v>305</v>
+      </c>
+      <c r="B316" s="66" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C316" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D316" s="4" t="s">
+        <v>1536</v>
+      </c>
+      <c r="E316" s="11" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F316" s="4" t="s">
+        <v>1538</v>
+      </c>
+      <c r="G316" s="4" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A317" s="2">
+        <v>306</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C317" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D317" s="5" t="s">
+        <v>1541</v>
+      </c>
+      <c r="E317" s="5" t="s">
+        <v>1542</v>
+      </c>
+      <c r="F317" s="8" t="s">
+        <v>1543</v>
+      </c>
+      <c r="G317" s="5" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A318" s="2">
+        <v>307</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C318" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D318" s="68" t="s">
+        <v>1546</v>
+      </c>
+      <c r="E318" s="4" t="s">
+        <v>1547</v>
+      </c>
+      <c r="F318" s="34" t="s">
+        <v>1548</v>
+      </c>
+      <c r="G318" s="4" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A319" s="2">
+        <v>308</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C319" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D319" s="7" t="s">
+        <v>1551</v>
+      </c>
+      <c r="E319" s="5" t="s">
+        <v>1552</v>
+      </c>
+      <c r="F319" s="5" t="s">
+        <v>1553</v>
+      </c>
+      <c r="G319" s="5" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A320" s="2">
+        <v>309</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C320" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D320" s="4" t="s">
+        <v>1556</v>
+      </c>
+      <c r="E320" s="12" t="s">
+        <v>1557</v>
+      </c>
+      <c r="F320" s="11" t="s">
+        <v>1558</v>
+      </c>
+      <c r="G320" s="4" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A321" s="2">
+        <v>310</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C321" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D321" s="33" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E321" s="5" t="s">
+        <v>1562</v>
+      </c>
+      <c r="F321" s="5" t="s">
+        <v>1563</v>
+      </c>
+      <c r="G321" s="15" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A322" s="2">
+        <v>311</v>
+      </c>
+      <c r="B322" s="66" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C322" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D322" s="18" t="s">
+        <v>1566</v>
+      </c>
+      <c r="E322" s="4" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F322" s="4" t="s">
+        <v>1568</v>
+      </c>
+      <c r="G322" s="12" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A323" s="2">
+        <v>312</v>
+      </c>
+      <c r="B323" s="66" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C323" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D323" s="5" t="s">
+        <v>1571</v>
+      </c>
+      <c r="E323" s="17" t="s">
+        <v>1572</v>
+      </c>
+      <c r="F323" s="13" t="s">
+        <v>1573</v>
+      </c>
+      <c r="G323" s="5" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A324" s="2">
+        <v>313</v>
+      </c>
+      <c r="B324" s="66" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C324" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D324" s="4" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E324" s="4" t="s">
+        <v>1577</v>
+      </c>
+      <c r="F324" s="4" t="s">
+        <v>1578</v>
+      </c>
+      <c r="G324" s="4" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A325" s="2">
+        <v>314</v>
+      </c>
+      <c r="B325" s="66" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C325" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D325" s="5" t="s">
+        <v>1581</v>
+      </c>
+      <c r="E325" s="8" t="s">
+        <v>1582</v>
+      </c>
+      <c r="F325" s="13" t="s">
+        <v>1583</v>
+      </c>
+      <c r="G325" s="5" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A326" s="2">
+        <v>315</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C326" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D326" s="4" t="s">
+        <v>1586</v>
+      </c>
+      <c r="E326" s="20" t="s">
+        <v>1587</v>
+      </c>
+      <c r="F326" s="4" t="s">
+        <v>1588</v>
+      </c>
+      <c r="G326" s="67" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A327" s="2">
+        <v>316</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C327" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D327" s="5" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E327" s="5" t="s">
+        <v>1592</v>
+      </c>
+      <c r="F327" s="5" t="s">
+        <v>1593</v>
+      </c>
+      <c r="G327" s="5" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A328" s="2">
+        <v>317</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C328" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D328" s="34" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E328" s="4" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F328" s="12" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G328" s="4" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A329" s="2">
+        <v>318</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C329" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D329" s="14" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E329" s="14" t="s">
+        <v>1602</v>
+      </c>
+      <c r="F329" s="13" t="s">
+        <v>1603</v>
+      </c>
+      <c r="G329" s="5" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A330" s="2">
+        <v>319</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C330" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D330" s="19" t="s">
+        <v>1606</v>
+      </c>
+      <c r="E330" s="4" t="s">
+        <v>1607</v>
+      </c>
+      <c r="F330" s="4" t="s">
+        <v>1608</v>
+      </c>
+      <c r="G330" s="19" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A331" s="2">
+        <v>320</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C331" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D331" s="5" t="s">
+        <v>1611</v>
+      </c>
+      <c r="E331" s="5" t="s">
+        <v>1612</v>
+      </c>
+      <c r="F331" s="5" t="s">
+        <v>1613</v>
+      </c>
+      <c r="G331" s="5" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A332" s="2">
+        <v>321</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C332" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D332" s="69" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E332" s="4" t="s">
+        <v>1617</v>
+      </c>
+      <c r="F332" s="4" t="s">
+        <v>1618</v>
+      </c>
+      <c r="G332" s="34" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A333" s="2">
+        <v>322</v>
+      </c>
+      <c r="B333" s="3" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C333" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D333" s="5" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E333" s="14" t="s">
+        <v>1622</v>
+      </c>
+      <c r="F333" s="28" t="s">
+        <v>1623</v>
+      </c>
+      <c r="G333" s="5" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A334" s="2">
+        <v>323</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C334" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D334" s="65" t="s">
+        <v>1626</v>
+      </c>
+      <c r="E334" s="18" t="s">
+        <v>1627</v>
+      </c>
+      <c r="F334" s="4" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G334" s="4" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A335" s="2">
+        <v>324</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C335" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D335" s="5" t="s">
+        <v>1631</v>
+      </c>
+      <c r="E335" s="16" t="s">
+        <v>1632</v>
+      </c>
+      <c r="F335" s="5" t="s">
+        <v>1633</v>
+      </c>
+      <c r="G335" s="5" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A336" s="2">
+        <v>325</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C336" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D336" s="70" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E336" s="4" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F336" s="4" t="s">
+        <v>1638</v>
+      </c>
+      <c r="G336" s="4" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A337" s="2">
+        <v>326</v>
+      </c>
+      <c r="B337" s="3" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C337" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D337" s="7" t="s">
+        <v>1641</v>
+      </c>
+      <c r="E337" s="5" t="s">
+        <v>1642</v>
+      </c>
+      <c r="F337" s="5" t="s">
+        <v>1643</v>
+      </c>
+      <c r="G337" s="5" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A338" s="2">
+        <v>327</v>
+      </c>
+      <c r="B338" s="3" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C338" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D338" s="71" t="s">
+        <v>1646</v>
+      </c>
+      <c r="E338" s="4" t="s">
+        <v>1647</v>
+      </c>
+      <c r="F338" s="19" t="s">
+        <v>1648</v>
+      </c>
+      <c r="G338" s="68" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A339" s="2">
+        <v>328</v>
+      </c>
+      <c r="B339" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C339" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D339" s="5" t="s">
+        <v>1651</v>
+      </c>
+      <c r="E339" s="5" t="s">
+        <v>1652</v>
+      </c>
+      <c r="F339" s="28" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G339" s="6" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A340" s="2">
+        <v>329</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C340" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D340" s="65" t="s">
+        <v>1656</v>
+      </c>
+      <c r="E340" s="12" t="s">
+        <v>1657</v>
+      </c>
+      <c r="F340" s="11" t="s">
+        <v>1658</v>
+      </c>
+      <c r="G340" s="4" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A341" s="2">
+        <v>330</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C341" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D341" s="5" t="s">
+        <v>1661</v>
+      </c>
+      <c r="E341" s="5" t="s">
+        <v>1662</v>
+      </c>
+      <c r="F341" s="5" t="s">
+        <v>1663</v>
+      </c>
+      <c r="G341" s="13" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A342" s="2">
+        <v>331</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C342" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D342" s="71" t="s">
+        <v>1666</v>
+      </c>
+      <c r="E342" s="4" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F342" s="4" t="s">
+        <v>1668</v>
+      </c>
+      <c r="G342" s="4" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A343" s="2">
+        <v>332</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C343" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D343" s="5" t="s">
+        <v>1671</v>
+      </c>
+      <c r="E343" s="21" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F343" s="5" t="s">
+        <v>1673</v>
+      </c>
+      <c r="G343" s="33" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A344" s="2">
+        <v>333</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C344" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D344" s="10" t="s">
+        <v>1676</v>
+      </c>
+      <c r="E344" s="4" t="s">
+        <v>1677</v>
+      </c>
+      <c r="F344" s="4" t="s">
+        <v>1678</v>
+      </c>
+      <c r="G344" s="4" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A345" s="2">
+        <v>334</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C345" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D345" s="5" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E345" s="17" t="s">
+        <v>1682</v>
+      </c>
+      <c r="F345" s="13" t="s">
+        <v>1683</v>
+      </c>
+      <c r="G345" s="72" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A346" s="2">
+        <v>335</v>
+      </c>
+      <c r="B346" s="3" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C346" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D346" s="71" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E346" s="4" t="s">
+        <v>1687</v>
+      </c>
+      <c r="F346" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G346" s="9" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A347" s="2">
+        <v>336</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C347" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D347" s="73" t="s">
+        <v>1691</v>
+      </c>
+      <c r="E347" s="17" t="s">
+        <v>1692</v>
+      </c>
+      <c r="F347" s="5" t="s">
+        <v>1693</v>
+      </c>
+      <c r="G347" s="5" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A348" s="2">
+        <v>337</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C348" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D348" s="65" t="s">
+        <v>1696</v>
+      </c>
+      <c r="E348" s="4" t="s">
+        <v>1697</v>
+      </c>
+      <c r="F348" s="12" t="s">
+        <v>1698</v>
+      </c>
+      <c r="G348" s="35" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A349" s="59">
+        <v>338</v>
+      </c>
+      <c r="B349" s="61" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C349" s="79" t="s">
+        <v>25</v>
+      </c>
+      <c r="D349" s="75" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E349" s="81" t="s">
+        <v>1703</v>
+      </c>
+      <c r="F349" s="83" t="s">
+        <v>1704</v>
+      </c>
+      <c r="G349" s="85" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A350" s="60"/>
+      <c r="B350" s="62"/>
+      <c r="C350" s="80"/>
+      <c r="D350" s="76" t="s">
+        <v>1702</v>
+      </c>
+      <c r="E350" s="82"/>
+      <c r="F350" s="84"/>
+      <c r="G350" s="86"/>
+    </row>
+    <row r="351" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A351" s="2">
+        <v>339</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C351" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D351" s="12" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E351" s="11" t="s">
+        <v>1708</v>
+      </c>
+      <c r="F351" s="35" t="s">
+        <v>1709</v>
+      </c>
+      <c r="G351" s="9" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A352" s="2">
+        <v>340</v>
+      </c>
+      <c r="B352" s="3" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C352" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D352" s="5" t="s">
+        <v>1712</v>
+      </c>
+      <c r="E352" s="5" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F352" s="14" t="s">
+        <v>1714</v>
+      </c>
+      <c r="G352" s="72" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A353" s="2">
+        <v>341</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C353" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D353" s="35" t="s">
+        <v>1717</v>
+      </c>
+      <c r="E353" s="11" t="s">
+        <v>1718</v>
+      </c>
+      <c r="F353" s="34" t="s">
+        <v>1719</v>
+      </c>
+      <c r="G353" s="70" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A354" s="2">
+        <v>342</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C354" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D354" s="30" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E354" s="30" t="s">
+        <v>1723</v>
+      </c>
+      <c r="F354" s="30" t="s">
+        <v>1724</v>
+      </c>
+      <c r="G354" s="5" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A355" s="59">
+        <v>343</v>
+      </c>
+      <c r="B355" s="61" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C355" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="D355" s="47" t="s">
+        <v>1727</v>
+      </c>
+      <c r="E355" s="90" t="s">
+        <v>1730</v>
+      </c>
+      <c r="F355" s="93" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G355" s="96" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A356" s="87"/>
+      <c r="B356" s="88"/>
+      <c r="C356" s="89"/>
+      <c r="D356" s="77" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E356" s="91"/>
+      <c r="F356" s="94"/>
+      <c r="G356" s="97"/>
+    </row>
+    <row r="357" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A357" s="60"/>
+      <c r="B357" s="62"/>
+      <c r="C357" s="58"/>
+      <c r="D357" s="37" t="s">
+        <v>1729</v>
+      </c>
+      <c r="E357" s="92"/>
+      <c r="F357" s="95"/>
+      <c r="G357" s="98"/>
+    </row>
+    <row r="358" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A358" s="2">
+        <v>344</v>
+      </c>
+      <c r="B358" s="3" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C358" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D358" s="21" t="s">
+        <v>1734</v>
+      </c>
+      <c r="E358" s="5" t="s">
+        <v>1735</v>
+      </c>
+      <c r="F358" s="5" t="s">
+        <v>1736</v>
+      </c>
+      <c r="G358" s="28" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A359" s="2">
+        <v>345</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C359" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D359" s="19" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E359" s="70" t="s">
+        <v>1740</v>
+      </c>
+      <c r="F359" s="20" t="s">
+        <v>1741</v>
+      </c>
+      <c r="G359" s="10" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A360" s="2">
+        <v>346</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C360" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D360" s="14" t="s">
+        <v>1744</v>
+      </c>
+      <c r="E360" s="13" t="s">
+        <v>1745</v>
+      </c>
+      <c r="F360" s="14" t="s">
+        <v>1746</v>
+      </c>
+      <c r="G360" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A361" s="2">
+        <v>347</v>
+      </c>
+      <c r="B361" s="3" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C361" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D361" s="68" t="s">
+        <v>1749</v>
+      </c>
+      <c r="E361" s="12" t="s">
+        <v>1750</v>
+      </c>
+      <c r="F361" s="19" t="s">
+        <v>1751</v>
+      </c>
+      <c r="G361" s="4" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A362" s="2">
+        <v>348</v>
+      </c>
+      <c r="B362" s="3" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C362" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D362" s="21" t="s">
+        <v>1754</v>
+      </c>
+      <c r="E362" s="17" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F362" s="5" t="s">
+        <v>1756</v>
+      </c>
+      <c r="G362" s="5" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A363" s="2">
+        <v>349</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C363" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D363" s="68" t="s">
+        <v>1759</v>
+      </c>
+      <c r="E363" s="19" t="s">
+        <v>1760</v>
+      </c>
+      <c r="F363" s="12" t="s">
+        <v>1761</v>
+      </c>
+      <c r="G363" s="4" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A364" s="2">
+        <v>350</v>
+      </c>
+      <c r="B364" s="3" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C364" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D364" s="30" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E364" s="8" t="s">
+        <v>1765</v>
+      </c>
+      <c r="F364" s="7" t="s">
+        <v>1766</v>
+      </c>
+      <c r="G364" s="5" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A365" s="2">
+        <v>351</v>
+      </c>
+      <c r="B365" s="3" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C365" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D365" s="78" t="s">
+        <v>1769</v>
+      </c>
+      <c r="E365" s="20" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F365" s="4" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G365" s="34" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A366" s="2">
+        <v>352</v>
+      </c>
+      <c r="B366" s="3" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C366" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D366" s="15" t="s">
+        <v>1774</v>
+      </c>
+      <c r="E366" s="30" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F366" s="5" t="s">
+        <v>1776</v>
+      </c>
+      <c r="G366" s="5" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A367" s="2">
+        <v>353</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C367" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D367" s="11" t="s">
+        <v>1779</v>
+      </c>
+      <c r="E367" s="19" t="s">
+        <v>1780</v>
+      </c>
+      <c r="F367" s="11" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G367" s="4" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A368" s="2">
+        <v>354</v>
+      </c>
+      <c r="B368" s="66" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C368" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D368" s="99" t="s">
+        <v>1784</v>
+      </c>
+      <c r="E368" s="5" t="s">
+        <v>1785</v>
+      </c>
+      <c r="F368" s="5" t="s">
+        <v>1786</v>
+      </c>
+      <c r="G368" s="5" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A369" s="2">
+        <v>355</v>
+      </c>
+      <c r="B369" s="3" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C369" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D369" s="4" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E369" s="20" t="s">
+        <v>1790</v>
+      </c>
+      <c r="F369" s="4" t="s">
+        <v>1791</v>
+      </c>
+      <c r="G369" s="65" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A370" s="2">
+        <v>356</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>1793</v>
+      </c>
+      <c r="C370" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D370" s="5" t="s">
+        <v>1794</v>
+      </c>
+      <c r="E370" s="5" t="s">
+        <v>1795</v>
+      </c>
+      <c r="F370" s="28" t="s">
+        <v>1796</v>
+      </c>
+      <c r="G370" s="5" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A371" s="2">
+        <v>357</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C371" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D371" s="4" t="s">
+        <v>1799</v>
+      </c>
+      <c r="E371" s="20" t="s">
+        <v>1800</v>
+      </c>
+      <c r="F371" s="11" t="s">
+        <v>1801</v>
+      </c>
+      <c r="G371" s="69" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A372" s="2">
+        <v>358</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C372" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D372" s="73" t="s">
+        <v>1804</v>
+      </c>
+      <c r="E372" s="14" t="s">
+        <v>1805</v>
+      </c>
+      <c r="F372" s="5" t="s">
+        <v>1806</v>
+      </c>
+      <c r="G372" s="73" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A373" s="2">
+        <v>359</v>
+      </c>
+      <c r="B373" s="66" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C373" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D373" s="9" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E373" s="35" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F373" s="4" t="s">
+        <v>1811</v>
+      </c>
+      <c r="G373" s="4" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A374" s="59">
+        <v>360</v>
+      </c>
+      <c r="B374" s="108" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C374" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="D374" s="100" t="s">
+        <v>1814</v>
+      </c>
+      <c r="E374" s="79" t="s">
+        <v>1816</v>
+      </c>
+      <c r="F374" s="79" t="s">
+        <v>1817</v>
+      </c>
+      <c r="G374" s="74" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A375" s="87"/>
+      <c r="B375" s="109"/>
+      <c r="C375" s="111"/>
+      <c r="D375" s="101" t="s">
+        <v>1815</v>
+      </c>
+      <c r="E375" s="111"/>
+      <c r="F375" s="111"/>
+      <c r="G375" s="104" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A376" s="87"/>
+      <c r="B376" s="109"/>
+      <c r="C376" s="111"/>
+      <c r="D376" s="102"/>
+      <c r="E376" s="111"/>
+      <c r="F376" s="111"/>
+      <c r="G376" s="104" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A377" s="60"/>
+      <c r="B377" s="110"/>
+      <c r="C377" s="80"/>
+      <c r="D377" s="103"/>
+      <c r="E377" s="80"/>
+      <c r="F377" s="80"/>
+      <c r="G377" s="105" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A378" s="2">
+        <v>361</v>
+      </c>
+      <c r="B378" s="106" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C378" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D378" s="4" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E378" s="4" t="s">
+        <v>1824</v>
+      </c>
+      <c r="F378" s="4" t="s">
+        <v>1825</v>
+      </c>
+      <c r="G378" s="65" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A379" s="2">
+        <v>362</v>
+      </c>
+      <c r="B379" s="107" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C379" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D379" s="5" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E379" s="21" t="s">
+        <v>1829</v>
+      </c>
+      <c r="F379" s="5" t="s">
+        <v>1830</v>
+      </c>
+      <c r="G379" s="14" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A380" s="2">
+        <v>363</v>
+      </c>
+      <c r="B380" s="106" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C380" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D380" s="69" t="s">
+        <v>1833</v>
+      </c>
+      <c r="E380" s="12" t="s">
+        <v>1834</v>
+      </c>
+      <c r="F380" s="19" t="s">
+        <v>1835</v>
+      </c>
+      <c r="G380" s="4" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A381" s="2">
+        <v>364</v>
+      </c>
+      <c r="B381" s="66" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C381" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D381" s="33" t="s">
+        <v>1838</v>
+      </c>
+      <c r="E381" s="17" t="s">
+        <v>1839</v>
+      </c>
+      <c r="F381" s="8" t="s">
+        <v>1840</v>
+      </c>
+      <c r="G381" s="5" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A382" s="59">
+        <v>365</v>
+      </c>
+      <c r="B382" s="61" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C382" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D382" s="32" t="s">
+        <v>1843</v>
+      </c>
+      <c r="E382" s="112" t="s">
+        <v>1845</v>
+      </c>
+      <c r="F382" s="114" t="s">
+        <v>1846</v>
+      </c>
+      <c r="G382" s="114" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A383" s="60"/>
+      <c r="B383" s="62"/>
+      <c r="C383" s="58"/>
+      <c r="D383" s="46" t="s">
+        <v>1844</v>
+      </c>
+      <c r="E383" s="113"/>
+      <c r="F383" s="115"/>
+      <c r="G383" s="115"/>
+    </row>
+    <row r="384" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A384" s="2">
+        <v>366</v>
+      </c>
+      <c r="B384" s="3" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C384" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D384" s="72" t="s">
+        <v>1849</v>
+      </c>
+      <c r="E384" s="5" t="s">
+        <v>1850</v>
+      </c>
+      <c r="F384" s="5" t="s">
+        <v>1851</v>
+      </c>
+      <c r="G384" s="5" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A385" s="2">
+        <v>367</v>
+      </c>
+      <c r="B385" s="3" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C385" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D385" s="68" t="s">
+        <v>1854</v>
+      </c>
+      <c r="E385" s="4" t="s">
+        <v>1855</v>
+      </c>
+      <c r="F385" s="4" t="s">
+        <v>1856</v>
+      </c>
+      <c r="G385" s="65" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A386" s="2">
+        <v>368</v>
+      </c>
+      <c r="B386" s="3" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C386" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D386" s="14" t="s">
+        <v>1859</v>
+      </c>
+      <c r="E386" s="5" t="s">
+        <v>1860</v>
+      </c>
+      <c r="F386" s="5" t="s">
+        <v>1861</v>
+      </c>
+      <c r="G386" s="72" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A387" s="2">
+        <v>369</v>
+      </c>
+      <c r="B387" s="3" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C387" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D387" s="4" t="s">
+        <v>1864</v>
+      </c>
+      <c r="E387" s="4" t="s">
+        <v>1865</v>
+      </c>
+      <c r="F387" s="4" t="s">
+        <v>1866</v>
+      </c>
+      <c r="G387" s="35" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A388" s="2">
+        <v>370</v>
+      </c>
+      <c r="B388" s="3" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C388" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D388" s="5" t="s">
+        <v>1869</v>
+      </c>
+      <c r="E388" s="5" t="s">
+        <v>1870</v>
+      </c>
+      <c r="F388" s="7" t="s">
+        <v>1871</v>
+      </c>
+      <c r="G388" s="7" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A389" s="2">
+        <v>371</v>
+      </c>
+      <c r="B389" s="3" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C389" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D389" s="12" t="s">
+        <v>1874</v>
+      </c>
+      <c r="E389" s="18" t="s">
+        <v>1875</v>
+      </c>
+      <c r="F389" s="4" t="s">
+        <v>1876</v>
+      </c>
+      <c r="G389" s="4" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A390" s="2">
+        <v>372</v>
+      </c>
+      <c r="B390" s="3" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C390" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D390" s="5" t="s">
+        <v>1879</v>
+      </c>
+      <c r="E390" s="30" t="s">
+        <v>1880</v>
+      </c>
+      <c r="F390" s="14" t="s">
+        <v>1881</v>
+      </c>
+      <c r="G390" s="5" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A391" s="59">
+        <v>373</v>
+      </c>
+      <c r="B391" s="61" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C391" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="D391" s="47" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E391" s="57" t="s">
+        <v>1886</v>
+      </c>
+      <c r="F391" s="57" t="s">
+        <v>1887</v>
+      </c>
+      <c r="G391" s="118" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A392" s="60"/>
+      <c r="B392" s="62"/>
+      <c r="C392" s="58"/>
+      <c r="D392" s="116" t="s">
+        <v>1885</v>
+      </c>
+      <c r="E392" s="58"/>
+      <c r="F392" s="58"/>
+      <c r="G392" s="119"/>
+    </row>
+    <row r="393" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A393" s="2">
+        <v>374</v>
+      </c>
+      <c r="B393" s="3" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C393" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D393" s="5" t="s">
+        <v>1890</v>
+      </c>
+      <c r="E393" s="28" t="s">
+        <v>1891</v>
+      </c>
+      <c r="F393" s="14" t="s">
+        <v>1892</v>
+      </c>
+      <c r="G393" s="8" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A394" s="2">
+        <v>375</v>
+      </c>
+      <c r="B394" s="3" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C394" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D394" s="65" t="s">
+        <v>1895</v>
+      </c>
+      <c r="E394" s="12" t="s">
+        <v>1896</v>
+      </c>
+      <c r="F394" s="34" t="s">
+        <v>1897</v>
+      </c>
+      <c r="G394" s="67" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A395" s="2">
+        <v>376</v>
+      </c>
+      <c r="B395" s="3" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C395" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D395" s="8" t="s">
+        <v>1900</v>
+      </c>
+      <c r="E395" s="21" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F395" s="5" t="s">
+        <v>1902</v>
+      </c>
+      <c r="G395" s="117" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A396" s="2">
+        <v>377</v>
+      </c>
+      <c r="B396" s="3" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C396" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D396" s="71" t="s">
+        <v>1905</v>
+      </c>
+      <c r="E396" s="12" t="s">
+        <v>1906</v>
+      </c>
+      <c r="F396" s="11" t="s">
+        <v>1907</v>
+      </c>
+      <c r="G396" s="4" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A397" s="2">
+        <v>378</v>
+      </c>
+      <c r="B397" s="3" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C397" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D397" s="21" t="s">
+        <v>1910</v>
+      </c>
+      <c r="E397" s="30" t="s">
+        <v>1911</v>
+      </c>
+      <c r="F397" s="5" t="s">
+        <v>1912</v>
+      </c>
+      <c r="G397" s="5" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A398" s="2">
+        <v>379</v>
+      </c>
+      <c r="B398" s="3" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C398" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D398" s="4" t="s">
+        <v>1915</v>
+      </c>
+      <c r="E398" s="78" t="s">
+        <v>1916</v>
+      </c>
+      <c r="F398" s="34" t="s">
+        <v>1917</v>
+      </c>
+      <c r="G398" s="70" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A399" s="2">
+        <v>380</v>
+      </c>
+      <c r="B399" s="3" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C399" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D399" s="5" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E399" s="13" t="s">
+        <v>1921</v>
+      </c>
+      <c r="F399" s="29" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G399" s="117" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A400" s="2">
+        <v>381</v>
+      </c>
+      <c r="B400" s="3" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C400" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D400" s="4" t="s">
+        <v>1925</v>
+      </c>
+      <c r="E400" s="78" t="s">
+        <v>1926</v>
+      </c>
+      <c r="F400" s="12" t="s">
+        <v>1927</v>
+      </c>
+      <c r="G400" s="4" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A401" s="2">
+        <v>382</v>
+      </c>
+      <c r="B401" s="3" t="s">
+        <v>1929</v>
+      </c>
+      <c r="C401" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D401" s="33" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E401" s="7" t="s">
+        <v>1931</v>
+      </c>
+      <c r="F401" s="5" t="s">
+        <v>1932</v>
+      </c>
+      <c r="G401" s="28" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A402" s="2">
+        <v>383</v>
+      </c>
+      <c r="B402" s="3" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C402" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D402" s="4" t="s">
+        <v>1935</v>
+      </c>
+      <c r="E402" s="20" t="s">
+        <v>1936</v>
+      </c>
+      <c r="F402" s="20" t="s">
+        <v>1937</v>
+      </c>
+      <c r="G402" s="71" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A403" s="2">
+        <v>384</v>
+      </c>
+      <c r="B403" s="3" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C403" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D403" s="5" t="s">
+        <v>1940</v>
+      </c>
+      <c r="E403" s="17" t="s">
+        <v>1941</v>
+      </c>
+      <c r="F403" s="7" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G403" s="33" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A404" s="2">
+        <v>385</v>
+      </c>
+      <c r="B404" s="3" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C404" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D404" s="69" t="s">
+        <v>1945</v>
+      </c>
+      <c r="E404" s="10" t="s">
+        <v>1946</v>
+      </c>
+      <c r="F404" s="19" t="s">
+        <v>1947</v>
+      </c>
+      <c r="G404" s="71" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A405" s="2">
+        <v>386</v>
+      </c>
+      <c r="B405" s="3" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C405" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D405" s="5" t="s">
+        <v>1950</v>
+      </c>
+      <c r="E405" s="7" t="s">
+        <v>1951</v>
+      </c>
+      <c r="F405" s="28" t="s">
+        <v>1952</v>
+      </c>
+      <c r="G405" s="21" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A406" s="2">
+        <v>387</v>
+      </c>
+      <c r="B406" s="3" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C406" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D406" s="4" t="s">
+        <v>1955</v>
+      </c>
+      <c r="E406" s="70" t="s">
+        <v>1956</v>
+      </c>
+      <c r="F406" s="12" t="s">
+        <v>1957</v>
+      </c>
+      <c r="G406" s="67" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A407" s="2">
+        <v>388</v>
+      </c>
+      <c r="B407" s="3" t="s">
+        <v>1959</v>
+      </c>
+      <c r="C407" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D407" s="5" t="s">
+        <v>1960</v>
+      </c>
+      <c r="E407" s="21" t="s">
+        <v>1961</v>
+      </c>
+      <c r="F407" s="8" t="s">
+        <v>1962</v>
+      </c>
+      <c r="G407" s="5" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A408" s="2">
+        <v>389</v>
+      </c>
+      <c r="B408" s="3" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C408" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D408" s="4" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E408" s="9" t="s">
+        <v>1966</v>
+      </c>
+      <c r="F408" s="71" t="s">
+        <v>1967</v>
+      </c>
+      <c r="G408" s="19" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A409" s="2">
+        <v>390</v>
+      </c>
+      <c r="B409" s="3" t="s">
+        <v>1969</v>
+      </c>
+      <c r="C409" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D409" s="14" t="s">
+        <v>1970</v>
+      </c>
+      <c r="E409" s="5" t="s">
+        <v>1971</v>
+      </c>
+      <c r="F409" s="8" t="s">
+        <v>1972</v>
+      </c>
+      <c r="G409" s="6" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A410" s="2">
+        <v>391</v>
+      </c>
+      <c r="B410" s="3" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C410" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D410" s="19" t="s">
+        <v>1975</v>
+      </c>
+      <c r="E410" s="11" t="s">
+        <v>1976</v>
+      </c>
+      <c r="F410" s="4" t="s">
+        <v>1977</v>
+      </c>
+      <c r="G410" s="4" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A411" s="2">
+        <v>392</v>
+      </c>
+      <c r="B411" s="3" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C411" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D411" s="7" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E411" s="28" t="s">
+        <v>1981</v>
+      </c>
+      <c r="F411" s="5" t="s">
+        <v>1982</v>
+      </c>
+      <c r="G411" s="5" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A412" s="2">
+        <v>393</v>
+      </c>
+      <c r="B412" s="3" t="s">
+        <v>1984</v>
+      </c>
+      <c r="C412" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D412" s="78" t="s">
+        <v>1985</v>
+      </c>
+      <c r="E412" s="9" t="s">
+        <v>1986</v>
+      </c>
+      <c r="F412" s="20" t="s">
+        <v>1987</v>
+      </c>
+      <c r="G412" s="4" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A413" s="2">
+        <v>394</v>
+      </c>
+      <c r="B413" s="3" t="s">
+        <v>1989</v>
+      </c>
+      <c r="C413" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D413" s="5" t="s">
+        <v>1990</v>
+      </c>
+      <c r="E413" s="15" t="s">
+        <v>1991</v>
+      </c>
+      <c r="F413" s="5" t="s">
+        <v>1992</v>
+      </c>
+      <c r="G413" s="5" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A414" s="2">
+        <v>395</v>
+      </c>
+      <c r="B414" s="3" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C414" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D414" s="4" t="s">
+        <v>1995</v>
+      </c>
+      <c r="E414" s="78" t="s">
+        <v>1996</v>
+      </c>
+      <c r="F414" s="4" t="s">
+        <v>1997</v>
+      </c>
+      <c r="G414" s="70" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A415" s="2">
+        <v>396</v>
+      </c>
+      <c r="B415" s="3" t="s">
+        <v>1999</v>
+      </c>
+      <c r="C415" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D415" s="14" t="s">
+        <v>2000</v>
+      </c>
+      <c r="E415" s="7" t="s">
+        <v>2001</v>
+      </c>
+      <c r="F415" s="13" t="s">
+        <v>2002</v>
+      </c>
+      <c r="G415" s="5" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A416" s="2">
+        <v>397</v>
+      </c>
+      <c r="B416" s="3" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C416" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D416" s="70" t="s">
+        <v>2005</v>
+      </c>
+      <c r="E416" s="78" t="s">
+        <v>2006</v>
+      </c>
+      <c r="F416" s="4" t="s">
+        <v>2007</v>
+      </c>
+      <c r="G416" s="4" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A417" s="2">
+        <v>398</v>
+      </c>
+      <c r="B417" s="3" t="s">
+        <v>2009</v>
+      </c>
+      <c r="C417" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D417" s="21" t="s">
+        <v>2010</v>
+      </c>
+      <c r="E417" s="5" t="s">
+        <v>2011</v>
+      </c>
+      <c r="F417" s="29" t="s">
+        <v>2012</v>
+      </c>
+      <c r="G417" s="28" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A418" s="2">
+        <v>399</v>
+      </c>
+      <c r="B418" s="3" t="s">
+        <v>2014</v>
+      </c>
+      <c r="C418" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D418" s="4" t="s">
+        <v>2015</v>
+      </c>
+      <c r="E418" s="18" t="s">
+        <v>2016</v>
+      </c>
+      <c r="F418" s="19" t="s">
+        <v>2017</v>
+      </c>
+      <c r="G418" s="4" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A419" s="2">
+        <v>400</v>
+      </c>
+      <c r="B419" s="3" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C419" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D419" s="5" t="s">
+        <v>2020</v>
+      </c>
+      <c r="E419" s="30" t="s">
+        <v>2021</v>
+      </c>
+      <c r="F419" s="5" t="s">
+        <v>2022</v>
+      </c>
+      <c r="G419" s="33" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A420" s="2">
+        <v>401</v>
+      </c>
+      <c r="B420" s="3" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C420" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D420" s="68" t="s">
+        <v>2025</v>
+      </c>
+      <c r="E420" s="4" t="s">
+        <v>2026</v>
+      </c>
+      <c r="F420" s="4" t="s">
+        <v>2027</v>
+      </c>
+      <c r="G420" s="4" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A421" s="2">
+        <v>402</v>
+      </c>
+      <c r="B421" s="3" t="s">
+        <v>2029</v>
+      </c>
+      <c r="C421" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D421" s="8" t="s">
+        <v>2030</v>
+      </c>
+      <c r="E421" s="16" t="s">
+        <v>2031</v>
+      </c>
+      <c r="F421" s="13" t="s">
+        <v>2032</v>
+      </c>
+      <c r="G421" s="72" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A422" s="2">
+        <v>403</v>
+      </c>
+      <c r="B422" s="3" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C422" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D422" s="78" t="s">
+        <v>2035</v>
+      </c>
+      <c r="E422" s="20" t="s">
+        <v>2036</v>
+      </c>
+      <c r="F422" s="4" t="s">
+        <v>1856</v>
+      </c>
+      <c r="G422" s="4" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A423" s="2">
+        <v>404</v>
+      </c>
+      <c r="B423" s="3" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C423" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D423" s="5" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E423" s="15" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F423" s="5" t="s">
+        <v>2041</v>
+      </c>
+      <c r="G423" s="5" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A424" s="2">
+        <v>405</v>
+      </c>
+      <c r="B424" s="3" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C424" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D424" s="9" t="s">
+        <v>2044</v>
+      </c>
+      <c r="E424" s="19" t="s">
+        <v>2045</v>
+      </c>
+      <c r="F424" s="34" t="s">
+        <v>2046</v>
+      </c>
+      <c r="G424" s="18" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A425" s="2">
+        <v>406</v>
+      </c>
+      <c r="B425" s="3" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C425" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D425" s="6" t="s">
+        <v>2049</v>
+      </c>
+      <c r="E425" s="17" t="s">
+        <v>2050</v>
+      </c>
+      <c r="F425" s="14" t="s">
+        <v>2051</v>
+      </c>
+      <c r="G425" s="5" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A426" s="2">
+        <v>407</v>
+      </c>
+      <c r="B426" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="C426" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D426" s="12" t="s">
+        <v>2053</v>
+      </c>
+      <c r="E426" s="12" t="s">
+        <v>2054</v>
+      </c>
+      <c r="F426" s="4" t="s">
+        <v>2055</v>
+      </c>
+      <c r="G426" s="4" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A427" s="2">
+        <v>408</v>
+      </c>
+      <c r="B427" s="3" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C427" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D427" s="5" t="s">
+        <v>2058</v>
+      </c>
+      <c r="E427" s="7" t="s">
+        <v>2059</v>
+      </c>
+      <c r="F427" s="5" t="s">
+        <v>2060</v>
+      </c>
+      <c r="G427" s="5" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A428" s="2">
+        <v>409</v>
+      </c>
+      <c r="B428" s="3" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C428" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D428" s="120" t="s">
+        <v>2063</v>
+      </c>
+      <c r="E428" s="10" t="s">
+        <v>2064</v>
+      </c>
+      <c r="F428" s="19" t="s">
+        <v>2065</v>
+      </c>
+      <c r="G428" s="4" t="s">
+        <v>2066</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="65">
+  <mergeCells count="94">
+    <mergeCell ref="G382:G383"/>
+    <mergeCell ref="A391:A392"/>
+    <mergeCell ref="B391:B392"/>
+    <mergeCell ref="C391:C392"/>
+    <mergeCell ref="E391:E392"/>
+    <mergeCell ref="F391:F392"/>
+    <mergeCell ref="G391:G392"/>
+    <mergeCell ref="A382:A383"/>
+    <mergeCell ref="B382:B383"/>
+    <mergeCell ref="C382:C383"/>
+    <mergeCell ref="E382:E383"/>
+    <mergeCell ref="F382:F383"/>
+    <mergeCell ref="A374:A377"/>
+    <mergeCell ref="B374:B377"/>
+    <mergeCell ref="C374:C377"/>
+    <mergeCell ref="E374:E377"/>
+    <mergeCell ref="F374:F377"/>
+    <mergeCell ref="G349:G350"/>
+    <mergeCell ref="A355:A357"/>
+    <mergeCell ref="B355:B357"/>
+    <mergeCell ref="C355:C357"/>
+    <mergeCell ref="E355:E357"/>
+    <mergeCell ref="F355:F357"/>
+    <mergeCell ref="G355:G357"/>
+    <mergeCell ref="A349:A350"/>
+    <mergeCell ref="B349:B350"/>
+    <mergeCell ref="C349:C350"/>
+    <mergeCell ref="E349:E350"/>
+    <mergeCell ref="F349:F350"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="F147:F148"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G167:G168"/>
+    <mergeCell ref="A173:A174"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="E173:E174"/>
+    <mergeCell ref="F173:F174"/>
+    <mergeCell ref="G173:G174"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="E167:E168"/>
+    <mergeCell ref="F167:F168"/>
+    <mergeCell ref="G191:G192"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="E217:E218"/>
+    <mergeCell ref="F217:F218"/>
+    <mergeCell ref="G217:G218"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="B191:B192"/>
+    <mergeCell ref="C191:C192"/>
+    <mergeCell ref="E191:E192"/>
+    <mergeCell ref="F191:F192"/>
     <mergeCell ref="G307:G308"/>
     <mergeCell ref="A280:A281"/>
     <mergeCell ref="B280:B281"/>
@@ -12153,59 +16787,6 @@
     <mergeCell ref="C307:C308"/>
     <mergeCell ref="E307:E308"/>
     <mergeCell ref="F307:F308"/>
-    <mergeCell ref="G191:G192"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="C217:C218"/>
-    <mergeCell ref="E217:E218"/>
-    <mergeCell ref="F217:F218"/>
-    <mergeCell ref="G217:G218"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="B191:B192"/>
-    <mergeCell ref="C191:C192"/>
-    <mergeCell ref="E191:E192"/>
-    <mergeCell ref="F191:F192"/>
-    <mergeCell ref="G167:G168"/>
-    <mergeCell ref="A173:A174"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="C173:C174"/>
-    <mergeCell ref="E173:E174"/>
-    <mergeCell ref="F173:F174"/>
-    <mergeCell ref="G173:G174"/>
-    <mergeCell ref="A167:A168"/>
-    <mergeCell ref="B167:B168"/>
-    <mergeCell ref="C167:C168"/>
-    <mergeCell ref="E167:E168"/>
-    <mergeCell ref="F167:F168"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="E147:E148"/>
-    <mergeCell ref="F147:F148"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12590,38 +17171,38 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="153" x14ac:dyDescent="0.25">
-      <c r="A17" s="46">
+      <c r="A17" s="59">
         <v>137</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="61" t="s">
         <v>671</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="57" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="32" t="s">
         <v>672</v>
       </c>
-      <c r="E17" s="58" t="s">
+      <c r="E17" s="63" t="s">
         <v>674</v>
       </c>
-      <c r="F17" s="50" t="s">
+      <c r="F17" s="57" t="s">
         <v>675</v>
       </c>
-      <c r="G17" s="50" t="s">
+      <c r="G17" s="57" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="267.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="51"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="58"/>
       <c r="D18" s="37" t="s">
         <v>673</v>
       </c>
-      <c r="E18" s="59"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
     </row>
     <row r="19" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">

--- a/Word_List.xlsx
+++ b/Word_List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ishan\Desktop\Git\Words\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BB5E75-46B5-4F14-A5E0-AD43E43F3E8F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF409D2-DC6A-4228-A504-8C8459A1DB10}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CD0CF8ED-F069-428D-9EBB-C949E843A76D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3359" uniqueCount="2685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3839" uniqueCount="3079">
   <si>
     <t>S.no:</t>
   </si>
@@ -8081,6 +8081,1188 @@
   </si>
   <si>
     <t>Taking one look at the tawdry apartment he concluded  this could not be where his sophisticated friend lived.</t>
+  </si>
+  <si>
+    <t>alacrity</t>
+  </si>
+  <si>
+    <t>Promptness in response-cheerful readiness or  eagerness</t>
+  </si>
+  <si>
+    <t>alertness, briskness, cheerfulness,  eagerness, enthusiasm</t>
+  </si>
+  <si>
+    <t>apathy, aversion, hesitation,  reservation, slowness</t>
+  </si>
+  <si>
+    <t>The alacrity with which the child reached for the toy  showed how much she had longed for it.</t>
+  </si>
+  <si>
+    <t>gaudy</t>
+  </si>
+  <si>
+    <t>too brightly colored in a way that lacks taste</t>
+  </si>
+  <si>
+    <t>flaring, flashy</t>
+  </si>
+  <si>
+    <t>colorless, dull</t>
+  </si>
+  <si>
+    <t>She was dressed in gaudy garments.</t>
+  </si>
+  <si>
+    <t>tenacious</t>
+  </si>
+  <si>
+    <t>Associated with the act of holding on to or firmly  believing in something</t>
+  </si>
+  <si>
+    <t>determined, firm, resolved, welded</t>
+  </si>
+  <si>
+    <t>doubtful, tottering,  vacillating, wavering</t>
+  </si>
+  <si>
+    <t>The tenacious youth stuck to the job he liked without  thinking of more lucrative ones.</t>
+  </si>
+  <si>
+    <t>erratic</t>
+  </si>
+  <si>
+    <t>not happening at regular times; not following  any plan or regular pattern; that you cannot rely  on</t>
+  </si>
+  <si>
+    <t>unpredictable</t>
+  </si>
+  <si>
+    <t>consistent, predictable</t>
+  </si>
+  <si>
+    <t>Mary is a gifted but erratic player</t>
+  </si>
+  <si>
+    <t>ascend</t>
+  </si>
+  <si>
+    <t>1) to move up or rise toward the sky 2) to go,  climb,  or leap upward</t>
+  </si>
+  <si>
+    <t>arise, aspire, climb, escalate, mount,  rise, soar</t>
+  </si>
+  <si>
+    <t>decline, descend, drop, fall,  plunge</t>
+  </si>
+  <si>
+    <t>Tara was too tired to ascend the stairs.</t>
+  </si>
+  <si>
+    <t>disapprobation</t>
+  </si>
+  <si>
+    <t>"disapproval of somebody/something that you  think is morally wrong"</t>
+  </si>
+  <si>
+    <t>censure, condemnation, disapproval,  dislike</t>
+  </si>
+  <si>
+    <t>approbation, approval,  endorsment</t>
+  </si>
+  <si>
+    <t>In a conservative society, remaining a single woman is  to suffer great disapprobation from society.</t>
+  </si>
+  <si>
+    <t>duplicity</t>
+  </si>
+  <si>
+    <t>dishonest behavior that is intended to make  someone believe something that is not true</t>
+  </si>
+  <si>
+    <t>deceit, deception, dishonesty, guile</t>
+  </si>
+  <si>
+    <t>honesty</t>
+  </si>
+  <si>
+    <t>The president was accused of duplicity in his dealings.</t>
+  </si>
+  <si>
+    <t>obliterate</t>
+  </si>
+  <si>
+    <t>to remove all signs of something, either by  destroying or covering it completely</t>
+  </si>
+  <si>
+    <t>abolish, efface, eradicate, erase,  expunge, exterminate</t>
+  </si>
+  <si>
+    <t>conserve, preserve, protect</t>
+  </si>
+  <si>
+    <t>Most of the books were completely obliterated in the fire.</t>
+  </si>
+  <si>
+    <t>nettle</t>
+  </si>
+  <si>
+    <t>to annoy someone</t>
+  </si>
+  <si>
+    <t>annoy, bother, bug, exasperate,  peeve</t>
+  </si>
+  <si>
+    <t>amuse, energise, motivate</t>
+  </si>
+  <si>
+    <t>Though he means no harm, with his tendency to pass  on free advice,  Evan often nettles his friends!</t>
+  </si>
+  <si>
+    <t>idyllic</t>
+  </si>
+  <si>
+    <t>peaceful and beautiful perfect without problems</t>
+  </si>
+  <si>
+    <t>blissful, halcyon, happy, ideal,  idealized, pastoral</t>
+  </si>
+  <si>
+    <t>imperfect, unpleasant</t>
+  </si>
+  <si>
+    <t>We spent the entire summer in the idyllic island of  Majuli.</t>
+  </si>
+  <si>
+    <t>virtual</t>
+  </si>
+  <si>
+    <t>almost or nearly as described, but not  completely or according to strict definition</t>
+  </si>
+  <si>
+    <t>[computing] not physically existing but made to  appear to exist by means of a computer,  especially over a network</t>
+  </si>
+  <si>
+    <t>effective, essential, practical</t>
+  </si>
+  <si>
+    <t>actual, authentic, real</t>
+  </si>
+  <si>
+    <t>1. The riot had left the once-beautiful city in virtual ruins.</t>
+  </si>
+  <si>
+    <t>elated</t>
+  </si>
+  <si>
+    <t>very happy and excited because of something  good that has happened,  or will happen</t>
+  </si>
+  <si>
+    <t>blissful, ecstatic, excited,  exhilarated, joyful, overjoyed, thrilled</t>
+  </si>
+  <si>
+    <t>dejected, depressed,  discouraged, dispirited,  downcast, sad, unhappy</t>
+  </si>
+  <si>
+    <t>She was elated on getting to know about her results.</t>
+  </si>
+  <si>
+    <t>lurid</t>
+  </si>
+  <si>
+    <t>unpleasantly bright in color, especially so as to  create a shocking or harsh effect</t>
+  </si>
+  <si>
+    <t>brilliant, dazzling, exaggerated,  flaming, fluorescent, glaring, intense,  sensational</t>
+  </si>
+  <si>
+    <t>comforting, delightful,  enjoyable, fade, pleasant,  soothing</t>
+  </si>
+  <si>
+    <t>1. Though the content is good, the lurid design of the  book cover can deter people from buying it.</t>
+  </si>
+  <si>
+    <t>intrinsic</t>
+  </si>
+  <si>
+    <t>Belonging naturally; essential</t>
+  </si>
+  <si>
+    <t>basic, essential, inherent, innate</t>
+  </si>
+  <si>
+    <t>extrinsic</t>
+  </si>
+  <si>
+    <t>Maths is an intrinsic part of the school curriculum.</t>
+  </si>
+  <si>
+    <t>vacillate</t>
+  </si>
+  <si>
+    <t>Favour two different courses of action or  judgments</t>
+  </si>
+  <si>
+    <t>alternate, change, dither, fluctuate,  hesitate, swing</t>
+  </si>
+  <si>
+    <t>remain, stay</t>
+  </si>
+  <si>
+    <t>The new job offered five times her present wages and  made her vacillate between it and obligation to her  current employer.</t>
+  </si>
+  <si>
+    <t>windfall</t>
+  </si>
+  <si>
+    <t>Great good fortune,  mostly financial</t>
+  </si>
+  <si>
+    <t>bonanza, boom</t>
+  </si>
+  <si>
+    <t>The inheritance for which he was the old man's sole  nominee,  was quite a windfall for the orphan boy.</t>
+  </si>
+  <si>
+    <t>aloof</t>
+  </si>
+  <si>
+    <t>Physically or emotionally distant</t>
+  </si>
+  <si>
+    <t>apart, reclusive, upstage</t>
+  </si>
+  <si>
+    <t>friendly, open, sociable,  warm</t>
+  </si>
+  <si>
+    <t>One always hesitates to talk to her as she was aloof and  maintained a distance from everyone.</t>
+  </si>
+  <si>
+    <t>cynical</t>
+  </si>
+  <si>
+    <t>believing the worst of human nature and  motives</t>
+  </si>
+  <si>
+    <t>misanthropic, pessimistic</t>
+  </si>
+  <si>
+    <t>hopeful, optimistic, trusting</t>
+  </si>
+  <si>
+    <t>Being cynical, he would not believe there could be any  virtue in humans,  whatever their actions.</t>
+  </si>
+  <si>
+    <t>blase</t>
+  </si>
+  <si>
+    <t>unimpressed with or indifferent to something  because one has experienced or seen it so  often before</t>
+  </si>
+  <si>
+    <t>nonchalant, unconcerned</t>
+  </si>
+  <si>
+    <t>eager, enthusiastic, excited</t>
+  </si>
+  <si>
+    <t>After weeks of holidaying, with nothing to do but enjoy  the sun and sand, she admitted that she was totally  blasé and had no more taste for it.</t>
+  </si>
+  <si>
+    <t>jocular</t>
+  </si>
+  <si>
+    <t>humorous  2) enjoying making people laugh</t>
+  </si>
+  <si>
+    <t>amusing, facetious, ludicrous,  mischievous, witty</t>
+  </si>
+  <si>
+    <t>morose, serious, witless</t>
+  </si>
+  <si>
+    <t>He tried to sound jocular but realized that he sounded  almost pleading.</t>
+  </si>
+  <si>
+    <t>inevitable</t>
+  </si>
+  <si>
+    <t>1. Impossible to avoid or prevent. 2. certain</t>
+  </si>
+  <si>
+    <t>certain, ineluctable, inescapable,  unavoidable</t>
+  </si>
+  <si>
+    <t>avoidable, uncertain, unsure</t>
+  </si>
+  <si>
+    <t>Getting wet is inevitable if you are going to try to give  your dog a bath</t>
+  </si>
+  <si>
+    <t>worthwhile</t>
+  </si>
+  <si>
+    <t>worth the time, money, or effort spent; of value  or importance</t>
+  </si>
+  <si>
+    <t>useful, valuable</t>
+  </si>
+  <si>
+    <t>unhelpful, valueless,  worthless</t>
+  </si>
+  <si>
+    <t>The team played a horrendous game but the hard-fought  draw made the match worthwhile.</t>
+  </si>
+  <si>
+    <t>refractory</t>
+  </si>
+  <si>
+    <t>Stubborn,  obstinate, unmanageable</t>
+  </si>
+  <si>
+    <t>adamant, disobedient, impolite,  irritable, tough, troublesome,  unbending, unmanageable</t>
+  </si>
+  <si>
+    <t>compliant, easygoing,  manageable, obedient,  polite</t>
+  </si>
+  <si>
+    <t>The baby elephant was quite refractory, posing a  challenge to the circus trainer.</t>
+  </si>
+  <si>
+    <t>artifact</t>
+  </si>
+  <si>
+    <t>An object that is made by a person, especially  something of historical or cultural interest</t>
+  </si>
+  <si>
+    <t>apparatus, device</t>
+  </si>
+  <si>
+    <t>commonplace, pedestrian,  plebeian</t>
+  </si>
+  <si>
+    <t>The artifacts, which included cooking ware, remnants  of which were found at the archaeological site pointed to  human habitation.</t>
+  </si>
+  <si>
+    <t>propinquity</t>
+  </si>
+  <si>
+    <t>The property of being close together or adjacent</t>
+  </si>
+  <si>
+    <t>closeness, contiguity, nearness</t>
+  </si>
+  <si>
+    <t>segregation, separation</t>
+  </si>
+  <si>
+    <t>Propinquity to a criminal by its very nearness, exposes  one to the dangers the later faces.</t>
+  </si>
+  <si>
+    <t>onerous</t>
+  </si>
+  <si>
+    <t>Hanging heavily on one's mind</t>
+  </si>
+  <si>
+    <t>burdensome, cumbersome,  demanding, laborious, serious,  strenuous, taxing, tiring, weighty</t>
+  </si>
+  <si>
+    <t>easy, effortless, painless,  simple</t>
+  </si>
+  <si>
+    <t>The will overburdened the heiress with the onerous  responsibility of personally overseeing her estate.</t>
+  </si>
+  <si>
+    <t>moribund</t>
+  </si>
+  <si>
+    <t>A person or activity which is decaying or dying</t>
+  </si>
+  <si>
+    <t>affected, diseased, sick, terminal</t>
+  </si>
+  <si>
+    <t>healthy, lively, robust,  vivacious</t>
+  </si>
+  <si>
+    <t>To preserve the economy the government takes over  moribund industries to revive them with finance and  management.</t>
+  </si>
+  <si>
+    <t>apocryphal</t>
+  </si>
+  <si>
+    <t>Of questionable authenticity</t>
+  </si>
+  <si>
+    <t>counterfeit, doubtful, fake,  inaccurate, spurious</t>
+  </si>
+  <si>
+    <t>authentic, real, true</t>
+  </si>
+  <si>
+    <t>People are only too willing to believe apocryphal news  which has no basis or proof.</t>
+  </si>
+  <si>
+    <t>complaisant</t>
+  </si>
+  <si>
+    <t>ready to accept other people's actions and  opinions and to do what other people want</t>
+  </si>
+  <si>
+    <t>biddable, compliant, polite,  submissive</t>
+  </si>
+  <si>
+    <t>unwilling</t>
+  </si>
+  <si>
+    <t>The girl at the sales counter was helpful and  complaisant to the needs of the customers</t>
+  </si>
+  <si>
+    <t>distill</t>
+  </si>
+  <si>
+    <t>Separate on basis of quality, usually refine,  purify, concentrate</t>
+  </si>
+  <si>
+    <t>concentrate, evaporate, extract,  purify, sublimate, vaporise</t>
+  </si>
+  <si>
+    <t>adulterate, dirty, pollute</t>
+  </si>
+  <si>
+    <t>The hard training the girl received in her grandfather's  house distilled her, relieving her of her native arrogance  and indolence.</t>
+  </si>
+  <si>
+    <t>irascible</t>
+  </si>
+  <si>
+    <t>quickly aroused to anger;</t>
+  </si>
+  <si>
+    <t>angry, cantankerous, choleric, cross,  feisty, grouchy, hot-headed, hot-  tempered, hotheaded, petulant,  quick-tempered, short-tempered,  touchy</t>
+  </si>
+  <si>
+    <t>amiable, calm, cheerful,  collected, composed, cool,  easygoing, euphoric, kind,  patient, peaceable,  pleasant, pleased</t>
+  </si>
+  <si>
+    <t>The irascible passenger, with characteristic ire, flared  up angrily when the Ticket Inspector demanded proof of  age.</t>
+  </si>
+  <si>
+    <t>repertoire</t>
+  </si>
+  <si>
+    <t>The entire range of skills, aptitudes or devices  used in a particular field or occupation</t>
+  </si>
+  <si>
+    <t>inventory</t>
+  </si>
+  <si>
+    <t>ambiguity, disarrayed</t>
+  </si>
+  <si>
+    <t>With his deep sense for engines and repertoire of tools,  Mario is a super mechanic who has perfect solutions to  any problem that you may have with your motor bike.</t>
+  </si>
+  <si>
+    <t>substantiate</t>
+  </si>
+  <si>
+    <t>Establish with satisfactory rationale</t>
+  </si>
+  <si>
+    <t>affirm, authenticate, establish,  justify, prove</t>
+  </si>
+  <si>
+    <t>deny, disprove, refute</t>
+  </si>
+  <si>
+    <t>The man substantiated his claim by producing  unquestionable photographic evidence.</t>
+  </si>
+  <si>
+    <t>innocuous</t>
+  </si>
+  <si>
+    <t>Harmless used in connection with one usually  thought harmful</t>
+  </si>
+  <si>
+    <t>harmless, inane, inconsequential,  innocent, inoffensive</t>
+  </si>
+  <si>
+    <t>harmful, hurtful</t>
+  </si>
+  <si>
+    <t>The member in the interview panel who at first appeared  the most formidable,  turned out to be innocuous,</t>
+  </si>
+  <si>
+    <t>asking just one harmless question.</t>
+  </si>
+  <si>
+    <t>impecunious</t>
+  </si>
+  <si>
+    <t>Associated with the condition of being extremely  poor</t>
+  </si>
+  <si>
+    <t>impoverish, penurious, poor</t>
+  </si>
+  <si>
+    <t>affluent, opulent, rich</t>
+  </si>
+  <si>
+    <t>Generosity is of the mind, not of means; people in the  most impecunious circumstances share their little with  others .</t>
+  </si>
+  <si>
+    <t>impunity</t>
+  </si>
+  <si>
+    <t>Quality of being protected from punishment for  misconduct.</t>
+  </si>
+  <si>
+    <t>immunity, protection</t>
+  </si>
+  <si>
+    <t>imprisonment, incarceration</t>
+  </si>
+  <si>
+    <t>Today the law - abiding citizen lives in fear of  undeserved punishment, while political criminals walk  about with impunity.</t>
+  </si>
+  <si>
+    <t>artifice</t>
+  </si>
+  <si>
+    <t>A deceptive method or device</t>
+  </si>
+  <si>
+    <t>device, dodge, gimmick, hoax,  juggle, statagem, trick</t>
+  </si>
+  <si>
+    <t>candor, frankness, honesty,  honor, ingenuousness</t>
+  </si>
+  <si>
+    <t>The Trojan horse was an artifice designed to get the  soldiers inside the walls</t>
+  </si>
+  <si>
+    <t>fluctuate</t>
+  </si>
+  <si>
+    <t>to change frequently in size, amount, quality,  etc.,  especially from one extreme to another</t>
+  </si>
+  <si>
+    <t>change, shift, snap, vary</t>
+  </si>
+  <si>
+    <t>plateau, stabilize</t>
+  </si>
+  <si>
+    <t>Body temperatures can fluctuate when you are ill.</t>
+  </si>
+  <si>
+    <t>having a lot of money and a good standard of  living</t>
+  </si>
+  <si>
+    <t>opulent, prosperous, wealthy</t>
+  </si>
+  <si>
+    <t>destitute, impecunious,  indigent, penurious</t>
+  </si>
+  <si>
+    <t>She is an affluent widow who donates generously to  many charities.</t>
+  </si>
+  <si>
+    <t>impeccable</t>
+  </si>
+  <si>
+    <t>Not prone to mistakes</t>
+  </si>
+  <si>
+    <t>blameless, flawless, perfect,  virtuous,  faultless, perfect</t>
+  </si>
+  <si>
+    <t>flawed, imperfect, peccable,  tarnished</t>
+  </si>
+  <si>
+    <t>There was no way anyone could fault the new officer,  who was known for his impeccable conduct and</t>
+  </si>
+  <si>
+    <t>behaviour.</t>
+  </si>
+  <si>
+    <t>elusive</t>
+  </si>
+  <si>
+    <t>difficult to find,  define,  or achieve</t>
+  </si>
+  <si>
+    <t>evasive, mysterious</t>
+  </si>
+  <si>
+    <t>direct, forthright</t>
+  </si>
+  <si>
+    <t>Had Moss joined the great Italian team, he could well  have won the elusive World Championship.</t>
+  </si>
+  <si>
+    <t>surly</t>
+  </si>
+  <si>
+    <t>Ill-humored,  arrogant, domineering</t>
+  </si>
+  <si>
+    <t>cross, rude</t>
+  </si>
+  <si>
+    <t>gentle, pleasant</t>
+  </si>
+  <si>
+    <t>One hesitated before going to their house, as they had  to endure the surly behaviour of their host's father who  found fault with everything.</t>
+  </si>
+  <si>
+    <t>fester</t>
+  </si>
+  <si>
+    <t>(of a wound or cut) to become badly infected  (of food or rubbish) become rotten and offensive  o the senses   (of negative feelings or thoughts)</t>
+  </si>
+  <si>
+    <t>(of a person) deteriorate</t>
+  </si>
+  <si>
+    <t>decay, rot, septic</t>
+  </si>
+  <si>
+    <t>dissipate, heal</t>
+  </si>
+  <si>
+    <t>1. The flies feasted on his festering wounds as the  soldier lay unconscious by the lake.</t>
+  </si>
+  <si>
+    <t>inhibit</t>
+  </si>
+  <si>
+    <t>to prevent something from happening or make it  happen more slowly or less frequently than  normal make (someone) self-conscious and  unable to act in a relaxed and natural way</t>
+  </si>
+  <si>
+    <t>hamper, hinder, impede</t>
+  </si>
+  <si>
+    <t>allow, assist, encourage</t>
+  </si>
+  <si>
+    <t>1. The implementation of the new laws might inhibit the  growth of the state.</t>
+  </si>
+  <si>
+    <t>conflagration</t>
+  </si>
+  <si>
+    <t>a very large fire that destroys a lot of land or  buildings</t>
+  </si>
+  <si>
+    <t>wild fire, blaze, inferno</t>
+  </si>
+  <si>
+    <t>placidity, serenity</t>
+  </si>
+  <si>
+    <t>Many structures were destroyed in the conflagration that  accidentally hit the village following a fire in a hay stack.</t>
+  </si>
+  <si>
+    <t>obsequious</t>
+  </si>
+  <si>
+    <t>ostentatiously servile or polite heavy</t>
+  </si>
+  <si>
+    <t>abject, complacent, compliant,  cringing, deferential, submissive,  subordinate</t>
+  </si>
+  <si>
+    <t>arrogant, disobedient,  disrespectful rude,  domineering</t>
+  </si>
+  <si>
+    <t>The obsequious sycophants around a celebrity, with  their tedious presence everywhere, do not improve his  image.</t>
+  </si>
+  <si>
+    <t>intrepid</t>
+  </si>
+  <si>
+    <t>Resolutely courageous</t>
+  </si>
+  <si>
+    <t>brave, dauntless, fearless</t>
+  </si>
+  <si>
+    <t>cowardly, fearful</t>
+  </si>
+  <si>
+    <t>The intrepid prince had to perform yet another daring act  to demonstrate his native courage.</t>
+  </si>
+  <si>
+    <t>pejorative</t>
+  </si>
+  <si>
+    <t>A word or remark that has negative connotation  and expresses either criticism, disapproval or  intends to belittle something or someone.</t>
+  </si>
+  <si>
+    <t>belittling, debasing, disparaging,  irreverent</t>
+  </si>
+  <si>
+    <t>complimentary</t>
+  </si>
+  <si>
+    <t>Any business school worth its salt always claims that the  program it offers is practical and tailor made for current  business practices. So when a leading CEO said that  the curriculum of most leading business schools is cut-  off from reality, it is natural that many faculty members  felt that the statement was pejorative and belittled the  value that was delivered by the business schools to  corporates for decades.</t>
+  </si>
+  <si>
+    <t>martinet</t>
+  </si>
+  <si>
+    <t>A rigid military disciplinarian</t>
+  </si>
+  <si>
+    <t>authoritarian, despot, disciplinarian,  tyrant</t>
+  </si>
+  <si>
+    <t>democrat</t>
+  </si>
+  <si>
+    <t>The crew of the ship rebelled when they realized that the  captain of the ship was a martinet who demanded  obedience without thought to consequences.</t>
+  </si>
+  <si>
+    <t>palliate</t>
+  </si>
+  <si>
+    <t>Make less severe or intense</t>
+  </si>
+  <si>
+    <t>assuage, extenuate, gloss, relieve</t>
+  </si>
+  <si>
+    <t>aggravate, intensify</t>
+  </si>
+  <si>
+    <t>The teacher, trying to palliate the shock of his mother's  death, with a slow introduction, made it worse for David  Copperfield.</t>
+  </si>
+  <si>
+    <t>fractious</t>
+  </si>
+  <si>
+    <t>bad-tempered or tending to get easily upset,  especially by small things | difficult to control</t>
+  </si>
+  <si>
+    <t>awkward, cross, irritable, petulant,  ratty, recalcitrant, tetchy, touchy,  unruly</t>
+  </si>
+  <si>
+    <t>affable, agreeable, amiable,  biddable, complaisant,  genial, good-natured,  tractable</t>
+  </si>
+  <si>
+    <t>For some unaccountable reason they had suddenly  decided to become fractious.</t>
+  </si>
+  <si>
+    <t>oust</t>
+  </si>
+  <si>
+    <t>vigilant</t>
+  </si>
+  <si>
+    <t>very careful to notice any signs of danger or  trouble</t>
+  </si>
+  <si>
+    <t>alert, attentive, careful, circumspect,  wakeful, watchful</t>
+  </si>
+  <si>
+    <t>impulsive, inattentive,  indiscreet, careless</t>
+  </si>
+  <si>
+    <t>The vigilant police officer noticed the robber sneaking  into the jewelry store.</t>
+  </si>
+  <si>
+    <t>advocate</t>
+  </si>
+  <si>
+    <t>a person who supports or speaks in favor of  someone or of a public plan or action</t>
+  </si>
+  <si>
+    <t>pleader, proponent, supporter,  upholder</t>
+  </si>
+  <si>
+    <t>antagonist, assailant, critic</t>
+  </si>
+  <si>
+    <t>As an advocate of the High Court, he enjoyed a  privileged entry into the hall.</t>
+  </si>
+  <si>
+    <t>Publicly recommend or support:</t>
+  </si>
+  <si>
+    <t>champion, endorse, prescribe</t>
+  </si>
+  <si>
+    <t>antagonist, assailant,  contradict, enemy, oppose,  opposition, protestor, resist</t>
+  </si>
+  <si>
+    <t>The woman risked her reputation by assiduously  advocating a cause as it was noble.</t>
+  </si>
+  <si>
+    <t>finesse</t>
+  </si>
+  <si>
+    <t>great skill in dealing with people or situations,  especially in a delicate way</t>
+  </si>
+  <si>
+    <t>delicacy, diplomacy, discreetness</t>
+  </si>
+  <si>
+    <t>bluntness, coarseness</t>
+  </si>
+  <si>
+    <t>Henry Higgins trained the flower-girl to develop enough  finesse to pass for a noblewoman.</t>
+  </si>
+  <si>
+    <t>ingrate</t>
+  </si>
+  <si>
+    <t>A person who does not show proper  appreciation or thanks for something : an  ungrateful person</t>
+  </si>
+  <si>
+    <t>bounder, self seeker, thankless  person., Ungrateful</t>
+  </si>
+  <si>
+    <t>appreciative, grateful,  thankful</t>
+  </si>
+  <si>
+    <t>You will be considered an ingrate if you don't send a  thank you note to the person who helped you in your  time of need.</t>
+  </si>
+  <si>
+    <t>cardinal</t>
+  </si>
+  <si>
+    <t>serving as an essential component;</t>
+  </si>
+  <si>
+    <t>central, fundamental, key, primal</t>
+  </si>
+  <si>
+    <t>immaterial, inconsequential,  trivial</t>
+  </si>
+  <si>
+    <t>Compassion is a cardinal virtue in any human, and  exploitation a cardinal vice.</t>
+  </si>
+  <si>
+    <t>inane</t>
+  </si>
+  <si>
+    <t>very silly or stupid</t>
+  </si>
+  <si>
+    <t>empty, meaningless, senseless</t>
+  </si>
+  <si>
+    <t>meaningful, significant</t>
+  </si>
+  <si>
+    <t>The teacher asked the student to stop interrupting her  with inane comments</t>
+  </si>
+  <si>
+    <t>sordid</t>
+  </si>
+  <si>
+    <t>morally degraded</t>
+  </si>
+  <si>
+    <t>seamy, seedy, sleazy, squalid</t>
+  </si>
+  <si>
+    <t>reputable</t>
+  </si>
+  <si>
+    <t>Without stopping with just suggesting a rape, some TV  serials go into the sordid details of the actual act.</t>
+  </si>
+  <si>
+    <t>replete</t>
+  </si>
+  <si>
+    <t>filled with something; with a full supply of  something</t>
+  </si>
+  <si>
+    <t>crammed, filled, packed</t>
+  </si>
+  <si>
+    <t>devoid, lacking</t>
+  </si>
+  <si>
+    <t>This car has an engine replete with the latest  technology.</t>
+  </si>
+  <si>
+    <t>leery</t>
+  </si>
+  <si>
+    <t>suspicious or careful about something or  someone, and trying to avoid doing it or dealing  with them</t>
+  </si>
+  <si>
+    <t>cautious, distrustful, doubting,  dubious, sceptical, suspicious, wary</t>
+  </si>
+  <si>
+    <t>certain, sure, trustful,  unwary</t>
+  </si>
+  <si>
+    <t>She hesitated stepping into the friendly crowd, because  she was leery of strangers.</t>
+  </si>
+  <si>
+    <t>venal</t>
+  </si>
+  <si>
+    <t>willing to do dishonest things in return for money</t>
+  </si>
+  <si>
+    <t>purchasable,  bribable, corruptible</t>
+  </si>
+  <si>
+    <t>honest, incorruptible</t>
+  </si>
+  <si>
+    <t>A country whose reins are in the hands of self serving,  venal politicians and government officials is doomed.</t>
+  </si>
+  <si>
+    <t>attenuate</t>
+  </si>
+  <si>
+    <t>to make something weaker or less effective</t>
+  </si>
+  <si>
+    <t>depreciate, reduce, weaken</t>
+  </si>
+  <si>
+    <t>enhance, strengthen,  upgrade</t>
+  </si>
+  <si>
+    <t>Earplugs will attenuate the loud sounds of the  machinery.</t>
+  </si>
+  <si>
+    <t>elucidate</t>
+  </si>
+  <si>
+    <t>Make (something) clear; explain</t>
+  </si>
+  <si>
+    <t>clarify, exemplify, explain, illustrate</t>
+  </si>
+  <si>
+    <t>complicate, confuse,  mystify, obscure</t>
+  </si>
+  <si>
+    <t>Colored charts, accompanied the presentation to  elucidate the points being made in a much more  illustrative manner.</t>
+  </si>
+  <si>
+    <t>Adamant</t>
+  </si>
+  <si>
+    <t>Impervious to please, appeal or reason;  stubbornly unyielding</t>
+  </si>
+  <si>
+    <t>inflexible, intransigent</t>
+  </si>
+  <si>
+    <t>flexible</t>
+  </si>
+  <si>
+    <t>Seeing that giving in every time got them nowhere, the  team became adamant about not playing until they got a  raise.</t>
+  </si>
+  <si>
+    <t>belligerent</t>
+  </si>
+  <si>
+    <t>hostile and aggressive | engaged in a war or  conflict,  as recognized by international law</t>
+  </si>
+  <si>
+    <t>aggressive, contentious,  pugnacious, quarrelsome</t>
+  </si>
+  <si>
+    <t>calm, kind, passive,  peaceful</t>
+  </si>
+  <si>
+    <t>The West Indies was belligerent in its bowling and  general field behaviour until Mushtaq Ali smashed their  guard out of shape.</t>
+  </si>
+  <si>
+    <t>unwieldy</t>
+  </si>
+  <si>
+    <t>difficult to use or handle or manage because of  size or weight or shape;</t>
+  </si>
+  <si>
+    <t>awkward, clumsy, cumbersome,  unmanageable</t>
+  </si>
+  <si>
+    <t>manageable, wieldy</t>
+  </si>
+  <si>
+    <t>Introducing the additional dance and fight scene made  the already lengthy film quite unwieldy.</t>
+  </si>
+  <si>
+    <t>frenetic</t>
+  </si>
+  <si>
+    <t>fast and energetic in a rather wild and  uncontrolled way:a frenetic pace of activity</t>
+  </si>
+  <si>
+    <t>frantic, frenzied, phrenetic</t>
+  </si>
+  <si>
+    <t>balanced, calm, tranquil,  unexcited</t>
+  </si>
+  <si>
+    <t>The audience made frenetic appeals, when the power  supply failed at the climax of the programme.</t>
+  </si>
+  <si>
+    <t>pugnacious</t>
+  </si>
+  <si>
+    <t>Eager or quick to argue or fight</t>
+  </si>
+  <si>
+    <t>aggressive, belligerent, rough, rude,  violent</t>
+  </si>
+  <si>
+    <t>amiable, friendly,  peaceable, soft, well-  mannered</t>
+  </si>
+  <si>
+    <t>The bouncers outside the new pub were pugnacious  enough to deter any trouble makers from misbehaving.</t>
+  </si>
+  <si>
+    <t>ostensible</t>
+  </si>
+  <si>
+    <t>appearing as such, but not necessarily so;  pretended</t>
+  </si>
+  <si>
+    <t>apparent(a), imitative, seeming(a),  superficial</t>
+  </si>
+  <si>
+    <t>genuine, profound</t>
+  </si>
+  <si>
+    <t>Though the ostensible reason for his visit was a holiday ,  he was really interested in learning about the recluse</t>
+  </si>
+  <si>
+    <t>media baron who lived there.</t>
+  </si>
+  <si>
+    <t>scurvy</t>
+  </si>
+  <si>
+    <t>of the most contemptible kind</t>
+  </si>
+  <si>
+    <t>abject, despicable, low-down,  miserable</t>
+  </si>
+  <si>
+    <t>exemplary, laudable</t>
+  </si>
+  <si>
+    <t>Some villainous characters of Shakespeare are so  scurvy they make you shrink with horror at their  contemptible conduct.</t>
+  </si>
+  <si>
+    <t>egress</t>
+  </si>
+  <si>
+    <t>(astronomy) the reappearance of a celestial  body after an eclipse</t>
+  </si>
+  <si>
+    <t>emergence, exit</t>
+  </si>
+  <si>
+    <t>entrance, entry, ingress</t>
+  </si>
+  <si>
+    <t>The egress of the sun after a solar eclipse is treated as  an occasion for thanksgiving among Hindus.</t>
+  </si>
+  <si>
+    <t>requite</t>
+  </si>
+  <si>
+    <t>make repayment for or return something; to  make return to (a person for a kindness or  injury)</t>
+  </si>
+  <si>
+    <t>repay</t>
+  </si>
+  <si>
+    <t>absolve, condone, excuse,  forgive, pardon, remit</t>
+  </si>
+  <si>
+    <t>Very often we desist from performing evil actions only for  fear that we may have to requite for them.</t>
+  </si>
+  <si>
+    <t>gambol</t>
+  </si>
+  <si>
+    <t>1. To run or jump in a lively way 2. To skip or  jump about in a playful manner.</t>
+  </si>
+  <si>
+    <t>cavort frolic, frisk, rollick, romp, sport</t>
+  </si>
+  <si>
+    <t>mope, pout, sulk</t>
+  </si>
+  <si>
+    <t>1. The kids were told not to gambol in the classroom. 2.  While the cows were grazing in the harvested fields,</t>
+  </si>
+  <si>
+    <t>their young calves were gamboling all around.</t>
+  </si>
+  <si>
+    <t>tendentious</t>
+  </si>
+  <si>
+    <t>With marked preferences</t>
+  </si>
+  <si>
+    <t>dogmatic, opinionated</t>
+  </si>
+  <si>
+    <t>flexible, openminded</t>
+  </si>
+  <si>
+    <t>Social conduct is notably tendentious in that one can  see a purpose in every action or gesture,  even a smile.</t>
+  </si>
+  <si>
+    <t>slew</t>
+  </si>
+  <si>
+    <t>(often followed by `of'') a large number or  amount or extent</t>
+  </si>
+  <si>
+    <t>host (of)</t>
+  </si>
+  <si>
+    <t>deficit, fragment, grain,  granule, inadequacy,  scarcity</t>
+  </si>
+  <si>
+    <t>There are days which are dotted throughout with a slew  of problems,  little and big.</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>a standard or typical example</t>
+  </si>
+  <si>
+    <t>epitome, example, image, model,  prototype</t>
+  </si>
+  <si>
+    <t>anomaly, atypical</t>
+  </si>
+  <si>
+    <t>The teacher found it easier to explain virtues through  paradigms, describing ideal characters and narrating  tales of virtuous actions.</t>
+  </si>
+  <si>
+    <t>mercurial</t>
+  </si>
+  <si>
+    <t>liable to sudden unpredictable change</t>
+  </si>
+  <si>
+    <t>erratic, fickle</t>
+  </si>
+  <si>
+    <t>constant, steady</t>
+  </si>
+  <si>
+    <t>The teacher had her hands full keeping her mercurial  student's mind tied to one subject before darting to  another.</t>
   </si>
 </sst>
 </file>
@@ -8231,7 +9413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8386,41 +9568,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="11"/>
@@ -8461,20 +9613,8 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="8"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="14"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -8485,29 +9625,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="13"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="8"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="8"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="10"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="10"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
@@ -8517,6 +9639,126 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="10"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="10"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="12"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="12"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8832,10 +10074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E15CDF-6253-4385-A261-19345D5A55AB}">
-  <dimension ref="A1:G559"/>
+  <dimension ref="A1:G644"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A551" workbookViewId="0">
-      <selection activeCell="A539" sqref="A539:G559"/>
+    <sheetView tabSelected="1" topLeftCell="A640" workbookViewId="0">
+      <selection activeCell="A623" sqref="A623:G644"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9265,38 +10507,38 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="52">
+      <c r="A19" s="78">
         <v>18</v>
       </c>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="86" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="56" t="s">
+      <c r="E19" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="F19" s="56" t="s">
+      <c r="F19" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="G19" s="56" t="s">
+      <c r="G19" s="86" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="57"/>
+      <c r="A20" s="79"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="87"/>
       <c r="D20" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
     </row>
     <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -9747,48 +10989,48 @@
       </c>
     </row>
     <row r="41" spans="1:7" s="22" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="52">
+      <c r="A41" s="78">
         <v>38</v>
       </c>
-      <c r="B41" s="54" t="s">
+      <c r="B41" s="80" t="s">
         <v>197</v>
       </c>
-      <c r="C41" s="56" t="s">
+      <c r="C41" s="86" t="s">
         <v>25</v>
       </c>
       <c r="D41" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="E41" s="56" t="s">
+      <c r="E41" s="86" t="s">
         <v>199</v>
       </c>
-      <c r="F41" s="56" t="s">
+      <c r="F41" s="86" t="s">
         <v>200</v>
       </c>
-      <c r="G41" s="56" t="s">
+      <c r="G41" s="86" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="22" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A42" s="53">
+      <c r="A42" s="79">
         <v>39</v>
       </c>
-      <c r="B42" s="55" t="s">
+      <c r="B42" s="81" t="s">
         <v>202</v>
       </c>
-      <c r="C42" s="57" t="s">
+      <c r="C42" s="87" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="40" t="s">
         <v>692</v>
       </c>
-      <c r="E42" s="57" t="s">
+      <c r="E42" s="87" t="s">
         <v>203</v>
       </c>
-      <c r="F42" s="57" t="s">
+      <c r="F42" s="87" t="s">
         <v>204</v>
       </c>
-      <c r="G42" s="57" t="s">
+      <c r="G42" s="87" t="s">
         <v>205</v>
       </c>
     </row>
@@ -9931,38 +11173,38 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="52">
+      <c r="A49" s="78">
         <v>46</v>
       </c>
-      <c r="B49" s="54" t="s">
+      <c r="B49" s="80" t="s">
         <v>236</v>
       </c>
-      <c r="C49" s="56" t="s">
+      <c r="C49" s="86" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="E49" s="56" t="s">
+      <c r="E49" s="86" t="s">
         <v>239</v>
       </c>
-      <c r="F49" s="56" t="s">
+      <c r="F49" s="86" t="s">
         <v>240</v>
       </c>
-      <c r="G49" s="56" t="s">
+      <c r="G49" s="86" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="53"/>
-      <c r="B50" s="55"/>
-      <c r="C50" s="57"/>
+      <c r="A50" s="79"/>
+      <c r="B50" s="81"/>
+      <c r="C50" s="87"/>
       <c r="D50" s="40" t="s">
         <v>238</v>
       </c>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="57"/>
+      <c r="E50" s="87"/>
+      <c r="F50" s="87"/>
+      <c r="G50" s="87"/>
     </row>
     <row r="51" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
@@ -10540,38 +11782,38 @@
       </c>
     </row>
     <row r="76" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A76" s="52">
+      <c r="A76" s="78">
         <v>72</v>
       </c>
-      <c r="B76" s="54" t="s">
+      <c r="B76" s="80" t="s">
         <v>367</v>
       </c>
-      <c r="C76" s="56" t="s">
+      <c r="C76" s="86" t="s">
         <v>8</v>
       </c>
       <c r="D76" s="38" t="s">
         <v>368</v>
       </c>
-      <c r="E76" s="56" t="s">
+      <c r="E76" s="86" t="s">
         <v>370</v>
       </c>
-      <c r="F76" s="56" t="s">
+      <c r="F76" s="86" t="s">
         <v>371</v>
       </c>
-      <c r="G76" s="56" t="s">
+      <c r="G76" s="86" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="53"/>
-      <c r="B77" s="55"/>
-      <c r="C77" s="57"/>
+      <c r="A77" s="79"/>
+      <c r="B77" s="81"/>
+      <c r="C77" s="87"/>
       <c r="D77" s="40" t="s">
         <v>369</v>
       </c>
-      <c r="E77" s="57"/>
-      <c r="F77" s="57"/>
-      <c r="G77" s="57"/>
+      <c r="E77" s="87"/>
+      <c r="F77" s="87"/>
+      <c r="G77" s="87"/>
     </row>
     <row r="78" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
@@ -12161,22 +13403,22 @@
       </c>
     </row>
     <row r="147" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="52">
+      <c r="A147" s="78">
         <v>143</v>
       </c>
-      <c r="B147" s="54" t="s">
+      <c r="B147" s="80" t="s">
         <v>1483</v>
       </c>
-      <c r="C147" s="50" t="s">
+      <c r="C147" s="82" t="s">
         <v>19</v>
       </c>
       <c r="D147" s="34" t="s">
         <v>1484</v>
       </c>
-      <c r="E147" s="50" t="s">
+      <c r="E147" s="82" t="s">
         <v>1486</v>
       </c>
-      <c r="F147" s="50" t="s">
+      <c r="F147" s="82" t="s">
         <v>1487</v>
       </c>
       <c r="G147" s="34" t="s">
@@ -12184,14 +13426,14 @@
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="53"/>
-      <c r="B148" s="55"/>
-      <c r="C148" s="51"/>
+      <c r="A148" s="79"/>
+      <c r="B148" s="81"/>
+      <c r="C148" s="83"/>
       <c r="D148" s="35" t="s">
         <v>1485</v>
       </c>
-      <c r="E148" s="51"/>
-      <c r="F148" s="51"/>
+      <c r="E148" s="83"/>
+      <c r="F148" s="83"/>
       <c r="G148" s="35" t="s">
         <v>1489</v>
       </c>
@@ -12611,38 +13853,38 @@
       </c>
     </row>
     <row r="167" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A167" s="52">
+      <c r="A167" s="78">
         <v>162</v>
       </c>
-      <c r="B167" s="54" t="s">
+      <c r="B167" s="80" t="s">
         <v>793</v>
       </c>
-      <c r="C167" s="56" t="s">
+      <c r="C167" s="86" t="s">
         <v>19</v>
       </c>
       <c r="D167" s="38" t="s">
         <v>794</v>
       </c>
-      <c r="E167" s="56" t="s">
+      <c r="E167" s="86" t="s">
         <v>796</v>
       </c>
-      <c r="F167" s="56" t="s">
+      <c r="F167" s="86" t="s">
         <v>797</v>
       </c>
-      <c r="G167" s="56" t="s">
+      <c r="G167" s="86" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="53"/>
-      <c r="B168" s="55"/>
-      <c r="C168" s="57"/>
+      <c r="A168" s="79"/>
+      <c r="B168" s="81"/>
+      <c r="C168" s="87"/>
       <c r="D168" s="40" t="s">
         <v>795</v>
       </c>
-      <c r="E168" s="57"/>
-      <c r="F168" s="57"/>
-      <c r="G168" s="57"/>
+      <c r="E168" s="87"/>
+      <c r="F168" s="87"/>
+      <c r="G168" s="87"/>
     </row>
     <row r="169" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
@@ -12737,38 +13979,38 @@
       </c>
     </row>
     <row r="173" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A173" s="52">
+      <c r="A173" s="78">
         <v>167</v>
       </c>
-      <c r="B173" s="54" t="s">
+      <c r="B173" s="80" t="s">
         <v>819</v>
       </c>
-      <c r="C173" s="50" t="s">
+      <c r="C173" s="82" t="s">
         <v>25</v>
       </c>
       <c r="D173" s="34" t="s">
         <v>820</v>
       </c>
-      <c r="E173" s="50" t="s">
+      <c r="E173" s="82" t="s">
         <v>822</v>
       </c>
-      <c r="F173" s="50" t="s">
+      <c r="F173" s="82" t="s">
         <v>823</v>
       </c>
-      <c r="G173" s="50" t="s">
+      <c r="G173" s="82" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A174" s="53"/>
-      <c r="B174" s="55"/>
-      <c r="C174" s="51"/>
+      <c r="A174" s="79"/>
+      <c r="B174" s="81"/>
+      <c r="C174" s="83"/>
       <c r="D174" s="35" t="s">
         <v>821</v>
       </c>
-      <c r="E174" s="51"/>
-      <c r="F174" s="51"/>
-      <c r="G174" s="51"/>
+      <c r="E174" s="83"/>
+      <c r="F174" s="83"/>
+      <c r="G174" s="83"/>
     </row>
     <row r="175" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
@@ -13139,38 +14381,38 @@
       </c>
     </row>
     <row r="191" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A191" s="52">
+      <c r="A191" s="78">
         <v>184</v>
       </c>
-      <c r="B191" s="54" t="s">
+      <c r="B191" s="80" t="s">
         <v>905</v>
       </c>
-      <c r="C191" s="56" t="s">
+      <c r="C191" s="86" t="s">
         <v>25</v>
       </c>
       <c r="D191" s="38" t="s">
         <v>906</v>
       </c>
-      <c r="E191" s="56" t="s">
+      <c r="E191" s="86" t="s">
         <v>908</v>
       </c>
-      <c r="F191" s="56" t="s">
+      <c r="F191" s="86" t="s">
         <v>909</v>
       </c>
-      <c r="G191" s="56" t="s">
+      <c r="G191" s="86" t="s">
         <v>910</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="53"/>
-      <c r="B192" s="55"/>
-      <c r="C192" s="57"/>
+      <c r="A192" s="79"/>
+      <c r="B192" s="81"/>
+      <c r="C192" s="87"/>
       <c r="D192" s="40" t="s">
         <v>907</v>
       </c>
-      <c r="E192" s="57"/>
-      <c r="F192" s="57"/>
-      <c r="G192" s="57"/>
+      <c r="E192" s="87"/>
+      <c r="F192" s="87"/>
+      <c r="G192" s="87"/>
     </row>
     <row r="193" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
@@ -13725,38 +14967,38 @@
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" s="52">
+      <c r="A217" s="78">
         <v>209</v>
       </c>
-      <c r="B217" s="54" t="s">
+      <c r="B217" s="80" t="s">
         <v>1030</v>
       </c>
-      <c r="C217" s="50" t="s">
+      <c r="C217" s="82" t="s">
         <v>8</v>
       </c>
       <c r="D217" s="34" t="s">
         <v>1031</v>
       </c>
-      <c r="E217" s="50" t="s">
+      <c r="E217" s="82" t="s">
         <v>1033</v>
       </c>
-      <c r="F217" s="50" t="s">
+      <c r="F217" s="82" t="s">
         <v>1034</v>
       </c>
-      <c r="G217" s="50" t="s">
+      <c r="G217" s="82" t="s">
         <v>1035</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A218" s="53"/>
-      <c r="B218" s="55"/>
-      <c r="C218" s="51"/>
+      <c r="A218" s="79"/>
+      <c r="B218" s="81"/>
+      <c r="C218" s="83"/>
       <c r="D218" s="35" t="s">
         <v>1032</v>
       </c>
-      <c r="E218" s="51"/>
-      <c r="F218" s="51"/>
-      <c r="G218" s="51"/>
+      <c r="E218" s="83"/>
+      <c r="F218" s="83"/>
+      <c r="G218" s="83"/>
     </row>
     <row r="219" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
@@ -15162,38 +16404,38 @@
       </c>
     </row>
     <row r="280" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="52">
+      <c r="A280" s="78">
         <v>271</v>
       </c>
-      <c r="B280" s="54" t="s">
+      <c r="B280" s="80" t="s">
         <v>1442</v>
       </c>
-      <c r="C280" s="50" t="s">
+      <c r="C280" s="82" t="s">
         <v>8</v>
       </c>
       <c r="D280" s="34" t="s">
         <v>1443</v>
       </c>
-      <c r="E280" s="50" t="s">
+      <c r="E280" s="82" t="s">
         <v>1445</v>
       </c>
-      <c r="F280" s="50" t="s">
+      <c r="F280" s="82" t="s">
         <v>1446</v>
       </c>
-      <c r="G280" s="50" t="s">
+      <c r="G280" s="82" t="s">
         <v>1447</v>
       </c>
     </row>
     <row r="281" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A281" s="53"/>
-      <c r="B281" s="55"/>
-      <c r="C281" s="51"/>
+      <c r="A281" s="79"/>
+      <c r="B281" s="81"/>
+      <c r="C281" s="83"/>
       <c r="D281" s="35" t="s">
         <v>1444</v>
       </c>
-      <c r="E281" s="51"/>
-      <c r="F281" s="51"/>
-      <c r="G281" s="51"/>
+      <c r="E281" s="83"/>
+      <c r="F281" s="83"/>
+      <c r="G281" s="83"/>
     </row>
     <row r="282" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
@@ -15771,38 +17013,38 @@
       </c>
     </row>
     <row r="307" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A307" s="52">
+      <c r="A307" s="78">
         <v>297</v>
       </c>
-      <c r="B307" s="54" t="s">
+      <c r="B307" s="80" t="s">
         <v>1371</v>
       </c>
-      <c r="C307" s="50" t="s">
+      <c r="C307" s="82" t="s">
         <v>19</v>
       </c>
       <c r="D307" s="34" t="s">
         <v>1372</v>
       </c>
-      <c r="E307" s="50" t="s">
+      <c r="E307" s="82" t="s">
         <v>1374</v>
       </c>
-      <c r="F307" s="50" t="s">
+      <c r="F307" s="82" t="s">
         <v>1375</v>
       </c>
-      <c r="G307" s="50" t="s">
+      <c r="G307" s="82" t="s">
         <v>1376</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A308" s="53"/>
-      <c r="B308" s="55"/>
-      <c r="C308" s="51"/>
+      <c r="A308" s="79"/>
+      <c r="B308" s="81"/>
+      <c r="C308" s="83"/>
       <c r="D308" s="35" t="s">
         <v>1373</v>
       </c>
-      <c r="E308" s="51"/>
-      <c r="F308" s="51"/>
-      <c r="G308" s="51"/>
+      <c r="E308" s="83"/>
+      <c r="F308" s="83"/>
+      <c r="G308" s="83"/>
     </row>
     <row r="309" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
@@ -16725,38 +17967,38 @@
       </c>
     </row>
     <row r="349" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A349" s="52">
+      <c r="A349" s="78">
         <v>338</v>
       </c>
-      <c r="B349" s="54" t="s">
+      <c r="B349" s="80" t="s">
         <v>1700</v>
       </c>
-      <c r="C349" s="56" t="s">
+      <c r="C349" s="86" t="s">
         <v>25</v>
       </c>
       <c r="D349" s="38" t="s">
         <v>1701</v>
       </c>
-      <c r="E349" s="56" t="s">
+      <c r="E349" s="86" t="s">
         <v>1703</v>
       </c>
-      <c r="F349" s="56" t="s">
+      <c r="F349" s="86" t="s">
         <v>1704</v>
       </c>
-      <c r="G349" s="56" t="s">
+      <c r="G349" s="86" t="s">
         <v>1705</v>
       </c>
     </row>
     <row r="350" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A350" s="53"/>
-      <c r="B350" s="55"/>
-      <c r="C350" s="57"/>
+      <c r="A350" s="79"/>
+      <c r="B350" s="81"/>
+      <c r="C350" s="87"/>
       <c r="D350" s="40" t="s">
         <v>1702</v>
       </c>
-      <c r="E350" s="57"/>
-      <c r="F350" s="57"/>
-      <c r="G350" s="57"/>
+      <c r="E350" s="87"/>
+      <c r="F350" s="87"/>
+      <c r="G350" s="87"/>
     </row>
     <row r="351" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
@@ -16851,49 +18093,49 @@
       </c>
     </row>
     <row r="355" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A355" s="52">
+      <c r="A355" s="78">
         <v>343</v>
       </c>
-      <c r="B355" s="54" t="s">
+      <c r="B355" s="80" t="s">
         <v>1726</v>
       </c>
-      <c r="C355" s="50" t="s">
+      <c r="C355" s="82" t="s">
         <v>19</v>
       </c>
       <c r="D355" s="34" t="s">
         <v>1727</v>
       </c>
-      <c r="E355" s="50" t="s">
+      <c r="E355" s="82" t="s">
         <v>1730</v>
       </c>
-      <c r="F355" s="50" t="s">
+      <c r="F355" s="82" t="s">
         <v>1731</v>
       </c>
-      <c r="G355" s="50" t="s">
+      <c r="G355" s="82" t="s">
         <v>1732</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A356" s="58"/>
-      <c r="B356" s="59"/>
-      <c r="C356" s="60"/>
+      <c r="A356" s="96"/>
+      <c r="B356" s="97"/>
+      <c r="C356" s="99"/>
       <c r="D356" s="39" t="s">
         <v>1728</v>
       </c>
-      <c r="E356" s="60"/>
-      <c r="F356" s="60"/>
-      <c r="G356" s="60"/>
+      <c r="E356" s="99"/>
+      <c r="F356" s="99"/>
+      <c r="G356" s="99"/>
     </row>
     <row r="357" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A357" s="53"/>
-      <c r="B357" s="55"/>
-      <c r="C357" s="51"/>
+      <c r="A357" s="79"/>
+      <c r="B357" s="81"/>
+      <c r="C357" s="83"/>
       <c r="D357" s="35" t="s">
         <v>1729</v>
       </c>
-      <c r="E357" s="51"/>
-      <c r="F357" s="51"/>
-      <c r="G357" s="51"/>
+      <c r="E357" s="83"/>
+      <c r="F357" s="83"/>
+      <c r="G357" s="83"/>
     </row>
     <row r="358" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
@@ -17264,22 +18506,22 @@
       </c>
     </row>
     <row r="374" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A374" s="52">
+      <c r="A374" s="78">
         <v>360</v>
       </c>
-      <c r="B374" s="54" t="s">
+      <c r="B374" s="80" t="s">
         <v>1813</v>
       </c>
-      <c r="C374" s="56" t="s">
+      <c r="C374" s="86" t="s">
         <v>8</v>
       </c>
       <c r="D374" s="38" t="s">
         <v>1814</v>
       </c>
-      <c r="E374" s="56" t="s">
+      <c r="E374" s="86" t="s">
         <v>1816</v>
       </c>
-      <c r="F374" s="56" t="s">
+      <c r="F374" s="86" t="s">
         <v>1817</v>
       </c>
       <c r="G374" s="38" t="s">
@@ -17287,36 +18529,36 @@
       </c>
     </row>
     <row r="375" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A375" s="58"/>
-      <c r="B375" s="59"/>
-      <c r="C375" s="61"/>
+      <c r="A375" s="96"/>
+      <c r="B375" s="97"/>
+      <c r="C375" s="98"/>
       <c r="D375" s="41" t="s">
         <v>1815</v>
       </c>
-      <c r="E375" s="61"/>
-      <c r="F375" s="61"/>
+      <c r="E375" s="98"/>
+      <c r="F375" s="98"/>
       <c r="G375" s="41" t="s">
         <v>1819</v>
       </c>
     </row>
     <row r="376" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A376" s="58"/>
-      <c r="B376" s="59"/>
-      <c r="C376" s="61"/>
+      <c r="A376" s="96"/>
+      <c r="B376" s="97"/>
+      <c r="C376" s="98"/>
       <c r="D376" s="48"/>
-      <c r="E376" s="61"/>
-      <c r="F376" s="61"/>
+      <c r="E376" s="98"/>
+      <c r="F376" s="98"/>
       <c r="G376" s="41" t="s">
         <v>1820</v>
       </c>
     </row>
     <row r="377" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A377" s="53"/>
-      <c r="B377" s="55"/>
-      <c r="C377" s="57"/>
+      <c r="A377" s="79"/>
+      <c r="B377" s="81"/>
+      <c r="C377" s="87"/>
       <c r="D377" s="49"/>
-      <c r="E377" s="57"/>
-      <c r="F377" s="57"/>
+      <c r="E377" s="87"/>
+      <c r="F377" s="87"/>
       <c r="G377" s="40" t="s">
         <v>1821</v>
       </c>
@@ -17414,38 +18656,38 @@
       </c>
     </row>
     <row r="382" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A382" s="52">
+      <c r="A382" s="78">
         <v>365</v>
       </c>
-      <c r="B382" s="54" t="s">
+      <c r="B382" s="80" t="s">
         <v>1842</v>
       </c>
-      <c r="C382" s="50" t="s">
+      <c r="C382" s="82" t="s">
         <v>8</v>
       </c>
       <c r="D382" s="34" t="s">
         <v>1843</v>
       </c>
-      <c r="E382" s="50" t="s">
+      <c r="E382" s="82" t="s">
         <v>1845</v>
       </c>
-      <c r="F382" s="50" t="s">
+      <c r="F382" s="82" t="s">
         <v>1846</v>
       </c>
-      <c r="G382" s="50" t="s">
+      <c r="G382" s="82" t="s">
         <v>1847</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A383" s="53"/>
-      <c r="B383" s="55"/>
-      <c r="C383" s="51"/>
+      <c r="A383" s="79"/>
+      <c r="B383" s="81"/>
+      <c r="C383" s="83"/>
       <c r="D383" s="35" t="s">
         <v>1844</v>
       </c>
-      <c r="E383" s="51"/>
-      <c r="F383" s="51"/>
-      <c r="G383" s="51"/>
+      <c r="E383" s="83"/>
+      <c r="F383" s="83"/>
+      <c r="G383" s="83"/>
     </row>
     <row r="384" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A384" s="2">
@@ -17609,38 +18851,38 @@
       </c>
     </row>
     <row r="391" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A391" s="52">
+      <c r="A391" s="78">
         <v>373</v>
       </c>
-      <c r="B391" s="54" t="s">
+      <c r="B391" s="80" t="s">
         <v>1883</v>
       </c>
-      <c r="C391" s="50" t="s">
+      <c r="C391" s="82" t="s">
         <v>19</v>
       </c>
       <c r="D391" s="34" t="s">
         <v>1884</v>
       </c>
-      <c r="E391" s="50" t="s">
+      <c r="E391" s="82" t="s">
         <v>1886</v>
       </c>
-      <c r="F391" s="50" t="s">
+      <c r="F391" s="82" t="s">
         <v>1887</v>
       </c>
-      <c r="G391" s="50" t="s">
+      <c r="G391" s="82" t="s">
         <v>1888</v>
       </c>
     </row>
     <row r="392" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A392" s="53"/>
-      <c r="B392" s="55"/>
-      <c r="C392" s="51"/>
+      <c r="A392" s="79"/>
+      <c r="B392" s="81"/>
+      <c r="C392" s="83"/>
       <c r="D392" s="35" t="s">
         <v>1885</v>
       </c>
-      <c r="E392" s="51"/>
-      <c r="F392" s="51"/>
-      <c r="G392" s="51"/>
+      <c r="E392" s="83"/>
+      <c r="F392" s="83"/>
+      <c r="G392" s="83"/>
     </row>
     <row r="393" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A393" s="2">
@@ -18489,7 +19731,7 @@
       <c r="F429" s="7" t="s">
         <v>2070</v>
       </c>
-      <c r="G429" s="64" t="s">
+      <c r="G429" s="54" t="s">
         <v>2071</v>
       </c>
     </row>
@@ -18503,10 +19745,10 @@
       <c r="C430" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D430" s="65" t="s">
+      <c r="D430" s="55" t="s">
         <v>2073</v>
       </c>
-      <c r="E430" s="66" t="s">
+      <c r="E430" s="56" t="s">
         <v>2074</v>
       </c>
       <c r="F430" s="19" t="s">
@@ -18535,7 +19777,7 @@
       <c r="F431" s="5" t="s">
         <v>2080</v>
       </c>
-      <c r="G431" s="64" t="s">
+      <c r="G431" s="54" t="s">
         <v>2081</v>
       </c>
     </row>
@@ -18549,7 +19791,7 @@
       <c r="C432" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D432" s="67" t="s">
+      <c r="D432" s="57" t="s">
         <v>2082</v>
       </c>
       <c r="E432" s="4" t="s">
@@ -18558,7 +19800,7 @@
       <c r="F432" s="4" t="s">
         <v>2084</v>
       </c>
-      <c r="G432" s="68" t="s">
+      <c r="G432" s="58" t="s">
         <v>2085</v>
       </c>
     </row>
@@ -18604,7 +19846,7 @@
       <c r="F434" s="4" t="s">
         <v>2094</v>
       </c>
-      <c r="G434" s="69" t="s">
+      <c r="G434" s="59" t="s">
         <v>2095</v>
       </c>
     </row>
@@ -18696,7 +19938,7 @@
       <c r="F438" s="4" t="s">
         <v>2114</v>
       </c>
-      <c r="G438" s="69" t="s">
+      <c r="G438" s="59" t="s">
         <v>2115</v>
       </c>
     </row>
@@ -18733,7 +19975,7 @@
       <c r="C440" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D440" s="70" t="s">
+      <c r="D440" s="60" t="s">
         <v>2122</v>
       </c>
       <c r="E440" s="4" t="s">
@@ -18742,7 +19984,7 @@
       <c r="F440" s="30" t="s">
         <v>2124</v>
       </c>
-      <c r="G440" s="71" t="s">
+      <c r="G440" s="61" t="s">
         <v>2125</v>
       </c>
     </row>
@@ -18779,16 +20021,16 @@
       <c r="C442" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D442" s="72" t="s">
+      <c r="D442" s="62" t="s">
         <v>401</v>
       </c>
-      <c r="E442" s="72" t="s">
+      <c r="E442" s="62" t="s">
         <v>401</v>
       </c>
-      <c r="F442" s="72" t="s">
+      <c r="F442" s="62" t="s">
         <v>401</v>
       </c>
-      <c r="G442" s="72" t="s">
+      <c r="G442" s="62" t="s">
         <v>401</v>
       </c>
     </row>
@@ -18877,7 +20119,7 @@
       <c r="E446" s="4" t="s">
         <v>2148</v>
       </c>
-      <c r="F446" s="72" t="s">
+      <c r="F446" s="62" t="s">
         <v>401</v>
       </c>
       <c r="G446" s="31" t="s">
@@ -18903,7 +20145,7 @@
       <c r="F447" s="5" t="s">
         <v>2153</v>
       </c>
-      <c r="G447" s="73" t="s">
+      <c r="G447" s="63" t="s">
         <v>2154</v>
       </c>
     </row>
@@ -18920,10 +20162,10 @@
       <c r="D448" s="4" t="s">
         <v>2156</v>
       </c>
-      <c r="E448" s="72" t="s">
+      <c r="E448" s="62" t="s">
         <v>401</v>
       </c>
-      <c r="F448" s="72" t="s">
+      <c r="F448" s="62" t="s">
         <v>401</v>
       </c>
       <c r="G448" s="4" t="s">
@@ -18963,7 +20205,7 @@
       <c r="C450" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D450" s="68" t="s">
+      <c r="D450" s="58" t="s">
         <v>2164</v>
       </c>
       <c r="E450" s="30" t="s">
@@ -19018,7 +20260,7 @@
       <c r="F452" s="10" t="s">
         <v>2176</v>
       </c>
-      <c r="G452" s="66" t="s">
+      <c r="G452" s="56" t="s">
         <v>2177</v>
       </c>
     </row>
@@ -19104,7 +20346,7 @@
       <c r="D456" s="4" t="s">
         <v>2194</v>
       </c>
-      <c r="E456" s="69" t="s">
+      <c r="E456" s="59" t="s">
         <v>2195</v>
       </c>
       <c r="F456" s="20" t="s">
@@ -19147,7 +20389,7 @@
       <c r="C458" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D458" s="67" t="s">
+      <c r="D458" s="57" t="s">
         <v>2204</v>
       </c>
       <c r="E458" s="10" t="s">
@@ -19170,7 +20412,7 @@
       <c r="C459" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D459" s="74" t="s">
+      <c r="D459" s="64" t="s">
         <v>2209</v>
       </c>
       <c r="E459" s="15" t="s">
@@ -19207,36 +20449,36 @@
       </c>
     </row>
     <row r="461" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A461" s="52">
+      <c r="A461" s="78">
         <v>442</v>
       </c>
-      <c r="B461" s="54" t="s">
+      <c r="B461" s="80" t="s">
         <v>2218</v>
       </c>
-      <c r="C461" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="D461" s="56" t="s">
+      <c r="C461" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="D461" s="86" t="s">
         <v>2219</v>
       </c>
-      <c r="E461" s="77" t="s">
+      <c r="E461" s="94" t="s">
         <v>2220</v>
       </c>
-      <c r="F461" s="56" t="s">
+      <c r="F461" s="86" t="s">
         <v>2221</v>
       </c>
-      <c r="G461" s="75" t="s">
+      <c r="G461" s="65" t="s">
         <v>2222</v>
       </c>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A462" s="53"/>
-      <c r="B462" s="55"/>
-      <c r="C462" s="57"/>
-      <c r="D462" s="57"/>
-      <c r="E462" s="78"/>
-      <c r="F462" s="57"/>
-      <c r="G462" s="76" t="s">
+      <c r="A462" s="79"/>
+      <c r="B462" s="81"/>
+      <c r="C462" s="87"/>
+      <c r="D462" s="87"/>
+      <c r="E462" s="95"/>
+      <c r="F462" s="87"/>
+      <c r="G462" s="66" t="s">
         <v>2223</v>
       </c>
     </row>
@@ -19250,7 +20492,7 @@
       <c r="C463" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D463" s="67" t="s">
+      <c r="D463" s="57" t="s">
         <v>2225</v>
       </c>
       <c r="E463" s="10" t="s">
@@ -19351,7 +20593,7 @@
       <c r="F467" s="19" t="s">
         <v>2247</v>
       </c>
-      <c r="G467" s="66" t="s">
+      <c r="G467" s="56" t="s">
         <v>2248</v>
       </c>
     </row>
@@ -19388,10 +20630,10 @@
       <c r="C469" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D469" s="66" t="s">
+      <c r="D469" s="56" t="s">
         <v>2255</v>
       </c>
-      <c r="E469" s="69" t="s">
+      <c r="E469" s="59" t="s">
         <v>2256</v>
       </c>
       <c r="F469" s="30" t="s">
@@ -19411,7 +20653,7 @@
       <c r="C470" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D470" s="64" t="s">
+      <c r="D470" s="54" t="s">
         <v>2260</v>
       </c>
       <c r="E470" s="6" t="s">
@@ -19512,7 +20754,7 @@
       <c r="F474" s="7" t="s">
         <v>2282</v>
       </c>
-      <c r="G474" s="74" t="s">
+      <c r="G474" s="64" t="s">
         <v>2283</v>
       </c>
     </row>
@@ -19673,7 +20915,7 @@
       <c r="F481" s="4" t="s">
         <v>2317</v>
       </c>
-      <c r="G481" s="68" t="s">
+      <c r="G481" s="58" t="s">
         <v>2318</v>
       </c>
     </row>
@@ -19710,7 +20952,7 @@
       <c r="C483" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D483" s="79" t="s">
+      <c r="D483" s="67" t="s">
         <v>2324</v>
       </c>
       <c r="E483" s="4" t="s">
@@ -19779,7 +21021,7 @@
       <c r="C486" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D486" s="74" t="s">
+      <c r="D486" s="64" t="s">
         <v>2339</v>
       </c>
       <c r="E486" s="21" t="s">
@@ -19793,38 +21035,38 @@
       </c>
     </row>
     <row r="487" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A487" s="52">
+      <c r="A487" s="78">
         <v>467</v>
       </c>
-      <c r="B487" s="54" t="s">
+      <c r="B487" s="80" t="s">
         <v>2343</v>
       </c>
-      <c r="C487" s="50" t="s">
+      <c r="C487" s="82" t="s">
         <v>19</v>
       </c>
       <c r="D487" s="42" t="s">
         <v>2344</v>
       </c>
-      <c r="E487" s="50" t="s">
+      <c r="E487" s="82" t="s">
         <v>2346</v>
       </c>
-      <c r="F487" s="80" t="s">
+      <c r="F487" s="92" t="s">
         <v>2347</v>
       </c>
-      <c r="G487" s="50" t="s">
+      <c r="G487" s="82" t="s">
         <v>2348</v>
       </c>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A488" s="53"/>
-      <c r="B488" s="55"/>
-      <c r="C488" s="51"/>
+      <c r="A488" s="79"/>
+      <c r="B488" s="81"/>
+      <c r="C488" s="83"/>
       <c r="D488" s="43" t="s">
         <v>2345</v>
       </c>
-      <c r="E488" s="51"/>
-      <c r="F488" s="81"/>
-      <c r="G488" s="51"/>
+      <c r="E488" s="83"/>
+      <c r="F488" s="93"/>
+      <c r="G488" s="83"/>
     </row>
     <row r="489" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A489" s="2">
@@ -19845,7 +21087,7 @@
       <c r="F489" s="5" t="s">
         <v>2352</v>
       </c>
-      <c r="G489" s="73" t="s">
+      <c r="G489" s="63" t="s">
         <v>2353</v>
       </c>
     </row>
@@ -19914,7 +21156,7 @@
       <c r="F492" s="31" t="s">
         <v>2367</v>
       </c>
-      <c r="G492" s="68" t="s">
+      <c r="G492" s="58" t="s">
         <v>2368</v>
       </c>
     </row>
@@ -19937,7 +21179,7 @@
       <c r="F493" s="5" t="s">
         <v>2372</v>
       </c>
-      <c r="G493" s="73" t="s">
+      <c r="G493" s="63" t="s">
         <v>2373</v>
       </c>
     </row>
@@ -20011,35 +21253,35 @@
       </c>
     </row>
     <row r="497" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A497" s="52">
+      <c r="A497" s="78">
         <v>476</v>
       </c>
-      <c r="B497" s="54" t="s">
+      <c r="B497" s="80" t="s">
         <v>2389</v>
       </c>
-      <c r="C497" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="D497" s="56" t="s">
+      <c r="C497" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="D497" s="86" t="s">
         <v>2390</v>
       </c>
-      <c r="E497" s="85" t="s">
+      <c r="E497" s="90" t="s">
         <v>2391</v>
       </c>
-      <c r="F497" s="56" t="s">
+      <c r="F497" s="86" t="s">
         <v>2392</v>
       </c>
-      <c r="G497" s="82" t="s">
+      <c r="G497" s="68" t="s">
         <v>2393</v>
       </c>
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A498" s="53"/>
-      <c r="B498" s="55"/>
-      <c r="C498" s="57"/>
-      <c r="D498" s="57"/>
-      <c r="E498" s="86"/>
-      <c r="F498" s="57"/>
+      <c r="A498" s="79"/>
+      <c r="B498" s="81"/>
+      <c r="C498" s="87"/>
+      <c r="D498" s="87"/>
+      <c r="E498" s="91"/>
+      <c r="F498" s="87"/>
       <c r="G498" s="44" t="s">
         <v>2394</v>
       </c>
@@ -20054,7 +21296,7 @@
       <c r="C499" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D499" s="65" t="s">
+      <c r="D499" s="55" t="s">
         <v>2396</v>
       </c>
       <c r="E499" s="4" t="s">
@@ -20114,38 +21356,38 @@
       </c>
     </row>
     <row r="502" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A502" s="52">
+      <c r="A502" s="78">
         <v>480</v>
       </c>
-      <c r="B502" s="54" t="s">
+      <c r="B502" s="80" t="s">
         <v>2410</v>
       </c>
-      <c r="C502" s="56" t="s">
+      <c r="C502" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D502" s="82" t="s">
+      <c r="D502" s="68" t="s">
         <v>2411</v>
       </c>
-      <c r="E502" s="87" t="s">
+      <c r="E502" s="88" t="s">
         <v>2413</v>
       </c>
-      <c r="F502" s="56" t="s">
+      <c r="F502" s="86" t="s">
         <v>2237</v>
       </c>
-      <c r="G502" s="89" t="s">
+      <c r="G502" s="76" t="s">
         <v>2414</v>
       </c>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A503" s="53"/>
-      <c r="B503" s="55"/>
-      <c r="C503" s="57"/>
-      <c r="D503" s="83" t="s">
+      <c r="A503" s="79"/>
+      <c r="B503" s="81"/>
+      <c r="C503" s="87"/>
+      <c r="D503" s="69" t="s">
         <v>2412</v>
       </c>
-      <c r="E503" s="88"/>
-      <c r="F503" s="57"/>
-      <c r="G503" s="90"/>
+      <c r="E503" s="89"/>
+      <c r="F503" s="87"/>
+      <c r="G503" s="77"/>
     </row>
     <row r="504" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A504" s="2">
@@ -20157,7 +21399,7 @@
       <c r="C504" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D504" s="67" t="s">
+      <c r="D504" s="57" t="s">
         <v>2416</v>
       </c>
       <c r="E504" s="4" t="s">
@@ -20194,38 +21436,38 @@
       </c>
     </row>
     <row r="506" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A506" s="52">
+      <c r="A506" s="78">
         <v>483</v>
       </c>
-      <c r="B506" s="54" t="s">
+      <c r="B506" s="80" t="s">
         <v>2425</v>
       </c>
-      <c r="C506" s="50" t="s">
+      <c r="C506" s="82" t="s">
         <v>19</v>
       </c>
       <c r="D506" s="28" t="s">
         <v>2426</v>
       </c>
-      <c r="E506" s="91" t="s">
+      <c r="E506" s="84" t="s">
         <v>2428</v>
       </c>
-      <c r="F506" s="50" t="s">
+      <c r="F506" s="82" t="s">
         <v>2429</v>
       </c>
-      <c r="G506" s="50" t="s">
+      <c r="G506" s="82" t="s">
         <v>2430</v>
       </c>
     </row>
     <row r="507" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A507" s="53"/>
-      <c r="B507" s="55"/>
-      <c r="C507" s="51"/>
-      <c r="D507" s="84" t="s">
+      <c r="A507" s="79"/>
+      <c r="B507" s="81"/>
+      <c r="C507" s="83"/>
+      <c r="D507" s="70" t="s">
         <v>2427</v>
       </c>
-      <c r="E507" s="92"/>
-      <c r="F507" s="51"/>
-      <c r="G507" s="51"/>
+      <c r="E507" s="85"/>
+      <c r="F507" s="83"/>
+      <c r="G507" s="83"/>
     </row>
     <row r="508" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A508" s="2">
@@ -20237,7 +21479,7 @@
       <c r="C508" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D508" s="64" t="s">
+      <c r="D508" s="54" t="s">
         <v>2432</v>
       </c>
       <c r="E508" s="5" t="s">
@@ -20269,7 +21511,7 @@
       <c r="F509" s="20" t="s">
         <v>2439</v>
       </c>
-      <c r="G509" s="68" t="s">
+      <c r="G509" s="58" t="s">
         <v>2440</v>
       </c>
     </row>
@@ -20306,7 +21548,7 @@
       <c r="C511" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D511" s="68" t="s">
+      <c r="D511" s="58" t="s">
         <v>2447</v>
       </c>
       <c r="E511" s="10" t="s">
@@ -20352,7 +21594,7 @@
       <c r="C513" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D513" s="65" t="s">
+      <c r="D513" s="55" t="s">
         <v>2457</v>
       </c>
       <c r="E513" s="11" t="s">
@@ -20361,7 +21603,7 @@
       <c r="F513" s="4" t="s">
         <v>2459</v>
       </c>
-      <c r="G513" s="68" t="s">
+      <c r="G513" s="58" t="s">
         <v>2460</v>
       </c>
     </row>
@@ -20398,7 +21640,7 @@
       <c r="C515" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D515" s="79" t="s">
+      <c r="D515" s="67" t="s">
         <v>2467</v>
       </c>
       <c r="E515" s="11" t="s">
@@ -20522,7 +21764,7 @@
       <c r="F520" s="8" t="s">
         <v>2491</v>
       </c>
-      <c r="G520" s="74" t="s">
+      <c r="G520" s="64" t="s">
         <v>2492</v>
       </c>
     </row>
@@ -20614,7 +21856,7 @@
       <c r="F524" s="7" t="s">
         <v>2511</v>
       </c>
-      <c r="G524" s="64" t="s">
+      <c r="G524" s="54" t="s">
         <v>2512</v>
       </c>
     </row>
@@ -20812,7 +22054,7 @@
       <c r="C533" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D533" s="65" t="s">
+      <c r="D533" s="55" t="s">
         <v>2554</v>
       </c>
       <c r="E533" s="18" t="s">
@@ -20821,7 +22063,7 @@
       <c r="F533" s="9" t="s">
         <v>2556</v>
       </c>
-      <c r="G533" s="66" t="s">
+      <c r="G533" s="56" t="s">
         <v>2557</v>
       </c>
     </row>
@@ -20861,7 +22103,7 @@
       <c r="D535" s="4" t="s">
         <v>2564</v>
       </c>
-      <c r="E535" s="66" t="s">
+      <c r="E535" s="56" t="s">
         <v>2565</v>
       </c>
       <c r="F535" s="12" t="s">
@@ -20881,7 +22123,7 @@
       <c r="C536" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D536" s="73" t="s">
+      <c r="D536" s="63" t="s">
         <v>2569</v>
       </c>
       <c r="E536" s="17" t="s">
@@ -20953,7 +22195,7 @@
       <c r="D539" s="4" t="s">
         <v>2584</v>
       </c>
-      <c r="E539" s="70" t="s">
+      <c r="E539" s="60" t="s">
         <v>2585</v>
       </c>
       <c r="F539" s="4" t="s">
@@ -20990,7 +22232,7 @@
       <c r="A541" s="2">
         <v>517</v>
       </c>
-      <c r="B541" s="93" t="s">
+      <c r="B541" s="73" t="s">
         <v>2593</v>
       </c>
       <c r="C541" s="4" t="s">
@@ -21036,7 +22278,7 @@
       <c r="A543" s="2">
         <v>519</v>
       </c>
-      <c r="B543" s="94" t="s">
+      <c r="B543" s="74" t="s">
         <v>2603</v>
       </c>
       <c r="C543" s="4" t="s">
@@ -21051,7 +22293,7 @@
       <c r="F543" s="12" t="s">
         <v>2606</v>
       </c>
-      <c r="G543" s="70" t="s">
+      <c r="G543" s="60" t="s">
         <v>2607</v>
       </c>
     </row>
@@ -21082,7 +22324,7 @@
       <c r="A545" s="2">
         <v>521</v>
       </c>
-      <c r="B545" s="94" t="s">
+      <c r="B545" s="74" t="s">
         <v>2613</v>
       </c>
       <c r="C545" s="4" t="s">
@@ -21174,13 +22416,13 @@
       <c r="A549" s="2">
         <v>525</v>
       </c>
-      <c r="B549" s="95" t="s">
+      <c r="B549" s="75" t="s">
         <v>2631</v>
       </c>
       <c r="C549" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D549" s="65" t="s">
+      <c r="D549" s="55" t="s">
         <v>2632</v>
       </c>
       <c r="E549" s="11" t="s">
@@ -21243,7 +22485,7 @@
       <c r="A552" s="2">
         <v>528</v>
       </c>
-      <c r="B552" s="93" t="s">
+      <c r="B552" s="73" t="s">
         <v>2646</v>
       </c>
       <c r="C552" s="5" t="s">
@@ -21266,7 +22508,7 @@
       <c r="A553" s="2">
         <v>529</v>
       </c>
-      <c r="B553" s="94" t="s">
+      <c r="B553" s="74" t="s">
         <v>2651</v>
       </c>
       <c r="C553" s="4" t="s">
@@ -21289,7 +22531,7 @@
       <c r="A554" s="2">
         <v>530</v>
       </c>
-      <c r="B554" s="93" t="s">
+      <c r="B554" s="73" t="s">
         <v>2656</v>
       </c>
       <c r="C554" s="5" t="s">
@@ -21312,7 +22554,7 @@
       <c r="A555" s="2">
         <v>531</v>
       </c>
-      <c r="B555" s="94" t="s">
+      <c r="B555" s="74" t="s">
         <v>2661</v>
       </c>
       <c r="C555" s="4" t="s">
@@ -21335,7 +22577,7 @@
       <c r="A556" s="2">
         <v>532</v>
       </c>
-      <c r="B556" s="94" t="s">
+      <c r="B556" s="74" t="s">
         <v>2666</v>
       </c>
       <c r="C556" s="5" t="s">
@@ -21358,7 +22600,7 @@
       <c r="A557" s="2">
         <v>533</v>
       </c>
-      <c r="B557" s="94" t="s">
+      <c r="B557" s="74" t="s">
         <v>2670</v>
       </c>
       <c r="C557" s="4" t="s">
@@ -21423,67 +22665,1968 @@
         <v>2684</v>
       </c>
     </row>
+    <row r="560" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A560" s="2">
+        <v>536</v>
+      </c>
+      <c r="B560" s="3" t="s">
+        <v>2685</v>
+      </c>
+      <c r="C560" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D560" s="64" t="s">
+        <v>2686</v>
+      </c>
+      <c r="E560" s="24" t="s">
+        <v>2687</v>
+      </c>
+      <c r="F560" s="15" t="s">
+        <v>2688</v>
+      </c>
+      <c r="G560" s="14" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A561" s="2">
+        <v>537</v>
+      </c>
+      <c r="B561" s="3" t="s">
+        <v>2690</v>
+      </c>
+      <c r="C561" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D561" s="4" t="s">
+        <v>2691</v>
+      </c>
+      <c r="E561" s="4" t="s">
+        <v>2692</v>
+      </c>
+      <c r="F561" s="12" t="s">
+        <v>2693</v>
+      </c>
+      <c r="G561" s="4" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="562" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A562" s="2">
+        <v>538</v>
+      </c>
+      <c r="B562" s="3" t="s">
+        <v>2695</v>
+      </c>
+      <c r="C562" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D562" s="21" t="s">
+        <v>2696</v>
+      </c>
+      <c r="E562" s="5" t="s">
+        <v>2697</v>
+      </c>
+      <c r="F562" s="15" t="s">
+        <v>2698</v>
+      </c>
+      <c r="G562" s="21" t="s">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="563" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A563" s="2">
+        <v>539</v>
+      </c>
+      <c r="B563" s="3" t="s">
+        <v>2700</v>
+      </c>
+      <c r="C563" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D563" s="4" t="s">
+        <v>2701</v>
+      </c>
+      <c r="E563" s="4" t="s">
+        <v>2702</v>
+      </c>
+      <c r="F563" s="31" t="s">
+        <v>2703</v>
+      </c>
+      <c r="G563" s="4" t="s">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="564" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A564" s="2">
+        <v>540</v>
+      </c>
+      <c r="B564" s="3" t="s">
+        <v>2705</v>
+      </c>
+      <c r="C564" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D564" s="21" t="s">
+        <v>2706</v>
+      </c>
+      <c r="E564" s="17" t="s">
+        <v>2707</v>
+      </c>
+      <c r="F564" s="8" t="s">
+        <v>2708</v>
+      </c>
+      <c r="G564" s="5" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="565" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A565" s="2">
+        <v>541</v>
+      </c>
+      <c r="B565" s="3" t="s">
+        <v>2710</v>
+      </c>
+      <c r="C565" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D565" s="10" t="s">
+        <v>2711</v>
+      </c>
+      <c r="E565" s="56" t="s">
+        <v>2712</v>
+      </c>
+      <c r="F565" s="12" t="s">
+        <v>2713</v>
+      </c>
+      <c r="G565" s="11" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="566" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A566" s="2">
+        <v>542</v>
+      </c>
+      <c r="B566" s="3" t="s">
+        <v>2715</v>
+      </c>
+      <c r="C566" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D566" s="15" t="s">
+        <v>2716</v>
+      </c>
+      <c r="E566" s="5" t="s">
+        <v>2717</v>
+      </c>
+      <c r="F566" s="5" t="s">
+        <v>2718</v>
+      </c>
+      <c r="G566" s="5" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="567" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A567" s="2">
+        <v>543</v>
+      </c>
+      <c r="B567" s="3" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C567" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D567" s="11" t="s">
+        <v>2721</v>
+      </c>
+      <c r="E567" s="12" t="s">
+        <v>2722</v>
+      </c>
+      <c r="F567" s="59" t="s">
+        <v>2723</v>
+      </c>
+      <c r="G567" s="4" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="568" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A568" s="2">
+        <v>544</v>
+      </c>
+      <c r="B568" s="3" t="s">
+        <v>2725</v>
+      </c>
+      <c r="C568" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D568" s="5" t="s">
+        <v>2726</v>
+      </c>
+      <c r="E568" s="16" t="s">
+        <v>2727</v>
+      </c>
+      <c r="F568" s="26" t="s">
+        <v>2728</v>
+      </c>
+      <c r="G568" s="7" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="569" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A569" s="2">
+        <v>545</v>
+      </c>
+      <c r="B569" s="3" t="s">
+        <v>2730</v>
+      </c>
+      <c r="C569" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D569" s="4" t="s">
+        <v>2731</v>
+      </c>
+      <c r="E569" s="20" t="s">
+        <v>2732</v>
+      </c>
+      <c r="F569" s="31" t="s">
+        <v>2733</v>
+      </c>
+      <c r="G569" s="61" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="570" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A570" s="78">
+        <v>546</v>
+      </c>
+      <c r="B570" s="80" t="s">
+        <v>2735</v>
+      </c>
+      <c r="C570" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="D570" s="102" t="s">
+        <v>2736</v>
+      </c>
+      <c r="E570" s="86" t="s">
+        <v>2738</v>
+      </c>
+      <c r="F570" s="94" t="s">
+        <v>2739</v>
+      </c>
+      <c r="G570" s="76" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="571" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A571" s="79"/>
+      <c r="B571" s="81"/>
+      <c r="C571" s="87"/>
+      <c r="D571" s="53" t="s">
+        <v>2737</v>
+      </c>
+      <c r="E571" s="87"/>
+      <c r="F571" s="95"/>
+      <c r="G571" s="77"/>
+    </row>
+    <row r="572" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A572" s="2">
+        <v>547</v>
+      </c>
+      <c r="B572" s="3" t="s">
+        <v>2741</v>
+      </c>
+      <c r="C572" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D572" s="31" t="s">
+        <v>2742</v>
+      </c>
+      <c r="E572" s="60" t="s">
+        <v>2743</v>
+      </c>
+      <c r="F572" s="30" t="s">
+        <v>2744</v>
+      </c>
+      <c r="G572" s="4" t="s">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="573" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A573" s="2">
+        <v>548</v>
+      </c>
+      <c r="B573" s="3" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C573" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D573" s="14" t="s">
+        <v>2747</v>
+      </c>
+      <c r="E573" s="5" t="s">
+        <v>2748</v>
+      </c>
+      <c r="F573" s="5" t="s">
+        <v>2749</v>
+      </c>
+      <c r="G573" s="24" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A574" s="2">
+        <v>549</v>
+      </c>
+      <c r="B574" s="3" t="s">
+        <v>2751</v>
+      </c>
+      <c r="C574" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D574" s="4" t="s">
+        <v>2752</v>
+      </c>
+      <c r="E574" s="4" t="s">
+        <v>2753</v>
+      </c>
+      <c r="F574" s="4" t="s">
+        <v>2754</v>
+      </c>
+      <c r="G574" s="4" t="s">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="575" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A575" s="2">
+        <v>550</v>
+      </c>
+      <c r="B575" s="3" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C575" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D575" s="64" t="s">
+        <v>2757</v>
+      </c>
+      <c r="E575" s="8" t="s">
+        <v>2758</v>
+      </c>
+      <c r="F575" s="14" t="s">
+        <v>2759</v>
+      </c>
+      <c r="G575" s="5" t="s">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="576" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A576" s="2">
+        <v>551</v>
+      </c>
+      <c r="B576" s="3" t="s">
+        <v>2761</v>
+      </c>
+      <c r="C576" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D576" s="4" t="s">
+        <v>2762</v>
+      </c>
+      <c r="E576" s="4" t="s">
+        <v>2763</v>
+      </c>
+      <c r="F576" s="4" t="s">
+        <v>1848</v>
+      </c>
+      <c r="G576" s="31" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="577" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A577" s="2">
+        <v>552</v>
+      </c>
+      <c r="B577" s="3" t="s">
+        <v>2765</v>
+      </c>
+      <c r="C577" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D577" s="5" t="s">
+        <v>2766</v>
+      </c>
+      <c r="E577" s="5" t="s">
+        <v>2767</v>
+      </c>
+      <c r="F577" s="8" t="s">
+        <v>2768</v>
+      </c>
+      <c r="G577" s="13" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="578" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A578" s="2">
+        <v>553</v>
+      </c>
+      <c r="B578" s="3" t="s">
+        <v>2770</v>
+      </c>
+      <c r="C578" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D578" s="55" t="s">
+        <v>2771</v>
+      </c>
+      <c r="E578" s="4" t="s">
+        <v>2772</v>
+      </c>
+      <c r="F578" s="59" t="s">
+        <v>2773</v>
+      </c>
+      <c r="G578" s="12" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="579" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A579" s="2">
+        <v>554</v>
+      </c>
+      <c r="B579" s="3" t="s">
+        <v>2775</v>
+      </c>
+      <c r="C579" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D579" s="5" t="s">
+        <v>2776</v>
+      </c>
+      <c r="E579" s="5" t="s">
+        <v>2777</v>
+      </c>
+      <c r="F579" s="26" t="s">
+        <v>2778</v>
+      </c>
+      <c r="G579" s="5" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="580" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A580" s="2">
+        <v>555</v>
+      </c>
+      <c r="B580" s="3" t="s">
+        <v>2780</v>
+      </c>
+      <c r="C580" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D580" s="4" t="s">
+        <v>2781</v>
+      </c>
+      <c r="E580" s="20" t="s">
+        <v>2782</v>
+      </c>
+      <c r="F580" s="30" t="s">
+        <v>2783</v>
+      </c>
+      <c r="G580" s="55" t="s">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="581" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A581" s="2">
+        <v>556</v>
+      </c>
+      <c r="B581" s="3" t="s">
+        <v>2785</v>
+      </c>
+      <c r="C581" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D581" s="15" t="s">
+        <v>2786</v>
+      </c>
+      <c r="E581" s="21" t="s">
+        <v>2787</v>
+      </c>
+      <c r="F581" s="26" t="s">
+        <v>2788</v>
+      </c>
+      <c r="G581" s="29" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="582" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A582" s="2">
+        <v>557</v>
+      </c>
+      <c r="B582" s="3" t="s">
+        <v>2790</v>
+      </c>
+      <c r="C582" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D582" s="58" t="s">
+        <v>2791</v>
+      </c>
+      <c r="E582" s="4" t="s">
+        <v>2792</v>
+      </c>
+      <c r="F582" s="20" t="s">
+        <v>2793</v>
+      </c>
+      <c r="G582" s="9" t="s">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="583" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A583" s="2">
+        <v>558</v>
+      </c>
+      <c r="B583" s="74" t="s">
+        <v>2795</v>
+      </c>
+      <c r="C583" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D583" s="5" t="s">
+        <v>2796</v>
+      </c>
+      <c r="E583" s="5" t="s">
+        <v>2797</v>
+      </c>
+      <c r="F583" s="5" t="s">
+        <v>2798</v>
+      </c>
+      <c r="G583" s="21" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="584" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A584" s="2">
+        <v>559</v>
+      </c>
+      <c r="B584" s="3" t="s">
+        <v>2800</v>
+      </c>
+      <c r="C584" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D584" s="31" t="s">
+        <v>2801</v>
+      </c>
+      <c r="E584" s="4" t="s">
+        <v>2802</v>
+      </c>
+      <c r="F584" s="20" t="s">
+        <v>2803</v>
+      </c>
+      <c r="G584" s="4" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="585" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A585" s="2">
+        <v>560</v>
+      </c>
+      <c r="B585" s="74" t="s">
+        <v>2805</v>
+      </c>
+      <c r="C585" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D585" s="5" t="s">
+        <v>2806</v>
+      </c>
+      <c r="E585" s="5" t="s">
+        <v>2807</v>
+      </c>
+      <c r="F585" s="5" t="s">
+        <v>2808</v>
+      </c>
+      <c r="G585" s="8" t="s">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="586" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A586" s="2">
+        <v>561</v>
+      </c>
+      <c r="B586" s="3" t="s">
+        <v>2810</v>
+      </c>
+      <c r="C586" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D586" s="4" t="s">
+        <v>2811</v>
+      </c>
+      <c r="E586" s="4" t="s">
+        <v>2812</v>
+      </c>
+      <c r="F586" s="9" t="s">
+        <v>2813</v>
+      </c>
+      <c r="G586" s="31" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="587" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A587" s="2">
+        <v>562</v>
+      </c>
+      <c r="B587" s="75" t="s">
+        <v>2815</v>
+      </c>
+      <c r="C587" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D587" s="5" t="s">
+        <v>2816</v>
+      </c>
+      <c r="E587" s="5" t="s">
+        <v>2817</v>
+      </c>
+      <c r="F587" s="13" t="s">
+        <v>2818</v>
+      </c>
+      <c r="G587" s="5" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="588" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A588" s="2">
+        <v>563</v>
+      </c>
+      <c r="B588" s="74" t="s">
+        <v>2820</v>
+      </c>
+      <c r="C588" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D588" s="4" t="s">
+        <v>2821</v>
+      </c>
+      <c r="E588" s="12" t="s">
+        <v>2822</v>
+      </c>
+      <c r="F588" s="4" t="s">
+        <v>2823</v>
+      </c>
+      <c r="G588" s="18" t="s">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="589" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A589" s="2">
+        <v>564</v>
+      </c>
+      <c r="B589" s="74" t="s">
+        <v>2825</v>
+      </c>
+      <c r="C589" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D589" s="15" t="s">
+        <v>2826</v>
+      </c>
+      <c r="E589" s="21" t="s">
+        <v>2827</v>
+      </c>
+      <c r="F589" s="5" t="s">
+        <v>2828</v>
+      </c>
+      <c r="G589" s="24" t="s">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="590" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A590" s="2">
+        <v>565</v>
+      </c>
+      <c r="B590" s="3" t="s">
+        <v>2830</v>
+      </c>
+      <c r="C590" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D590" s="18" t="s">
+        <v>2831</v>
+      </c>
+      <c r="E590" s="19" t="s">
+        <v>2832</v>
+      </c>
+      <c r="F590" s="4" t="s">
+        <v>2833</v>
+      </c>
+      <c r="G590" s="4" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="591" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A591" s="2">
+        <v>566</v>
+      </c>
+      <c r="B591" s="3" t="s">
+        <v>2835</v>
+      </c>
+      <c r="C591" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D591" s="5" t="s">
+        <v>2836</v>
+      </c>
+      <c r="E591" s="5" t="s">
+        <v>2837</v>
+      </c>
+      <c r="F591" s="5" t="s">
+        <v>2838</v>
+      </c>
+      <c r="G591" s="5" t="s">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="592" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A592" s="2">
+        <v>567</v>
+      </c>
+      <c r="B592" s="74" t="s">
+        <v>2840</v>
+      </c>
+      <c r="C592" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D592" s="19" t="s">
+        <v>2841</v>
+      </c>
+      <c r="E592" s="4" t="s">
+        <v>2842</v>
+      </c>
+      <c r="F592" s="4" t="s">
+        <v>2843</v>
+      </c>
+      <c r="G592" s="59" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="593" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A593" s="2">
+        <v>568</v>
+      </c>
+      <c r="B593" s="74" t="s">
+        <v>2845</v>
+      </c>
+      <c r="C593" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D593" s="5" t="s">
+        <v>2846</v>
+      </c>
+      <c r="E593" s="21" t="s">
+        <v>2847</v>
+      </c>
+      <c r="F593" s="5" t="s">
+        <v>2848</v>
+      </c>
+      <c r="G593" s="14" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="594" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A594" s="78">
+        <v>569</v>
+      </c>
+      <c r="B594" s="103" t="s">
+        <v>2850</v>
+      </c>
+      <c r="C594" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="D594" s="84" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E594" s="105" t="s">
+        <v>2852</v>
+      </c>
+      <c r="F594" s="82" t="s">
+        <v>2853</v>
+      </c>
+      <c r="G594" s="50" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A595" s="79"/>
+      <c r="B595" s="104"/>
+      <c r="C595" s="83"/>
+      <c r="D595" s="85"/>
+      <c r="E595" s="106"/>
+      <c r="F595" s="83"/>
+      <c r="G595" s="51" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="596" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A596" s="2">
+        <v>570</v>
+      </c>
+      <c r="B596" s="73" t="s">
+        <v>2856</v>
+      </c>
+      <c r="C596" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D596" s="27" t="s">
+        <v>2857</v>
+      </c>
+      <c r="E596" s="5" t="s">
+        <v>2858</v>
+      </c>
+      <c r="F596" s="5" t="s">
+        <v>2859</v>
+      </c>
+      <c r="G596" s="5" t="s">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="597" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A597" s="2">
+        <v>571</v>
+      </c>
+      <c r="B597" s="3" t="s">
+        <v>2861</v>
+      </c>
+      <c r="C597" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D597" s="58" t="s">
+        <v>2862</v>
+      </c>
+      <c r="E597" s="4" t="s">
+        <v>2863</v>
+      </c>
+      <c r="F597" s="4" t="s">
+        <v>2864</v>
+      </c>
+      <c r="G597" s="4" t="s">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="598" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A598" s="2">
+        <v>572</v>
+      </c>
+      <c r="B598" s="3" t="s">
+        <v>2866</v>
+      </c>
+      <c r="C598" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D598" s="5" t="s">
+        <v>2867</v>
+      </c>
+      <c r="E598" s="14" t="s">
+        <v>2868</v>
+      </c>
+      <c r="F598" s="15" t="s">
+        <v>2869</v>
+      </c>
+      <c r="G598" s="16" t="s">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="599" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A599" s="2">
+        <v>573</v>
+      </c>
+      <c r="B599" s="3" t="s">
+        <v>2871</v>
+      </c>
+      <c r="C599" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D599" s="30" t="s">
+        <v>2872</v>
+      </c>
+      <c r="E599" s="4" t="s">
+        <v>2873</v>
+      </c>
+      <c r="F599" s="4" t="s">
+        <v>2874</v>
+      </c>
+      <c r="G599" s="4" t="s">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="600" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A600" s="2">
+        <v>574</v>
+      </c>
+      <c r="B600" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C600" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D600" s="27" t="s">
+        <v>2876</v>
+      </c>
+      <c r="E600" s="5" t="s">
+        <v>2877</v>
+      </c>
+      <c r="F600" s="7" t="s">
+        <v>2878</v>
+      </c>
+      <c r="G600" s="29" t="s">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="601" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A601" s="78">
+        <v>575</v>
+      </c>
+      <c r="B601" s="103" t="s">
+        <v>2880</v>
+      </c>
+      <c r="C601" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="D601" s="82" t="s">
+        <v>2881</v>
+      </c>
+      <c r="E601" s="107" t="s">
+        <v>2882</v>
+      </c>
+      <c r="F601" s="92" t="s">
+        <v>2883</v>
+      </c>
+      <c r="G601" s="50" t="s">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A602" s="79"/>
+      <c r="B602" s="104"/>
+      <c r="C602" s="83"/>
+      <c r="D602" s="83"/>
+      <c r="E602" s="108"/>
+      <c r="F602" s="93"/>
+      <c r="G602" s="51" t="s">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="603" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A603" s="2">
+        <v>576</v>
+      </c>
+      <c r="B603" s="3" t="s">
+        <v>2886</v>
+      </c>
+      <c r="C603" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D603" s="5" t="s">
+        <v>2887</v>
+      </c>
+      <c r="E603" s="5" t="s">
+        <v>2888</v>
+      </c>
+      <c r="F603" s="5" t="s">
+        <v>2889</v>
+      </c>
+      <c r="G603" s="24" t="s">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="604" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A604" s="2">
+        <v>577</v>
+      </c>
+      <c r="B604" s="3" t="s">
+        <v>2891</v>
+      </c>
+      <c r="C604" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D604" s="4" t="s">
+        <v>2892</v>
+      </c>
+      <c r="E604" s="4" t="s">
+        <v>2893</v>
+      </c>
+      <c r="F604" s="4" t="s">
+        <v>2894</v>
+      </c>
+      <c r="G604" s="4" t="s">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="605" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A605" s="78">
+        <v>578</v>
+      </c>
+      <c r="B605" s="80" t="s">
+        <v>2896</v>
+      </c>
+      <c r="C605" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="D605" s="72" t="s">
+        <v>2897</v>
+      </c>
+      <c r="E605" s="88" t="s">
+        <v>2899</v>
+      </c>
+      <c r="F605" s="86" t="s">
+        <v>2900</v>
+      </c>
+      <c r="G605" s="109" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A606" s="79"/>
+      <c r="B606" s="81"/>
+      <c r="C606" s="87"/>
+      <c r="D606" s="71" t="s">
+        <v>2898</v>
+      </c>
+      <c r="E606" s="89"/>
+      <c r="F606" s="87"/>
+      <c r="G606" s="110"/>
+    </row>
+    <row r="607" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A607" s="2">
+        <v>579</v>
+      </c>
+      <c r="B607" s="3" t="s">
+        <v>2902</v>
+      </c>
+      <c r="C607" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D607" s="4" t="s">
+        <v>2903</v>
+      </c>
+      <c r="E607" s="11" t="s">
+        <v>2904</v>
+      </c>
+      <c r="F607" s="4" t="s">
+        <v>2905</v>
+      </c>
+      <c r="G607" s="57" t="s">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="608" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A608" s="2">
+        <v>580</v>
+      </c>
+      <c r="B608" s="3" t="s">
+        <v>2907</v>
+      </c>
+      <c r="C608" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D608" s="64" t="s">
+        <v>2908</v>
+      </c>
+      <c r="E608" s="24" t="s">
+        <v>2909</v>
+      </c>
+      <c r="F608" s="5" t="s">
+        <v>2910</v>
+      </c>
+      <c r="G608" s="25" t="s">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="609" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A609" s="2">
+        <v>581</v>
+      </c>
+      <c r="B609" s="3" t="s">
+        <v>2912</v>
+      </c>
+      <c r="C609" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D609" s="4" t="s">
+        <v>2913</v>
+      </c>
+      <c r="E609" s="4" t="s">
+        <v>2914</v>
+      </c>
+      <c r="F609" s="4" t="s">
+        <v>2915</v>
+      </c>
+      <c r="G609" s="4" t="s">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="610" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A610" s="2">
+        <v>582</v>
+      </c>
+      <c r="B610" s="3" t="s">
+        <v>2917</v>
+      </c>
+      <c r="C610" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D610" s="5" t="s">
+        <v>2918</v>
+      </c>
+      <c r="E610" s="7" t="s">
+        <v>2919</v>
+      </c>
+      <c r="F610" s="5" t="s">
+        <v>2920</v>
+      </c>
+      <c r="G610" s="8" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="611" spans="1:7" ht="102" x14ac:dyDescent="0.25">
+      <c r="A611" s="2">
+        <v>583</v>
+      </c>
+      <c r="B611" s="3" t="s">
+        <v>2922</v>
+      </c>
+      <c r="C611" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D611" s="4" t="s">
+        <v>2923</v>
+      </c>
+      <c r="E611" s="18" t="s">
+        <v>2924</v>
+      </c>
+      <c r="F611" s="4" t="s">
+        <v>2925</v>
+      </c>
+      <c r="G611" s="4" t="s">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="612" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A612" s="2">
+        <v>584</v>
+      </c>
+      <c r="B612" s="3" t="s">
+        <v>2927</v>
+      </c>
+      <c r="C612" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D612" s="5" t="s">
+        <v>2928</v>
+      </c>
+      <c r="E612" s="16" t="s">
+        <v>2929</v>
+      </c>
+      <c r="F612" s="5" t="s">
+        <v>2930</v>
+      </c>
+      <c r="G612" s="5" t="s">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="613" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A613" s="2">
+        <v>585</v>
+      </c>
+      <c r="B613" s="3" t="s">
+        <v>2932</v>
+      </c>
+      <c r="C613" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D613" s="4" t="s">
+        <v>2933</v>
+      </c>
+      <c r="E613" s="59" t="s">
+        <v>2934</v>
+      </c>
+      <c r="F613" s="4" t="s">
+        <v>2935</v>
+      </c>
+      <c r="G613" s="4" t="s">
+        <v>2936</v>
+      </c>
+    </row>
+    <row r="614" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A614" s="2">
+        <v>586</v>
+      </c>
+      <c r="B614" s="3" t="s">
+        <v>2937</v>
+      </c>
+      <c r="C614" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D614" s="6" t="s">
+        <v>2938</v>
+      </c>
+      <c r="E614" s="5" t="s">
+        <v>2939</v>
+      </c>
+      <c r="F614" s="5" t="s">
+        <v>2940</v>
+      </c>
+      <c r="G614" s="17" t="s">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A615" s="2">
+        <v>587</v>
+      </c>
+      <c r="B615" s="3" t="s">
+        <v>2942</v>
+      </c>
+      <c r="C615" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D615" s="62" t="s">
+        <v>401</v>
+      </c>
+      <c r="E615" s="62" t="s">
+        <v>401</v>
+      </c>
+      <c r="F615" s="62" t="s">
+        <v>401</v>
+      </c>
+      <c r="G615" s="62" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="616" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A616" s="2">
+        <v>588</v>
+      </c>
+      <c r="B616" s="3" t="s">
+        <v>2943</v>
+      </c>
+      <c r="C616" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D616" s="29" t="s">
+        <v>2944</v>
+      </c>
+      <c r="E616" s="13" t="s">
+        <v>2945</v>
+      </c>
+      <c r="F616" s="7" t="s">
+        <v>2946</v>
+      </c>
+      <c r="G616" s="54" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="617" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A617" s="2">
+        <v>589</v>
+      </c>
+      <c r="B617" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="C617" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D617" s="19" t="s">
+        <v>2949</v>
+      </c>
+      <c r="E617" s="18" t="s">
+        <v>2950</v>
+      </c>
+      <c r="F617" s="4" t="s">
+        <v>2951</v>
+      </c>
+      <c r="G617" s="18" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="618" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A618" s="2">
+        <v>590</v>
+      </c>
+      <c r="B618" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="C618" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D618" s="5" t="s">
+        <v>2953</v>
+      </c>
+      <c r="E618" s="15" t="s">
+        <v>2954</v>
+      </c>
+      <c r="F618" s="25" t="s">
+        <v>2955</v>
+      </c>
+      <c r="G618" s="8" t="s">
+        <v>2956</v>
+      </c>
+    </row>
+    <row r="619" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A619" s="2">
+        <v>591</v>
+      </c>
+      <c r="B619" s="3" t="s">
+        <v>2957</v>
+      </c>
+      <c r="C619" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D619" s="9" t="s">
+        <v>2958</v>
+      </c>
+      <c r="E619" s="59" t="s">
+        <v>2959</v>
+      </c>
+      <c r="F619" s="4" t="s">
+        <v>2960</v>
+      </c>
+      <c r="G619" s="9" t="s">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="620" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A620" s="2">
+        <v>592</v>
+      </c>
+      <c r="B620" s="3" t="s">
+        <v>2962</v>
+      </c>
+      <c r="C620" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D620" s="5" t="s">
+        <v>2963</v>
+      </c>
+      <c r="E620" s="14" t="s">
+        <v>2964</v>
+      </c>
+      <c r="F620" s="8" t="s">
+        <v>2965</v>
+      </c>
+      <c r="G620" s="5" t="s">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="621" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A621" s="2">
+        <v>593</v>
+      </c>
+      <c r="B621" s="3" t="s">
+        <v>2967</v>
+      </c>
+      <c r="C621" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D621" s="4" t="s">
+        <v>2968</v>
+      </c>
+      <c r="E621" s="30" t="s">
+        <v>2969</v>
+      </c>
+      <c r="F621" s="9" t="s">
+        <v>2970</v>
+      </c>
+      <c r="G621" s="18" t="s">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="622" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A622" s="2">
+        <v>594</v>
+      </c>
+      <c r="B622" s="3" t="s">
+        <v>2972</v>
+      </c>
+      <c r="C622" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D622" s="5" t="s">
+        <v>2973</v>
+      </c>
+      <c r="E622" s="15" t="s">
+        <v>2974</v>
+      </c>
+      <c r="F622" s="5" t="s">
+        <v>2975</v>
+      </c>
+      <c r="G622" s="54" t="s">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="623" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A623" s="2">
+        <v>595</v>
+      </c>
+      <c r="B623" s="3" t="s">
+        <v>2977</v>
+      </c>
+      <c r="C623" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D623" s="4" t="s">
+        <v>2978</v>
+      </c>
+      <c r="E623" s="4" t="s">
+        <v>2979</v>
+      </c>
+      <c r="F623" s="4" t="s">
+        <v>2980</v>
+      </c>
+      <c r="G623" s="31" t="s">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="624" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A624" s="2">
+        <v>596</v>
+      </c>
+      <c r="B624" s="3" t="s">
+        <v>2982</v>
+      </c>
+      <c r="C624" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D624" s="64" t="s">
+        <v>2983</v>
+      </c>
+      <c r="E624" s="5" t="s">
+        <v>2984</v>
+      </c>
+      <c r="F624" s="5" t="s">
+        <v>2985</v>
+      </c>
+      <c r="G624" s="27" t="s">
+        <v>2986</v>
+      </c>
+    </row>
+    <row r="625" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A625" s="2">
+        <v>597</v>
+      </c>
+      <c r="B625" s="3" t="s">
+        <v>2987</v>
+      </c>
+      <c r="C625" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D625" s="4" t="s">
+        <v>2988</v>
+      </c>
+      <c r="E625" s="60" t="s">
+        <v>2989</v>
+      </c>
+      <c r="F625" s="9" t="s">
+        <v>2990</v>
+      </c>
+      <c r="G625" s="18" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="626" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A626" s="2">
+        <v>598</v>
+      </c>
+      <c r="B626" s="3" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C626" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D626" s="5" t="s">
+        <v>2993</v>
+      </c>
+      <c r="E626" s="5" t="s">
+        <v>2994</v>
+      </c>
+      <c r="F626" s="5" t="s">
+        <v>2995</v>
+      </c>
+      <c r="G626" s="6" t="s">
+        <v>2996</v>
+      </c>
+    </row>
+    <row r="627" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A627" s="2">
+        <v>599</v>
+      </c>
+      <c r="B627" s="75" t="s">
+        <v>2997</v>
+      </c>
+      <c r="C627" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D627" s="4" t="s">
+        <v>2998</v>
+      </c>
+      <c r="E627" s="4" t="s">
+        <v>2999</v>
+      </c>
+      <c r="F627" s="20" t="s">
+        <v>3000</v>
+      </c>
+      <c r="G627" s="61" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="628" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A628" s="2">
+        <v>600</v>
+      </c>
+      <c r="B628" s="75" t="s">
+        <v>3002</v>
+      </c>
+      <c r="C628" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D628" s="5" t="s">
+        <v>3003</v>
+      </c>
+      <c r="E628" s="5" t="s">
+        <v>3004</v>
+      </c>
+      <c r="F628" s="24" t="s">
+        <v>3005</v>
+      </c>
+      <c r="G628" s="5" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="629" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A629" s="2">
+        <v>601</v>
+      </c>
+      <c r="B629" s="3" t="s">
+        <v>3007</v>
+      </c>
+      <c r="C629" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D629" s="10" t="s">
+        <v>3008</v>
+      </c>
+      <c r="E629" s="4" t="s">
+        <v>3009</v>
+      </c>
+      <c r="F629" s="4" t="s">
+        <v>3010</v>
+      </c>
+      <c r="G629" s="4" t="s">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="630" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A630" s="2">
+        <v>602</v>
+      </c>
+      <c r="B630" s="74" t="s">
+        <v>3012</v>
+      </c>
+      <c r="C630" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D630" s="15" t="s">
+        <v>3013</v>
+      </c>
+      <c r="E630" s="24" t="s">
+        <v>3014</v>
+      </c>
+      <c r="F630" s="13" t="s">
+        <v>3015</v>
+      </c>
+      <c r="G630" s="5" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="631" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A631" s="2">
+        <v>603</v>
+      </c>
+      <c r="B631" s="3" t="s">
+        <v>3017</v>
+      </c>
+      <c r="C631" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D631" s="10" t="s">
+        <v>3018</v>
+      </c>
+      <c r="E631" s="9" t="s">
+        <v>3019</v>
+      </c>
+      <c r="F631" s="4" t="s">
+        <v>3020</v>
+      </c>
+      <c r="G631" s="12" t="s">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="632" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A632" s="2">
+        <v>604</v>
+      </c>
+      <c r="B632" s="3" t="s">
+        <v>3022</v>
+      </c>
+      <c r="C632" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D632" s="15" t="s">
+        <v>3023</v>
+      </c>
+      <c r="E632" s="5" t="s">
+        <v>3024</v>
+      </c>
+      <c r="F632" s="13" t="s">
+        <v>3025</v>
+      </c>
+      <c r="G632" s="24" t="s">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="633" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A633" s="2">
+        <v>605</v>
+      </c>
+      <c r="B633" s="74" t="s">
+        <v>3027</v>
+      </c>
+      <c r="C633" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D633" s="4" t="s">
+        <v>3028</v>
+      </c>
+      <c r="E633" s="56" t="s">
+        <v>3029</v>
+      </c>
+      <c r="F633" s="4" t="s">
+        <v>3030</v>
+      </c>
+      <c r="G633" s="60" t="s">
+        <v>3031</v>
+      </c>
+    </row>
+    <row r="634" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A634" s="78">
+        <v>606</v>
+      </c>
+      <c r="B634" s="103" t="s">
+        <v>3032</v>
+      </c>
+      <c r="C634" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="D634" s="112" t="s">
+        <v>3033</v>
+      </c>
+      <c r="E634" s="90" t="s">
+        <v>3034</v>
+      </c>
+      <c r="F634" s="86" t="s">
+        <v>3035</v>
+      </c>
+      <c r="G634" s="52" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A635" s="79"/>
+      <c r="B635" s="104"/>
+      <c r="C635" s="87"/>
+      <c r="D635" s="113"/>
+      <c r="E635" s="91"/>
+      <c r="F635" s="87"/>
+      <c r="G635" s="53" t="s">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="636" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A636" s="2">
+        <v>607</v>
+      </c>
+      <c r="B636" s="3" t="s">
+        <v>3038</v>
+      </c>
+      <c r="C636" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D636" s="4" t="s">
+        <v>3039</v>
+      </c>
+      <c r="E636" s="10" t="s">
+        <v>3040</v>
+      </c>
+      <c r="F636" s="4" t="s">
+        <v>3041</v>
+      </c>
+      <c r="G636" s="4" t="s">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="637" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A637" s="2">
+        <v>608</v>
+      </c>
+      <c r="B637" s="3" t="s">
+        <v>3043</v>
+      </c>
+      <c r="C637" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D637" s="17" t="s">
+        <v>3044</v>
+      </c>
+      <c r="E637" s="5" t="s">
+        <v>3045</v>
+      </c>
+      <c r="F637" s="5" t="s">
+        <v>3046</v>
+      </c>
+      <c r="G637" s="24" t="s">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="638" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A638" s="2">
+        <v>609</v>
+      </c>
+      <c r="B638" s="3" t="s">
+        <v>3048</v>
+      </c>
+      <c r="C638" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D638" s="4" t="s">
+        <v>3049</v>
+      </c>
+      <c r="E638" s="4" t="s">
+        <v>3050</v>
+      </c>
+      <c r="F638" s="31" t="s">
+        <v>3051</v>
+      </c>
+      <c r="G638" s="12" t="s">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="639" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A639" s="78">
+        <v>610</v>
+      </c>
+      <c r="B639" s="80" t="s">
+        <v>3053</v>
+      </c>
+      <c r="C639" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="D639" s="114" t="s">
+        <v>3054</v>
+      </c>
+      <c r="E639" s="86" t="s">
+        <v>3055</v>
+      </c>
+      <c r="F639" s="86" t="s">
+        <v>3056</v>
+      </c>
+      <c r="G639" s="102" t="s">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A640" s="79"/>
+      <c r="B640" s="81"/>
+      <c r="C640" s="87"/>
+      <c r="D640" s="115"/>
+      <c r="E640" s="87"/>
+      <c r="F640" s="87"/>
+      <c r="G640" s="111" t="s">
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="641" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A641" s="2">
+        <v>611</v>
+      </c>
+      <c r="B641" s="74" t="s">
+        <v>3059</v>
+      </c>
+      <c r="C641" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D641" s="4" t="s">
+        <v>3060</v>
+      </c>
+      <c r="E641" s="4" t="s">
+        <v>3061</v>
+      </c>
+      <c r="F641" s="4" t="s">
+        <v>3062</v>
+      </c>
+      <c r="G641" s="60" t="s">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="642" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A642" s="2">
+        <v>612</v>
+      </c>
+      <c r="B642" s="3" t="s">
+        <v>3064</v>
+      </c>
+      <c r="C642" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D642" s="16" t="s">
+        <v>3065</v>
+      </c>
+      <c r="E642" s="5" t="s">
+        <v>3066</v>
+      </c>
+      <c r="F642" s="5" t="s">
+        <v>3067</v>
+      </c>
+      <c r="G642" s="16" t="s">
+        <v>3068</v>
+      </c>
+    </row>
+    <row r="643" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A643" s="2">
+        <v>613</v>
+      </c>
+      <c r="B643" s="75" t="s">
+        <v>3069</v>
+      </c>
+      <c r="C643" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D643" s="4" t="s">
+        <v>3070</v>
+      </c>
+      <c r="E643" s="18" t="s">
+        <v>3071</v>
+      </c>
+      <c r="F643" s="4" t="s">
+        <v>3072</v>
+      </c>
+      <c r="G643" s="4" t="s">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="644" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A644" s="2">
+        <v>614</v>
+      </c>
+      <c r="B644" s="75" t="s">
+        <v>3074</v>
+      </c>
+      <c r="C644" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D644" s="5" t="s">
+        <v>3075</v>
+      </c>
+      <c r="E644" s="5" t="s">
+        <v>3076</v>
+      </c>
+      <c r="F644" s="5" t="s">
+        <v>3077</v>
+      </c>
+      <c r="G644" s="5" t="s">
+        <v>3078</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="124">
-    <mergeCell ref="G502:G503"/>
-    <mergeCell ref="A506:A507"/>
-    <mergeCell ref="B506:B507"/>
-    <mergeCell ref="C506:C507"/>
-    <mergeCell ref="E506:E507"/>
-    <mergeCell ref="F506:F507"/>
-    <mergeCell ref="G506:G507"/>
-    <mergeCell ref="A502:A503"/>
-    <mergeCell ref="B502:B503"/>
-    <mergeCell ref="C502:C503"/>
-    <mergeCell ref="E502:E503"/>
-    <mergeCell ref="F502:F503"/>
-    <mergeCell ref="G487:G488"/>
-    <mergeCell ref="A497:A498"/>
-    <mergeCell ref="B497:B498"/>
-    <mergeCell ref="C497:C498"/>
-    <mergeCell ref="D497:D498"/>
-    <mergeCell ref="E497:E498"/>
-    <mergeCell ref="F497:F498"/>
-    <mergeCell ref="F461:F462"/>
-    <mergeCell ref="A487:A488"/>
-    <mergeCell ref="B487:B488"/>
-    <mergeCell ref="C487:C488"/>
-    <mergeCell ref="E487:E488"/>
-    <mergeCell ref="F487:F488"/>
-    <mergeCell ref="A461:A462"/>
-    <mergeCell ref="B461:B462"/>
-    <mergeCell ref="C461:C462"/>
-    <mergeCell ref="D461:D462"/>
-    <mergeCell ref="E461:E462"/>
-    <mergeCell ref="G382:G383"/>
-    <mergeCell ref="A391:A392"/>
-    <mergeCell ref="B391:B392"/>
-    <mergeCell ref="C391:C392"/>
-    <mergeCell ref="E391:E392"/>
-    <mergeCell ref="F391:F392"/>
-    <mergeCell ref="G391:G392"/>
-    <mergeCell ref="A382:A383"/>
-    <mergeCell ref="B382:B383"/>
-    <mergeCell ref="C382:C383"/>
-    <mergeCell ref="E382:E383"/>
-    <mergeCell ref="F382:F383"/>
-    <mergeCell ref="A374:A377"/>
-    <mergeCell ref="B374:B377"/>
-    <mergeCell ref="C374:C377"/>
-    <mergeCell ref="E374:E377"/>
-    <mergeCell ref="F374:F377"/>
-    <mergeCell ref="G349:G350"/>
-    <mergeCell ref="A355:A357"/>
-    <mergeCell ref="B355:B357"/>
-    <mergeCell ref="C355:C357"/>
-    <mergeCell ref="E355:E357"/>
-    <mergeCell ref="F355:F357"/>
-    <mergeCell ref="G355:G357"/>
-    <mergeCell ref="A349:A350"/>
-    <mergeCell ref="B349:B350"/>
-    <mergeCell ref="C349:C350"/>
-    <mergeCell ref="E349:E350"/>
-    <mergeCell ref="F349:F350"/>
+  <mergeCells count="160">
+    <mergeCell ref="G605:G606"/>
+    <mergeCell ref="A634:A635"/>
+    <mergeCell ref="B634:B635"/>
+    <mergeCell ref="C634:C635"/>
+    <mergeCell ref="D634:D635"/>
+    <mergeCell ref="E634:E635"/>
+    <mergeCell ref="F634:F635"/>
+    <mergeCell ref="A639:A640"/>
+    <mergeCell ref="B639:B640"/>
+    <mergeCell ref="C639:C640"/>
+    <mergeCell ref="D639:D640"/>
+    <mergeCell ref="E639:E640"/>
+    <mergeCell ref="F639:F640"/>
+    <mergeCell ref="A601:A602"/>
+    <mergeCell ref="B601:B602"/>
+    <mergeCell ref="C601:C602"/>
+    <mergeCell ref="D601:D602"/>
+    <mergeCell ref="E601:E602"/>
+    <mergeCell ref="F601:F602"/>
+    <mergeCell ref="A605:A606"/>
+    <mergeCell ref="B605:B606"/>
+    <mergeCell ref="C605:C606"/>
+    <mergeCell ref="E605:E606"/>
+    <mergeCell ref="F605:F606"/>
+    <mergeCell ref="A570:A571"/>
+    <mergeCell ref="B570:B571"/>
+    <mergeCell ref="C570:C571"/>
+    <mergeCell ref="E570:E571"/>
+    <mergeCell ref="F570:F571"/>
+    <mergeCell ref="G570:G571"/>
+    <mergeCell ref="A594:A595"/>
+    <mergeCell ref="B594:B595"/>
+    <mergeCell ref="C594:C595"/>
+    <mergeCell ref="D594:D595"/>
+    <mergeCell ref="E594:E595"/>
+    <mergeCell ref="F594:F595"/>
+    <mergeCell ref="G307:G308"/>
+    <mergeCell ref="A280:A281"/>
+    <mergeCell ref="B280:B281"/>
+    <mergeCell ref="C280:C281"/>
+    <mergeCell ref="E280:E281"/>
+    <mergeCell ref="F280:F281"/>
+    <mergeCell ref="G280:G281"/>
+    <mergeCell ref="A307:A308"/>
+    <mergeCell ref="B307:B308"/>
+    <mergeCell ref="C307:C308"/>
+    <mergeCell ref="E307:E308"/>
+    <mergeCell ref="F307:F308"/>
+    <mergeCell ref="G191:G192"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="E217:E218"/>
+    <mergeCell ref="F217:F218"/>
+    <mergeCell ref="G217:G218"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="B191:B192"/>
+    <mergeCell ref="C191:C192"/>
+    <mergeCell ref="E191:E192"/>
+    <mergeCell ref="F191:F192"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G167:G168"/>
+    <mergeCell ref="A173:A174"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="E173:E174"/>
+    <mergeCell ref="F173:F174"/>
+    <mergeCell ref="G173:G174"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="E167:E168"/>
+    <mergeCell ref="F167:F168"/>
     <mergeCell ref="A147:A148"/>
     <mergeCell ref="B147:B148"/>
     <mergeCell ref="C147:C148"/>
@@ -21508,47 +24651,65 @@
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="E49:E50"/>
     <mergeCell ref="G76:G77"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G167:G168"/>
-    <mergeCell ref="A173:A174"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="C173:C174"/>
-    <mergeCell ref="E173:E174"/>
-    <mergeCell ref="F173:F174"/>
-    <mergeCell ref="G173:G174"/>
-    <mergeCell ref="A167:A168"/>
-    <mergeCell ref="B167:B168"/>
-    <mergeCell ref="C167:C168"/>
-    <mergeCell ref="E167:E168"/>
-    <mergeCell ref="F167:F168"/>
-    <mergeCell ref="G191:G192"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="C217:C218"/>
-    <mergeCell ref="E217:E218"/>
-    <mergeCell ref="F217:F218"/>
-    <mergeCell ref="G217:G218"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="B191:B192"/>
-    <mergeCell ref="C191:C192"/>
-    <mergeCell ref="E191:E192"/>
-    <mergeCell ref="F191:F192"/>
-    <mergeCell ref="G307:G308"/>
-    <mergeCell ref="A280:A281"/>
-    <mergeCell ref="B280:B281"/>
-    <mergeCell ref="C280:C281"/>
-    <mergeCell ref="E280:E281"/>
-    <mergeCell ref="F280:F281"/>
-    <mergeCell ref="G280:G281"/>
-    <mergeCell ref="A307:A308"/>
-    <mergeCell ref="B307:B308"/>
-    <mergeCell ref="C307:C308"/>
-    <mergeCell ref="E307:E308"/>
-    <mergeCell ref="F307:F308"/>
+    <mergeCell ref="A374:A377"/>
+    <mergeCell ref="B374:B377"/>
+    <mergeCell ref="C374:C377"/>
+    <mergeCell ref="E374:E377"/>
+    <mergeCell ref="F374:F377"/>
+    <mergeCell ref="G349:G350"/>
+    <mergeCell ref="A355:A357"/>
+    <mergeCell ref="B355:B357"/>
+    <mergeCell ref="C355:C357"/>
+    <mergeCell ref="E355:E357"/>
+    <mergeCell ref="F355:F357"/>
+    <mergeCell ref="G355:G357"/>
+    <mergeCell ref="A349:A350"/>
+    <mergeCell ref="B349:B350"/>
+    <mergeCell ref="C349:C350"/>
+    <mergeCell ref="E349:E350"/>
+    <mergeCell ref="F349:F350"/>
+    <mergeCell ref="G382:G383"/>
+    <mergeCell ref="A391:A392"/>
+    <mergeCell ref="B391:B392"/>
+    <mergeCell ref="C391:C392"/>
+    <mergeCell ref="E391:E392"/>
+    <mergeCell ref="F391:F392"/>
+    <mergeCell ref="G391:G392"/>
+    <mergeCell ref="A382:A383"/>
+    <mergeCell ref="B382:B383"/>
+    <mergeCell ref="C382:C383"/>
+    <mergeCell ref="E382:E383"/>
+    <mergeCell ref="F382:F383"/>
+    <mergeCell ref="G487:G488"/>
+    <mergeCell ref="A497:A498"/>
+    <mergeCell ref="B497:B498"/>
+    <mergeCell ref="C497:C498"/>
+    <mergeCell ref="D497:D498"/>
+    <mergeCell ref="E497:E498"/>
+    <mergeCell ref="F497:F498"/>
+    <mergeCell ref="F461:F462"/>
+    <mergeCell ref="A487:A488"/>
+    <mergeCell ref="B487:B488"/>
+    <mergeCell ref="C487:C488"/>
+    <mergeCell ref="E487:E488"/>
+    <mergeCell ref="F487:F488"/>
+    <mergeCell ref="A461:A462"/>
+    <mergeCell ref="B461:B462"/>
+    <mergeCell ref="C461:C462"/>
+    <mergeCell ref="D461:D462"/>
+    <mergeCell ref="E461:E462"/>
+    <mergeCell ref="G502:G503"/>
+    <mergeCell ref="A506:A507"/>
+    <mergeCell ref="B506:B507"/>
+    <mergeCell ref="C506:C507"/>
+    <mergeCell ref="E506:E507"/>
+    <mergeCell ref="F506:F507"/>
+    <mergeCell ref="G506:G507"/>
+    <mergeCell ref="A502:A503"/>
+    <mergeCell ref="B502:B503"/>
+    <mergeCell ref="C502:C503"/>
+    <mergeCell ref="E502:E503"/>
+    <mergeCell ref="F502:F503"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21933,38 +25094,38 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="153" x14ac:dyDescent="0.25">
-      <c r="A17" s="52">
+      <c r="A17" s="78">
         <v>137</v>
       </c>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="80" t="s">
         <v>671</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="82" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="28" t="s">
         <v>672</v>
       </c>
-      <c r="E17" s="62" t="s">
+      <c r="E17" s="100" t="s">
         <v>674</v>
       </c>
-      <c r="F17" s="50" t="s">
+      <c r="F17" s="82" t="s">
         <v>675</v>
       </c>
-      <c r="G17" s="50" t="s">
+      <c r="G17" s="82" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="267.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="51"/>
+      <c r="A18" s="79"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="83"/>
       <c r="D18" s="33" t="s">
         <v>673</v>
       </c>
-      <c r="E18" s="63"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
     </row>
     <row r="19" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
